--- a/Frontend/translations.xlsx
+++ b/Frontend/translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigat\OneDrive\Desktop\Technoji\Lands_Time\Landstime_Androidapp\Frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F93A9E6-63B3-4032-8B2E-8DF781283139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25301D29-5456-4C98-B007-DC061276E714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="292">
   <si>
     <t>key</t>
   </si>
@@ -466,6 +466,450 @@
   </si>
   <si>
     <t>మరియు</t>
+  </si>
+  <si>
+    <t>login_invalid_phone_title</t>
+  </si>
+  <si>
+    <t>Invalid Phone Number</t>
+  </si>
+  <si>
+    <t>अमान्य फ़ोन नंबर</t>
+  </si>
+  <si>
+    <t>చెల్లని ఫోన్ నంబర్</t>
+  </si>
+  <si>
+    <t>login_invalid_phone_desc</t>
+  </si>
+  <si>
+    <t>Please enter a valid 10-digit phone number</t>
+  </si>
+  <si>
+    <t>कृपया मान्य 10 अंकों का फ़ोन नंबर दर्ज करें</t>
+  </si>
+  <si>
+    <t>దయచేసి సరైన 10 అంకెల ఫోన్ నంబర్ నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>login_success_title</t>
+  </si>
+  <si>
+    <t>Login Successful! 👋</t>
+  </si>
+  <si>
+    <t>लॉगिन सफल! 👋</t>
+  </si>
+  <si>
+    <t>లాగిన్ విజయవంతం! 👋</t>
+  </si>
+  <si>
+    <t>login_success_desc</t>
+  </si>
+  <si>
+    <t>Welcome back</t>
+  </si>
+  <si>
+    <t>वापसी पर स्वागत है</t>
+  </si>
+  <si>
+    <t>మళ్లీ స్వాగతం</t>
+  </si>
+  <si>
+    <t>login_account_not_found_title</t>
+  </si>
+  <si>
+    <t>Account Not Found</t>
+  </si>
+  <si>
+    <t>खाता नहीं मिला</t>
+  </si>
+  <si>
+    <t>ఖాతా కనబడలేదు</t>
+  </si>
+  <si>
+    <t>login_account_not_found_desc</t>
+  </si>
+  <si>
+    <t>This number is not registered. Please sign up first.</t>
+  </si>
+  <si>
+    <t>यह नंबर पंजीकृत नहीं है। कृपया पहले साइन अप करें।</t>
+  </si>
+  <si>
+    <t>ఈ నంబర్ నమోదు కాలేదు. దయచేసి ముందుగా నమోదు చేసుకోండి.</t>
+  </si>
+  <si>
+    <t>login_phone_not_verified_title</t>
+  </si>
+  <si>
+    <t>फ़ोन सत्यापित नहीं है</t>
+  </si>
+  <si>
+    <t>login_phone_not_verified_desc</t>
+  </si>
+  <si>
+    <t>Please verify your phone number</t>
+  </si>
+  <si>
+    <t>कृपया अपना फ़ोन नंबर सत्यापित करें</t>
+  </si>
+  <si>
+    <t>దయచేసి మీ ఫోన్ నంబర్ ధృవీకరించండి</t>
+  </si>
+  <si>
+    <t>login_failed_title</t>
+  </si>
+  <si>
+    <t>Login Failed</t>
+  </si>
+  <si>
+    <t>लॉगिन असफल</t>
+  </si>
+  <si>
+    <t>లాగిన్ విఫలమైంది</t>
+  </si>
+  <si>
+    <t>login_network_error_title</t>
+  </si>
+  <si>
+    <t>login_network_error_desc</t>
+  </si>
+  <si>
+    <t>Failed to login. Please check your connection.</t>
+  </si>
+  <si>
+    <t>लॉगिन असफल। कृपया कनेक्शन जांचें.</t>
+  </si>
+  <si>
+    <t>లాగిన్ చేయలేకపోయాము. దయచేసి కనెక్షన్ తనిఖీ చేయండి.</t>
+  </si>
+  <si>
+    <t>login_title</t>
+  </si>
+  <si>
+    <t>Let's Sign In...</t>
+  </si>
+  <si>
+    <t>लॉगिन करें...</t>
+  </si>
+  <si>
+    <t>లాగిన్ అవ్వండి...</t>
+  </si>
+  <si>
+    <t>login_subtitle</t>
+  </si>
+  <si>
+    <t>Enter your phone number to access your account</t>
+  </si>
+  <si>
+    <t>अपने खाते तक पहुंचने के लिए अपना फोन नंबर दर्ज करें</t>
+  </si>
+  <si>
+    <t>మీ ఖాతాను ఉపయోగించడానికి మీ ఫోన్ నంబర్ నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>फोन नंबर</t>
+  </si>
+  <si>
+    <t>login_note_registered_phone</t>
+  </si>
+  <si>
+    <t>Note: Make sure you registered this phone number before signing in.</t>
+  </si>
+  <si>
+    <t>नोट: लॉगिन से पहले यह फोन नंबर पंजीकृत होना चाहिए।</t>
+  </si>
+  <si>
+    <t>గమనిక: లాగిన్ అవ్వడానికి ముందు ఈ ఫోన్ నంబర్ నమోదు చేసి ఉండాలి.</t>
+  </si>
+  <si>
+    <t>साइन इन</t>
+  </si>
+  <si>
+    <t>లాగిన్</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>रजिस्टर</t>
+  </si>
+  <si>
+    <t>already_have_account</t>
+  </si>
+  <si>
+    <t>Don't have an account?</t>
+  </si>
+  <si>
+    <t>खाता नहीं है?</t>
+  </si>
+  <si>
+    <t>ఖాతా లేదా?</t>
+  </si>
+  <si>
+    <t>otp_title_enter</t>
+  </si>
+  <si>
+    <t>Enter Verification code</t>
+  </si>
+  <si>
+    <t>सत्यापन कोड दर्ज करें</t>
+  </si>
+  <si>
+    <t>ధృవీకరణ కోడ్ నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>otp_subtitle</t>
+  </si>
+  <si>
+    <t>Please enter 4 digit verification code sent to</t>
+  </si>
+  <si>
+    <t>कृपया भेजा गया 4 अंकों का सत्यापन कोड दर्ज करें</t>
+  </si>
+  <si>
+    <t>మీకు పంపబడిన 4 అంకెల ధృవీకరణ కోడ్ నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>otp_edit</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>संपादित करें</t>
+  </si>
+  <si>
+    <t>సవరించండి</t>
+  </si>
+  <si>
+    <t>otp_timer_prefix</t>
+  </si>
+  <si>
+    <t>otp_didnt_receive</t>
+  </si>
+  <si>
+    <t>Didn't receive OTP?</t>
+  </si>
+  <si>
+    <t>OTP नहीं मिला?</t>
+  </si>
+  <si>
+    <t>OTP అందలేదా?</t>
+  </si>
+  <si>
+    <t>otp_resend</t>
+  </si>
+  <si>
+    <t>Resend Code</t>
+  </si>
+  <si>
+    <t>कोड पुनः भेजें</t>
+  </si>
+  <si>
+    <t>కోడ్ మళ్లీ పంపండి</t>
+  </si>
+  <si>
+    <t>otp_submit</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>सबमिट करें</t>
+  </si>
+  <si>
+    <t>సమర్పించండి</t>
+  </si>
+  <si>
+    <t>alert_invalid_otp_title</t>
+  </si>
+  <si>
+    <t>Invalid OTP</t>
+  </si>
+  <si>
+    <t>अमान्य OTP</t>
+  </si>
+  <si>
+    <t>చెల్లని OTP</t>
+  </si>
+  <si>
+    <t>alert_invalid_otp_desc</t>
+  </si>
+  <si>
+    <t>Please enter complete 4-digit OTP</t>
+  </si>
+  <si>
+    <t>कृपया पूरा 4 अंकों का OTP दर्ज करें</t>
+  </si>
+  <si>
+    <t>దయచేసి పూర్తి 4 అంకెల OTP నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>alert_resend_success_title</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>सफल</t>
+  </si>
+  <si>
+    <t>విజయం</t>
+  </si>
+  <si>
+    <t>alert_resend_success_desc</t>
+  </si>
+  <si>
+    <t>OTP has been resent to your phone number</t>
+  </si>
+  <si>
+    <t>OTP आपके फोन नंबर पर फिर से भेजा गया है</t>
+  </si>
+  <si>
+    <t>OTP మీ ఫోన్ నంబర్‌కు మళ్లీ పంపబడింది</t>
+  </si>
+  <si>
+    <t>alert_resend_failed_title</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>त्रुटि</t>
+  </si>
+  <si>
+    <t>లోపం</t>
+  </si>
+  <si>
+    <t>alert_resend_failed_desc</t>
+  </si>
+  <si>
+    <t>Failed to resend OTP. Please try again.</t>
+  </si>
+  <si>
+    <t>OTP पुनः भेजने में विफल। कृपया पुनः प्रयास करें।</t>
+  </si>
+  <si>
+    <t>OTP మళ్లీ పంపడంలో విఫలమైంది. దయచేసి మళ్లీ ప్రయత్నించండి.</t>
+  </si>
+  <si>
+    <t>alert_verification_failed_title</t>
+  </si>
+  <si>
+    <t>Verification Failed</t>
+  </si>
+  <si>
+    <t>सत्यापन असफल</t>
+  </si>
+  <si>
+    <t>ధృవీకరణ విఫలమైంది</t>
+  </si>
+  <si>
+    <t>alert_verification_failed_desc</t>
+  </si>
+  <si>
+    <t>Invalid OTP. Please try again.</t>
+  </si>
+  <si>
+    <t>अमान्य OTP। कृपया पुनः प्रयास करें।</t>
+  </si>
+  <si>
+    <t>చెల్లని OTP. దయచేసి మళ్లీ ప్రయత్నించండి.</t>
+  </si>
+  <si>
+    <t>alert_verify_error_title</t>
+  </si>
+  <si>
+    <t>alert_verify_error_desc</t>
+  </si>
+  <si>
+    <t>Failed to verify OTP. Please try again.</t>
+  </si>
+  <si>
+    <t>OTP सत्यापन में विफल। कृपया पुनः प्रयास करें।</t>
+  </si>
+  <si>
+    <t>OTP ధృవీకరణ విఫలమైంది. దయచేసి మళ్లీ ప్రయత్నించండి.</t>
+  </si>
+  <si>
+    <t>verify_title_prefix</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>दर्ज करें</t>
+  </si>
+  <si>
+    <t>verify_title_main</t>
+  </si>
+  <si>
+    <t>Verification code</t>
+  </si>
+  <si>
+    <t>सत्यापन कोड</t>
+  </si>
+  <si>
+    <t>ధృవీకరణ కోడ్</t>
+  </si>
+  <si>
+    <t>verify_subtitle_send_otp</t>
+  </si>
+  <si>
+    <t>We will send an OTP to your registered phone number</t>
+  </si>
+  <si>
+    <t>हम आपके पंजीकृत फ़ोन नंबर पर OTP भेजेंगे</t>
+  </si>
+  <si>
+    <t>మీ నమోదు చేసిన ఫోన్ నంబర్‌కు OTP పంపబడుతుంది</t>
+  </si>
+  <si>
+    <t>verify_label_phone</t>
+  </si>
+  <si>
+    <t>verify_button_send_otp</t>
+  </si>
+  <si>
+    <t>Send OTP</t>
+  </si>
+  <si>
+    <t>OTP भेजें</t>
+  </si>
+  <si>
+    <t>OTP పంపండి</t>
+  </si>
+  <si>
+    <t>verify_otp_send_failed_title</t>
+  </si>
+  <si>
+    <t>verify_otp_send_failed_desc</t>
+  </si>
+  <si>
+    <t>Failed to send OTP. Please try again.</t>
+  </si>
+  <si>
+    <t>OTP भेजने में विफल। कृपया पुनः प्रयास करें।</t>
+  </si>
+  <si>
+    <t>OTP పంపడంలో విఫలమైంది. దయచేసి మళ్లీ ప్రయత్నించండి.</t>
+  </si>
+  <si>
+    <t>verify_network_error_desc</t>
+  </si>
+  <si>
+    <t>Failed to send OTP. Please check your connection.</t>
+  </si>
+  <si>
+    <t>OTP भेजने में विफल। कृपया अपना कनेक्शन जांचें।</t>
+  </si>
+  <si>
+    <t>OTP పంపడంలో విఫలమైంది. దయచేసి మీ కనెక్షన్ తనిఖీ చేయండి.</t>
   </si>
 </sst>
 </file>
@@ -840,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4B5E5-1AD3-459E-940E-0D51EC173CF5}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="68" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="68" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1373,7 +1817,606 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="1"/>
+      <c r="A38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>193</v>
+      </c>
+      <c r="B52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" t="s">
+        <v>197</v>
+      </c>
+      <c r="D53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C56" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>209</v>
+      </c>
+      <c r="B57" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" t="s">
+        <v>211</v>
+      </c>
+      <c r="D57" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>213</v>
+      </c>
+      <c r="B58" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" t="s">
+        <v>215</v>
+      </c>
+      <c r="D58" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>218</v>
+      </c>
+      <c r="B60" t="s">
+        <v>219</v>
+      </c>
+      <c r="C60" t="s">
+        <v>220</v>
+      </c>
+      <c r="D60" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" t="s">
+        <v>224</v>
+      </c>
+      <c r="D61" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62" t="s">
+        <v>228</v>
+      </c>
+      <c r="D62" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>230</v>
+      </c>
+      <c r="B63" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" t="s">
+        <v>232</v>
+      </c>
+      <c r="D63" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>234</v>
+      </c>
+      <c r="B64" t="s">
+        <v>235</v>
+      </c>
+      <c r="C64" t="s">
+        <v>236</v>
+      </c>
+      <c r="D64" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65" t="s">
+        <v>239</v>
+      </c>
+      <c r="C65" t="s">
+        <v>240</v>
+      </c>
+      <c r="D65" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>242</v>
+      </c>
+      <c r="B66" t="s">
+        <v>243</v>
+      </c>
+      <c r="C66" t="s">
+        <v>244</v>
+      </c>
+      <c r="D66" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>246</v>
+      </c>
+      <c r="B67" t="s">
+        <v>247</v>
+      </c>
+      <c r="C67" t="s">
+        <v>248</v>
+      </c>
+      <c r="D67" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>250</v>
+      </c>
+      <c r="B68" t="s">
+        <v>251</v>
+      </c>
+      <c r="C68" t="s">
+        <v>252</v>
+      </c>
+      <c r="D68" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>254</v>
+      </c>
+      <c r="B69" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69" t="s">
+        <v>256</v>
+      </c>
+      <c r="D69" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>258</v>
+      </c>
+      <c r="B70" t="s">
+        <v>259</v>
+      </c>
+      <c r="C70" t="s">
+        <v>260</v>
+      </c>
+      <c r="D70" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>262</v>
+      </c>
+      <c r="B71" t="s">
+        <v>247</v>
+      </c>
+      <c r="C71" t="s">
+        <v>248</v>
+      </c>
+      <c r="D71" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>263</v>
+      </c>
+      <c r="B72" t="s">
+        <v>264</v>
+      </c>
+      <c r="C72" t="s">
+        <v>265</v>
+      </c>
+      <c r="D72" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>267</v>
+      </c>
+      <c r="B73" t="s">
+        <v>268</v>
+      </c>
+      <c r="C73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>270</v>
+      </c>
+      <c r="B74" t="s">
+        <v>271</v>
+      </c>
+      <c r="C74" t="s">
+        <v>272</v>
+      </c>
+      <c r="D74" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>274</v>
+      </c>
+      <c r="B75" t="s">
+        <v>275</v>
+      </c>
+      <c r="C75" t="s">
+        <v>276</v>
+      </c>
+      <c r="D75" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>278</v>
+      </c>
+      <c r="B76" t="s">
+        <v>191</v>
+      </c>
+      <c r="C76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>279</v>
+      </c>
+      <c r="B77" t="s">
+        <v>280</v>
+      </c>
+      <c r="C77" t="s">
+        <v>281</v>
+      </c>
+      <c r="D77" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>283</v>
+      </c>
+      <c r="B78" t="s">
+        <v>247</v>
+      </c>
+      <c r="C78" t="s">
+        <v>248</v>
+      </c>
+      <c r="D78" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>284</v>
+      </c>
+      <c r="B79" t="s">
+        <v>285</v>
+      </c>
+      <c r="C79" t="s">
+        <v>286</v>
+      </c>
+      <c r="D79" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>288</v>
+      </c>
+      <c r="B80" t="s">
+        <v>289</v>
+      </c>
+      <c r="C80" t="s">
+        <v>290</v>
+      </c>
+      <c r="D80" t="s">
+        <v>291</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Frontend/translations.xlsx
+++ b/Frontend/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigat\OneDrive\Desktop\Technoji\Lands_Time\Landstime_Androidapp\Frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25301D29-5456-4C98-B007-DC061276E714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F74141-ECCB-4458-848B-BC4ACCA240AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
   </bookViews>

--- a/Frontend/translations.xlsx
+++ b/Frontend/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigat\OneDrive\Desktop\Technoji\Lands_Time\Landstime_Androidapp\Frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F74141-ECCB-4458-848B-BC4ACCA240AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C1F164-31AA-44D1-8B7E-782C06FE42C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="340">
   <si>
     <t>key</t>
   </si>
@@ -910,6 +910,150 @@
   </si>
   <si>
     <t>OTP పంపడంలో విఫలమైంది. దయచేసి మీ కనెక్షన్ తనిఖీ చేయండి.</t>
+  </si>
+  <si>
+    <t>home_banner_title</t>
+  </si>
+  <si>
+    <t>మీ కలల ఆస్తిని కనుగొనండి</t>
+  </si>
+  <si>
+    <t>home_banner_subtitle</t>
+  </si>
+  <si>
+    <t>Explore premium real estate options in Vizag</t>
+  </si>
+  <si>
+    <t>विजाग में प्रीमियम रियल एस्टेट विकल्पों का अन्वेषण करें</t>
+  </si>
+  <si>
+    <t>విజాగ్‌లో ప్రీమియం రియల్ ఎస్టేట్ ఎంపికలను అన్వేషించండి</t>
+  </si>
+  <si>
+    <t>home_search_placeholder</t>
+  </si>
+  <si>
+    <t>Search properties...</t>
+  </si>
+  <si>
+    <t>संपत्तियाँ खोजें...</t>
+  </si>
+  <si>
+    <t>ఆస్తులను వెతకండి...</t>
+  </si>
+  <si>
+    <t>Find Your Dream Property</t>
+  </si>
+  <si>
+    <t>अपनी सपनों की संपत्ति खोजें</t>
+  </si>
+  <si>
+    <t>home_category_sites</t>
+  </si>
+  <si>
+    <t>Sites</t>
+  </si>
+  <si>
+    <t>साइट्स</t>
+  </si>
+  <si>
+    <t>సైట్లు</t>
+  </si>
+  <si>
+    <t>home_category_sites_desc</t>
+  </si>
+  <si>
+    <t>Plot Land</t>
+  </si>
+  <si>
+    <t>प्लॉट भूमि</t>
+  </si>
+  <si>
+    <t>ప్లాట్ భూమి</t>
+  </si>
+  <si>
+    <t>home_category_resorts</t>
+  </si>
+  <si>
+    <t>Resorts</t>
+  </si>
+  <si>
+    <t>रिसॉर्ट्स</t>
+  </si>
+  <si>
+    <t>రిసార్ట్స్</t>
+  </si>
+  <si>
+    <t>home_category_resorts_desc</t>
+  </si>
+  <si>
+    <t>Luxury Getaways</t>
+  </si>
+  <si>
+    <t>लक्ज़री अवकाश स्थल</t>
+  </si>
+  <si>
+    <t>లగ్జరీ విహార ప్రదేశాలు</t>
+  </si>
+  <si>
+    <t>home_category_flats</t>
+  </si>
+  <si>
+    <t>Flats</t>
+  </si>
+  <si>
+    <t>फ्लैट्स</t>
+  </si>
+  <si>
+    <t>ఫ్లాట్స్</t>
+  </si>
+  <si>
+    <t>home_category_flats_desc</t>
+  </si>
+  <si>
+    <t>Investment Land</t>
+  </si>
+  <si>
+    <t>निवेश भूमि</t>
+  </si>
+  <si>
+    <t>పెట్టుబడి భూమి</t>
+  </si>
+  <si>
+    <t>home_category_commercial</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>व्यावसायिक</t>
+  </si>
+  <si>
+    <t>వాణిజ్య</t>
+  </si>
+  <si>
+    <t>home_category_commercial_desc</t>
+  </si>
+  <si>
+    <t>Business Spaces</t>
+  </si>
+  <si>
+    <t>व्यावसायिक स्थान</t>
+  </si>
+  <si>
+    <t>వ్యాపార స్థలాలు</t>
+  </si>
+  <si>
+    <t>home_language_modal_title</t>
+  </si>
+  <si>
+    <t>Select Your Language</t>
+  </si>
+  <si>
+    <t>अपनी भाषा चुनें</t>
+  </si>
+  <si>
+    <t>మీ భాషను ఎంచుకోండి</t>
   </si>
 </sst>
 </file>
@@ -1284,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4B5E5-1AD3-459E-940E-0D51EC173CF5}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="68" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2418,6 +2562,174 @@
         <v>291</v>
       </c>
     </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>292</v>
+      </c>
+      <c r="B81" t="s">
+        <v>302</v>
+      </c>
+      <c r="C81" t="s">
+        <v>303</v>
+      </c>
+      <c r="D81" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>294</v>
+      </c>
+      <c r="B82" t="s">
+        <v>295</v>
+      </c>
+      <c r="C82" t="s">
+        <v>296</v>
+      </c>
+      <c r="D82" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>298</v>
+      </c>
+      <c r="B83" t="s">
+        <v>299</v>
+      </c>
+      <c r="C83" t="s">
+        <v>300</v>
+      </c>
+      <c r="D83" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>304</v>
+      </c>
+      <c r="B84" t="s">
+        <v>305</v>
+      </c>
+      <c r="C84" t="s">
+        <v>306</v>
+      </c>
+      <c r="D84" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>308</v>
+      </c>
+      <c r="B85" t="s">
+        <v>309</v>
+      </c>
+      <c r="C85" t="s">
+        <v>310</v>
+      </c>
+      <c r="D85" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>312</v>
+      </c>
+      <c r="B86" t="s">
+        <v>313</v>
+      </c>
+      <c r="C86" t="s">
+        <v>314</v>
+      </c>
+      <c r="D86" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>316</v>
+      </c>
+      <c r="B87" t="s">
+        <v>317</v>
+      </c>
+      <c r="C87" t="s">
+        <v>318</v>
+      </c>
+      <c r="D87" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>320</v>
+      </c>
+      <c r="B88" t="s">
+        <v>321</v>
+      </c>
+      <c r="C88" t="s">
+        <v>322</v>
+      </c>
+      <c r="D88" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>324</v>
+      </c>
+      <c r="B89" t="s">
+        <v>325</v>
+      </c>
+      <c r="C89" t="s">
+        <v>326</v>
+      </c>
+      <c r="D89" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>328</v>
+      </c>
+      <c r="B90" t="s">
+        <v>329</v>
+      </c>
+      <c r="C90" t="s">
+        <v>330</v>
+      </c>
+      <c r="D90" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>332</v>
+      </c>
+      <c r="B91" t="s">
+        <v>333</v>
+      </c>
+      <c r="C91" t="s">
+        <v>334</v>
+      </c>
+      <c r="D91" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>336</v>
+      </c>
+      <c r="B92" t="s">
+        <v>337</v>
+      </c>
+      <c r="C92" t="s">
+        <v>338</v>
+      </c>
+      <c r="D92" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Frontend/translations.xlsx
+++ b/Frontend/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigat\OneDrive\Desktop\Technoji\Lands_Time\Landstime_Androidapp\Frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C1F164-31AA-44D1-8B7E-782C06FE42C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B319CB0-A69C-40AF-B13D-70E05AF855D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="1202">
   <si>
     <t>key</t>
   </si>
@@ -1054,14 +1054,2608 @@
   </si>
   <si>
     <t>మీ భాషను ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>sidebar_user_name</t>
+  </si>
+  <si>
+    <t>Ravi Kumar</t>
+  </si>
+  <si>
+    <t>रवि कुमार</t>
+  </si>
+  <si>
+    <t>రవి కుమార్</t>
+  </si>
+  <si>
+    <t>sidebar_user_phone</t>
+  </si>
+  <si>
+    <t>sidebar_menu_home</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>होम</t>
+  </si>
+  <si>
+    <t>హోమ్</t>
+  </si>
+  <si>
+    <t>sidebar_menu_nearby</t>
+  </si>
+  <si>
+    <t>Nearby</t>
+  </si>
+  <si>
+    <t>आस-पास</t>
+  </si>
+  <si>
+    <t>సమీపంలోని</t>
+  </si>
+  <si>
+    <t>sidebar_menu_billing</t>
+  </si>
+  <si>
+    <t>Billing Details</t>
+  </si>
+  <si>
+    <t>बिलिंग विवरण</t>
+  </si>
+  <si>
+    <t>బిల్లింగ్ వివరాలు</t>
+  </si>
+  <si>
+    <t>sidebar_menu_interior</t>
+  </si>
+  <si>
+    <t>Interior Design</t>
+  </si>
+  <si>
+    <t>इंटीरियर डिज़ाइन</t>
+  </si>
+  <si>
+    <t>ఇంటీరియర్ డిజైన్</t>
+  </si>
+  <si>
+    <t>sidebar_menu_vaastu</t>
+  </si>
+  <si>
+    <t>Vaastu Guidelines</t>
+  </si>
+  <si>
+    <t>वास्तु दिशानिर्देश</t>
+  </si>
+  <si>
+    <t>వాస్తు మార్గదర్శకాలు</t>
+  </si>
+  <si>
+    <t>sidebar_menu_saved</t>
+  </si>
+  <si>
+    <t>Saved</t>
+  </si>
+  <si>
+    <t>सेव किए गए</t>
+  </si>
+  <si>
+    <t>సేవ్ చేసినవి</t>
+  </si>
+  <si>
+    <t>sidebar_menu_chat</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>चैट</t>
+  </si>
+  <si>
+    <t>చాట్</t>
+  </si>
+  <si>
+    <t>sidebar_menu_notifications</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>सूचनाएं</t>
+  </si>
+  <si>
+    <t>నోటిఫికేషన్లు</t>
+  </si>
+  <si>
+    <t>sidebar_menu_settings</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>सेटिंग्स</t>
+  </si>
+  <si>
+    <t>సెట్టింగ్స్</t>
+  </si>
+  <si>
+    <t>sidebar_menu_logout</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>लॉगआउट</t>
+  </si>
+  <si>
+    <t>లాగౌట్</t>
+  </si>
+  <si>
+    <t>sidebar_logout_confirm_title</t>
+  </si>
+  <si>
+    <t>sidebar_logout_confirm_desc</t>
+  </si>
+  <si>
+    <t>Are you sure you want to logout?</t>
+  </si>
+  <si>
+    <t>क्या आप वाकई लॉगआउट करना चाहते हैं?</t>
+  </si>
+  <si>
+    <t>మీరు నిజంగా లాగౌట్ కావాలనుకుంటున్నారా?</t>
+  </si>
+  <si>
+    <t>sidebar_logout_yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>हाँ</t>
+  </si>
+  <si>
+    <t>అవును</t>
+  </si>
+  <si>
+    <t>sidebar_logout_no</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>नहीं</t>
+  </si>
+  <si>
+    <t>కాదు</t>
+  </si>
+  <si>
+    <t>vaastu_direction_title</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>तत्व</t>
+  </si>
+  <si>
+    <t>తత్వం</t>
+  </si>
+  <si>
+    <t>vaastu_direction_deity</t>
+  </si>
+  <si>
+    <t>Deity</t>
+  </si>
+  <si>
+    <t>देवता</t>
+  </si>
+  <si>
+    <t>దేవత</t>
+  </si>
+  <si>
+    <t>vaastu_section_benefits</t>
+  </si>
+  <si>
+    <t>Benefits</t>
+  </si>
+  <si>
+    <t>लाभ</t>
+  </si>
+  <si>
+    <t>ప్రయోజనాలు</t>
+  </si>
+  <si>
+    <t>vaastu_section_ideal_placements</t>
+  </si>
+  <si>
+    <t>Ideal Placements</t>
+  </si>
+  <si>
+    <t>आदर्श स्थान</t>
+  </si>
+  <si>
+    <t>అనుకూల స్థానాలు</t>
+  </si>
+  <si>
+    <t>vaastu_section_avoid</t>
+  </si>
+  <si>
+    <t>Avoid</t>
+  </si>
+  <si>
+    <t>परहेज करें</t>
+  </si>
+  <si>
+    <t>తప్పించాలి</t>
+  </si>
+  <si>
+    <t>vaastu_dos_title</t>
+  </si>
+  <si>
+    <t>Vaastu Do's</t>
+  </si>
+  <si>
+    <t>वास्तु के करें</t>
+  </si>
+  <si>
+    <t>వాస్తు చేయవలసినవి</t>
+  </si>
+  <si>
+    <t>vaastu_donts_title</t>
+  </si>
+  <si>
+    <t>Vaastu Don'ts</t>
+  </si>
+  <si>
+    <t>वास्तु के न करें</t>
+  </si>
+  <si>
+    <t>వాస్తు చేయకూడనివి</t>
+  </si>
+  <si>
+    <t>vaastu_do_1</t>
+  </si>
+  <si>
+    <t>Avoid sleeping with feet towards south</t>
+  </si>
+  <si>
+    <t>दक्षिण दिशा की ओर पैर करके न सोएं</t>
+  </si>
+  <si>
+    <t>దక్షిణ దిశ వైపు కాళ్లు పెట్టి నిద్రించవద్దు</t>
+  </si>
+  <si>
+    <t>vaastu_do_2</t>
+  </si>
+  <si>
+    <t>Ensure proper ventilation and natural light</t>
+  </si>
+  <si>
+    <t>उचित वेंटिलेशन और प्राकृतिक रोशनी सुनिश्चित करें</t>
+  </si>
+  <si>
+    <t>సరైన గాలి ప్రసరణ మరియు సహజ కాంతిని నిర్ధారించండి</t>
+  </si>
+  <si>
+    <t>vaastu_do_3</t>
+  </si>
+  <si>
+    <t>Use light and soothing colors</t>
+  </si>
+  <si>
+    <t>हल्के और सुकून देने वाले रंगों का उपयोग करें</t>
+  </si>
+  <si>
+    <t>తేలికపాటి మరియు శాంతియుత రంగులు ఉపయోగించండి</t>
+  </si>
+  <si>
+    <t>vaastu_do_4</t>
+  </si>
+  <si>
+    <t>Plant trees on South and West sides</t>
+  </si>
+  <si>
+    <t>दक्षिण और पश्चिम दिशा में पेड़ लगाएं</t>
+  </si>
+  <si>
+    <t>దక్షిణ మరియు పడమర వైపులా చెట్లు నాటండి</t>
+  </si>
+  <si>
+    <t>vaastu_do_5</t>
+  </si>
+  <si>
+    <t>Use quality materials for construction</t>
+  </si>
+  <si>
+    <t>निर्माण के लिए गुणवत्ता वाली सामग्री का उपयोग करें</t>
+  </si>
+  <si>
+    <t>నిర్మాణానికి నాణ్యమైన పదార్థాలు ఉపయోగించండి</t>
+  </si>
+  <si>
+    <t>vaastu_do_6</t>
+  </si>
+  <si>
+    <t>Maintain regular prayer and meditation</t>
+  </si>
+  <si>
+    <t>नियमित प्रार्थना और ध्यान रखें</t>
+  </si>
+  <si>
+    <t>నియమిత ప్రార్థన మరియు ధ్యానం కొనసాగించండి</t>
+  </si>
+  <si>
+    <t>vaastu_do_7</t>
+  </si>
+  <si>
+    <t>Keep books organized and clean</t>
+  </si>
+  <si>
+    <t>किताबें व्यवस्थित और साफ रखें</t>
+  </si>
+  <si>
+    <t>పుస్తకాలను క్రమంగా మరియు శుభ్రంగా ఉంచండి</t>
+  </si>
+  <si>
+    <t>vaastu_do_8</t>
+  </si>
+  <si>
+    <t>Keep water storage in North or Northeast</t>
+  </si>
+  <si>
+    <t>पानी का भंडारण उत्तर या उत्तर-पूर्व में रखें</t>
+  </si>
+  <si>
+    <t>నీటి నిల్వను ఉత్తరం లేదా ఈశాన్యంలో ఉంచండి</t>
+  </si>
+  <si>
+    <t>vaastu_do_9</t>
+  </si>
+  <si>
+    <t>Face East or North while cooking or studying</t>
+  </si>
+  <si>
+    <t>पकाते या पढ़ते समय पूर्व या उत्तर की ओर मुख रखें</t>
+  </si>
+  <si>
+    <t>వంట చేయడం లేదా చదవడం సమయంలో తూర్పు లేదా ఉత్తరానికి ముఖం పెట్టండి</t>
+  </si>
+  <si>
+    <t>vaastu_dont_1</t>
+  </si>
+  <si>
+    <t>Don’t place toilets in Northeast corner</t>
+  </si>
+  <si>
+    <t>उत्तर-पूर्व कोने में शौचालय न रखें</t>
+  </si>
+  <si>
+    <t>ఈశాన్య మూలలో టాయిలెట్ పెట్టవద్దు</t>
+  </si>
+  <si>
+    <t>vaastu_dont_2</t>
+  </si>
+  <si>
+    <t>vaastu_dont_3</t>
+  </si>
+  <si>
+    <t>Don’t keep broken or unused items</t>
+  </si>
+  <si>
+    <t>टूटे या अनुपयोगी सामान न रखें</t>
+  </si>
+  <si>
+    <t>పగిలిన లేదా ఉపయోగించని వస్తువులు ఉంచవద్దు</t>
+  </si>
+  <si>
+    <t>vaastu_dont_4</t>
+  </si>
+  <si>
+    <t>Avoid dark colors in Northeast</t>
+  </si>
+  <si>
+    <t>उत्तर-पूर्व में गहरे रंगों से बचें</t>
+  </si>
+  <si>
+    <t>ఈశాన్యంలో గాఢ రంగులు వాడవద్దు</t>
+  </si>
+  <si>
+    <t>vaastu_dont_5</t>
+  </si>
+  <si>
+    <t>Don’t place mirrors in bedrooms facing bed</t>
+  </si>
+  <si>
+    <t>बिस्तर के सामने दर्पण न रखें</t>
+  </si>
+  <si>
+    <t>బెడ్‌కి ఎదురుగా అద్దాలు పెట్టవద్దు</t>
+  </si>
+  <si>
+    <t>vaastu_dont_6</t>
+  </si>
+  <si>
+    <t>Avoid overhead water tanks in Northeast</t>
+  </si>
+  <si>
+    <t>उत्तर-पूर्व में ओवरहेड टैंक न रखें</t>
+  </si>
+  <si>
+    <t>ఈశాన్యంలో ఓవర్‌హెడ్ వాటర్ ట్యాంక్ పెట్టవద్దు</t>
+  </si>
+  <si>
+    <t>vaastu_dont_7</t>
+  </si>
+  <si>
+    <t>Don’t place kitchen in Northeast corner</t>
+  </si>
+  <si>
+    <t>उत्तर-पूर्व कोने में रसोई न रखें</t>
+  </si>
+  <si>
+    <t>ఈశాన్య మూలలో వంటగది పెట్టవద్దు</t>
+  </si>
+  <si>
+    <t>vaastu_dont_8</t>
+  </si>
+  <si>
+    <t>Avoid keeping thorny plants inside house</t>
+  </si>
+  <si>
+    <t>घर के अंदर कांटेदार पौधे न रखें</t>
+  </si>
+  <si>
+    <t>ఇంట్లో ముల్లె మొక్కలు పెట్టవద్దు</t>
+  </si>
+  <si>
+    <t>vaastu_elements_benefits_label</t>
+  </si>
+  <si>
+    <t>Benefits:</t>
+  </si>
+  <si>
+    <t>लाभ:</t>
+  </si>
+  <si>
+    <t>ప్రయోజనాలు:</t>
+  </si>
+  <si>
+    <t>vaastu_elements_items_label</t>
+  </si>
+  <si>
+    <t>Suitable Items:</t>
+  </si>
+  <si>
+    <t>उपयुक्त वस्तुएं:</t>
+  </si>
+  <si>
+    <t>అనుకూల వస్తువులు:</t>
+  </si>
+  <si>
+    <t>vaastu_element_water_name</t>
+  </si>
+  <si>
+    <t>Water (Jal)</t>
+  </si>
+  <si>
+    <t>जल (पानी)</t>
+  </si>
+  <si>
+    <t>నీరు (జలం)</t>
+  </si>
+  <si>
+    <t>vaastu_element_water_direction</t>
+  </si>
+  <si>
+    <t>North &amp; Northeast</t>
+  </si>
+  <si>
+    <t>उत्तर और उत्तर-पूर्व</t>
+  </si>
+  <si>
+    <t>ఉత్తరం &amp; ఈశాన్యం</t>
+  </si>
+  <si>
+    <t>vaastu_element_water_benefit_1</t>
+  </si>
+  <si>
+    <t>Wealth</t>
+  </si>
+  <si>
+    <t>धन</t>
+  </si>
+  <si>
+    <t>సంపద</t>
+  </si>
+  <si>
+    <t>vaastu_element_water_benefit_2</t>
+  </si>
+  <si>
+    <t>Peace</t>
+  </si>
+  <si>
+    <t>शांति</t>
+  </si>
+  <si>
+    <t>శాంతి</t>
+  </si>
+  <si>
+    <t>vaastu_element_water_benefit_3</t>
+  </si>
+  <si>
+    <t>Prosperity</t>
+  </si>
+  <si>
+    <t>समृद्धि</t>
+  </si>
+  <si>
+    <t>సమృద్ధి</t>
+  </si>
+  <si>
+    <t>vaastu_element_water_item_1</t>
+  </si>
+  <si>
+    <t>Water Storage</t>
+  </si>
+  <si>
+    <t>पानी का भंडारण</t>
+  </si>
+  <si>
+    <t>నీటి నిల్వ</t>
+  </si>
+  <si>
+    <t>vaastu_element_water_item_2</t>
+  </si>
+  <si>
+    <t>Aquarium</t>
+  </si>
+  <si>
+    <t>मछलीघर</t>
+  </si>
+  <si>
+    <t>ఆక్వేరియం</t>
+  </si>
+  <si>
+    <t>vaastu_element_water_item_3</t>
+  </si>
+  <si>
+    <t>Fountain</t>
+  </si>
+  <si>
+    <t>फव्वारा</t>
+  </si>
+  <si>
+    <t>ఫౌంటెన్</t>
+  </si>
+  <si>
+    <t>vaastu_element_water_item_4</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>कुआं</t>
+  </si>
+  <si>
+    <t>బావి</t>
+  </si>
+  <si>
+    <t>vaastu_element_fire_name</t>
+  </si>
+  <si>
+    <t>Fire (Agni)</t>
+  </si>
+  <si>
+    <t>अग्नि (आग)</t>
+  </si>
+  <si>
+    <t>అగ్ని</t>
+  </si>
+  <si>
+    <t>vaastu_element_fire_direction</t>
+  </si>
+  <si>
+    <t>South &amp; Southeast</t>
+  </si>
+  <si>
+    <t>दक्षिण और दक्षिण-पूर्व</t>
+  </si>
+  <si>
+    <t>దక్షిణం &amp; ఆగ్నేయం</t>
+  </si>
+  <si>
+    <t>vaastu_element_fire_benefit_1</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>स्वास्थ्य</t>
+  </si>
+  <si>
+    <t>ఆరోగ్యం</t>
+  </si>
+  <si>
+    <t>vaastu_element_fire_benefit_2</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>ऊर्जा</t>
+  </si>
+  <si>
+    <t>శక్తి</t>
+  </si>
+  <si>
+    <t>vaastu_element_fire_benefit_3</t>
+  </si>
+  <si>
+    <t>Vitality</t>
+  </si>
+  <si>
+    <t>जीवन शक्ति</t>
+  </si>
+  <si>
+    <t>ఉత్సాహం</t>
+  </si>
+  <si>
+    <t>vaastu_element_fire_item_1</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>रसोईघर</t>
+  </si>
+  <si>
+    <t>వంటగది</t>
+  </si>
+  <si>
+    <t>vaastu_element_fire_item_2</t>
+  </si>
+  <si>
+    <t>Electrical Panel</t>
+  </si>
+  <si>
+    <t>विद्युत पैनल</t>
+  </si>
+  <si>
+    <t>విద్యుత్ ప్యానల్</t>
+  </si>
+  <si>
+    <t>vaastu_element_fire_item_3</t>
+  </si>
+  <si>
+    <t>Generator</t>
+  </si>
+  <si>
+    <t>जनरेटर</t>
+  </si>
+  <si>
+    <t>జెనరేటర్</t>
+  </si>
+  <si>
+    <t>vaastu_element_fire_item_4</t>
+  </si>
+  <si>
+    <t>Fireplace</t>
+  </si>
+  <si>
+    <t>चिमनी</t>
+  </si>
+  <si>
+    <t>ఫైర్‌ప్లేస్</t>
+  </si>
+  <si>
+    <t>vaastu_element_air_name</t>
+  </si>
+  <si>
+    <t>Air (Vayu)</t>
+  </si>
+  <si>
+    <t>वायु</t>
+  </si>
+  <si>
+    <t>వాయు</t>
+  </si>
+  <si>
+    <t>vaastu_element_air_direction</t>
+  </si>
+  <si>
+    <t>East &amp; Northwest</t>
+  </si>
+  <si>
+    <t>पूर्व और उत्तर-पश्चिम</t>
+  </si>
+  <si>
+    <t>తూర్పు &amp; వాయవ్య</t>
+  </si>
+  <si>
+    <t>vaastu_element_air_benefit_1</t>
+  </si>
+  <si>
+    <t>Movement</t>
+  </si>
+  <si>
+    <t>गतिशीलता</t>
+  </si>
+  <si>
+    <t>చలనం</t>
+  </si>
+  <si>
+    <t>vaastu_element_air_benefit_2</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>विकास</t>
+  </si>
+  <si>
+    <t>వృద్ధి</t>
+  </si>
+  <si>
+    <t>vaastu_element_air_benefit_3</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>संचार</t>
+  </si>
+  <si>
+    <t>సంవేదన</t>
+  </si>
+  <si>
+    <t>vaastu_element_air_item_1</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>खिड़कियां</t>
+  </si>
+  <si>
+    <t>కిటికీలు</t>
+  </si>
+  <si>
+    <t>vaastu_element_air_item_2</t>
+  </si>
+  <si>
+    <t>Balconies</t>
+  </si>
+  <si>
+    <t>बालकनी</t>
+  </si>
+  <si>
+    <t>బాల్కనీలు</t>
+  </si>
+  <si>
+    <t>vaastu_element_air_item_3</t>
+  </si>
+  <si>
+    <t>Open Spaces</t>
+  </si>
+  <si>
+    <t>खुली जगह</t>
+  </si>
+  <si>
+    <t>తెరిచిన ప్రదేశాలు</t>
+  </si>
+  <si>
+    <t>vaastu_element_air_item_4</t>
+  </si>
+  <si>
+    <t>Ventilation</t>
+  </si>
+  <si>
+    <t>हवादारी</t>
+  </si>
+  <si>
+    <t>వెంటిలేషన్</t>
+  </si>
+  <si>
+    <t>vaastu_element_earth_name</t>
+  </si>
+  <si>
+    <t>Earth (Prithvi)</t>
+  </si>
+  <si>
+    <t>पृथ्वी</t>
+  </si>
+  <si>
+    <t>భూమి</t>
+  </si>
+  <si>
+    <t>vaastu_element_earth_direction</t>
+  </si>
+  <si>
+    <t>West &amp; Southwest</t>
+  </si>
+  <si>
+    <t>पश्चिम और दक्षिण-पश्चिम</t>
+  </si>
+  <si>
+    <t>పడమర &amp; నైరుతి</t>
+  </si>
+  <si>
+    <t>vaastu_element_earth_benefit_1</t>
+  </si>
+  <si>
+    <t>Stability</t>
+  </si>
+  <si>
+    <t>स्थिरता</t>
+  </si>
+  <si>
+    <t>స్థిరత్వం</t>
+  </si>
+  <si>
+    <t>vaastu_element_earth_benefit_2</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>शक्ति</t>
+  </si>
+  <si>
+    <t>బలం</t>
+  </si>
+  <si>
+    <t>vaastu_element_earth_benefit_3</t>
+  </si>
+  <si>
+    <t>Grounding</t>
+  </si>
+  <si>
+    <t>संतुलन</t>
+  </si>
+  <si>
+    <t>ఆధారం</t>
+  </si>
+  <si>
+    <t>vaastu_element_earth_item_1</t>
+  </si>
+  <si>
+    <t>Bedroom</t>
+  </si>
+  <si>
+    <t>शयनकक्ष</t>
+  </si>
+  <si>
+    <t>పడకగది</t>
+  </si>
+  <si>
+    <t>vaastu_element_earth_item_2</t>
+  </si>
+  <si>
+    <t>Heavy Storage</t>
+  </si>
+  <si>
+    <t>भारी भंडारण</t>
+  </si>
+  <si>
+    <t>భారీ నిల్వ</t>
+  </si>
+  <si>
+    <t>vaastu_element_earth_item_3</t>
+  </si>
+  <si>
+    <t>Foundation</t>
+  </si>
+  <si>
+    <t>नींव</t>
+  </si>
+  <si>
+    <t>పునాది</t>
+  </si>
+  <si>
+    <t>vaastu_element_earth_item_4</t>
+  </si>
+  <si>
+    <t>Walls</t>
+  </si>
+  <si>
+    <t>दीवारें</t>
+  </si>
+  <si>
+    <t>గోడలు</t>
+  </si>
+  <si>
+    <t>vaastu_element_space_name</t>
+  </si>
+  <si>
+    <t>Space (Akash)</t>
+  </si>
+  <si>
+    <t>आकाश</t>
+  </si>
+  <si>
+    <t>ఆకాశం</t>
+  </si>
+  <si>
+    <t>vaastu_element_space_direction</t>
+  </si>
+  <si>
+    <t>Center (Brahmasthana)</t>
+  </si>
+  <si>
+    <t>केंद्र (ब्रह्मस्थान)</t>
+  </si>
+  <si>
+    <t>మధ్య భాగం (బ్రహ్మస్థానం)</t>
+  </si>
+  <si>
+    <t>vaastu_element_space_benefit_1</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>సమతుల్యత</t>
+  </si>
+  <si>
+    <t>vaastu_element_space_benefit_2</t>
+  </si>
+  <si>
+    <t>Harmony</t>
+  </si>
+  <si>
+    <t>सामंजस्य</t>
+  </si>
+  <si>
+    <t>సామరస్యం</t>
+  </si>
+  <si>
+    <t>vaastu_element_space_benefit_3</t>
+  </si>
+  <si>
+    <t>Spiritual Growth</t>
+  </si>
+  <si>
+    <t>आध्यात्मिक विकास</t>
+  </si>
+  <si>
+    <t>ఆధ్యాత్మిక అభివృద్ధి</t>
+  </si>
+  <si>
+    <t>vaastu_element_space_item_1</t>
+  </si>
+  <si>
+    <t>Courtyard</t>
+  </si>
+  <si>
+    <t>आंगन</t>
+  </si>
+  <si>
+    <t>ఆవరణ</t>
+  </si>
+  <si>
+    <t>vaastu_element_space_item_2</t>
+  </si>
+  <si>
+    <t>Living Room</t>
+  </si>
+  <si>
+    <t>बैठक कक्ष</t>
+  </si>
+  <si>
+    <t>లివింగ్ రూమ్</t>
+  </si>
+  <si>
+    <t>vaastu_element_space_item_3</t>
+  </si>
+  <si>
+    <t>Central Hall</t>
+  </si>
+  <si>
+    <t>केंद्रीय हॉल</t>
+  </si>
+  <si>
+    <t>మధ్య హాల్</t>
+  </si>
+  <si>
+    <t>vaastu_element_space_item_4</t>
+  </si>
+  <si>
+    <t>Open Area</t>
+  </si>
+  <si>
+    <t>खुला क्षेत्र</t>
+  </si>
+  <si>
+    <t>తెరిచిన ప్రాంతం</t>
+  </si>
+  <si>
+    <t>vaastu_rooms_tips_heading</t>
+  </si>
+  <si>
+    <t>Vaastu Tips</t>
+  </si>
+  <si>
+    <t>वास्तु सुझाव</t>
+  </si>
+  <si>
+    <t>వాస్తు సూచనలు</t>
+  </si>
+  <si>
+    <t>vaastu_room_main_entrance_title</t>
+  </si>
+  <si>
+    <t>Main Entrance</t>
+  </si>
+  <si>
+    <t>मुख्य प्रवेश द्वार</t>
+  </si>
+  <si>
+    <t>ప్రధాన ప్రవేశం</t>
+  </si>
+  <si>
+    <t>vaastu_room_main_entrance_desc</t>
+  </si>
+  <si>
+    <t>The main door should ideally face North, East, or Northeast.</t>
+  </si>
+  <si>
+    <t>मुख्य द्वार उत्तर, पूर्व या उत्तर-पूर्व दिशा में होना चाहिए।</t>
+  </si>
+  <si>
+    <t>ప్రధాన ద్వారం ఉత్తరం, తూర్పు లేదా ఈశాన్య దిశలో ఉండాలి.</t>
+  </si>
+  <si>
+    <t>vaastu_room_main_entrance_tip_1</t>
+  </si>
+  <si>
+    <t>Keep entrance clean and well-lit</t>
+  </si>
+  <si>
+    <t>प्रवेश द्वार को साफ और रोशनीदार रखें</t>
+  </si>
+  <si>
+    <t>ప్రవేశాన్ని శుభ్రంగా మరియు వెలుతురు ఉండేలా ఉంచండి</t>
+  </si>
+  <si>
+    <t>vaastu_room_main_entrance_tip_2</t>
+  </si>
+  <si>
+    <t>Use high-quality materials for the door</t>
+  </si>
+  <si>
+    <t>दरवाज़े के लिए उच्च गुणवत्ता की सामग्री उपयोग करें</t>
+  </si>
+  <si>
+    <t>తలుపుకు నాణ్యమైన పదార్థాలు ఉపయోగించండి</t>
+  </si>
+  <si>
+    <t>vaastu_room_main_entrance_tip_3</t>
+  </si>
+  <si>
+    <t>Avoid obstacles in front of the door</t>
+  </si>
+  <si>
+    <t>दरवाज़े के सामने बाधाएं न रखें</t>
+  </si>
+  <si>
+    <t>తలుపు ముందు అడ్డంకులు పెట్టవద్దు</t>
+  </si>
+  <si>
+    <t>vaastu_room_main_entrance_tip_4</t>
+  </si>
+  <si>
+    <t>Place auspicious symbols like Om or Swastik</t>
+  </si>
+  <si>
+    <t>ओम या स्वस्तिक जैसे शुभ चिन्ह रखें</t>
+  </si>
+  <si>
+    <t>ఓం లేదా స్వస్తిక్ వంటి శుభ చిహ్నాలు ఉంచండి</t>
+  </si>
+  <si>
+    <t>vaastu_room_kitchen_title</t>
+  </si>
+  <si>
+    <t>vaastu_room_kitchen_desc</t>
+  </si>
+  <si>
+    <t>Southeast corner is ideal for kitchen placement</t>
+  </si>
+  <si>
+    <t>रसोई के लिए दक्षिण-पूर्व कोना आदर्श है</t>
+  </si>
+  <si>
+    <t>వంటగదికి ఆగ్నేయ మూల ఉత్తమం</t>
+  </si>
+  <si>
+    <t>vaastu_room_kitchen_tip_1</t>
+  </si>
+  <si>
+    <t>Cook facing East for better health</t>
+  </si>
+  <si>
+    <t>बेहतर स्वास्थ्य के लिए पूर्व दिशा की ओर मुख करके पकाएं</t>
+  </si>
+  <si>
+    <t>మంచి ఆరోగ్యం కోసం తూర్పు వైపు ముఖం పెట్టి వంట చేయండి</t>
+  </si>
+  <si>
+    <t>vaastu_room_kitchen_tip_2</t>
+  </si>
+  <si>
+    <t>Keep kitchen clean and organized</t>
+  </si>
+  <si>
+    <t>रसोई को साफ और व्यवस्थित रखें</t>
+  </si>
+  <si>
+    <t>వంటగదిని శుభ్రంగా మరియు క్రమబద్ధంగా ఉంచండి</t>
+  </si>
+  <si>
+    <t>vaastu_room_kitchen_tip_3</t>
+  </si>
+  <si>
+    <t>Avoid kitchen in Northeast corner</t>
+  </si>
+  <si>
+    <t>vaastu_room_kitchen_tip_4</t>
+  </si>
+  <si>
+    <t>Use light colors for kitchen tiles</t>
+  </si>
+  <si>
+    <t>रसोई टाइल्स के लिए हल्के रंग उपयोग करें</t>
+  </si>
+  <si>
+    <t>వంటగది టైల్స్‌కు తేలికపాటి రంగులు వాడండి</t>
+  </si>
+  <si>
+    <t>vaastu_room_pooja_title</t>
+  </si>
+  <si>
+    <t>Pooja Room</t>
+  </si>
+  <si>
+    <t>पूजा कक्ष</t>
+  </si>
+  <si>
+    <t>పూజ గది</t>
+  </si>
+  <si>
+    <t>vaastu_room_pooja_desc</t>
+  </si>
+  <si>
+    <t>Northeast corner is most auspicious for worship</t>
+  </si>
+  <si>
+    <t>पूजा के लिए उत्तर-पूर्व कोना सबसे शुभ है</t>
+  </si>
+  <si>
+    <t>పూజ కోసం ఈశాన్య మూల అత్యంత శుభకరం</t>
+  </si>
+  <si>
+    <t>vaastu_room_pooja_tip_1</t>
+  </si>
+  <si>
+    <t>Face East or North while praying</t>
+  </si>
+  <si>
+    <t>प्रार्थना करते समय पूर्व या उत्तर की ओर मुख करें</t>
+  </si>
+  <si>
+    <t>ప్రార్థన సమయంలో తూర్పు లేదా ఉత్తరం వైపు ముఖం పెట్టండి</t>
+  </si>
+  <si>
+    <t>vaastu_room_pooja_tip_2</t>
+  </si>
+  <si>
+    <t>Keep the area clean and sacred</t>
+  </si>
+  <si>
+    <t>स्थान को स्वच्छ और पवित्र रखें</t>
+  </si>
+  <si>
+    <t>ప్రాంతాన్ని శుభ్రంగా మరియు పవిత్రంగా ఉంచండి</t>
+  </si>
+  <si>
+    <t>vaastu_room_pooja_tip_3</t>
+  </si>
+  <si>
+    <t>Use white or light yellow colors</t>
+  </si>
+  <si>
+    <t>सफेद या हल्के पीले रंग उपयोग करें</t>
+  </si>
+  <si>
+    <t>తెలుపు లేదా లేత పసుపు రంగులు వాడండి</t>
+  </si>
+  <si>
+    <t>vaastu_room_pooja_tip_4</t>
+  </si>
+  <si>
+    <t>Place idols on a raised platform</t>
+  </si>
+  <si>
+    <t>मूर्तियों को ऊँचे मंच पर रखें</t>
+  </si>
+  <si>
+    <t>విగ్రహాలను ఎత్తైన వేదికపై ఉంచండి</t>
+  </si>
+  <si>
+    <t>vaastu_room_study_title</t>
+  </si>
+  <si>
+    <t>Study Room</t>
+  </si>
+  <si>
+    <t>अध्ययन कक्ष</t>
+  </si>
+  <si>
+    <t>చదువు గది</t>
+  </si>
+  <si>
+    <t>vaastu_room_study_desc</t>
+  </si>
+  <si>
+    <t>East or Northeast enhances concentration and learning</t>
+  </si>
+  <si>
+    <t>पूर्व या उत्तर-पूर्व एकाग्रता और सीखने में मदद करता है</t>
+  </si>
+  <si>
+    <t>తూర్పు లేదా ఈశాన్యం ఏకాగ్రత మరియు అభ్యాసాన్ని పెంచుతుంది</t>
+  </si>
+  <si>
+    <t>vaastu_room_study_tip_1</t>
+  </si>
+  <si>
+    <t>Face East or North while studying</t>
+  </si>
+  <si>
+    <t>पढ़ते समय पूर्व या उत्तर की ओर मुख करें</t>
+  </si>
+  <si>
+    <t>చదువుతున్నప్పుడు తూర్పు లేదా ఉత్తరం వైపు ముఖం పెట్టండి</t>
+  </si>
+  <si>
+    <t>vaastu_room_study_tip_2</t>
+  </si>
+  <si>
+    <t>किताबों को व्यवस्थित और साफ रखें</t>
+  </si>
+  <si>
+    <t>vaastu_room_study_tip_3</t>
+  </si>
+  <si>
+    <t>Use good lighting</t>
+  </si>
+  <si>
+    <t>अच्छी रोशनी का उपयोग करें</t>
+  </si>
+  <si>
+    <t>మంచి వెలుతురు ఉపయోగించండి</t>
+  </si>
+  <si>
+    <t>vaastu_room_study_tip_4</t>
+  </si>
+  <si>
+    <t>Avoid clutter on the study table</t>
+  </si>
+  <si>
+    <t>पढ़ाई की मेज पर अव्यवस्था न रखें</t>
+  </si>
+  <si>
+    <t>చదువు టేబుల్‌పై అస్తవ్యస్తత నివారించండి</t>
+  </si>
+  <si>
+    <t>Ancient wisdom for modern living</t>
+  </si>
+  <si>
+    <t>आधुनिक जीवन के लिए प्राचीन ज्ञान</t>
+  </si>
+  <si>
+    <t>ఆధునిక జీవనానికి ప్రాచీన జ్ఞానం</t>
+  </si>
+  <si>
+    <t>Directions</t>
+  </si>
+  <si>
+    <t>दिशाएँ</t>
+  </si>
+  <si>
+    <t>దిశలు</t>
+  </si>
+  <si>
+    <t>Rooms</t>
+  </si>
+  <si>
+    <t>कमरे</t>
+  </si>
+  <si>
+    <t>గదులు</t>
+  </si>
+  <si>
+    <t>Do's &amp; Don'ts</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>तत्वాలు</t>
+  </si>
+  <si>
+    <t>మూలకాలు</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>उत्तर</t>
+  </si>
+  <si>
+    <t>ఉత్తరం</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>पूर्व</t>
+  </si>
+  <si>
+    <t>తూర్పు</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>दक्षिण</t>
+  </si>
+  <si>
+    <t>దక్షిణం</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>पश्चिम</t>
+  </si>
+  <si>
+    <t>పడమర</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>ఈశాన్యం</t>
+  </si>
+  <si>
+    <t>Southeast</t>
+  </si>
+  <si>
+    <t>ఆగ్నేయం</t>
+  </si>
+  <si>
+    <t>Southwest</t>
+  </si>
+  <si>
+    <t>నైరుతి</t>
+  </si>
+  <si>
+    <t>Northwest</t>
+  </si>
+  <si>
+    <t>vaastu_title</t>
+  </si>
+  <si>
+    <t>vaastu_subtitle</t>
+  </si>
+  <si>
+    <t>vaastu_tab_directions</t>
+  </si>
+  <si>
+    <t>vaastu_tab_rooms</t>
+  </si>
+  <si>
+    <t>vaastu_tab_dos_donts</t>
+  </si>
+  <si>
+    <t>करें और न करें</t>
+  </si>
+  <si>
+    <t>చేయవలసినవి &amp; చేయకూడనివి</t>
+  </si>
+  <si>
+    <t>vaastu_tab_elements</t>
+  </si>
+  <si>
+    <t>vaastu_compass_north</t>
+  </si>
+  <si>
+    <t>vaastu_compass_east</t>
+  </si>
+  <si>
+    <t>vaastu_compass_south</t>
+  </si>
+  <si>
+    <t>vaastu_compass_west</t>
+  </si>
+  <si>
+    <t>vaastu_direction_north</t>
+  </si>
+  <si>
+    <t>vaastu_direction_northeast</t>
+  </si>
+  <si>
+    <t>उत्तर-पूर्व</t>
+  </si>
+  <si>
+    <t>vaastu_direction_east</t>
+  </si>
+  <si>
+    <t>vaastu_direction_southeast</t>
+  </si>
+  <si>
+    <t>दक्षिण-पूर्व</t>
+  </si>
+  <si>
+    <t>vaastu_direction_south</t>
+  </si>
+  <si>
+    <t>vaastu_direction_southwest</t>
+  </si>
+  <si>
+    <t>दक्षिण-पश्चिम</t>
+  </si>
+  <si>
+    <t>vaastu_direction_west</t>
+  </si>
+  <si>
+    <t>vaastu_direction_northwest</t>
+  </si>
+  <si>
+    <t>उत्तर-पश्चिम</t>
+  </si>
+  <si>
+    <t>వాయువ్యం</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>North (Uttara)</t>
+  </si>
+  <si>
+    <t>उत्तर (उत्तरा)</t>
+  </si>
+  <si>
+    <t>ఉత్తరం (ఉత్తర)</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>जल</t>
+  </si>
+  <si>
+    <t>నీరు</t>
+  </si>
+  <si>
+    <t>deity</t>
+  </si>
+  <si>
+    <t>Lord Kubera</t>
+  </si>
+  <si>
+    <t>भगवान कुबेर</t>
+  </si>
+  <si>
+    <t>కుబేరుడు దేవుడు</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>Wealth &amp; Prosperity, Career Growth, Financial Stability, Mental Peace</t>
+  </si>
+  <si>
+    <t>धन और समृद्धि, करियर विकास, वित्तीय स्थिरता, मानसिक शांति</t>
+  </si>
+  <si>
+    <t>ధనం &amp; సాంపన్న్యత, కెరీర్ అభివృద్ధి, ఆర్థిక స్థిరత్వం, మానసిక శాంతి</t>
+  </si>
+  <si>
+    <t>idealPlacements</t>
+  </si>
+  <si>
+    <t>Main Entrance, Cash Counter, Safe/Locker, Water Bodies</t>
+  </si>
+  <si>
+    <t>मुख्य प्रवेश द्वार, नकद काउंटर, तिजोरी/लॉकर, जल स्रोत</t>
+  </si>
+  <si>
+    <t>ప్రధాన ప్రవేశ ద్వారం, నగదు కౌంటర్, సురక్షిత/లాకర్, నీటి సౌకర్యాలు</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>Toilets, Heavy Items, Staircase, Kitchen</t>
+  </si>
+  <si>
+    <t>शौचालय, भारी सामान, सीढ़ियाँ, रसोई</t>
+  </si>
+  <si>
+    <t>టాయిలెట్స్, భారమైన వస్తువులు, మెట్లది, వంటగది</t>
+  </si>
+  <si>
+    <t>South (Dakshina)</t>
+  </si>
+  <si>
+    <t>दक्षिण (दक्षिणा)</t>
+  </si>
+  <si>
+    <t>దక్షిణం (దక్షిణ)</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>अग्नि</t>
+  </si>
+  <si>
+    <t>Yama</t>
+  </si>
+  <si>
+    <t>यम</t>
+  </si>
+  <si>
+    <t>యముడు</t>
+  </si>
+  <si>
+    <t>Fame and Recognition, Leadership, Energy, Strength</t>
+  </si>
+  <si>
+    <t>प्रसिद्धि और मान्यता, नेतृत्व, ऊर्जा, ताकत</t>
+  </si>
+  <si>
+    <t>ఖ్యాతం మరియు గుర్తింపు, నాయకత్వం, శక్తి, బలం</t>
+  </si>
+  <si>
+    <t>Bedroom, Heavy Furniture, Boundary Wall, Energy</t>
+  </si>
+  <si>
+    <t>शयनकक्ष, भारी फर्नीचर, सीमा दीवार, ऊर्जा</t>
+  </si>
+  <si>
+    <t>పడకగది, భారమైన ఫర్నిచర్, సరిహద్దు గోడ, శక్తి</t>
+  </si>
+  <si>
+    <t>Mirrors, Water Storage, Main Entrance, Heavy Doors</t>
+  </si>
+  <si>
+    <t>दर्पण, जल भंडारण, मुख्य प्रवेश द्वार, भारी दरवाजे</t>
+  </si>
+  <si>
+    <t>అద్దాలు, నీటి నిల్వ, ప్రధాన ద్వారం, భారీ తలుపులు</t>
+  </si>
+  <si>
+    <t>vaastu_direction_label</t>
+  </si>
+  <si>
+    <t>Element &amp; Deity:</t>
+  </si>
+  <si>
+    <t>तत्त्व और देवता:</t>
+  </si>
+  <si>
+    <t>తత్త్వం &amp; దేవత:</t>
+  </si>
+  <si>
+    <t>vaastu_direction_benefits_label</t>
+  </si>
+  <si>
+    <t>vaastu_direction_ideal_label</t>
+  </si>
+  <si>
+    <t>Ideal Placements:</t>
+  </si>
+  <si>
+    <t>उपयुक्त स्थान:</t>
+  </si>
+  <si>
+    <t>సరైన ఏర్పాటు:</t>
+  </si>
+  <si>
+    <t>vaastu_direction_avoid_label</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>बचें:</t>
+  </si>
+  <si>
+    <t>ఎవిటే చేయాలి:</t>
+  </si>
+  <si>
+    <t>north_name</t>
+  </si>
+  <si>
+    <t>उत्तर (उत्तर)</t>
+  </si>
+  <si>
+    <t>north_element</t>
+  </si>
+  <si>
+    <t>north_deity</t>
+  </si>
+  <si>
+    <t>north_benefit_1</t>
+  </si>
+  <si>
+    <t>Wealth &amp; Prosperity</t>
+  </si>
+  <si>
+    <t>धन और समृद्धि</t>
+  </si>
+  <si>
+    <t>ధనం &amp; సాంపన్న్యం</t>
+  </si>
+  <si>
+    <t>north_benefit_2</t>
+  </si>
+  <si>
+    <t>Career Growth</t>
+  </si>
+  <si>
+    <t>करियर विकास</t>
+  </si>
+  <si>
+    <t>కెరీర్ అభివృద్ధి</t>
+  </si>
+  <si>
+    <t>north_benefit_3</t>
+  </si>
+  <si>
+    <t>Financial Stability</t>
+  </si>
+  <si>
+    <t>आर्थिक स्थिरता</t>
+  </si>
+  <si>
+    <t>ఆర్థిక స్థిరత్వం</t>
+  </si>
+  <si>
+    <t>north_benefit_4</t>
+  </si>
+  <si>
+    <t>Mental Peace</t>
+  </si>
+  <si>
+    <t>मानसिक शांति</t>
+  </si>
+  <si>
+    <t>మానసిక శాంతి</t>
+  </si>
+  <si>
+    <t>north_ideal_1</t>
+  </si>
+  <si>
+    <t>ప్రధాన ప్రవేశ ద్వారం</t>
+  </si>
+  <si>
+    <t>north_ideal_2</t>
+  </si>
+  <si>
+    <t>Cash Counter</t>
+  </si>
+  <si>
+    <t>नकद काउंटर</t>
+  </si>
+  <si>
+    <t>నగదు కౌంటర్</t>
+  </si>
+  <si>
+    <t>north_ideal_3</t>
+  </si>
+  <si>
+    <t>Safe / Locker</t>
+  </si>
+  <si>
+    <t>तिजोरी / लॉकर</t>
+  </si>
+  <si>
+    <t>సేఫ్ / లాకర్</t>
+  </si>
+  <si>
+    <t>north_ideal_4</t>
+  </si>
+  <si>
+    <t>Water Bodies</t>
+  </si>
+  <si>
+    <t>जल स्रोत</t>
+  </si>
+  <si>
+    <t>నీటి వనరులు</t>
+  </si>
+  <si>
+    <t>north_avoid_1</t>
+  </si>
+  <si>
+    <t>Toilets</t>
+  </si>
+  <si>
+    <t>शौचालय</t>
+  </si>
+  <si>
+    <t>మరుగుదొడ్లు</t>
+  </si>
+  <si>
+    <t>north_avoid_2</t>
+  </si>
+  <si>
+    <t>Heavy Items</t>
+  </si>
+  <si>
+    <t>भारी सामान</t>
+  </si>
+  <si>
+    <t>భారీ వస్తువులు</t>
+  </si>
+  <si>
+    <t>north_avoid_3</t>
+  </si>
+  <si>
+    <t>Staircase</t>
+  </si>
+  <si>
+    <t>सीढ़ियाँ</t>
+  </si>
+  <si>
+    <t>మెట్లు</t>
+  </si>
+  <si>
+    <t>north_avoid_4</t>
+  </si>
+  <si>
+    <t>रसोई</t>
+  </si>
+  <si>
+    <t>south_name</t>
+  </si>
+  <si>
+    <t>दक्षिण (दक्षिण)</t>
+  </si>
+  <si>
+    <t>south_element</t>
+  </si>
+  <si>
+    <t>south_deity</t>
+  </si>
+  <si>
+    <t>south_benefit_1</t>
+  </si>
+  <si>
+    <t>Fame &amp; Recognition</t>
+  </si>
+  <si>
+    <t>प्रसिद्धि और मान्यता</t>
+  </si>
+  <si>
+    <t>ఖ్యాతం మరియు గుర్తింపు</t>
+  </si>
+  <si>
+    <t>south_benefit_2</t>
+  </si>
+  <si>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>नेतृत्व</t>
+  </si>
+  <si>
+    <t>నాయకత్వం</t>
+  </si>
+  <si>
+    <t>south_benefit_3</t>
+  </si>
+  <si>
+    <t>south_benefit_4</t>
+  </si>
+  <si>
+    <t>ताकत</t>
+  </si>
+  <si>
+    <t>south_ideal_1</t>
+  </si>
+  <si>
+    <t>south_ideal_2</t>
+  </si>
+  <si>
+    <t>Heavy Furniture</t>
+  </si>
+  <si>
+    <t>भारी फर्नीचर</t>
+  </si>
+  <si>
+    <t>భారీ ఫర్నిచర్</t>
+  </si>
+  <si>
+    <t>south_ideal_3</t>
+  </si>
+  <si>
+    <t>Boundary Wall</t>
+  </si>
+  <si>
+    <t>सीमा दीवार</t>
+  </si>
+  <si>
+    <t>సరిహద్దు గోడ</t>
+  </si>
+  <si>
+    <t>south_ideal_4</t>
+  </si>
+  <si>
+    <t>Energy Zone</t>
+  </si>
+  <si>
+    <t>ऊर्जा क्षेत्र</t>
+  </si>
+  <si>
+    <t>శక్తి ప్రాంతం</t>
+  </si>
+  <si>
+    <t>south_avoid_1</t>
+  </si>
+  <si>
+    <t>Mirrors</t>
+  </si>
+  <si>
+    <t>दर्पण</t>
+  </si>
+  <si>
+    <t>అద్దాలు</t>
+  </si>
+  <si>
+    <t>south_avoid_2</t>
+  </si>
+  <si>
+    <t>जल भंडारण</t>
+  </si>
+  <si>
+    <t>south_avoid_3</t>
+  </si>
+  <si>
+    <t>मुख्य प्रवेश</t>
+  </si>
+  <si>
+    <t>south_avoid_4</t>
+  </si>
+  <si>
+    <t>Heavy Doors</t>
+  </si>
+  <si>
+    <t>भारी दरवाजे</t>
+  </si>
+  <si>
+    <t>భారీ తలుపులు</t>
+  </si>
+  <si>
+    <t>east_name</t>
+  </si>
+  <si>
+    <t>East (Purva)</t>
+  </si>
+  <si>
+    <t>पूर्व (पूर्व)</t>
+  </si>
+  <si>
+    <t>తూర్పు (పూర్వ)</t>
+  </si>
+  <si>
+    <t>east_element</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>గాలి</t>
+  </si>
+  <si>
+    <t>east_deity</t>
+  </si>
+  <si>
+    <t>Indra</t>
+  </si>
+  <si>
+    <t>इंद्र</t>
+  </si>
+  <si>
+    <t>ఇంద్రుడు</t>
+  </si>
+  <si>
+    <t>east_benefit_1</t>
+  </si>
+  <si>
+    <t>east_benefit_2</t>
+  </si>
+  <si>
+    <t>Fresh Beginnings</t>
+  </si>
+  <si>
+    <t>नई शुरुआत</t>
+  </si>
+  <si>
+    <t>కొత్త ఆరంభాలు</t>
+  </si>
+  <si>
+    <t>east_benefit_3</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>ज्ञान</t>
+  </si>
+  <si>
+    <t>జ్ఞానం</t>
+  </si>
+  <si>
+    <t>east_benefit_4</t>
+  </si>
+  <si>
+    <t>east_ideal_1</t>
+  </si>
+  <si>
+    <t>east_ideal_2</t>
+  </si>
+  <si>
+    <t>అధ్యయన గది</t>
+  </si>
+  <si>
+    <t>east_ideal_3</t>
+  </si>
+  <si>
+    <t>east_ideal_4</t>
+  </si>
+  <si>
+    <t>east_avoid_1</t>
+  </si>
+  <si>
+    <t>east_avoid_2</t>
+  </si>
+  <si>
+    <t>east_avoid_3</t>
+  </si>
+  <si>
+    <t>Obstacles</t>
+  </si>
+  <si>
+    <t>बाधाएँ</t>
+  </si>
+  <si>
+    <t>అడ్డంకులు</t>
+  </si>
+  <si>
+    <t>east_avoid_4</t>
+  </si>
+  <si>
+    <t>Clutter</t>
+  </si>
+  <si>
+    <t>अव्यवस्था</t>
+  </si>
+  <si>
+    <t>గజిబిజి</t>
+  </si>
+  <si>
+    <t>west_name</t>
+  </si>
+  <si>
+    <t>West (Paschima)</t>
+  </si>
+  <si>
+    <t>पश्चिम (पश्चिम)</t>
+  </si>
+  <si>
+    <t>పడమర (పశ్చిమ)</t>
+  </si>
+  <si>
+    <t>west_element</t>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>west_deity</t>
+  </si>
+  <si>
+    <t>Varuna</t>
+  </si>
+  <si>
+    <t>वरुण</t>
+  </si>
+  <si>
+    <t>వరుణుడు</t>
+  </si>
+  <si>
+    <t>west_benefit_1</t>
+  </si>
+  <si>
+    <t>west_benefit_2</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>सहयोग</t>
+  </si>
+  <si>
+    <t>west_benefit_3</t>
+  </si>
+  <si>
+    <t>Relationships</t>
+  </si>
+  <si>
+    <t>संबंध</t>
+  </si>
+  <si>
+    <t>సంబంధాలు</t>
+  </si>
+  <si>
+    <t>west_benefit_4</t>
+  </si>
+  <si>
+    <t>Gains</t>
+  </si>
+  <si>
+    <t>లాభాలు</t>
+  </si>
+  <si>
+    <t>west_ideal_1</t>
+  </si>
+  <si>
+    <t>Dining Room</t>
+  </si>
+  <si>
+    <t>भोजन कक्ष</t>
+  </si>
+  <si>
+    <t>డైనింగ్ రూమ్</t>
+  </si>
+  <si>
+    <t>west_ideal_2</t>
+  </si>
+  <si>
+    <t>Children’s Room</t>
+  </si>
+  <si>
+    <t>बच्चों का कमरा</t>
+  </si>
+  <si>
+    <t>పిల్లల గది</t>
+  </si>
+  <si>
+    <t>west_ideal_3</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>भंडारण</t>
+  </si>
+  <si>
+    <t>నిల్వ</t>
+  </si>
+  <si>
+    <t>west_ideal_4</t>
+  </si>
+  <si>
+    <t>Guest Room</t>
+  </si>
+  <si>
+    <t>अतिथि कक्ष</t>
+  </si>
+  <si>
+    <t>అతిథి గది</t>
+  </si>
+  <si>
+    <t>west_avoid_1</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>कचरा</t>
+  </si>
+  <si>
+    <t>చెత్త</t>
+  </si>
+  <si>
+    <t>west_avoid_2</t>
+  </si>
+  <si>
+    <t>west_avoid_3</t>
+  </si>
+  <si>
+    <t>Septic Tank</t>
+  </si>
+  <si>
+    <t>सेप्टिक टैंक</t>
+  </si>
+  <si>
+    <t>సెప్టిక్ ట్యాంక్</t>
+  </si>
+  <si>
+    <t>west_avoid_4</t>
+  </si>
+  <si>
+    <t>Cuts</t>
+  </si>
+  <si>
+    <t>कटाव</t>
+  </si>
+  <si>
+    <t>కత్తిరింపులు/కట్స్</t>
+  </si>
+  <si>
+    <t>northeast_name</t>
+  </si>
+  <si>
+    <t>Northeast (Ishanya)</t>
+  </si>
+  <si>
+    <t>उत्तर-पूर्व (ईशान्य)</t>
+  </si>
+  <si>
+    <t>northeast_element</t>
+  </si>
+  <si>
+    <t>northeast_deity</t>
+  </si>
+  <si>
+    <t>Lord Shiva</t>
+  </si>
+  <si>
+    <t>भगवान शिव</t>
+  </si>
+  <si>
+    <t>లార్డ్ శివుడు</t>
+  </si>
+  <si>
+    <t>northeast_benefit_1</t>
+  </si>
+  <si>
+    <t>northeast_benefit_2</t>
+  </si>
+  <si>
+    <t>మనశ్శాంతి</t>
+  </si>
+  <si>
+    <t>northeast_benefit_3</t>
+  </si>
+  <si>
+    <t>Wisdom</t>
+  </si>
+  <si>
+    <t>बुद्धि</t>
+  </si>
+  <si>
+    <t>northeast_benefit_4</t>
+  </si>
+  <si>
+    <t>Clarity</t>
+  </si>
+  <si>
+    <t>स्पष्टता</t>
+  </si>
+  <si>
+    <t>స్పష్టత</t>
+  </si>
+  <si>
+    <t>northeast_ideal_1</t>
+  </si>
+  <si>
+    <t>northeast_ideal_2</t>
+  </si>
+  <si>
+    <t>Meditation Room</t>
+  </si>
+  <si>
+    <t>ध्यान कक्ष</t>
+  </si>
+  <si>
+    <t>ధ్యాన గది</t>
+  </si>
+  <si>
+    <t>northeast_ideal_3</t>
+  </si>
+  <si>
+    <t>northeast_ideal_4</t>
+  </si>
+  <si>
+    <t>Study Area</t>
+  </si>
+  <si>
+    <t>अध्ययन क्षेत्र</t>
+  </si>
+  <si>
+    <t>అభ్యసన స్థలం</t>
+  </si>
+  <si>
+    <t>northeast_avoid_1</t>
+  </si>
+  <si>
+    <t>northeast_avoid_2</t>
+  </si>
+  <si>
+    <t>northeast_avoid_3</t>
+  </si>
+  <si>
+    <t>Overhead Tank</t>
+  </si>
+  <si>
+    <t>ऊपरी पानी की टंकी</t>
+  </si>
+  <si>
+    <t>ఓవర్ హెడ్ ట్యాంక్</t>
+  </si>
+  <si>
+    <t>northeast_avoid_4</t>
+  </si>
+  <si>
+    <t>northwest_name</t>
+  </si>
+  <si>
+    <t>Northwest (Vayavya)</t>
+  </si>
+  <si>
+    <t>उत्तर-पश्चिम (वायव्य)</t>
+  </si>
+  <si>
+    <t>వాయవ్య</t>
+  </si>
+  <si>
+    <t>northwest_element</t>
+  </si>
+  <si>
+    <t>Air + Water</t>
+  </si>
+  <si>
+    <t>वायु + जल</t>
+  </si>
+  <si>
+    <t>గాలి + నీరు</t>
+  </si>
+  <si>
+    <t>northwest_deity</t>
+  </si>
+  <si>
+    <t>Vayu</t>
+  </si>
+  <si>
+    <t>वायु देव</t>
+  </si>
+  <si>
+    <t>వాయుదేవుడు</t>
+  </si>
+  <si>
+    <t>northwest_benefit_1</t>
+  </si>
+  <si>
+    <t>northwest_benefit_2</t>
+  </si>
+  <si>
+    <t>northwest_benefit_3</t>
+  </si>
+  <si>
+    <t>Helpful People</t>
+  </si>
+  <si>
+    <t>सहायक लोग</t>
+  </si>
+  <si>
+    <t>సహాయకులు</t>
+  </si>
+  <si>
+    <t>northwest_benefit_4</t>
+  </si>
+  <si>
+    <t>New Opportunities</t>
+  </si>
+  <si>
+    <t>नए अवसर</t>
+  </si>
+  <si>
+    <t>కొత్త అవకాశాలు</t>
+  </si>
+  <si>
+    <t>northwest_ideal_1</t>
+  </si>
+  <si>
+    <t>northwest_ideal_2</t>
+  </si>
+  <si>
+    <t>Granary / Storage</t>
+  </si>
+  <si>
+    <t>अनाज/स्टोरेज</t>
+  </si>
+  <si>
+    <t>ధాన్యం / స్టోరేజ్</t>
+  </si>
+  <si>
+    <t>northwest_ideal_3</t>
+  </si>
+  <si>
+    <t>Bathrooms</t>
+  </si>
+  <si>
+    <t>बाथरूम</t>
+  </si>
+  <si>
+    <t>స్నాన గదులు</t>
+  </si>
+  <si>
+    <t>northwest_ideal_4</t>
+  </si>
+  <si>
+    <t>Parking / Vehicles</t>
+  </si>
+  <si>
+    <t>वाहन स्थान</t>
+  </si>
+  <si>
+    <t>వాహన స్థానం</t>
+  </si>
+  <si>
+    <t>northwest_avoid_1</t>
+  </si>
+  <si>
+    <t>Master Bedroom</t>
+  </si>
+  <si>
+    <t>मुख्य शयनकक्ष</t>
+  </si>
+  <si>
+    <t>మాస్టర్ బెడ్ రూమ్</t>
+  </si>
+  <si>
+    <t>northwest_avoid_2</t>
+  </si>
+  <si>
+    <t>Fire Source</t>
+  </si>
+  <si>
+    <t>अग्नि स्रोत</t>
+  </si>
+  <si>
+    <t>అగ్ని ప్రాంతం</t>
+  </si>
+  <si>
+    <t>northwest_avoid_3</t>
+  </si>
+  <si>
+    <t>northwest_avoid_4</t>
+  </si>
+  <si>
+    <t>southeast_name</t>
+  </si>
+  <si>
+    <t>Southeast (Agneya)</t>
+  </si>
+  <si>
+    <t>दक्षिण-पूर्व (अग्नेय)</t>
+  </si>
+  <si>
+    <t>southeast_element</t>
+  </si>
+  <si>
+    <t>southeast_deity</t>
+  </si>
+  <si>
+    <t>Agni</t>
+  </si>
+  <si>
+    <t>अग्नि देव</t>
+  </si>
+  <si>
+    <t>అగ్ని దేవుడు</t>
+  </si>
+  <si>
+    <t>southeast_benefit_1</t>
+  </si>
+  <si>
+    <t>southeast_benefit_2</t>
+  </si>
+  <si>
+    <t>Digestion &amp; Health</t>
+  </si>
+  <si>
+    <t>पाचन और स्वास्थ्य</t>
+  </si>
+  <si>
+    <t>జీర్ణక్రియ &amp; ఆరోగ్యం</t>
+  </si>
+  <si>
+    <t>southeast_benefit_3</t>
+  </si>
+  <si>
+    <t>Immunity</t>
+  </si>
+  <si>
+    <t>प्रतिरक्षा</t>
+  </si>
+  <si>
+    <t>రోగ నిరోధకత</t>
+  </si>
+  <si>
+    <t>southeast_benefit_4</t>
+  </si>
+  <si>
+    <t>southeast_ideal_1</t>
+  </si>
+  <si>
+    <t>southeast_ideal_2</t>
+  </si>
+  <si>
+    <t>Electrical Equipment</t>
+  </si>
+  <si>
+    <t>विद्युत उपकरण</t>
+  </si>
+  <si>
+    <t>ఎలక్ట్రికల్ పరికరాలు</t>
+  </si>
+  <si>
+    <t>southeast_ideal_3</t>
+  </si>
+  <si>
+    <t>अग्नि क्षेत्र</t>
+  </si>
+  <si>
+    <t>southeast_ideal_4</t>
+  </si>
+  <si>
+    <t>southeast_avoid_1</t>
+  </si>
+  <si>
+    <t>southeast_avoid_2</t>
+  </si>
+  <si>
+    <t>southeast_avoid_3</t>
+  </si>
+  <si>
+    <t>southeast_avoid_4</t>
+  </si>
+  <si>
+    <t>Entrance</t>
+  </si>
+  <si>
+    <t>प्रवेश द्वार</t>
+  </si>
+  <si>
+    <t>ప్రవేశ ద్వారం</t>
+  </si>
+  <si>
+    <t>southwest_name</t>
+  </si>
+  <si>
+    <t>Southwest (Nairutya)</t>
+  </si>
+  <si>
+    <t>दक्षिण-पश्चिम (नैरृत्य)</t>
+  </si>
+  <si>
+    <t>southwest_element</t>
+  </si>
+  <si>
+    <t>southwest_deity</t>
+  </si>
+  <si>
+    <t>Nairuti</t>
+  </si>
+  <si>
+    <t>नैरृति देव</t>
+  </si>
+  <si>
+    <t>నైరృతి దేవత</t>
+  </si>
+  <si>
+    <t>southwest_benefit_1</t>
+  </si>
+  <si>
+    <t>southwest_benefit_2</t>
+  </si>
+  <si>
+    <t>southwest_benefit_3</t>
+  </si>
+  <si>
+    <t>Longevity</t>
+  </si>
+  <si>
+    <t>दीर्घायु</t>
+  </si>
+  <si>
+    <t>దీర్ఘాయుష్షు</t>
+  </si>
+  <si>
+    <t>southwest_benefit_4</t>
+  </si>
+  <si>
+    <t>southwest_ideal_1</t>
+  </si>
+  <si>
+    <t>Store Room</t>
+  </si>
+  <si>
+    <t>भंडार कक्ष</t>
+  </si>
+  <si>
+    <t>స్టోర్ రూమ్</t>
+  </si>
+  <si>
+    <t>southwest_ideal_2</t>
+  </si>
+  <si>
+    <t>southwest_ideal_3</t>
+  </si>
+  <si>
+    <t>southwest_ideal_4</t>
+  </si>
+  <si>
+    <t>Safe</t>
+  </si>
+  <si>
+    <t>तिजोरी</t>
+  </si>
+  <si>
+    <t>సేఫ్</t>
+  </si>
+  <si>
+    <t>southwest_avoid_1</t>
+  </si>
+  <si>
+    <t>southwest_avoid_2</t>
+  </si>
+  <si>
+    <t>southwest_avoid_3</t>
+  </si>
+  <si>
+    <t>southwest_avoid_4</t>
+  </si>
+  <si>
+    <t>కట్స్</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -1089,10 +3683,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1428,10 +4025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4B5E5-1AD3-459E-940E-0D51EC173CF5}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B404" sqref="B404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2730,6 +5327,3750 @@
         <v>339</v>
       </c>
     </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>340</v>
+      </c>
+      <c r="B93" t="s">
+        <v>341</v>
+      </c>
+      <c r="C93" t="s">
+        <v>342</v>
+      </c>
+      <c r="D93" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>344</v>
+      </c>
+      <c r="B94">
+        <v>9876543210</v>
+      </c>
+      <c r="C94">
+        <v>9876543210</v>
+      </c>
+      <c r="D94">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>345</v>
+      </c>
+      <c r="B95" t="s">
+        <v>346</v>
+      </c>
+      <c r="C95" t="s">
+        <v>347</v>
+      </c>
+      <c r="D95" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>349</v>
+      </c>
+      <c r="B96" t="s">
+        <v>350</v>
+      </c>
+      <c r="C96" t="s">
+        <v>351</v>
+      </c>
+      <c r="D96" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>353</v>
+      </c>
+      <c r="B97" t="s">
+        <v>354</v>
+      </c>
+      <c r="C97" t="s">
+        <v>355</v>
+      </c>
+      <c r="D97" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>357</v>
+      </c>
+      <c r="B98" t="s">
+        <v>358</v>
+      </c>
+      <c r="C98" t="s">
+        <v>359</v>
+      </c>
+      <c r="D98" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>361</v>
+      </c>
+      <c r="B99" t="s">
+        <v>362</v>
+      </c>
+      <c r="C99" t="s">
+        <v>363</v>
+      </c>
+      <c r="D99" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>365</v>
+      </c>
+      <c r="B100" t="s">
+        <v>366</v>
+      </c>
+      <c r="C100" t="s">
+        <v>367</v>
+      </c>
+      <c r="D100" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>369</v>
+      </c>
+      <c r="B101" t="s">
+        <v>370</v>
+      </c>
+      <c r="C101" t="s">
+        <v>371</v>
+      </c>
+      <c r="D101" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>373</v>
+      </c>
+      <c r="B102" t="s">
+        <v>374</v>
+      </c>
+      <c r="C102" t="s">
+        <v>375</v>
+      </c>
+      <c r="D102" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>377</v>
+      </c>
+      <c r="B103" t="s">
+        <v>378</v>
+      </c>
+      <c r="C103" t="s">
+        <v>379</v>
+      </c>
+      <c r="D103" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>381</v>
+      </c>
+      <c r="B104" t="s">
+        <v>382</v>
+      </c>
+      <c r="C104" t="s">
+        <v>383</v>
+      </c>
+      <c r="D104" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>385</v>
+      </c>
+      <c r="B105" t="s">
+        <v>382</v>
+      </c>
+      <c r="C105" t="s">
+        <v>383</v>
+      </c>
+      <c r="D105" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>386</v>
+      </c>
+      <c r="B106" t="s">
+        <v>387</v>
+      </c>
+      <c r="C106" t="s">
+        <v>388</v>
+      </c>
+      <c r="D106" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>390</v>
+      </c>
+      <c r="B107" t="s">
+        <v>391</v>
+      </c>
+      <c r="C107" t="s">
+        <v>392</v>
+      </c>
+      <c r="D107" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>394</v>
+      </c>
+      <c r="B108" t="s">
+        <v>395</v>
+      </c>
+      <c r="C108" t="s">
+        <v>396</v>
+      </c>
+      <c r="D108" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>398</v>
+      </c>
+      <c r="B109" t="s">
+        <v>399</v>
+      </c>
+      <c r="C109" t="s">
+        <v>400</v>
+      </c>
+      <c r="D109" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>402</v>
+      </c>
+      <c r="B110" t="s">
+        <v>403</v>
+      </c>
+      <c r="C110" t="s">
+        <v>404</v>
+      </c>
+      <c r="D110" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>406</v>
+      </c>
+      <c r="B111" t="s">
+        <v>407</v>
+      </c>
+      <c r="C111" t="s">
+        <v>408</v>
+      </c>
+      <c r="D111" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>410</v>
+      </c>
+      <c r="B112" t="s">
+        <v>411</v>
+      </c>
+      <c r="C112" t="s">
+        <v>412</v>
+      </c>
+      <c r="D112" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>414</v>
+      </c>
+      <c r="B113" t="s">
+        <v>415</v>
+      </c>
+      <c r="C113" t="s">
+        <v>416</v>
+      </c>
+      <c r="D113" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>418</v>
+      </c>
+      <c r="B114" t="s">
+        <v>419</v>
+      </c>
+      <c r="C114" t="s">
+        <v>420</v>
+      </c>
+      <c r="D114" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>422</v>
+      </c>
+      <c r="B115" t="s">
+        <v>423</v>
+      </c>
+      <c r="C115" t="s">
+        <v>424</v>
+      </c>
+      <c r="D115" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>426</v>
+      </c>
+      <c r="B117" t="s">
+        <v>427</v>
+      </c>
+      <c r="C117" t="s">
+        <v>428</v>
+      </c>
+      <c r="D117" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>430</v>
+      </c>
+      <c r="B118" t="s">
+        <v>431</v>
+      </c>
+      <c r="C118" t="s">
+        <v>432</v>
+      </c>
+      <c r="D118" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>434</v>
+      </c>
+      <c r="B119" t="s">
+        <v>435</v>
+      </c>
+      <c r="C119" t="s">
+        <v>436</v>
+      </c>
+      <c r="D119" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>438</v>
+      </c>
+      <c r="B120" t="s">
+        <v>439</v>
+      </c>
+      <c r="C120" t="s">
+        <v>440</v>
+      </c>
+      <c r="D120" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>442</v>
+      </c>
+      <c r="B121" t="s">
+        <v>443</v>
+      </c>
+      <c r="C121" t="s">
+        <v>444</v>
+      </c>
+      <c r="D121" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>446</v>
+      </c>
+      <c r="B122" t="s">
+        <v>447</v>
+      </c>
+      <c r="C122" t="s">
+        <v>448</v>
+      </c>
+      <c r="D122" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>450</v>
+      </c>
+      <c r="B123" t="s">
+        <v>451</v>
+      </c>
+      <c r="C123" t="s">
+        <v>452</v>
+      </c>
+      <c r="D123" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>454</v>
+      </c>
+      <c r="B124" t="s">
+        <v>455</v>
+      </c>
+      <c r="C124" t="s">
+        <v>456</v>
+      </c>
+      <c r="D124" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>458</v>
+      </c>
+      <c r="B125" t="s">
+        <v>459</v>
+      </c>
+      <c r="C125" t="s">
+        <v>460</v>
+      </c>
+      <c r="D125" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>462</v>
+      </c>
+      <c r="B127" t="s">
+        <v>463</v>
+      </c>
+      <c r="C127" t="s">
+        <v>464</v>
+      </c>
+      <c r="D127" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>466</v>
+      </c>
+      <c r="B128" t="s">
+        <v>427</v>
+      </c>
+      <c r="C128" t="s">
+        <v>428</v>
+      </c>
+      <c r="D128" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>467</v>
+      </c>
+      <c r="B129" t="s">
+        <v>468</v>
+      </c>
+      <c r="C129" t="s">
+        <v>469</v>
+      </c>
+      <c r="D129" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>471</v>
+      </c>
+      <c r="B130" t="s">
+        <v>472</v>
+      </c>
+      <c r="C130" t="s">
+        <v>473</v>
+      </c>
+      <c r="D130" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>475</v>
+      </c>
+      <c r="B131" t="s">
+        <v>476</v>
+      </c>
+      <c r="C131" t="s">
+        <v>477</v>
+      </c>
+      <c r="D131" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>479</v>
+      </c>
+      <c r="B132" t="s">
+        <v>480</v>
+      </c>
+      <c r="C132" t="s">
+        <v>481</v>
+      </c>
+      <c r="D132" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>483</v>
+      </c>
+      <c r="B133" t="s">
+        <v>484</v>
+      </c>
+      <c r="C133" t="s">
+        <v>485</v>
+      </c>
+      <c r="D133" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>487</v>
+      </c>
+      <c r="B134" t="s">
+        <v>488</v>
+      </c>
+      <c r="C134" t="s">
+        <v>489</v>
+      </c>
+      <c r="D134" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>491</v>
+      </c>
+      <c r="B136" t="s">
+        <v>492</v>
+      </c>
+      <c r="C136" t="s">
+        <v>493</v>
+      </c>
+      <c r="D136" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>495</v>
+      </c>
+      <c r="B137" t="s">
+        <v>496</v>
+      </c>
+      <c r="C137" t="s">
+        <v>497</v>
+      </c>
+      <c r="D137" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>499</v>
+      </c>
+      <c r="B139" t="s">
+        <v>500</v>
+      </c>
+      <c r="C139" t="s">
+        <v>501</v>
+      </c>
+      <c r="D139" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>503</v>
+      </c>
+      <c r="B140" t="s">
+        <v>504</v>
+      </c>
+      <c r="C140" t="s">
+        <v>505</v>
+      </c>
+      <c r="D140" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>507</v>
+      </c>
+      <c r="B141" t="s">
+        <v>508</v>
+      </c>
+      <c r="C141" t="s">
+        <v>509</v>
+      </c>
+      <c r="D141" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>511</v>
+      </c>
+      <c r="B142" t="s">
+        <v>512</v>
+      </c>
+      <c r="C142" t="s">
+        <v>513</v>
+      </c>
+      <c r="D142" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>515</v>
+      </c>
+      <c r="B143" t="s">
+        <v>516</v>
+      </c>
+      <c r="C143" t="s">
+        <v>517</v>
+      </c>
+      <c r="D143" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>519</v>
+      </c>
+      <c r="B144" t="s">
+        <v>520</v>
+      </c>
+      <c r="C144" t="s">
+        <v>521</v>
+      </c>
+      <c r="D144" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>523</v>
+      </c>
+      <c r="B145" t="s">
+        <v>524</v>
+      </c>
+      <c r="C145" t="s">
+        <v>525</v>
+      </c>
+      <c r="D145" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>527</v>
+      </c>
+      <c r="B146" t="s">
+        <v>528</v>
+      </c>
+      <c r="C146" t="s">
+        <v>529</v>
+      </c>
+      <c r="D146" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>531</v>
+      </c>
+      <c r="B147" t="s">
+        <v>532</v>
+      </c>
+      <c r="C147" t="s">
+        <v>533</v>
+      </c>
+      <c r="D147" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>535</v>
+      </c>
+      <c r="B149" t="s">
+        <v>536</v>
+      </c>
+      <c r="C149" t="s">
+        <v>537</v>
+      </c>
+      <c r="D149" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>539</v>
+      </c>
+      <c r="B150" t="s">
+        <v>540</v>
+      </c>
+      <c r="C150" t="s">
+        <v>541</v>
+      </c>
+      <c r="D150" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>543</v>
+      </c>
+      <c r="B151" t="s">
+        <v>544</v>
+      </c>
+      <c r="C151" t="s">
+        <v>545</v>
+      </c>
+      <c r="D151" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>547</v>
+      </c>
+      <c r="B152" t="s">
+        <v>548</v>
+      </c>
+      <c r="C152" t="s">
+        <v>549</v>
+      </c>
+      <c r="D152" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>551</v>
+      </c>
+      <c r="B153" t="s">
+        <v>552</v>
+      </c>
+      <c r="C153" t="s">
+        <v>553</v>
+      </c>
+      <c r="D153" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>555</v>
+      </c>
+      <c r="B154" t="s">
+        <v>556</v>
+      </c>
+      <c r="C154" t="s">
+        <v>557</v>
+      </c>
+      <c r="D154" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>559</v>
+      </c>
+      <c r="B155" t="s">
+        <v>560</v>
+      </c>
+      <c r="C155" t="s">
+        <v>561</v>
+      </c>
+      <c r="D155" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>563</v>
+      </c>
+      <c r="B156" t="s">
+        <v>564</v>
+      </c>
+      <c r="C156" t="s">
+        <v>565</v>
+      </c>
+      <c r="D156" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>567</v>
+      </c>
+      <c r="B157" t="s">
+        <v>568</v>
+      </c>
+      <c r="C157" t="s">
+        <v>569</v>
+      </c>
+      <c r="D157" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>571</v>
+      </c>
+      <c r="B159" t="s">
+        <v>572</v>
+      </c>
+      <c r="C159" t="s">
+        <v>573</v>
+      </c>
+      <c r="D159" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>575</v>
+      </c>
+      <c r="B160" t="s">
+        <v>576</v>
+      </c>
+      <c r="C160" t="s">
+        <v>577</v>
+      </c>
+      <c r="D160" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>579</v>
+      </c>
+      <c r="B161" t="s">
+        <v>580</v>
+      </c>
+      <c r="C161" t="s">
+        <v>581</v>
+      </c>
+      <c r="D161" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>583</v>
+      </c>
+      <c r="B162" t="s">
+        <v>584</v>
+      </c>
+      <c r="C162" t="s">
+        <v>585</v>
+      </c>
+      <c r="D162" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>587</v>
+      </c>
+      <c r="B163" t="s">
+        <v>588</v>
+      </c>
+      <c r="C163" t="s">
+        <v>589</v>
+      </c>
+      <c r="D163" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>591</v>
+      </c>
+      <c r="B164" t="s">
+        <v>592</v>
+      </c>
+      <c r="C164" t="s">
+        <v>593</v>
+      </c>
+      <c r="D164" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>595</v>
+      </c>
+      <c r="B165" t="s">
+        <v>596</v>
+      </c>
+      <c r="C165" t="s">
+        <v>597</v>
+      </c>
+      <c r="D165" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>599</v>
+      </c>
+      <c r="B166" t="s">
+        <v>600</v>
+      </c>
+      <c r="C166" t="s">
+        <v>601</v>
+      </c>
+      <c r="D166" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>603</v>
+      </c>
+      <c r="B167" t="s">
+        <v>604</v>
+      </c>
+      <c r="C167" t="s">
+        <v>605</v>
+      </c>
+      <c r="D167" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>607</v>
+      </c>
+      <c r="B169" t="s">
+        <v>608</v>
+      </c>
+      <c r="C169" t="s">
+        <v>609</v>
+      </c>
+      <c r="D169" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>611</v>
+      </c>
+      <c r="B170" t="s">
+        <v>612</v>
+      </c>
+      <c r="C170" t="s">
+        <v>613</v>
+      </c>
+      <c r="D170" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>615</v>
+      </c>
+      <c r="B171" t="s">
+        <v>616</v>
+      </c>
+      <c r="C171" t="s">
+        <v>617</v>
+      </c>
+      <c r="D171" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>619</v>
+      </c>
+      <c r="B172" t="s">
+        <v>620</v>
+      </c>
+      <c r="C172" t="s">
+        <v>621</v>
+      </c>
+      <c r="D172" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>623</v>
+      </c>
+      <c r="B173" t="s">
+        <v>624</v>
+      </c>
+      <c r="C173" t="s">
+        <v>625</v>
+      </c>
+      <c r="D173" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>627</v>
+      </c>
+      <c r="B174" t="s">
+        <v>628</v>
+      </c>
+      <c r="C174" t="s">
+        <v>629</v>
+      </c>
+      <c r="D174" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>631</v>
+      </c>
+      <c r="B175" t="s">
+        <v>632</v>
+      </c>
+      <c r="C175" t="s">
+        <v>633</v>
+      </c>
+      <c r="D175" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>635</v>
+      </c>
+      <c r="B176" t="s">
+        <v>636</v>
+      </c>
+      <c r="C176" t="s">
+        <v>637</v>
+      </c>
+      <c r="D176" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>639</v>
+      </c>
+      <c r="B177" t="s">
+        <v>640</v>
+      </c>
+      <c r="C177" t="s">
+        <v>641</v>
+      </c>
+      <c r="D177" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>643</v>
+      </c>
+      <c r="B179" t="s">
+        <v>644</v>
+      </c>
+      <c r="C179" t="s">
+        <v>645</v>
+      </c>
+      <c r="D179" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>647</v>
+      </c>
+      <c r="B180" t="s">
+        <v>648</v>
+      </c>
+      <c r="C180" t="s">
+        <v>649</v>
+      </c>
+      <c r="D180" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>651</v>
+      </c>
+      <c r="B181" t="s">
+        <v>652</v>
+      </c>
+      <c r="C181" t="s">
+        <v>625</v>
+      </c>
+      <c r="D181" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>654</v>
+      </c>
+      <c r="B182" t="s">
+        <v>655</v>
+      </c>
+      <c r="C182" t="s">
+        <v>656</v>
+      </c>
+      <c r="D182" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>658</v>
+      </c>
+      <c r="B183" t="s">
+        <v>659</v>
+      </c>
+      <c r="C183" t="s">
+        <v>660</v>
+      </c>
+      <c r="D183" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>662</v>
+      </c>
+      <c r="B184" t="s">
+        <v>663</v>
+      </c>
+      <c r="C184" t="s">
+        <v>664</v>
+      </c>
+      <c r="D184" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>666</v>
+      </c>
+      <c r="B185" t="s">
+        <v>667</v>
+      </c>
+      <c r="C185" t="s">
+        <v>668</v>
+      </c>
+      <c r="D185" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>670</v>
+      </c>
+      <c r="B186" t="s">
+        <v>671</v>
+      </c>
+      <c r="C186" t="s">
+        <v>672</v>
+      </c>
+      <c r="D186" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>674</v>
+      </c>
+      <c r="B187" t="s">
+        <v>675</v>
+      </c>
+      <c r="C187" t="s">
+        <v>676</v>
+      </c>
+      <c r="D187" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>678</v>
+      </c>
+      <c r="B189" t="s">
+        <v>679</v>
+      </c>
+      <c r="C189" t="s">
+        <v>680</v>
+      </c>
+      <c r="D189" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>682</v>
+      </c>
+      <c r="B191" t="s">
+        <v>683</v>
+      </c>
+      <c r="C191" t="s">
+        <v>684</v>
+      </c>
+      <c r="D191" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>686</v>
+      </c>
+      <c r="B192" t="s">
+        <v>687</v>
+      </c>
+      <c r="C192" t="s">
+        <v>688</v>
+      </c>
+      <c r="D192" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>690</v>
+      </c>
+      <c r="B193" t="s">
+        <v>691</v>
+      </c>
+      <c r="C193" t="s">
+        <v>692</v>
+      </c>
+      <c r="D193" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>694</v>
+      </c>
+      <c r="B194" t="s">
+        <v>695</v>
+      </c>
+      <c r="C194" t="s">
+        <v>696</v>
+      </c>
+      <c r="D194" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>698</v>
+      </c>
+      <c r="B195" t="s">
+        <v>699</v>
+      </c>
+      <c r="C195" t="s">
+        <v>700</v>
+      </c>
+      <c r="D195" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>702</v>
+      </c>
+      <c r="B196" t="s">
+        <v>703</v>
+      </c>
+      <c r="C196" t="s">
+        <v>704</v>
+      </c>
+      <c r="D196" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>706</v>
+      </c>
+      <c r="B198" t="s">
+        <v>556</v>
+      </c>
+      <c r="C198" t="s">
+        <v>557</v>
+      </c>
+      <c r="D198" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>707</v>
+      </c>
+      <c r="B199" t="s">
+        <v>708</v>
+      </c>
+      <c r="C199" t="s">
+        <v>709</v>
+      </c>
+      <c r="D199" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>711</v>
+      </c>
+      <c r="B200" t="s">
+        <v>712</v>
+      </c>
+      <c r="C200" t="s">
+        <v>713</v>
+      </c>
+      <c r="D200" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>715</v>
+      </c>
+      <c r="B201" t="s">
+        <v>716</v>
+      </c>
+      <c r="C201" t="s">
+        <v>717</v>
+      </c>
+      <c r="D201" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>719</v>
+      </c>
+      <c r="B202" t="s">
+        <v>720</v>
+      </c>
+      <c r="C202" t="s">
+        <v>485</v>
+      </c>
+      <c r="D202" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>721</v>
+      </c>
+      <c r="B203" t="s">
+        <v>722</v>
+      </c>
+      <c r="C203" t="s">
+        <v>723</v>
+      </c>
+      <c r="D203" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>725</v>
+      </c>
+      <c r="B205" t="s">
+        <v>726</v>
+      </c>
+      <c r="C205" t="s">
+        <v>727</v>
+      </c>
+      <c r="D205" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>729</v>
+      </c>
+      <c r="B206" t="s">
+        <v>730</v>
+      </c>
+      <c r="C206" t="s">
+        <v>731</v>
+      </c>
+      <c r="D206" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>733</v>
+      </c>
+      <c r="B207" t="s">
+        <v>734</v>
+      </c>
+      <c r="C207" t="s">
+        <v>735</v>
+      </c>
+      <c r="D207" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>737</v>
+      </c>
+      <c r="B208" t="s">
+        <v>738</v>
+      </c>
+      <c r="C208" t="s">
+        <v>739</v>
+      </c>
+      <c r="D208" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>741</v>
+      </c>
+      <c r="B209" t="s">
+        <v>742</v>
+      </c>
+      <c r="C209" t="s">
+        <v>743</v>
+      </c>
+      <c r="D209" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>745</v>
+      </c>
+      <c r="B210" t="s">
+        <v>746</v>
+      </c>
+      <c r="C210" t="s">
+        <v>747</v>
+      </c>
+      <c r="D210" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>749</v>
+      </c>
+      <c r="B212" t="s">
+        <v>750</v>
+      </c>
+      <c r="C212" t="s">
+        <v>751</v>
+      </c>
+      <c r="D212" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>753</v>
+      </c>
+      <c r="B213" t="s">
+        <v>754</v>
+      </c>
+      <c r="C213" t="s">
+        <v>755</v>
+      </c>
+      <c r="D213" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>757</v>
+      </c>
+      <c r="B214" t="s">
+        <v>758</v>
+      </c>
+      <c r="C214" t="s">
+        <v>759</v>
+      </c>
+      <c r="D214" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>761</v>
+      </c>
+      <c r="B215" t="s">
+        <v>451</v>
+      </c>
+      <c r="C215" t="s">
+        <v>762</v>
+      </c>
+      <c r="D215" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>763</v>
+      </c>
+      <c r="B216" t="s">
+        <v>764</v>
+      </c>
+      <c r="C216" t="s">
+        <v>765</v>
+      </c>
+      <c r="D216" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>767</v>
+      </c>
+      <c r="B217" t="s">
+        <v>768</v>
+      </c>
+      <c r="C217" t="s">
+        <v>769</v>
+      </c>
+      <c r="D217" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>803</v>
+      </c>
+      <c r="B219" t="s">
+        <v>362</v>
+      </c>
+      <c r="C219" t="s">
+        <v>363</v>
+      </c>
+      <c r="D219" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>804</v>
+      </c>
+      <c r="B220" t="s">
+        <v>771</v>
+      </c>
+      <c r="C220" t="s">
+        <v>772</v>
+      </c>
+      <c r="D220" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>805</v>
+      </c>
+      <c r="B222" t="s">
+        <v>774</v>
+      </c>
+      <c r="C222" t="s">
+        <v>775</v>
+      </c>
+      <c r="D222" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>806</v>
+      </c>
+      <c r="B223" t="s">
+        <v>777</v>
+      </c>
+      <c r="C223" t="s">
+        <v>778</v>
+      </c>
+      <c r="D223" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>807</v>
+      </c>
+      <c r="B224" t="s">
+        <v>780</v>
+      </c>
+      <c r="C224" t="s">
+        <v>808</v>
+      </c>
+      <c r="D224" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>810</v>
+      </c>
+      <c r="B225" t="s">
+        <v>781</v>
+      </c>
+      <c r="C225" t="s">
+        <v>782</v>
+      </c>
+      <c r="D225" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>811</v>
+      </c>
+      <c r="B227" t="s">
+        <v>784</v>
+      </c>
+      <c r="C227" t="s">
+        <v>785</v>
+      </c>
+      <c r="D227" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>812</v>
+      </c>
+      <c r="B228" t="s">
+        <v>787</v>
+      </c>
+      <c r="C228" t="s">
+        <v>788</v>
+      </c>
+      <c r="D228" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>813</v>
+      </c>
+      <c r="B229" t="s">
+        <v>790</v>
+      </c>
+      <c r="C229" t="s">
+        <v>791</v>
+      </c>
+      <c r="D229" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>814</v>
+      </c>
+      <c r="B230" t="s">
+        <v>793</v>
+      </c>
+      <c r="C230" t="s">
+        <v>794</v>
+      </c>
+      <c r="D230" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>815</v>
+      </c>
+      <c r="B232" t="s">
+        <v>784</v>
+      </c>
+      <c r="C232" t="s">
+        <v>785</v>
+      </c>
+      <c r="D232" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>816</v>
+      </c>
+      <c r="B233" t="s">
+        <v>796</v>
+      </c>
+      <c r="C233" t="s">
+        <v>817</v>
+      </c>
+      <c r="D233" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>818</v>
+      </c>
+      <c r="B234" t="s">
+        <v>787</v>
+      </c>
+      <c r="C234" t="s">
+        <v>788</v>
+      </c>
+      <c r="D234" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>819</v>
+      </c>
+      <c r="B235" t="s">
+        <v>798</v>
+      </c>
+      <c r="C235" t="s">
+        <v>820</v>
+      </c>
+      <c r="D235" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>821</v>
+      </c>
+      <c r="B236" t="s">
+        <v>790</v>
+      </c>
+      <c r="C236" t="s">
+        <v>791</v>
+      </c>
+      <c r="D236" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>822</v>
+      </c>
+      <c r="B237" t="s">
+        <v>800</v>
+      </c>
+      <c r="C237" t="s">
+        <v>823</v>
+      </c>
+      <c r="D237" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>824</v>
+      </c>
+      <c r="B238" t="s">
+        <v>793</v>
+      </c>
+      <c r="C238" t="s">
+        <v>794</v>
+      </c>
+      <c r="D238" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>825</v>
+      </c>
+      <c r="B239" t="s">
+        <v>802</v>
+      </c>
+      <c r="C239" t="s">
+        <v>826</v>
+      </c>
+      <c r="D239" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>872</v>
+      </c>
+      <c r="B259" t="s">
+        <v>873</v>
+      </c>
+      <c r="C259" t="s">
+        <v>874</v>
+      </c>
+      <c r="D259" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>876</v>
+      </c>
+      <c r="B260" t="s">
+        <v>492</v>
+      </c>
+      <c r="C260" t="s">
+        <v>493</v>
+      </c>
+      <c r="D260" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>877</v>
+      </c>
+      <c r="B261" t="s">
+        <v>878</v>
+      </c>
+      <c r="C261" t="s">
+        <v>879</v>
+      </c>
+      <c r="D261" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>881</v>
+      </c>
+      <c r="B262" t="s">
+        <v>882</v>
+      </c>
+      <c r="C262" t="s">
+        <v>883</v>
+      </c>
+      <c r="D262" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>885</v>
+      </c>
+      <c r="B264" t="s">
+        <v>832</v>
+      </c>
+      <c r="C264" t="s">
+        <v>886</v>
+      </c>
+      <c r="D264" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>887</v>
+      </c>
+      <c r="B265" t="s">
+        <v>836</v>
+      </c>
+      <c r="C265" t="s">
+        <v>837</v>
+      </c>
+      <c r="D265" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>888</v>
+      </c>
+      <c r="B266" t="s">
+        <v>840</v>
+      </c>
+      <c r="C266" t="s">
+        <v>841</v>
+      </c>
+      <c r="D266" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>889</v>
+      </c>
+      <c r="B267" t="s">
+        <v>890</v>
+      </c>
+      <c r="C267" t="s">
+        <v>891</v>
+      </c>
+      <c r="D267" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>893</v>
+      </c>
+      <c r="B268" t="s">
+        <v>894</v>
+      </c>
+      <c r="C268" t="s">
+        <v>895</v>
+      </c>
+      <c r="D268" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>897</v>
+      </c>
+      <c r="B269" t="s">
+        <v>898</v>
+      </c>
+      <c r="C269" t="s">
+        <v>899</v>
+      </c>
+      <c r="D269" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>901</v>
+      </c>
+      <c r="B270" t="s">
+        <v>902</v>
+      </c>
+      <c r="C270" t="s">
+        <v>903</v>
+      </c>
+      <c r="D270" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>905</v>
+      </c>
+      <c r="B271" t="s">
+        <v>683</v>
+      </c>
+      <c r="C271" t="s">
+        <v>684</v>
+      </c>
+      <c r="D271" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>907</v>
+      </c>
+      <c r="B272" t="s">
+        <v>908</v>
+      </c>
+      <c r="C272" t="s">
+        <v>909</v>
+      </c>
+      <c r="D272" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>911</v>
+      </c>
+      <c r="B273" t="s">
+        <v>912</v>
+      </c>
+      <c r="C273" t="s">
+        <v>913</v>
+      </c>
+      <c r="D273" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>915</v>
+      </c>
+      <c r="B274" t="s">
+        <v>916</v>
+      </c>
+      <c r="C274" t="s">
+        <v>917</v>
+      </c>
+      <c r="D274" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>919</v>
+      </c>
+      <c r="B275" t="s">
+        <v>920</v>
+      </c>
+      <c r="C275" t="s">
+        <v>921</v>
+      </c>
+      <c r="D275" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>923</v>
+      </c>
+      <c r="B276" t="s">
+        <v>924</v>
+      </c>
+      <c r="C276" t="s">
+        <v>925</v>
+      </c>
+      <c r="D276" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>927</v>
+      </c>
+      <c r="B277" t="s">
+        <v>928</v>
+      </c>
+      <c r="C277" t="s">
+        <v>929</v>
+      </c>
+      <c r="D277" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>931</v>
+      </c>
+      <c r="B278" t="s">
+        <v>556</v>
+      </c>
+      <c r="C278" t="s">
+        <v>932</v>
+      </c>
+      <c r="D278" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>933</v>
+      </c>
+      <c r="B280" t="s">
+        <v>855</v>
+      </c>
+      <c r="C280" t="s">
+        <v>934</v>
+      </c>
+      <c r="D280" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>935</v>
+      </c>
+      <c r="B281" t="s">
+        <v>858</v>
+      </c>
+      <c r="C281" t="s">
+        <v>859</v>
+      </c>
+      <c r="D281" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>936</v>
+      </c>
+      <c r="B282" t="s">
+        <v>860</v>
+      </c>
+      <c r="C282" t="s">
+        <v>861</v>
+      </c>
+      <c r="D282" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>937</v>
+      </c>
+      <c r="B283" t="s">
+        <v>938</v>
+      </c>
+      <c r="C283" t="s">
+        <v>939</v>
+      </c>
+      <c r="D283" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>941</v>
+      </c>
+      <c r="B284" t="s">
+        <v>942</v>
+      </c>
+      <c r="C284" t="s">
+        <v>943</v>
+      </c>
+      <c r="D284" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>945</v>
+      </c>
+      <c r="B285" t="s">
+        <v>548</v>
+      </c>
+      <c r="C285" t="s">
+        <v>549</v>
+      </c>
+      <c r="D285" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>946</v>
+      </c>
+      <c r="B286" t="s">
+        <v>620</v>
+      </c>
+      <c r="C286" t="s">
+        <v>947</v>
+      </c>
+      <c r="D286" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>948</v>
+      </c>
+      <c r="B287" t="s">
+        <v>628</v>
+      </c>
+      <c r="C287" t="s">
+        <v>629</v>
+      </c>
+      <c r="D287" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>949</v>
+      </c>
+      <c r="B288" t="s">
+        <v>950</v>
+      </c>
+      <c r="C288" t="s">
+        <v>951</v>
+      </c>
+      <c r="D288" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>953</v>
+      </c>
+      <c r="B289" t="s">
+        <v>954</v>
+      </c>
+      <c r="C289" t="s">
+        <v>955</v>
+      </c>
+      <c r="D289" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>957</v>
+      </c>
+      <c r="B290" t="s">
+        <v>958</v>
+      </c>
+      <c r="C290" t="s">
+        <v>959</v>
+      </c>
+      <c r="D290" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>961</v>
+      </c>
+      <c r="B291" t="s">
+        <v>962</v>
+      </c>
+      <c r="C291" t="s">
+        <v>963</v>
+      </c>
+      <c r="D291" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>965</v>
+      </c>
+      <c r="B292" t="s">
+        <v>520</v>
+      </c>
+      <c r="C292" t="s">
+        <v>966</v>
+      </c>
+      <c r="D292" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>967</v>
+      </c>
+      <c r="B293" t="s">
+        <v>683</v>
+      </c>
+      <c r="C293" t="s">
+        <v>968</v>
+      </c>
+      <c r="D293" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>969</v>
+      </c>
+      <c r="B294" t="s">
+        <v>970</v>
+      </c>
+      <c r="C294" t="s">
+        <v>971</v>
+      </c>
+      <c r="D294" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>973</v>
+      </c>
+      <c r="B297" t="s">
+        <v>974</v>
+      </c>
+      <c r="C297" t="s">
+        <v>975</v>
+      </c>
+      <c r="D297" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>977</v>
+      </c>
+      <c r="B298" t="s">
+        <v>978</v>
+      </c>
+      <c r="C298" t="s">
+        <v>573</v>
+      </c>
+      <c r="D298" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>980</v>
+      </c>
+      <c r="B299" t="s">
+        <v>981</v>
+      </c>
+      <c r="C299" t="s">
+        <v>982</v>
+      </c>
+      <c r="D299" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>984</v>
+      </c>
+      <c r="B300" t="s">
+        <v>544</v>
+      </c>
+      <c r="C300" t="s">
+        <v>545</v>
+      </c>
+      <c r="D300" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>985</v>
+      </c>
+      <c r="B301" t="s">
+        <v>986</v>
+      </c>
+      <c r="C301" t="s">
+        <v>987</v>
+      </c>
+      <c r="D301" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>989</v>
+      </c>
+      <c r="B302" t="s">
+        <v>990</v>
+      </c>
+      <c r="C302" t="s">
+        <v>991</v>
+      </c>
+      <c r="D302" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>993</v>
+      </c>
+      <c r="B303" t="s">
+        <v>584</v>
+      </c>
+      <c r="C303" t="s">
+        <v>585</v>
+      </c>
+      <c r="D303" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>994</v>
+      </c>
+      <c r="B304" t="s">
+        <v>726</v>
+      </c>
+      <c r="C304" t="s">
+        <v>727</v>
+      </c>
+      <c r="D304" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>995</v>
+      </c>
+      <c r="B305" t="s">
+        <v>750</v>
+      </c>
+      <c r="C305" t="s">
+        <v>751</v>
+      </c>
+      <c r="D305" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>997</v>
+      </c>
+      <c r="B306" t="s">
+        <v>667</v>
+      </c>
+      <c r="C306" t="s">
+        <v>668</v>
+      </c>
+      <c r="D306" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>998</v>
+      </c>
+      <c r="B307" t="s">
+        <v>592</v>
+      </c>
+      <c r="C307" t="s">
+        <v>593</v>
+      </c>
+      <c r="D307" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>999</v>
+      </c>
+      <c r="B308" t="s">
+        <v>920</v>
+      </c>
+      <c r="C308" t="s">
+        <v>921</v>
+      </c>
+      <c r="D308" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B309" t="s">
+        <v>924</v>
+      </c>
+      <c r="C309" t="s">
+        <v>925</v>
+      </c>
+      <c r="D309" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C314" t="s">
+        <v>609</v>
+      </c>
+      <c r="D314" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B316" t="s">
+        <v>616</v>
+      </c>
+      <c r="C316" t="s">
+        <v>617</v>
+      </c>
+      <c r="D316" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D317" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C319" t="s">
+        <v>408</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B325" t="s">
+        <v>916</v>
+      </c>
+      <c r="C325" t="s">
+        <v>917</v>
+      </c>
+      <c r="D325" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D329" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B330" t="s">
+        <v>836</v>
+      </c>
+      <c r="C330" t="s">
+        <v>837</v>
+      </c>
+      <c r="D330" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B332" t="s">
+        <v>659</v>
+      </c>
+      <c r="C332" t="s">
+        <v>660</v>
+      </c>
+      <c r="D332" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B333" t="s">
+        <v>902</v>
+      </c>
+      <c r="C333" t="s">
+        <v>903</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D334" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B336" t="s">
+        <v>726</v>
+      </c>
+      <c r="C336" t="s">
+        <v>727</v>
+      </c>
+      <c r="D336" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B338" t="s">
+        <v>520</v>
+      </c>
+      <c r="C338" t="s">
+        <v>966</v>
+      </c>
+      <c r="D338" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B340" t="s">
+        <v>920</v>
+      </c>
+      <c r="C340" t="s">
+        <v>921</v>
+      </c>
+      <c r="D340" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B341" t="s">
+        <v>924</v>
+      </c>
+      <c r="C341" t="s">
+        <v>925</v>
+      </c>
+      <c r="D341" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B343" t="s">
+        <v>556</v>
+      </c>
+      <c r="C343" t="s">
+        <v>932</v>
+      </c>
+      <c r="D343" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D348" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B349" t="s">
+        <v>580</v>
+      </c>
+      <c r="C349" t="s">
+        <v>581</v>
+      </c>
+      <c r="D349" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B358" t="s">
+        <v>928</v>
+      </c>
+      <c r="C358" t="s">
+        <v>929</v>
+      </c>
+      <c r="D358" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B359" t="s">
+        <v>920</v>
+      </c>
+      <c r="C359" t="s">
+        <v>921</v>
+      </c>
+      <c r="D359" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D361" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B362" t="s">
+        <v>858</v>
+      </c>
+      <c r="C362" t="s">
+        <v>859</v>
+      </c>
+      <c r="D362" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D363" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B364" t="s">
+        <v>548</v>
+      </c>
+      <c r="C364" t="s">
+        <v>549</v>
+      </c>
+      <c r="D364" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B367" t="s">
+        <v>552</v>
+      </c>
+      <c r="C367" t="s">
+        <v>553</v>
+      </c>
+      <c r="D367" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B368" t="s">
+        <v>556</v>
+      </c>
+      <c r="C368" t="s">
+        <v>557</v>
+      </c>
+      <c r="D368" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B371" t="s">
+        <v>564</v>
+      </c>
+      <c r="C371" t="s">
+        <v>565</v>
+      </c>
+      <c r="D371" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B372" t="s">
+        <v>628</v>
+      </c>
+      <c r="C372" t="s">
+        <v>629</v>
+      </c>
+      <c r="D372" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B373" t="s">
+        <v>908</v>
+      </c>
+      <c r="C373" t="s">
+        <v>909</v>
+      </c>
+      <c r="D373" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B374" t="s">
+        <v>520</v>
+      </c>
+      <c r="C374" t="s">
+        <v>966</v>
+      </c>
+      <c r="D374" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D377" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C378" t="s">
+        <v>609</v>
+      </c>
+      <c r="D378" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C379" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B380" t="s">
+        <v>616</v>
+      </c>
+      <c r="C380" t="s">
+        <v>617</v>
+      </c>
+      <c r="D380" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B381" t="s">
+        <v>624</v>
+      </c>
+      <c r="C381" t="s">
+        <v>625</v>
+      </c>
+      <c r="D381" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C382" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B383" t="s">
+        <v>620</v>
+      </c>
+      <c r="C383" t="s">
+        <v>621</v>
+      </c>
+      <c r="D383" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B385" t="s">
+        <v>950</v>
+      </c>
+      <c r="C385" t="s">
+        <v>951</v>
+      </c>
+      <c r="D385" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B388" t="s">
+        <v>916</v>
+      </c>
+      <c r="C388" t="s">
+        <v>917</v>
+      </c>
+      <c r="D388" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B389" t="s">
+        <v>600</v>
+      </c>
+      <c r="C389" t="s">
+        <v>601</v>
+      </c>
+      <c r="D389" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D391" t="s">
+        <v>1201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Frontend/translations.xlsx
+++ b/Frontend/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigat\OneDrive\Desktop\Technoji\Lands_Time\Landstime_Androidapp\Frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B319CB0-A69C-40AF-B13D-70E05AF855D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E364BB-515C-492A-892C-E360A536FA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="1234">
   <si>
     <t>key</t>
   </si>
@@ -3640,6 +3640,102 @@
   </si>
   <si>
     <t>కట్స్</t>
+  </si>
+  <si>
+    <t>skip</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>छोड़ें</t>
+  </si>
+  <si>
+    <t>దాటవేయి</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Find Perfect Properties</t>
+  </si>
+  <si>
+    <t>परफेक्ट प्रॉपर्टी खोजें</t>
+  </si>
+  <si>
+    <t>పరిపూర్ణ ఆస్తులను కనుగొనండి</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>आगे</t>
+  </si>
+  <si>
+    <t>తదుపరి</t>
+  </si>
+  <si>
+    <t>smart_search_label</t>
+  </si>
+  <si>
+    <t>Smart Search</t>
+  </si>
+  <si>
+    <t>स्मार्ट खोज</t>
+  </si>
+  <si>
+    <t>స్మార్ట్ శోధన</t>
+  </si>
+  <si>
+    <t>direct_property_connect_label</t>
+  </si>
+  <si>
+    <t>Direct Property Connect</t>
+  </si>
+  <si>
+    <t>प्रत्यक्ष प्रॉपर्टी कनेक्ट</t>
+  </si>
+  <si>
+    <t>ప్రత్యక్ష ప్రాపర్టీ కనెక్ట్</t>
+  </si>
+  <si>
+    <t>discover_title</t>
+  </si>
+  <si>
+    <t>Discover a place you will love to live</t>
+  </si>
+  <si>
+    <t>एक ऐसी जगह खोजें जहाँ आप रहना पसंद करेंगे</t>
+  </si>
+  <si>
+    <t>మీరు నివసించడం ఇష్టపడే స్థలాన్ని కనుగొనండి</t>
+  </si>
+  <si>
+    <t>discover_description</t>
+  </si>
+  <si>
+    <t>Browse homes for sale, original neighborhood photos, resident reviews, local insights to find what is right for you</t>
+  </si>
+  <si>
+    <t>बिक्री के लिए घर देखें, मूल पड़ोस की तस्वीरें, निवासी समीक्षाएं और स्थानीय जानकारी से अपने लिए सही जगह पाएं</t>
+  </si>
+  <si>
+    <t>అమ్మకానికి ఇళ్లను, ప్రాంతీయ ఫోటోలు, నివాసుల సమీక్షలు మరియు లోకల్ సమాచారంతో మీకు సరైన ప్రదేశాన్ని కనుగొనండి</t>
+  </si>
+  <si>
+    <t>lets_explore_button</t>
+  </si>
+  <si>
+    <t>Let's Explore</t>
+  </si>
+  <si>
+    <t>चलिए शुरू करें</t>
+  </si>
+  <si>
+    <t>చదుకుదాం / ముందుకు సాగుదాం</t>
   </si>
 </sst>
 </file>
@@ -4025,10 +4121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4B5E5-1AD3-459E-940E-0D51EC173CF5}">
-  <dimension ref="A1:D391"/>
+  <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B404" sqref="B404"/>
+    <sheetView tabSelected="1" topLeftCell="A380" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A403" sqref="A403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9071,6 +9167,118 @@
         <v>1201</v>
       </c>
     </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1233</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Frontend/translations.xlsx
+++ b/Frontend/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigat\OneDrive\Desktop\Technoji\Lands_Time\Landstime_Androidapp\Frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E364BB-515C-492A-892C-E360A536FA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12300091-36F3-4FC0-9F24-29F48691B853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="1234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="1324">
   <si>
     <t>key</t>
   </si>
@@ -3736,6 +3736,276 @@
   </si>
   <si>
     <t>చదుకుదాం / ముందుకు సాగుదాం</t>
+  </si>
+  <si>
+    <t>settings_title</t>
+  </si>
+  <si>
+    <t>సెట్టింగ్‌లు</t>
+  </si>
+  <si>
+    <t>manage_preferences</t>
+  </si>
+  <si>
+    <t>Manage your app preferences</t>
+  </si>
+  <si>
+    <t>अपने ऐप की प्राथमिकताएँ प्रबंधित करें</t>
+  </si>
+  <si>
+    <t>మీ యాప్ అభిరుచులను నిర్వహించండి</t>
+  </si>
+  <si>
+    <t>account_title</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>खाता</t>
+  </si>
+  <si>
+    <t>ఖాతా</t>
+  </si>
+  <si>
+    <t>edit_profile</t>
+  </si>
+  <si>
+    <t>Edit Profile</t>
+  </si>
+  <si>
+    <t>प्रोफ़ाइल संपादित करें</t>
+  </si>
+  <si>
+    <t>ప్రొఫైల్ ఎడిట్ చేయండి</t>
+  </si>
+  <si>
+    <t>change_password</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>पासवर्ड बदलें</t>
+  </si>
+  <si>
+    <t>పాస్‌వర్డ్ మార్చండి</t>
+  </si>
+  <si>
+    <t>verification_status</t>
+  </si>
+  <si>
+    <t>Verification Status</t>
+  </si>
+  <si>
+    <t>सत्यापन स्थिति</t>
+  </si>
+  <si>
+    <t>తనీకరణ స్థితి</t>
+  </si>
+  <si>
+    <t>verified</t>
+  </si>
+  <si>
+    <t>తనఖీ చేయబడింది</t>
+  </si>
+  <si>
+    <t>notifications_title</t>
+  </si>
+  <si>
+    <t>सूचनाएँ</t>
+  </si>
+  <si>
+    <t>property_alerts</t>
+  </si>
+  <si>
+    <t>Property Alerts</t>
+  </si>
+  <si>
+    <t>प्रॉपर्टी अलर्ट</t>
+  </si>
+  <si>
+    <t>ప్రాపర్టీ అలర్ట్స్</t>
+  </si>
+  <si>
+    <t>price_changes</t>
+  </si>
+  <si>
+    <t>Price Changes</t>
+  </si>
+  <si>
+    <t>कीमत में बदलाव</t>
+  </si>
+  <si>
+    <t>ధర మార్పులు</t>
+  </si>
+  <si>
+    <t>messages</t>
+  </si>
+  <si>
+    <t>Messages</t>
+  </si>
+  <si>
+    <t>संदेश</t>
+  </si>
+  <si>
+    <t>సందేశాలు</t>
+  </si>
+  <si>
+    <t>marketing_emails</t>
+  </si>
+  <si>
+    <t>Marketing Emails</t>
+  </si>
+  <si>
+    <t>मार्केटिंग ईमेल</t>
+  </si>
+  <si>
+    <t>మార్కెటింగ్ ఇమెయిల్స్</t>
+  </si>
+  <si>
+    <t>privacy_title</t>
+  </si>
+  <si>
+    <t>Privacy</t>
+  </si>
+  <si>
+    <t>गोपनीयता</t>
+  </si>
+  <si>
+    <t>గోప్యత</t>
+  </si>
+  <si>
+    <t>profile_visible</t>
+  </si>
+  <si>
+    <t>Profile Visible</t>
+  </si>
+  <si>
+    <t>प्रोफ़ाइल दिखाई दे</t>
+  </si>
+  <si>
+    <t>ప్రొఫైల్ కనిపించాలి</t>
+  </si>
+  <si>
+    <t>show_activity</t>
+  </si>
+  <si>
+    <t>Show Activity</t>
+  </si>
+  <si>
+    <t>गतिविधि दिखाएँ</t>
+  </si>
+  <si>
+    <t>కార్యకలాపం చూపించండి</t>
+  </si>
+  <si>
+    <t>allow_messages</t>
+  </si>
+  <si>
+    <t>Allow Messages</t>
+  </si>
+  <si>
+    <t>संदेशों की अनुमति दें</t>
+  </si>
+  <si>
+    <t>సందేశాలను అనుమతించండి</t>
+  </si>
+  <si>
+    <t>general_title</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>सामान्य</t>
+  </si>
+  <si>
+    <t>సాధారణ</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>भाषा</t>
+  </si>
+  <si>
+    <t>భాష</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>मुद्रा</t>
+  </si>
+  <si>
+    <t>కరెన్సీ</t>
+  </si>
+  <si>
+    <t>help_support</t>
+  </si>
+  <si>
+    <t>Help &amp; Support</t>
+  </si>
+  <si>
+    <t>सहायता और समर्थन</t>
+  </si>
+  <si>
+    <t>సహాయం &amp; మద్దతు</t>
+  </si>
+  <si>
+    <t>selectDistrict.title</t>
+  </si>
+  <si>
+    <t>Select District in Andhra</t>
+  </si>
+  <si>
+    <t>आंध्र में जिला चुनें</t>
+  </si>
+  <si>
+    <t>ఆంధ్రప్రదేశ్ జిల్లాను ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>selectDistrict.searchPlaceholder</t>
+  </si>
+  <si>
+    <t>Search districts in Andhra...</t>
+  </si>
+  <si>
+    <t>आंध्र के जिलों को खोजें...</t>
+  </si>
+  <si>
+    <t>ఆంధ్రా జిల్లాలను శోధించండి...</t>
+  </si>
+  <si>
+    <t>selectDistrict.noResults</t>
+  </si>
+  <si>
+    <t>No districts found for "{query}"</t>
+  </si>
+  <si>
+    <t>{query} के लिए कोई जिला नहीं मिला</t>
+  </si>
+  <si>
+    <t>{query} కి సంబంధించిన జిల్లాలు లభించలేదు</t>
+  </si>
+  <si>
+    <t>selectDistrict.propertiesAvailable</t>
+  </si>
+  <si>
+    <t>properties available</t>
+  </si>
+  <si>
+    <t>प्रॉपर्टीज उपलब्ध</t>
+  </si>
+  <si>
+    <t>ప్రాపర్టీలు అందుబాటులో ఉన్నాయి</t>
   </si>
 </sst>
 </file>
@@ -4121,10 +4391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4B5E5-1AD3-459E-940E-0D51EC173CF5}">
-  <dimension ref="A1:D400"/>
+  <dimension ref="A1:D431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403"/>
+    <sheetView tabSelected="1" topLeftCell="A416" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A435" sqref="A435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9279,6 +9549,342 @@
         <v>1233</v>
       </c>
     </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B403" t="s">
+        <v>378</v>
+      </c>
+      <c r="C403" t="s">
+        <v>379</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B410" t="s">
+        <v>37</v>
+      </c>
+      <c r="C410" t="s">
+        <v>38</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B412" t="s">
+        <v>374</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D412" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C419" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D420" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C423" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C426" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C429" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D430" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1323</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Frontend/translations.xlsx
+++ b/Frontend/translations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigat\OneDrive\Desktop\Technoji\Lands_Time\Landstime_Androidapp\Frontend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigat\OneDrive\Desktop\Technoji\LandsTime-301-12-2025\Landstime_Androidapp\Frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12300091-36F3-4FC0-9F24-29F48691B853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74111343-B98C-41CA-906F-3209E43F1AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="1324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1416">
   <si>
     <t>key</t>
   </si>
@@ -3966,24 +3966,12 @@
     <t>Select District in Andhra</t>
   </si>
   <si>
-    <t>आंध्र में जिला चुनें</t>
-  </si>
-  <si>
-    <t>ఆంధ్రప్రదేశ్ జిల్లాను ఎంచుకోండి</t>
-  </si>
-  <si>
     <t>selectDistrict.searchPlaceholder</t>
   </si>
   <si>
     <t>Search districts in Andhra...</t>
   </si>
   <si>
-    <t>आंध्र के जिलों को खोजें...</t>
-  </si>
-  <si>
-    <t>ఆంధ్రా జిల్లాలను శోధించండి...</t>
-  </si>
-  <si>
     <t>selectDistrict.noResults</t>
   </si>
   <si>
@@ -3993,19 +3981,307 @@
     <t>{query} के लिए कोई जिला नहीं मिला</t>
   </si>
   <si>
-    <t>{query} కి సంబంధించిన జిల్లాలు లభించలేదు</t>
-  </si>
-  <si>
     <t>selectDistrict.propertiesAvailable</t>
   </si>
   <si>
     <t>properties available</t>
   </si>
   <si>
-    <t>प्रॉपर्टीज उपलब्ध</t>
-  </si>
-  <si>
-    <t>ప్రాపర్టీలు అందుబాటులో ఉన్నాయి</t>
+    <t>आंध्र प्रदेश में जिला चुनें</t>
+  </si>
+  <si>
+    <t>ఆంధ్రప్రదేశ్‌లో జిల్లాను ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>आंध्र प्रदेश में जिलों को खोजें...</t>
+  </si>
+  <si>
+    <t>ఆంధ్రప్రదేశ్‌లో జిల్లాలను శోధించండి...</t>
+  </si>
+  <si>
+    <t>{query} కోసం జిల్లాలు కనుగొనబడలేదు</t>
+  </si>
+  <si>
+    <t>संपत्तियां उपलब्ध हैं</t>
+  </si>
+  <si>
+    <t>ఆస్తులు అందుబాటులో ఉన్నాయి</t>
+  </si>
+  <si>
+    <t>districts.anantapur</t>
+  </si>
+  <si>
+    <t>Anantapur</t>
+  </si>
+  <si>
+    <t>अनंतपुर</t>
+  </si>
+  <si>
+    <t>అనంతపురం</t>
+  </si>
+  <si>
+    <t>districts.chittoor</t>
+  </si>
+  <si>
+    <t>Chittoor</t>
+  </si>
+  <si>
+    <t>चित्तूर</t>
+  </si>
+  <si>
+    <t>చిత్తూరు</t>
+  </si>
+  <si>
+    <t>districts.eastgodavari</t>
+  </si>
+  <si>
+    <t>East Godavari</t>
+  </si>
+  <si>
+    <t>पूर्वी गोदावरी</t>
+  </si>
+  <si>
+    <t>తూర్పు గోదావరి</t>
+  </si>
+  <si>
+    <t>districts.guntur</t>
+  </si>
+  <si>
+    <t>Guntur</t>
+  </si>
+  <si>
+    <t>गुंटूर</t>
+  </si>
+  <si>
+    <t>గుంటూరు</t>
+  </si>
+  <si>
+    <t>districts.kadapa</t>
+  </si>
+  <si>
+    <t>Kadapa</t>
+  </si>
+  <si>
+    <t>कडपा</t>
+  </si>
+  <si>
+    <t>కడప</t>
+  </si>
+  <si>
+    <t>districts.krishna</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>कृष्णा</t>
+  </si>
+  <si>
+    <t>కృష్ణా</t>
+  </si>
+  <si>
+    <t>districts.kurnool</t>
+  </si>
+  <si>
+    <t>Kurnool</t>
+  </si>
+  <si>
+    <t>कर्नूल</t>
+  </si>
+  <si>
+    <t>కర్నూలు</t>
+  </si>
+  <si>
+    <t>districts.nellore</t>
+  </si>
+  <si>
+    <t>Nellore</t>
+  </si>
+  <si>
+    <t>नेल्लोर</t>
+  </si>
+  <si>
+    <t>నెల్లూరు</t>
+  </si>
+  <si>
+    <t>districts.srikakulam</t>
+  </si>
+  <si>
+    <t>Srikakulam</t>
+  </si>
+  <si>
+    <t>श्रीकाकुलम</t>
+  </si>
+  <si>
+    <t>శ్రీకాకుళం</t>
+  </si>
+  <si>
+    <t>districts.visakhapatnam</t>
+  </si>
+  <si>
+    <t>Visakhapatnam</t>
+  </si>
+  <si>
+    <t>विशाखापत्तनम</t>
+  </si>
+  <si>
+    <t>విశాఖపట్టణం</t>
+  </si>
+  <si>
+    <t>districts.vizianagaram</t>
+  </si>
+  <si>
+    <t>Vizianagaram</t>
+  </si>
+  <si>
+    <t>विजयनगरम</t>
+  </si>
+  <si>
+    <t>విజయనగరం</t>
+  </si>
+  <si>
+    <t>districts.westgodavari</t>
+  </si>
+  <si>
+    <t>West Godavari</t>
+  </si>
+  <si>
+    <t>पश्चिम गोदावरी</t>
+  </si>
+  <si>
+    <t>పశ్చిమ గోదావరి</t>
+  </si>
+  <si>
+    <t>areas.akkayapalem</t>
+  </si>
+  <si>
+    <t>Akkayapalem</t>
+  </si>
+  <si>
+    <t>अक्कायापलेम</t>
+  </si>
+  <si>
+    <t>అక్కయ్యపాలెం</t>
+  </si>
+  <si>
+    <t>areas.anandapuram</t>
+  </si>
+  <si>
+    <t>Anandapuram</t>
+  </si>
+  <si>
+    <t>आनंदपुरम</t>
+  </si>
+  <si>
+    <t>ఆనందపురం</t>
+  </si>
+  <si>
+    <t>areas.boyapalem</t>
+  </si>
+  <si>
+    <t>Boyapalem</t>
+  </si>
+  <si>
+    <t>बोयापलेम</t>
+  </si>
+  <si>
+    <t>బోయపాలెం</t>
+  </si>
+  <si>
+    <t>areas.chinnagadili</t>
+  </si>
+  <si>
+    <t>Chinna Gadili</t>
+  </si>
+  <si>
+    <t>चिन्ना गडिली</t>
+  </si>
+  <si>
+    <t>చిన్న గడిలి</t>
+  </si>
+  <si>
+    <t>areas.dwarkanagar</t>
+  </si>
+  <si>
+    <t>Dwarka Nagar</t>
+  </si>
+  <si>
+    <t>द्वारका नगर</t>
+  </si>
+  <si>
+    <t>ద్వారకా నగర్</t>
+  </si>
+  <si>
+    <t>areas.gajuwaka</t>
+  </si>
+  <si>
+    <t>Gajuwaka</t>
+  </si>
+  <si>
+    <t>गाजुवाका</t>
+  </si>
+  <si>
+    <t>గాజువాక</t>
+  </si>
+  <si>
+    <t>areas.kommadi</t>
+  </si>
+  <si>
+    <t>Kommadi</t>
+  </si>
+  <si>
+    <t>कोम्मडी</t>
+  </si>
+  <si>
+    <t>కొమ్మడి</t>
+  </si>
+  <si>
+    <t>selectSite.title</t>
+  </si>
+  <si>
+    <t>Select Resort</t>
+  </si>
+  <si>
+    <t>रिसॉर्ट चुनें</t>
+  </si>
+  <si>
+    <t>రిసార్ట్‌ను ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>selectSite.searchPlaceholder</t>
+  </si>
+  <si>
+    <t>Search properties in</t>
+  </si>
+  <si>
+    <t>में संपत्तियों को खोजें</t>
+  </si>
+  <si>
+    <t>లో ఆస్తులను శోధించండి</t>
+  </si>
+  <si>
+    <t>selectSite.noResults</t>
+  </si>
+  <si>
+    <t>No properties found</t>
+  </si>
+  <si>
+    <t>कोई संपत्ति नहीं मिली</t>
+  </si>
+  <si>
+    <t>ఆస్తులు కనుగొనబడలేదు</t>
+  </si>
+  <si>
+    <t>sidebar_menu_my_properties</t>
+  </si>
+  <si>
+    <t>My Properties</t>
+  </si>
+  <si>
+    <t>मेरी प्रॉपर्टीज़</t>
+  </si>
+  <si>
+    <t>నా ఆస్తులు</t>
   </si>
 </sst>
 </file>
@@ -4391,10 +4667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4B5E5-1AD3-459E-940E-0D51EC173CF5}">
-  <dimension ref="A1:D431"/>
+  <dimension ref="A1:D459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A435" sqref="A435"/>
+    <sheetView tabSelected="1" topLeftCell="C447" zoomScale="88" workbookViewId="0">
+      <selection activeCell="J465" sqref="J465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9829,60 +10105,382 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A428" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B428" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C428" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D428" t="s">
-        <v>1311</v>
-      </c>
-    </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="B429" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C429" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="D429" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="B430" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="C430" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D430" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="B431" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D431" t="s">
         <v>1321</v>
       </c>
-      <c r="C431" t="s">
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C432" t="s">
         <v>1322</v>
       </c>
-      <c r="D431" t="s">
+      <c r="D432" t="s">
         <v>1323</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C434" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D434" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D435" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D436" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D437" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D438" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D439" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C440" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D440" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C441" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D441" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C442" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D442" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D443" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D444" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D445" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D447" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C448" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D448" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C449" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D450" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D451" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D452" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D453" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C455" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D456" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D457" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D459" t="s">
+        <v>1415</v>
       </c>
     </row>
   </sheetData>

--- a/Frontend/translations.xlsx
+++ b/Frontend/translations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigat\OneDrive\Desktop\Technoji\LandsTime-301-12-2025\Landstime_Androidapp\Frontend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d8c1b1ae6504acc/Desktop/Technoji/LandsTime-301-12-2025/Landstime_Androidapp/Frontend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74111343-B98C-41CA-906F-3209E43F1AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{8C8552CC-8E0E-46FF-8C31-37F9B469AB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{772AA23C-4678-43C4-9516-6E7324AE8D15}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
   </bookViews>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="1416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="2350">
   <si>
     <t>key</t>
   </si>
@@ -4282,6 +4304,2808 @@
   </si>
   <si>
     <t>నా ఆస్తులు</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>Availability Status</t>
+  </si>
+  <si>
+    <t>అందుబాటు స్థితి</t>
+  </si>
+  <si>
+    <t>उपलब्धता स्थिति</t>
+  </si>
+  <si>
+    <t>Ready to Move</t>
+  </si>
+  <si>
+    <t>వెంటనే నివసించడానికి సిద్ధం</t>
+  </si>
+  <si>
+    <t>तुरंत रहने के लिए तैयार</t>
+  </si>
+  <si>
+    <t>Under Construction</t>
+  </si>
+  <si>
+    <t>నిర్మాణంలో ఉంది</t>
+  </si>
+  <si>
+    <t>निर्माणाधीन</t>
+  </si>
+  <si>
+    <t>ownership</t>
+  </si>
+  <si>
+    <t>Ownership</t>
+  </si>
+  <si>
+    <t>యాజమాన్యం</t>
+  </si>
+  <si>
+    <t>स्वामित्व</t>
+  </si>
+  <si>
+    <t>price_details</t>
+  </si>
+  <si>
+    <t>Price Details</t>
+  </si>
+  <si>
+    <t>ధర వివరాలు</t>
+  </si>
+  <si>
+    <t>मूल्य विवरण</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>స్థానం</t>
+  </si>
+  <si>
+    <t>स्थान</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>ప్రాంతం</t>
+  </si>
+  <si>
+    <t>क्षेत्र</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>వివరణ</t>
+  </si>
+  <si>
+    <t>विवरण</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>वैकल्पिक</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>రద్దు చేయండి</t>
+  </si>
+  <si>
+    <t>रद्द करें</t>
+  </si>
+  <si>
+    <t>upload_property</t>
+  </si>
+  <si>
+    <t>Upload Property</t>
+  </si>
+  <si>
+    <t>ఆస్తిని అప్‌లోడ్ చేయండి</t>
+  </si>
+  <si>
+    <t>संपत्ति अपलोड करें</t>
+  </si>
+  <si>
+    <t>uploading</t>
+  </si>
+  <si>
+    <t>Uploading...</t>
+  </si>
+  <si>
+    <t>అప్‌లోడ్ అవుతోంది...</t>
+  </si>
+  <si>
+    <t>अपलोड हो रहा है...</t>
+  </si>
+  <si>
+    <t>expected_price</t>
+  </si>
+  <si>
+    <t>₹ Expected Price</t>
+  </si>
+  <si>
+    <t>₹ ఆశించిన ధర</t>
+  </si>
+  <si>
+    <t>₹ अपेक्षित मूल्य</t>
+  </si>
+  <si>
+    <t>all_inclusive_price</t>
+  </si>
+  <si>
+    <t>All inclusive price</t>
+  </si>
+  <si>
+    <t>అన్ని చార్జీలు కలిపిన ధర</t>
+  </si>
+  <si>
+    <t>सभी शुल्क शामिल मूल्य</t>
+  </si>
+  <si>
+    <t>price_negotiable</t>
+  </si>
+  <si>
+    <t>Price Negotiable</t>
+  </si>
+  <si>
+    <t>ధర చర్చించవచ్చు</t>
+  </si>
+  <si>
+    <t>मूल्य पर बातचीत संभव</t>
+  </si>
+  <si>
+    <t>tax_excluded</t>
+  </si>
+  <si>
+    <t>Tax and Govt. charges excluded</t>
+  </si>
+  <si>
+    <t>పన్నులు &amp; ప్రభుత్వ చార్జీలు కలిపి లేవు</t>
+  </si>
+  <si>
+    <t>कर और सरकारी शुल्क शामिल नहीं</t>
+  </si>
+  <si>
+    <t>add_more_pricing</t>
+  </si>
+  <si>
+    <t>Add more pricing details</t>
+  </si>
+  <si>
+    <t>మరిన్ని ధర వివరాలు జోడించండి</t>
+  </si>
+  <si>
+    <t>और मूल्य विवरण जोड़ें</t>
+  </si>
+  <si>
+    <t>enter_property_location</t>
+  </si>
+  <si>
+    <t>Enter Property Location</t>
+  </si>
+  <si>
+    <t>ఆస్తి స్థానం నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>संपत्ति का स्थान दर्ज करें</t>
+  </si>
+  <si>
+    <t>enter_area</t>
+  </si>
+  <si>
+    <t>Enter Area/Neighborhood (e.g., Akkayapalem)</t>
+  </si>
+  <si>
+    <t>ప్రాంతం / పక్క ప్రాంతం నమోదు చేయండి (ఉదా: అక్కయ్యపాలెం)</t>
+  </si>
+  <si>
+    <t>क्षेत्र / पड़ोस दर्ज करें (जैसे: अक्कयापालेम)</t>
+  </si>
+  <si>
+    <t>describe_property</t>
+  </si>
+  <si>
+    <t>Describe your property ........</t>
+  </si>
+  <si>
+    <t>మీ ఆస్తి గురించి వివరించండి</t>
+  </si>
+  <si>
+    <t>अपनी संपत्ति का विवरण दें</t>
+  </si>
+  <si>
+    <t>other_rooms</t>
+  </si>
+  <si>
+    <t>Other Rooms</t>
+  </si>
+  <si>
+    <t>ఇతర గదులు</t>
+  </si>
+  <si>
+    <t>अन्य कमरे</t>
+  </si>
+  <si>
+    <t>pooja_room</t>
+  </si>
+  <si>
+    <t>study_room</t>
+  </si>
+  <si>
+    <t>servant_room</t>
+  </si>
+  <si>
+    <t>Servant Room</t>
+  </si>
+  <si>
+    <t>సేవకుల గది</t>
+  </si>
+  <si>
+    <t>नौकर कक्ष</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>ఇతరులు</t>
+  </si>
+  <si>
+    <t>अन्य</t>
+  </si>
+  <si>
+    <t>furnishing</t>
+  </si>
+  <si>
+    <t>Furnishing</t>
+  </si>
+  <si>
+    <t>ఫర్నిషింగ్</t>
+  </si>
+  <si>
+    <t>साज-सज्जा</t>
+  </si>
+  <si>
+    <t>unfurnished</t>
+  </si>
+  <si>
+    <t>Unfurnished</t>
+  </si>
+  <si>
+    <t>ఫర్నిష్ చేయని</t>
+  </si>
+  <si>
+    <t>असज्जित</t>
+  </si>
+  <si>
+    <t>semi_furnished</t>
+  </si>
+  <si>
+    <t>Semi-furnished</t>
+  </si>
+  <si>
+    <t>అర్ధ ఫర్నిష్</t>
+  </si>
+  <si>
+    <t>अर्ध-सज्जित</t>
+  </si>
+  <si>
+    <t>furnished</t>
+  </si>
+  <si>
+    <t>Furnished</t>
+  </si>
+  <si>
+    <t>పూర్తిగా ఫర్నిష్</t>
+  </si>
+  <si>
+    <t>पूर्ण सुसज्जित</t>
+  </si>
+  <si>
+    <t>reserved_parking</t>
+  </si>
+  <si>
+    <t>Reserved Parking</t>
+  </si>
+  <si>
+    <t>కేటాయించిన పార్కింగ్</t>
+  </si>
+  <si>
+    <t>आरक्षित पार्किंग</t>
+  </si>
+  <si>
+    <t>covered_parking</t>
+  </si>
+  <si>
+    <t>Covered Parking</t>
+  </si>
+  <si>
+    <t>కవర్డ్ పార్కింగ్</t>
+  </si>
+  <si>
+    <t>ढका हुआ पार्किंग</t>
+  </si>
+  <si>
+    <t>open_parking</t>
+  </si>
+  <si>
+    <t>Open Parking</t>
+  </si>
+  <si>
+    <t>ఓపెన్ పార్కింగ్</t>
+  </si>
+  <si>
+    <t>खुला पार्किंग</t>
+  </si>
+  <si>
+    <t>vaasthu_details</t>
+  </si>
+  <si>
+    <t>Vaasthu Details</t>
+  </si>
+  <si>
+    <t>వాస్తు వివరాలు</t>
+  </si>
+  <si>
+    <t>वास्तु विवरण</t>
+  </si>
+  <si>
+    <t>select_direction</t>
+  </si>
+  <si>
+    <t>Select Direction</t>
+  </si>
+  <si>
+    <t>దిశను ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>दिशा चुनें</t>
+  </si>
+  <si>
+    <t>basic_details</t>
+  </si>
+  <si>
+    <t>Basic Details</t>
+  </si>
+  <si>
+    <t>ప్రాథమిక వివరాలు</t>
+  </si>
+  <si>
+    <t>बुनियादी विवरण</t>
+  </si>
+  <si>
+    <t>property_title</t>
+  </si>
+  <si>
+    <t>Property Title</t>
+  </si>
+  <si>
+    <t>ఆస్తి శీర్షిక</t>
+  </si>
+  <si>
+    <t>संपत्ति का शीर्षक</t>
+  </si>
+  <si>
+    <t>property_type</t>
+  </si>
+  <si>
+    <t>Property Type</t>
+  </si>
+  <si>
+    <t>ఆస్తి రకం</t>
+  </si>
+  <si>
+    <t>संपत्ति का प्रकार</t>
+  </si>
+  <si>
+    <t>floors</t>
+  </si>
+  <si>
+    <t>No. of Floors</t>
+  </si>
+  <si>
+    <t>అంతస్తుల సంఖ్య</t>
+  </si>
+  <si>
+    <t>मंज़िलों की संख्या</t>
+  </si>
+  <si>
+    <t>area_sqft</t>
+  </si>
+  <si>
+    <t>Area (sqft)</t>
+  </si>
+  <si>
+    <t>విస్తీర్ణం (చ.అ.)</t>
+  </si>
+  <si>
+    <t>क्षेत्रफल (वर्ग फुट)</t>
+  </si>
+  <si>
+    <t>bedrooms</t>
+  </si>
+  <si>
+    <t>Bedrooms</t>
+  </si>
+  <si>
+    <t>బెడ్‌రూములు</t>
+  </si>
+  <si>
+    <t>bathrooms</t>
+  </si>
+  <si>
+    <t>బాత్రూములు</t>
+  </si>
+  <si>
+    <t>स्नानघर</t>
+  </si>
+  <si>
+    <t>availability_status</t>
+  </si>
+  <si>
+    <t>ready_to_move</t>
+  </si>
+  <si>
+    <t>under_construction</t>
+  </si>
+  <si>
+    <t>possession_by</t>
+  </si>
+  <si>
+    <t>Possession By</t>
+  </si>
+  <si>
+    <t>స్వాధీనం తేదీ</t>
+  </si>
+  <si>
+    <t>कब्ज़ा तिथि</t>
+  </si>
+  <si>
+    <t>expected_by</t>
+  </si>
+  <si>
+    <t>Expected By</t>
+  </si>
+  <si>
+    <t>అంచనా తేదీ</t>
+  </si>
+  <si>
+    <t>अपेक्षित</t>
+  </si>
+  <si>
+    <t>immediate</t>
+  </si>
+  <si>
+    <t>Immediate</t>
+  </si>
+  <si>
+    <t>వెంటనే</t>
+  </si>
+  <si>
+    <t>तुरंत</t>
+  </si>
+  <si>
+    <t>within_3_months</t>
+  </si>
+  <si>
+    <t>Within 3 months</t>
+  </si>
+  <si>
+    <t>3 నెలల్లో</t>
+  </si>
+  <si>
+    <t>3 महीनों में</t>
+  </si>
+  <si>
+    <t>within_6_months</t>
+  </si>
+  <si>
+    <t>Within 6 months</t>
+  </si>
+  <si>
+    <t>6 నెలల్లో</t>
+  </si>
+  <si>
+    <t>6 महीनों में</t>
+  </si>
+  <si>
+    <t>by_year</t>
+  </si>
+  <si>
+    <t>By</t>
+  </si>
+  <si>
+    <t>నాటికి</t>
+  </si>
+  <si>
+    <t>तक</t>
+  </si>
+  <si>
+    <t>property_ownership</t>
+  </si>
+  <si>
+    <t>Property Ownership</t>
+  </si>
+  <si>
+    <t>ఆస్తి యాజమాన్యం</t>
+  </si>
+  <si>
+    <t>संपत्ति स्वामित्व</t>
+  </si>
+  <si>
+    <t>ownership_verify</t>
+  </si>
+  <si>
+    <t>Verify ownership to publish your property listing securely.</t>
+  </si>
+  <si>
+    <t>మీ ఆస్తిని సురక్షితంగా ప్రచురించడానికి యాజమాన్యం నిర్ధారించండి</t>
+  </si>
+  <si>
+    <t>सुरक्षित रूप से सूची प्रकाशित करने हेतु स्वामित्व सत्यापित करें</t>
+  </si>
+  <si>
+    <t>owner_identity</t>
+  </si>
+  <si>
+    <t>Owner Identity</t>
+  </si>
+  <si>
+    <t>యజమాని గుర్తింపు</t>
+  </si>
+  <si>
+    <t>मालिक की पहचान</t>
+  </si>
+  <si>
+    <t>owner_details</t>
+  </si>
+  <si>
+    <t>Owner Details</t>
+  </si>
+  <si>
+    <t>యజమాని వివరాలు</t>
+  </si>
+  <si>
+    <t>मालिक विवरण</t>
+  </si>
+  <si>
+    <t>owner_name</t>
+  </si>
+  <si>
+    <t>Owner Name</t>
+  </si>
+  <si>
+    <t>యజమాని పేరు</t>
+  </si>
+  <si>
+    <t>मालिक का नाम</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>ఇమెయిల్</t>
+  </si>
+  <si>
+    <t>ईमेल</t>
+  </si>
+  <si>
+    <t>ఐచ్ఛిక</t>
+  </si>
+  <si>
+    <t>upload_your_resort</t>
+  </si>
+  <si>
+    <t>Upload Your Resort</t>
+  </si>
+  <si>
+    <t>अपना रिज़ॉर्ट अपलोड करें</t>
+  </si>
+  <si>
+    <t>మీ రిసార్ట్‌ను అప్‌లోడ్ చేయండి</t>
+  </si>
+  <si>
+    <t>add_property_details</t>
+  </si>
+  <si>
+    <t>Add your property details</t>
+  </si>
+  <si>
+    <t>अपनी संपत्ति का विवरण जोड़ें</t>
+  </si>
+  <si>
+    <t>మీ ఆస్తి వివరాలను జోడించండి</t>
+  </si>
+  <si>
+    <t>resort_title</t>
+  </si>
+  <si>
+    <t>Resort Title</t>
+  </si>
+  <si>
+    <t>रिज़ॉर्ट का नाम</t>
+  </si>
+  <si>
+    <t>రిసార్ట్ శీర్షిక</t>
+  </si>
+  <si>
+    <t>resort_type</t>
+  </si>
+  <si>
+    <t>Resort Type</t>
+  </si>
+  <si>
+    <t>रिज़ॉर्ट प्रकार</t>
+  </si>
+  <si>
+    <t>రిసార్ట్ రకం</t>
+  </si>
+  <si>
+    <t>select_resort_type</t>
+  </si>
+  <si>
+    <t>Select Resort Type</t>
+  </si>
+  <si>
+    <t>रिज़ॉर्ट प्रकार चुनें</t>
+  </si>
+  <si>
+    <t>రిసార్ట్ రకం ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Floors</t>
+  </si>
+  <si>
+    <t>मंज़िलें</t>
+  </si>
+  <si>
+    <t>అంతస్తులు</t>
+  </si>
+  <si>
+    <t>land_area</t>
+  </si>
+  <si>
+    <t>LandArea (sqft)</t>
+  </si>
+  <si>
+    <t>भूमि क्षेत्र (वर्ग फुट)</t>
+  </si>
+  <si>
+    <t>భూమి విస్తీర్ణం (చ.అ.)</t>
+  </si>
+  <si>
+    <t>build_area</t>
+  </si>
+  <si>
+    <t>BuildArea (sqft)</t>
+  </si>
+  <si>
+    <t>निर्मित क्षेत्र (वर्ग फुट)</t>
+  </si>
+  <si>
+    <t>నిర్మిత విస్తీర్ణం (చ.అ.)</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Price(₹)</t>
+  </si>
+  <si>
+    <t>कीमत (₹)</t>
+  </si>
+  <si>
+    <t>ధర (₹)</t>
+  </si>
+  <si>
+    <t>property_facing</t>
+  </si>
+  <si>
+    <t>Property Facing</t>
+  </si>
+  <si>
+    <t>संपत्ति का मुख</t>
+  </si>
+  <si>
+    <t>ఆస్తి ముఖదిశ</t>
+  </si>
+  <si>
+    <t>entrance_direction</t>
+  </si>
+  <si>
+    <t>Entrance Direction</t>
+  </si>
+  <si>
+    <t>प्रवेश दिशा</t>
+  </si>
+  <si>
+    <t>ప్రవేశ దిశ</t>
+  </si>
+  <si>
+    <t>reception_facing</t>
+  </si>
+  <si>
+    <t>Reception Area Facing</t>
+  </si>
+  <si>
+    <t>रिसेप्शन क्षेत्र दिशा</t>
+  </si>
+  <si>
+    <t>రిసెప్షన్ ప్రాంత దిశ</t>
+  </si>
+  <si>
+    <t>main_lobby</t>
+  </si>
+  <si>
+    <t>Main Lobby Direction</t>
+  </si>
+  <si>
+    <t>मुख्य लॉबी दिशा</t>
+  </si>
+  <si>
+    <t>ప్రధాన లాబీ దిశ</t>
+  </si>
+  <si>
+    <t>master_suite</t>
+  </si>
+  <si>
+    <t>Master Suitroom Direction</t>
+  </si>
+  <si>
+    <t>मास्टर सुइट दिशा</t>
+  </si>
+  <si>
+    <t>మాస్టర్ సూట్ గది దిశ</t>
+  </si>
+  <si>
+    <t>guest_room</t>
+  </si>
+  <si>
+    <t>Guest Room Direction</t>
+  </si>
+  <si>
+    <t>अतिथि कक्ष दिशा</t>
+  </si>
+  <si>
+    <t>అతిథి గది దిశ</t>
+  </si>
+  <si>
+    <t>restaurant_direction</t>
+  </si>
+  <si>
+    <t>Restaurant Direction</t>
+  </si>
+  <si>
+    <t>रेस्टोरेंट दिशा</t>
+  </si>
+  <si>
+    <t>రెస్టారెంట్ దిశ</t>
+  </si>
+  <si>
+    <t>vip_suite</t>
+  </si>
+  <si>
+    <t>VIP Suite Direction</t>
+  </si>
+  <si>
+    <t>वीआईपी सुइट दिशा</t>
+  </si>
+  <si>
+    <t>వీఐపీ సూట్ దిశ</t>
+  </si>
+  <si>
+    <t>conference_direction</t>
+  </si>
+  <si>
+    <t>Conference/Banquet Hall Direction</t>
+  </si>
+  <si>
+    <t>सम्मेलन / बैंक्वेट हॉल दिशा</t>
+  </si>
+  <si>
+    <t>సమ్మేళన / బ్యాంకెట్ హాల్ దిశ</t>
+  </si>
+  <si>
+    <t>spa_direction</t>
+  </si>
+  <si>
+    <t>Spa/Wellness Center Direction</t>
+  </si>
+  <si>
+    <t>स्पా / वेलनेस सेंटर दिशा</t>
+  </si>
+  <si>
+    <t>స్పా / వెల్నెస్ కేంద్ర దిశ</t>
+  </si>
+  <si>
+    <t>swimming_pool</t>
+  </si>
+  <si>
+    <t>Swimming Pool Direction</t>
+  </si>
+  <si>
+    <t>स्विमिंग पूल दिशा</t>
+  </si>
+  <si>
+    <t>స్విమ్మింగ్ పూల్ దిశ</t>
+  </si>
+  <si>
+    <t>yoga_area</t>
+  </si>
+  <si>
+    <t>Yoga/Meditation Area Direction</t>
+  </si>
+  <si>
+    <t>योग / ध्यान क्षेत्र दिशा</t>
+  </si>
+  <si>
+    <t>యోగ / ధ్యాన ప్రాంత దిశ</t>
+  </si>
+  <si>
+    <t>kitchen_direction</t>
+  </si>
+  <si>
+    <t>Kitchen Direction</t>
+  </si>
+  <si>
+    <t>रसोई दिशा</t>
+  </si>
+  <si>
+    <t>వంటగది దిశ</t>
+  </si>
+  <si>
+    <t>Prayer/Pooja/Meditation Room Direction</t>
+  </si>
+  <si>
+    <t>प्रार्थना / पूजा कक्ष दिशा</t>
+  </si>
+  <si>
+    <t>పూజ / ధ్యాన గది దిశ</t>
+  </si>
+  <si>
+    <t>office_direction</t>
+  </si>
+  <si>
+    <t>Office/Administration Room Direction</t>
+  </si>
+  <si>
+    <t>कार्यालय / प्रशासन कक्ष दिशा</t>
+  </si>
+  <si>
+    <t>కార్యాలయ / పరిపాలన గది దిశ</t>
+  </si>
+  <si>
+    <t>recreation_area</t>
+  </si>
+  <si>
+    <t>Recreation/Activity Area Direction</t>
+  </si>
+  <si>
+    <t>मनोरंजन / गतिविधि क्षेत्र दिशा</t>
+  </si>
+  <si>
+    <t>వినోద / కార్యకలాపాల ప్రాంత దిశ</t>
+  </si>
+  <si>
+    <t>balcony</t>
+  </si>
+  <si>
+    <t>Balcony/Deck/Veranda</t>
+  </si>
+  <si>
+    <t>बालकनी / डेक / बरामदा</t>
+  </si>
+  <si>
+    <t>బాల్కనీ / డెక్ / వరండా</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>Garden/Open Space/Lawn</t>
+  </si>
+  <si>
+    <t>बगीचा / खुला स्थान / लॉन</t>
+  </si>
+  <si>
+    <t>తోట / ఓపెన్ స్పేస్ / లాన్</t>
+  </si>
+  <si>
+    <t>upload_identity</t>
+  </si>
+  <si>
+    <t>Upload PAN, Aadhaar, Passport or Driver’s License</t>
+  </si>
+  <si>
+    <t>पैन, आधार, पासपोर्ट या ड्राइविंग लाइसेंस अपलोड करें</t>
+  </si>
+  <si>
+    <t>పాన్, ఆధార్, పాస్‌పోర్ట్ లేదా డ్రైవింగ్ లైసెన్స్ అప్‌లోడ్ చేయండి</t>
+  </si>
+  <si>
+    <t>location_advantages</t>
+  </si>
+  <si>
+    <t>Location Advantages</t>
+  </si>
+  <si>
+    <t>स्थान के लाभ</t>
+  </si>
+  <si>
+    <t>ప్రాంత ప్రయోజనాలు</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>सफलता</t>
+  </si>
+  <si>
+    <t>upload_success</t>
+  </si>
+  <si>
+    <t>Property uploaded successfully and sent for approval</t>
+  </si>
+  <si>
+    <t>संपत्ति सफलतापूर्वक अपलोड हुई और अनुमोदन के लिए भेजी गई</t>
+  </si>
+  <si>
+    <t>ఆస్తి విజయవంతంగా అప్‌లోడ్ అయి ఆమోదానికి పంపబడింది</t>
+  </si>
+  <si>
+    <t>balconies</t>
+  </si>
+  <si>
+    <t>age_of_property</t>
+  </si>
+  <si>
+    <t>Age of Property</t>
+  </si>
+  <si>
+    <t>संपत्ति की आयु</t>
+  </si>
+  <si>
+    <t>ఆస్తి వయస్సు</t>
+  </si>
+  <si>
+    <t>0_1_years</t>
+  </si>
+  <si>
+    <t>0-1 years</t>
+  </si>
+  <si>
+    <t>0-1 वर्ष</t>
+  </si>
+  <si>
+    <t>0-1 సంవత్సరాలు</t>
+  </si>
+  <si>
+    <t>1_5_years</t>
+  </si>
+  <si>
+    <t>1-5 years</t>
+  </si>
+  <si>
+    <t>1-5 वर्ष</t>
+  </si>
+  <si>
+    <t>1-5 సంవత్సరాలు</t>
+  </si>
+  <si>
+    <t>5_10_years</t>
+  </si>
+  <si>
+    <t>5-10 years</t>
+  </si>
+  <si>
+    <t>5-10 वर्ष</t>
+  </si>
+  <si>
+    <t>5-10 సంవత్సరాలు</t>
+  </si>
+  <si>
+    <t>10_years</t>
+  </si>
+  <si>
+    <t>10+ years</t>
+  </si>
+  <si>
+    <t>10+ वर्ष</t>
+  </si>
+  <si>
+    <t>10+ సంవత్సరాలు</t>
+  </si>
+  <si>
+    <t>freehold</t>
+  </si>
+  <si>
+    <t>Freehold</t>
+  </si>
+  <si>
+    <t>फ्रीहोल्ड</t>
+  </si>
+  <si>
+    <t>ఫ్రీహోల్డ్</t>
+  </si>
+  <si>
+    <t>leasehold</t>
+  </si>
+  <si>
+    <t>Leasehold</t>
+  </si>
+  <si>
+    <t>लीजहोल्ड</t>
+  </si>
+  <si>
+    <t>లీజ్‌హోల్డ్</t>
+  </si>
+  <si>
+    <t>co_operative_society</t>
+  </si>
+  <si>
+    <t>Co-operative Society</t>
+  </si>
+  <si>
+    <t>सहकारी समिति</t>
+  </si>
+  <si>
+    <t>సహకార సంఘం</t>
+  </si>
+  <si>
+    <t>power_of_attorney</t>
+  </si>
+  <si>
+    <t>Power of Attorney</t>
+  </si>
+  <si>
+    <t>पावर ऑफ अटॉर्नी</t>
+  </si>
+  <si>
+    <t>పవర్ ఆఫ్ అటార్నీ</t>
+  </si>
+  <si>
+    <t>house_facing</t>
+  </si>
+  <si>
+    <t>House Facing</t>
+  </si>
+  <si>
+    <t>घर की दिशा</t>
+  </si>
+  <si>
+    <t>ఇల్లు ఎదురుగా</t>
+  </si>
+  <si>
+    <t>north_east</t>
+  </si>
+  <si>
+    <t>North East</t>
+  </si>
+  <si>
+    <t>उत्तर पूर्व</t>
+  </si>
+  <si>
+    <t>south_west</t>
+  </si>
+  <si>
+    <t>South West</t>
+  </si>
+  <si>
+    <t>दक्षिण पश्चिम</t>
+  </si>
+  <si>
+    <t>east</t>
+  </si>
+  <si>
+    <t>west</t>
+  </si>
+  <si>
+    <t>master_bedroom</t>
+  </si>
+  <si>
+    <t>मास्टर बेडरूम</t>
+  </si>
+  <si>
+    <t>మాస్టర్ బెడ్‌రూమ్</t>
+  </si>
+  <si>
+    <t>children_bedroom</t>
+  </si>
+  <si>
+    <t>Children Bedroom</t>
+  </si>
+  <si>
+    <t>बच्चों का बेडरूम</t>
+  </si>
+  <si>
+    <t>పిల్లల బెడ్‌రూమ్</t>
+  </si>
+  <si>
+    <t>living_room</t>
+  </si>
+  <si>
+    <t>kitchen_room</t>
+  </si>
+  <si>
+    <t>Kitchen Room</t>
+  </si>
+  <si>
+    <t>Balcony</t>
+  </si>
+  <si>
+    <t>బాల్కనీ</t>
+  </si>
+  <si>
+    <t>at_least_3_selections_mandatory</t>
+  </si>
+  <si>
+    <t>At least 3 selections are mandatory</t>
+  </si>
+  <si>
+    <t>कम से कम 3 चयन अनिवार्य हैं</t>
+  </si>
+  <si>
+    <t>కనీసం 3 ఎంపికలు తప్పనిసరి</t>
+  </si>
+  <si>
+    <t>at_least_1_selection_mandatory</t>
+  </si>
+  <si>
+    <t>At least 1 selection is mandatory</t>
+  </si>
+  <si>
+    <t>कम से कम 1 चयन अनिवार्य है</t>
+  </si>
+  <si>
+    <t>కనీసం 1 ఎంపిక తప్పనిసరి</t>
+  </si>
+  <si>
+    <t>property_title_placeholder</t>
+  </si>
+  <si>
+    <t>Enter property title</t>
+  </si>
+  <si>
+    <t>संपत्ति शीर्षक दर्ज करें</t>
+  </si>
+  <si>
+    <t>ఆస్తి శీర్షికను నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>login_required</t>
+  </si>
+  <si>
+    <t>Login Required</t>
+  </si>
+  <si>
+    <t>लॉगिन आवश्यक है</t>
+  </si>
+  <si>
+    <t>లాగిన్ అవసరం</t>
+  </si>
+  <si>
+    <t>please_login_to_upload_properties</t>
+  </si>
+  <si>
+    <t>Please login to upload properties</t>
+  </si>
+  <si>
+    <t>संपत्ति अपलोड करने के लिए कृपया लॉगिन करें</t>
+  </si>
+  <si>
+    <t>ఆస్తులను అప్‌లోడ్ చేయడానికి దయచేసి లాగిన్ చేయండి</t>
+  </si>
+  <si>
+    <t>go_to_login</t>
+  </si>
+  <si>
+    <t>Go to Login</t>
+  </si>
+  <si>
+    <t>लॉगिन पर जाएं</t>
+  </si>
+  <si>
+    <t>లాగిన్‌కు వెళ్ళండి</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>valid_expected_price_required</t>
+  </si>
+  <si>
+    <t>Valid expected price required</t>
+  </si>
+  <si>
+    <t>वैध अपेक्षित मूल्य आवश्यक है</t>
+  </si>
+  <si>
+    <t>చెల్లుబాటు అయ్యే ఆశించిన ధర అవసరం</t>
+  </si>
+  <si>
+    <t>missing_document</t>
+  </si>
+  <si>
+    <t>Missing Document</t>
+  </si>
+  <si>
+    <t>दस्तावेज़ गायब है</t>
+  </si>
+  <si>
+    <t>పత్రం లేదు</t>
+  </si>
+  <si>
+    <t>sale_deed_conveyance_required</t>
+  </si>
+  <si>
+    <t>Sale deed/conveyance required</t>
+  </si>
+  <si>
+    <t>बिक्री विलेख आवश्यक है</t>
+  </si>
+  <si>
+    <t>అమ్మకపు పత్రం అవసరం</t>
+  </si>
+  <si>
+    <t>owner_identity_proof_required</t>
+  </si>
+  <si>
+    <t>Owner identity proof required</t>
+  </si>
+  <si>
+    <t>मालिक की पहचान प्रमाण आवश्यक है</t>
+  </si>
+  <si>
+    <t>యజమాని గుర్తింపు రుజువు అవసరం</t>
+  </si>
+  <si>
+    <t>missing_details</t>
+  </si>
+  <si>
+    <t>Missing Details</t>
+  </si>
+  <si>
+    <t>विवरण गायब हैं</t>
+  </si>
+  <si>
+    <t>వివరాలు లేవు</t>
+  </si>
+  <si>
+    <t>owner_name_required</t>
+  </si>
+  <si>
+    <t>Owner name required</t>
+  </si>
+  <si>
+    <t>मालिक का नाम आवश्यक है</t>
+  </si>
+  <si>
+    <t>యజమాని పేరు అవసరం</t>
+  </si>
+  <si>
+    <t>phone_number_required</t>
+  </si>
+  <si>
+    <t>Phone number required</t>
+  </si>
+  <si>
+    <t>फोन नंबर आवश्यक है</t>
+  </si>
+  <si>
+    <t>ఫోన్ నంబర్ అవసరం</t>
+  </si>
+  <si>
+    <t>email_required</t>
+  </si>
+  <si>
+    <t>Email required</t>
+  </si>
+  <si>
+    <t>ईमेल आवश्यक है</t>
+  </si>
+  <si>
+    <t>ఇమెయిల్ అవసరం</t>
+  </si>
+  <si>
+    <t>add_at_least_one_image</t>
+  </si>
+  <si>
+    <t>Add at least one image</t>
+  </si>
+  <si>
+    <t>कम से कम एक छवि जोड़ें</t>
+  </si>
+  <si>
+    <t>కనీసం ఒక చిత్రాన్ని జోడించండి</t>
+  </si>
+  <si>
+    <t>location_required</t>
+  </si>
+  <si>
+    <t>Location required</t>
+  </si>
+  <si>
+    <t>स्थान आवश्यक है</t>
+  </si>
+  <si>
+    <t>స్థానం అవసరం</t>
+  </si>
+  <si>
+    <t>area_required</t>
+  </si>
+  <si>
+    <t>Area required</t>
+  </si>
+  <si>
+    <t>क्षेत्र आवश्यक है</t>
+  </si>
+  <si>
+    <t>ప్రాంతం అవసరం</t>
+  </si>
+  <si>
+    <t>description_required</t>
+  </si>
+  <si>
+    <t>Description required</t>
+  </si>
+  <si>
+    <t>विवरण आवश्यक है</t>
+  </si>
+  <si>
+    <t>వివరణ అవసరం</t>
+  </si>
+  <si>
+    <t>property_uploaded_successfully</t>
+  </si>
+  <si>
+    <t>Property uploaded successfully</t>
+  </si>
+  <si>
+    <t>संपत्ति सफलतापूर्वक अपलोड की गई</t>
+  </si>
+  <si>
+    <t>ఆస్తి విజయవంతంగా అప్‌లోడ్ చేయబడింది</t>
+  </si>
+  <si>
+    <t>failed_to_upload_property</t>
+  </si>
+  <si>
+    <t>Failed to upload property</t>
+  </si>
+  <si>
+    <t>संपत्ति अपलोड करने में विफल</t>
+  </si>
+  <si>
+    <t>ఆస్తి అప్‌లోడ్ విఫలమైంది</t>
+  </si>
+  <si>
+    <t>something_went_wrong</t>
+  </si>
+  <si>
+    <t>Something went wrong</t>
+  </si>
+  <si>
+    <t>कुछ गलत हो गया</t>
+  </si>
+  <si>
+    <t>ఏదో తప్పు జరిగింది</t>
+  </si>
+  <si>
+    <t>permission_required</t>
+  </si>
+  <si>
+    <t>Permission Required</t>
+  </si>
+  <si>
+    <t>अनुमति आवश्यक है</t>
+  </si>
+  <si>
+    <t>అనుమతి అవసరం</t>
+  </si>
+  <si>
+    <t>grant_camera_permissions</t>
+  </si>
+  <si>
+    <t>Grant camera permissions</t>
+  </si>
+  <si>
+    <t>कैमरा अनुमतियाँ दें</t>
+  </si>
+  <si>
+    <t>కెమెరా అనుమతులను ఇవ్వండి</t>
+  </si>
+  <si>
+    <t>grant_photo_library_access</t>
+  </si>
+  <si>
+    <t>Grant photo library access</t>
+  </si>
+  <si>
+    <t>फोटो लाइब्रेरी एक्सेस दें</t>
+  </si>
+  <si>
+    <t>ఫోటో లైబ్రరీ యాక్సెస్ ఇవ్వండి</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>घर</t>
+  </si>
+  <si>
+    <t>ఇల్లు</t>
+  </si>
+  <si>
+    <t>resort</t>
+  </si>
+  <si>
+    <t>Resort</t>
+  </si>
+  <si>
+    <t>रिसॉर्ट</t>
+  </si>
+  <si>
+    <t>రిసార్ట్</t>
+  </si>
+  <si>
+    <t>अपना रिसॉर्ट अपलोड करें</t>
+  </si>
+  <si>
+    <t>रिसॉर्ट शीर्षक</t>
+  </si>
+  <si>
+    <t>resort_title_placeholder</t>
+  </si>
+  <si>
+    <t>Enter resort title</t>
+  </si>
+  <si>
+    <t>रिसॉर्ट शीर्षक दर्ज करें</t>
+  </si>
+  <si>
+    <t>రిసార్ట్ శీర్షిక నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>resort_title_required</t>
+  </si>
+  <si>
+    <t>Resort title is required</t>
+  </si>
+  <si>
+    <t>रिसॉर्ट शीर्षक आवश्यक है</t>
+  </si>
+  <si>
+    <t>రిసార్ట్ శీర్షిక అవసరం</t>
+  </si>
+  <si>
+    <t>रिसॉर्ट प्रकार</t>
+  </si>
+  <si>
+    <t>रिसॉर्ट प्रकार चुनें</t>
+  </si>
+  <si>
+    <t>Land Area (sq.ft.)</t>
+  </si>
+  <si>
+    <t>land_area_required</t>
+  </si>
+  <si>
+    <t>Land area is required</t>
+  </si>
+  <si>
+    <t>भूमि क्षेत्र आवश्यक है</t>
+  </si>
+  <si>
+    <t>భూమి విస్తీర్ణం అవసరం</t>
+  </si>
+  <si>
+    <t>Built Area (sq.ft.)</t>
+  </si>
+  <si>
+    <t>build_area_required</t>
+  </si>
+  <si>
+    <t>Built area is required</t>
+  </si>
+  <si>
+    <t>निर्मित क्षेत्र आवश्यक है</t>
+  </si>
+  <si>
+    <t>నిర్మిత విస్తీర్ణం అవసరం</t>
+  </si>
+  <si>
+    <t>valid_price_required</t>
+  </si>
+  <si>
+    <t>Valid price is required</t>
+  </si>
+  <si>
+    <t>वैध मूल्य आवश्यक है</t>
+  </si>
+  <si>
+    <t>చెల్లుబాటు అయ్యే ధర అవసరం</t>
+  </si>
+  <si>
+    <t>upload_required_documents</t>
+  </si>
+  <si>
+    <t>Please upload required documents</t>
+  </si>
+  <si>
+    <t>कृपया आवश्यक दस्तावेज़ अपलोड करें</t>
+  </si>
+  <si>
+    <t>దయచేసి అవసరమైన పత్రాలను అప్‌లోడ్ చేయండి</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>ठीक है</t>
+  </si>
+  <si>
+    <t>సరే</t>
+  </si>
+  <si>
+    <t>beachfront_resort</t>
+  </si>
+  <si>
+    <t>Beachfront Resort</t>
+  </si>
+  <si>
+    <t>समुद्र तट रिसॉर्ट</t>
+  </si>
+  <si>
+    <t>బీచ్‌ఫ్రంట్ రిసార్ట్</t>
+  </si>
+  <si>
+    <t>hill_station_mountain_resort</t>
+  </si>
+  <si>
+    <t>Hill Station / Mountain Resort</t>
+  </si>
+  <si>
+    <t>पहाड़ी स्टेशन / पर्वतीय रिसॉर्ट</t>
+  </si>
+  <si>
+    <t>కొండ స్టేషన్ / పర్వత రిసార్ట్</t>
+  </si>
+  <si>
+    <t>forest_jungle_retreat</t>
+  </si>
+  <si>
+    <t>Forest / Jungle Retreat</t>
+  </si>
+  <si>
+    <t>वन / जंगल रिट्रीट</t>
+  </si>
+  <si>
+    <t>అడవి / అరణ్య రిట్రీట్</t>
+  </si>
+  <si>
+    <t>lakefront_resort</t>
+  </si>
+  <si>
+    <t>Lakefront Resort</t>
+  </si>
+  <si>
+    <t>झील के किनारे रिसॉर्ट</t>
+  </si>
+  <si>
+    <t>సరస్సు తీర రిసార్ట్</t>
+  </si>
+  <si>
+    <t>desert_resort</t>
+  </si>
+  <si>
+    <t>Desert Resort</t>
+  </si>
+  <si>
+    <t>रेगिस्तान रिसॉर्ट</t>
+  </si>
+  <si>
+    <t>ఎడారి రిసార్ట్</t>
+  </si>
+  <si>
+    <t>eco_resort</t>
+  </si>
+  <si>
+    <t>Eco Resort</t>
+  </si>
+  <si>
+    <t>इको रिसॉर्ट</t>
+  </si>
+  <si>
+    <t>ఎకో రిసార్ట్</t>
+  </si>
+  <si>
+    <t>island_resort</t>
+  </si>
+  <si>
+    <t>Island Resort</t>
+  </si>
+  <si>
+    <t>द्वीप रिसॉर्ट</t>
+  </si>
+  <si>
+    <t>ద్వీప రిసార్ట్</t>
+  </si>
+  <si>
+    <t>wellness_spa_resort</t>
+  </si>
+  <si>
+    <t>Wellness / Spa Resort</t>
+  </si>
+  <si>
+    <t>वेलनेस / स्पा रिसॉर्ट</t>
+  </si>
+  <si>
+    <t>వెల్నెస్ / స్పా రిసార్ట్</t>
+  </si>
+  <si>
+    <t>luxury_resort</t>
+  </si>
+  <si>
+    <t>Luxury Resort</t>
+  </si>
+  <si>
+    <t>लक्जरी रिसॉर्ट</t>
+  </si>
+  <si>
+    <t>లగ్జరీ రిసార్ట్</t>
+  </si>
+  <si>
+    <t>boutique_resort</t>
+  </si>
+  <si>
+    <t>Boutique Resort</t>
+  </si>
+  <si>
+    <t>बुटीक रिसॉर्ट</t>
+  </si>
+  <si>
+    <t>బోటిక్ రిసార్ట్</t>
+  </si>
+  <si>
+    <t>family_resort</t>
+  </si>
+  <si>
+    <t>Family Resort</t>
+  </si>
+  <si>
+    <t>पारिवारिक रिसॉर्ट</t>
+  </si>
+  <si>
+    <t>కుటుంబ రిసార్ట్</t>
+  </si>
+  <si>
+    <t>adventure_activity_resort</t>
+  </si>
+  <si>
+    <t>Adventure / Activity Resort</t>
+  </si>
+  <si>
+    <t>साहसिक / गतिविधि रिसॉर्ट</t>
+  </si>
+  <si>
+    <t>సాహస / కార్యకలాప రిసార్ట్</t>
+  </si>
+  <si>
+    <t>safari_wildlife_resort</t>
+  </si>
+  <si>
+    <t>Safari / Wildlife Resort</t>
+  </si>
+  <si>
+    <t>सफारी / वन्यजीव रिसॉर्ट</t>
+  </si>
+  <si>
+    <t>సఫారీ / వన్యప్రాణి రిసార్ట్</t>
+  </si>
+  <si>
+    <t>water_park_resort</t>
+  </si>
+  <si>
+    <t>Water Park Resort</t>
+  </si>
+  <si>
+    <t>वाटर पार्क रिसॉर्ट</t>
+  </si>
+  <si>
+    <t>వాటర్ పార్క్ రిసార్ట్</t>
+  </si>
+  <si>
+    <t>golf_resort</t>
+  </si>
+  <si>
+    <t>Golf Resort</t>
+  </si>
+  <si>
+    <t>गोल्फ रिसॉर्ट</t>
+  </si>
+  <si>
+    <t>గోల్ఫ్ రిసార్ట్</t>
+  </si>
+  <si>
+    <t>riverfront_resort</t>
+  </si>
+  <si>
+    <t>Riverfront Resort</t>
+  </si>
+  <si>
+    <t>नदी के किनारे रिसॉर्ट</t>
+  </si>
+  <si>
+    <t>నది తీర రిసార్ట్</t>
+  </si>
+  <si>
+    <t>farm_agri_resort</t>
+  </si>
+  <si>
+    <t>Farm / Agri Resort</t>
+  </si>
+  <si>
+    <t>फार्म / कृषि रिसॉर्ट</t>
+  </si>
+  <si>
+    <t>ఫార్మ్ / వ్యవసాయ రిసార్ట్</t>
+  </si>
+  <si>
+    <t>theme_resort</t>
+  </si>
+  <si>
+    <t>Theme Resort</t>
+  </si>
+  <si>
+    <t>थीम रिसॉर्ट</t>
+  </si>
+  <si>
+    <t>థీమ్ రిసార్ట్</t>
+  </si>
+  <si>
+    <t>business_conference_resort</t>
+  </si>
+  <si>
+    <t>Business / Conference Resort</t>
+  </si>
+  <si>
+    <t>व्यवसाय / सम्मेलन रिसॉर्ट</t>
+  </si>
+  <si>
+    <t>వ్యాపార / సమావేశ రిసార్ట్</t>
+  </si>
+  <si>
+    <t>eco_lodge_nature_retreat</t>
+  </si>
+  <si>
+    <t>Eco Lodge / Nature Retreat</t>
+  </si>
+  <si>
+    <t>इको लॉज / प्रकृति रिट्रीट</t>
+  </si>
+  <si>
+    <t>ఎకో లాడ్జ్ / ప్రకృతి రిట్రీట్</t>
+  </si>
+  <si>
+    <t>संपत्ति का सामना</t>
+  </si>
+  <si>
+    <t>ఆస్తి దిశ</t>
+  </si>
+  <si>
+    <t>Master Suite Direction</t>
+  </si>
+  <si>
+    <t>मास्टर सूट दिशा</t>
+  </si>
+  <si>
+    <t>మాస్టర్ సూట్ దిశ</t>
+  </si>
+  <si>
+    <t>रेस्तरां दिशा</t>
+  </si>
+  <si>
+    <t>वीआईपी सूट दिशा</t>
+  </si>
+  <si>
+    <t>सम्मेलन/भोज हॉल दिशा</t>
+  </si>
+  <si>
+    <t>సమావేశ / బాంక్వెట్ హాల్ దిశ</t>
+  </si>
+  <si>
+    <t>स्पा/वेलनेस केंद्र दिशा</t>
+  </si>
+  <si>
+    <t>योग/ध्यान क्षेत्र दिशा</t>
+  </si>
+  <si>
+    <t>Office/Admin Room Direction</t>
+  </si>
+  <si>
+    <t>कार्यालय/प्रशासन कक्ष दिशा</t>
+  </si>
+  <si>
+    <t>Recreation/Activities Area Direction</t>
+  </si>
+  <si>
+    <t>मनोरंजन/गतिविधियाँ क्षेत्र दिशा</t>
+  </si>
+  <si>
+    <t>बगीचा/खुली जगह/लॉन</t>
+  </si>
+  <si>
+    <t>close_to_metro_station</t>
+  </si>
+  <si>
+    <t>Close to Metro Station</t>
+  </si>
+  <si>
+    <t>मेट्रो स्टेशन के पास</t>
+  </si>
+  <si>
+    <t>మెట్రో స్టేషన్‌కు సమీపంలో</t>
+  </si>
+  <si>
+    <t>close_to_school</t>
+  </si>
+  <si>
+    <t>Close to School</t>
+  </si>
+  <si>
+    <t>स्कूल के पास</t>
+  </si>
+  <si>
+    <t>పాఠశాలకు సమీపంలో</t>
+  </si>
+  <si>
+    <t>close_to_hospital</t>
+  </si>
+  <si>
+    <t>Close to Hospital</t>
+  </si>
+  <si>
+    <t>अस्पताल के पास</t>
+  </si>
+  <si>
+    <t>ఆసుపత్రికి సమీపంలో</t>
+  </si>
+  <si>
+    <t>close_to_market</t>
+  </si>
+  <si>
+    <t>Close to Market</t>
+  </si>
+  <si>
+    <t>बाजार के पास</t>
+  </si>
+  <si>
+    <t>మార్కెట్‌కు సమీపంలో</t>
+  </si>
+  <si>
+    <t>close_to_railway_station</t>
+  </si>
+  <si>
+    <t>Close to Railway Station</t>
+  </si>
+  <si>
+    <t>रेलवे स्टेशन के पास</t>
+  </si>
+  <si>
+    <t>రైల్వే స్టేషన్‌కు సమీపంలో</t>
+  </si>
+  <si>
+    <t>close_to_airport</t>
+  </si>
+  <si>
+    <t>Close to Airport</t>
+  </si>
+  <si>
+    <t>हवाई अड्डे के पास</t>
+  </si>
+  <si>
+    <t>విమానాశ్రయానికి సమీపంలో</t>
+  </si>
+  <si>
+    <t>close_to_mall</t>
+  </si>
+  <si>
+    <t>Close to Mall</t>
+  </si>
+  <si>
+    <t>मॉल के पास</t>
+  </si>
+  <si>
+    <t>మాల్‌కు సమీపంలో</t>
+  </si>
+  <si>
+    <t>close_to_highway</t>
+  </si>
+  <si>
+    <t>Close to Highway</t>
+  </si>
+  <si>
+    <t>राजमार्ग के पास</t>
+  </si>
+  <si>
+    <t>హైవేకి సమీపంలో</t>
+  </si>
+  <si>
+    <t>Sale deed / conveyance required</t>
+  </si>
+  <si>
+    <t>site_plot_land</t>
+  </si>
+  <si>
+    <t>Site/Plot/Land</t>
+  </si>
+  <si>
+    <t>साइट/प्लॉट/भूमि</t>
+  </si>
+  <si>
+    <t>సైట్/ప్లాట్/భూమి</t>
+  </si>
+  <si>
+    <t>upload_your_property</t>
+  </si>
+  <si>
+    <t>Upload Your Property</t>
+  </si>
+  <si>
+    <t>अपनी संपत्ति अपलोड करें</t>
+  </si>
+  <si>
+    <t>మీ ఆస్తిని అప్‌లోడ్ చేయండి</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>लंबाई</t>
+  </si>
+  <si>
+    <t>పొడవు</t>
+  </si>
+  <si>
+    <t>length_required</t>
+  </si>
+  <si>
+    <t>Length is required</t>
+  </si>
+  <si>
+    <t>लंबाई आवश्यक है</t>
+  </si>
+  <si>
+    <t>పొడవు అవసరం</t>
+  </si>
+  <si>
+    <t>breadth</t>
+  </si>
+  <si>
+    <t>Breadth</t>
+  </si>
+  <si>
+    <t>चौड़ाई</t>
+  </si>
+  <si>
+    <t>వెడల్పు</t>
+  </si>
+  <si>
+    <t>breadth_required</t>
+  </si>
+  <si>
+    <t>Breadth is required</t>
+  </si>
+  <si>
+    <t>चौड़ाई आवश्यक है</t>
+  </si>
+  <si>
+    <t>వెడల్పు అవసరం</t>
+  </si>
+  <si>
+    <t>in_ft</t>
+  </si>
+  <si>
+    <t>in Ft..</t>
+  </si>
+  <si>
+    <t>फीट में..</t>
+  </si>
+  <si>
+    <t>అడుగులలో..</t>
+  </si>
+  <si>
+    <t>floors_allowed_construction</t>
+  </si>
+  <si>
+    <t>Floors Allowed for Construction</t>
+  </si>
+  <si>
+    <t>निर्माण के लिए अनुमत मंजिलें</t>
+  </si>
+  <si>
+    <t>నిర్మాణానికి అనుమతించిన అంతస్తులు</t>
+  </si>
+  <si>
+    <t>no_of_floors</t>
+  </si>
+  <si>
+    <t>मंजिलों की संख्या</t>
+  </si>
+  <si>
+    <t>boundary_wall_question</t>
+  </si>
+  <si>
+    <t>Is there a boundary wall around the property?</t>
+  </si>
+  <si>
+    <t>क्या संपत्ति के चारों ओर सीमा दीवार है?</t>
+  </si>
+  <si>
+    <t>ఆస్తి చుట్టూ సరిహద్దు గోడ ఉందా?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>లేదు</t>
+  </si>
+  <si>
+    <t>no_of_open_sides</t>
+  </si>
+  <si>
+    <t>No. of open sides</t>
+  </si>
+  <si>
+    <t>खुली भुजाओं की संख्या</t>
+  </si>
+  <si>
+    <t>తెరిచిన వైపుల సంఖ్య</t>
+  </si>
+  <si>
+    <t>construction_done_question</t>
+  </si>
+  <si>
+    <t>Any construction done on this property?</t>
+  </si>
+  <si>
+    <t>इस संपत्ति पर कोई निर्माण किया गया है?</t>
+  </si>
+  <si>
+    <t>ఈ ఆస్తిపై ఏదైనా నిర్మాణం జరిగిందా?</t>
+  </si>
+  <si>
+    <t>construction_type_question</t>
+  </si>
+  <si>
+    <t>What type of construction has been done?</t>
+  </si>
+  <si>
+    <t>किस प्रकार का निर्माण किया गया है?</t>
+  </si>
+  <si>
+    <t>ఎలాంటి నిర్మాణం జరిగింది?</t>
+  </si>
+  <si>
+    <t>shed</t>
+  </si>
+  <si>
+    <t>washroom</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>अपेक्षित तिथि</t>
+  </si>
+  <si>
+    <t>ఆశించిన తేదీ</t>
+  </si>
+  <si>
+    <t>1_3_months</t>
+  </si>
+  <si>
+    <t>1-3 months</t>
+  </si>
+  <si>
+    <t>1-3 महीने</t>
+  </si>
+  <si>
+    <t>1-3 నెలలు</t>
+  </si>
+  <si>
+    <t>3_6_months</t>
+  </si>
+  <si>
+    <t>3-6 months</t>
+  </si>
+  <si>
+    <t>3-6 महीने</t>
+  </si>
+  <si>
+    <t>3-6 నెలలు</t>
+  </si>
+  <si>
+    <t>6_plus_months</t>
+  </si>
+  <si>
+    <t>6+ months</t>
+  </si>
+  <si>
+    <t>6+ महीने</t>
+  </si>
+  <si>
+    <t>6+ నెలలు</t>
+  </si>
+  <si>
+    <t>approved_by_optional</t>
+  </si>
+  <si>
+    <t>Which authority the property is approved by? (Optional)</t>
+  </si>
+  <si>
+    <t>संपत्ति किस प्राधिकरण द्वारा अनुमोदित है? (वैकल्पिक)</t>
+  </si>
+  <si>
+    <t>ఆస్తి ఏ అధికారంచే ఆమోదించబడింది? (ఐచ్ఛికం)</t>
+  </si>
+  <si>
+    <t>expected_price_placeholder</t>
+  </si>
+  <si>
+    <t>tax_govt_charges_excluded</t>
+  </si>
+  <si>
+    <t>add_more_pricing_details</t>
+  </si>
+  <si>
+    <t>area_numeric_required</t>
+  </si>
+  <si>
+    <t>Area (numeric) is required</t>
+  </si>
+  <si>
+    <t>क्षेत्र (संख्यात्मक) आवश्यक है</t>
+  </si>
+  <si>
+    <t>ప్రాంతం (సంఖ్యాత్మక) అవసరం</t>
+  </si>
+  <si>
+    <t>plot_facing</t>
+  </si>
+  <si>
+    <t>Plot Facing</t>
+  </si>
+  <si>
+    <t>प्लॉट का सामना</t>
+  </si>
+  <si>
+    <t>ప్లాట్ ముఖదిశ</t>
+  </si>
+  <si>
+    <t>main_entry_gate_direction</t>
+  </si>
+  <si>
+    <t>Main Entry/Gate Direction</t>
+  </si>
+  <si>
+    <t>मुख्य प्रवेश/गेट दिशा</t>
+  </si>
+  <si>
+    <t>ప్రధాన ప్రవేశ/గేట్ దిశ</t>
+  </si>
+  <si>
+    <t>plot_slope_direction</t>
+  </si>
+  <si>
+    <t>Plot Slope Direction</t>
+  </si>
+  <si>
+    <t>प्लॉट ढलान दिशा</t>
+  </si>
+  <si>
+    <t>ప్లాట్ వాలు దిశ</t>
+  </si>
+  <si>
+    <t>open_space_vastu</t>
+  </si>
+  <si>
+    <t>Open Space as per Vastu</t>
+  </si>
+  <si>
+    <t>वास्तु के अनुसार खुली जगह</t>
+  </si>
+  <si>
+    <t>వాస్తు ప్రకారం బహిరంగ స్థలం</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>आकार</t>
+  </si>
+  <si>
+    <t>ఆకారం</t>
+  </si>
+  <si>
+    <t>road_position</t>
+  </si>
+  <si>
+    <t>Road Position</t>
+  </si>
+  <si>
+    <t>सड़क की स्थिति</t>
+  </si>
+  <si>
+    <t>రహదారి స్థానం</t>
+  </si>
+  <si>
+    <t>water_source_location</t>
+  </si>
+  <si>
+    <t>Water Source Location</t>
+  </si>
+  <si>
+    <t>जल स्रोत स्थान</t>
+  </si>
+  <si>
+    <t>నీటి మూల స్థానం</t>
+  </si>
+  <si>
+    <t>drainage_direction</t>
+  </si>
+  <si>
+    <t>Drainage Direction</t>
+  </si>
+  <si>
+    <t>जल निकासी दिशा</t>
+  </si>
+  <si>
+    <t>డ్రైనేజ్ దిశ</t>
+  </si>
+  <si>
+    <t>compound_wall_height</t>
+  </si>
+  <si>
+    <t>Compound Wall Height</t>
+  </si>
+  <si>
+    <t>परिसर की दीवार की ऊंचाई</t>
+  </si>
+  <si>
+    <t>కాంపౌండ్ గోడ ఎత్తు</t>
+  </si>
+  <si>
+    <t>existing_structures</t>
+  </si>
+  <si>
+    <t>Existing Structures</t>
+  </si>
+  <si>
+    <t>मौजूदा संरचनाएं</t>
+  </si>
+  <si>
+    <t>ఇప్పటికే ఉన్న నిర్మాణాలు</t>
+  </si>
+  <si>
+    <t>towards_north</t>
+  </si>
+  <si>
+    <t>Towards North</t>
+  </si>
+  <si>
+    <t>उत्तर की ओर</t>
+  </si>
+  <si>
+    <t>ఉత్తరం వైపు</t>
+  </si>
+  <si>
+    <t>towards_south</t>
+  </si>
+  <si>
+    <t>Towards South</t>
+  </si>
+  <si>
+    <t>दक्षिण की ओर</t>
+  </si>
+  <si>
+    <t>దక్షిణం వైపు</t>
+  </si>
+  <si>
+    <t>towards_east</t>
+  </si>
+  <si>
+    <t>Towards East</t>
+  </si>
+  <si>
+    <t>पूर्व की ओर</t>
+  </si>
+  <si>
+    <t>తూర్పు వైపు</t>
+  </si>
+  <si>
+    <t>towards_west</t>
+  </si>
+  <si>
+    <t>Towards West</t>
+  </si>
+  <si>
+    <t>पश्चिम की ओर</t>
+  </si>
+  <si>
+    <t>పడమర వైపు</t>
+  </si>
+  <si>
+    <t>level_ground</t>
+  </si>
+  <si>
+    <t>Level ground</t>
+  </si>
+  <si>
+    <t>समतल भूमि</t>
+  </si>
+  <si>
+    <t>సమతల భూమి</t>
+  </si>
+  <si>
+    <t>balanced_open_space</t>
+  </si>
+  <si>
+    <t>Balanced open space</t>
+  </si>
+  <si>
+    <t>संतुलित खुली जगह</t>
+  </si>
+  <si>
+    <t>సమతుల్య బహిరంగ స్థలం</t>
+  </si>
+  <si>
+    <t>more_space_north</t>
+  </si>
+  <si>
+    <t>More space in North</t>
+  </si>
+  <si>
+    <t>उत्तर में अधिक जगह</t>
+  </si>
+  <si>
+    <t>ఉత్తరంలో ఎక్కువ స్థలం</t>
+  </si>
+  <si>
+    <t>more_space_east</t>
+  </si>
+  <si>
+    <t>More space in East</t>
+  </si>
+  <si>
+    <t>पूर्व में अधिक जगह</t>
+  </si>
+  <si>
+    <t>తూర్పులో ఎక్కువ స్థలం</t>
+  </si>
+  <si>
+    <t>more_space_south</t>
+  </si>
+  <si>
+    <t>More space in South</t>
+  </si>
+  <si>
+    <t>दक्षिण में अधिक जगह</t>
+  </si>
+  <si>
+    <t>దక్షిణంలో ఎక్కువ స్థలం</t>
+  </si>
+  <si>
+    <t>more_space_west</t>
+  </si>
+  <si>
+    <t>More space in West</t>
+  </si>
+  <si>
+    <t>पश्चिम में अधिक जगह</t>
+  </si>
+  <si>
+    <t>పడమరలో ఎక్కువ స్థలం</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>Square</t>
+  </si>
+  <si>
+    <t>वर्ग</t>
+  </si>
+  <si>
+    <t>చతురస్రం</t>
+  </si>
+  <si>
+    <t>rectangle</t>
+  </si>
+  <si>
+    <t>Rectangle</t>
+  </si>
+  <si>
+    <t>आयत</t>
+  </si>
+  <si>
+    <t>దీర్ఘచతురస్రం</t>
+  </si>
+  <si>
+    <t>irregular</t>
+  </si>
+  <si>
+    <t>Irregular</t>
+  </si>
+  <si>
+    <t>अनियमित</t>
+  </si>
+  <si>
+    <t>అసమాన</t>
+  </si>
+  <si>
+    <t>l_shaped</t>
+  </si>
+  <si>
+    <t>L-shaped</t>
+  </si>
+  <si>
+    <t>एल-आकार</t>
+  </si>
+  <si>
+    <t>ఎల్-ఆకారం</t>
+  </si>
+  <si>
+    <t>t_shaped</t>
+  </si>
+  <si>
+    <t>T-shaped</t>
+  </si>
+  <si>
+    <t>टी-आकार</t>
+  </si>
+  <si>
+    <t>టి-ఆకారం</t>
+  </si>
+  <si>
+    <t>water_source_north</t>
+  </si>
+  <si>
+    <t>Water source in North</t>
+  </si>
+  <si>
+    <t>उत्तर में जल स्रोत</t>
+  </si>
+  <si>
+    <t>ఉత్తరంలో నీటి మూలం</t>
+  </si>
+  <si>
+    <t>water_source_east</t>
+  </si>
+  <si>
+    <t>Water source in East</t>
+  </si>
+  <si>
+    <t>पूर्व में जल स्रोत</t>
+  </si>
+  <si>
+    <t>తూర్పులో నీటి మూలం</t>
+  </si>
+  <si>
+    <t>water_source_north_east</t>
+  </si>
+  <si>
+    <t>Water source in North-East</t>
+  </si>
+  <si>
+    <t>उत्तर-पूर्व में जल स्रोत</t>
+  </si>
+  <si>
+    <t>ఈశాన్యంలో నీటి మూలం</t>
+  </si>
+  <si>
+    <t>no_water_source</t>
+  </si>
+  <si>
+    <t>No water source</t>
+  </si>
+  <si>
+    <t>कोई जल स्रोत नहीं</t>
+  </si>
+  <si>
+    <t>నీటి మూలం లేదు</t>
+  </si>
+  <si>
+    <t>south_east</t>
+  </si>
+  <si>
+    <t>South-East</t>
+  </si>
+  <si>
+    <t>north_west</t>
+  </si>
+  <si>
+    <t>North-West</t>
+  </si>
+  <si>
+    <t>equal_height_all_sides</t>
+  </si>
+  <si>
+    <t>Equal height on all sides</t>
+  </si>
+  <si>
+    <t>सभी तरफ समान ऊंचाई</t>
+  </si>
+  <si>
+    <t>అన్ని వైపులా సమాన ఎత్తు</t>
+  </si>
+  <si>
+    <t>higher_south</t>
+  </si>
+  <si>
+    <t>Higher in South</t>
+  </si>
+  <si>
+    <t>दक्षिण में अधिक ऊंचाई</t>
+  </si>
+  <si>
+    <t>దక్షిణంలో ఎత్తు</t>
+  </si>
+  <si>
+    <t>higher_west</t>
+  </si>
+  <si>
+    <t>Higher in West</t>
+  </si>
+  <si>
+    <t>पश्चिम में अधिक ऊंचाई</t>
+  </si>
+  <si>
+    <t>పడమరలో ఎత్తు</t>
+  </si>
+  <si>
+    <t>no_compound_wall</t>
+  </si>
+  <si>
+    <t>No compound wall</t>
+  </si>
+  <si>
+    <t>कोई परिसर दीवार नहीं</t>
+  </si>
+  <si>
+    <t>కాంపౌండ్ గోడ లేదు</t>
+  </si>
+  <si>
+    <t>no_structures</t>
+  </si>
+  <si>
+    <t>No structures</t>
+  </si>
+  <si>
+    <t>कोई संरचना नहीं</t>
+  </si>
+  <si>
+    <t>నిర్మాణాలు లేవు</t>
+  </si>
+  <si>
+    <t>shed_garage</t>
+  </si>
+  <si>
+    <t>Shed/Garage</t>
+  </si>
+  <si>
+    <t>शेड/गैरेज</t>
+  </si>
+  <si>
+    <t>షెడ్/గ్యారేజ్</t>
+  </si>
+  <si>
+    <t>small_room</t>
+  </si>
+  <si>
+    <t>Small room</t>
+  </si>
+  <si>
+    <t>छोटा कमरा</t>
+  </si>
+  <si>
+    <t>చిన్న గది</t>
+  </si>
+  <si>
+    <t>well_borewell</t>
+  </si>
+  <si>
+    <t>Well/Borewell</t>
+  </si>
+  <si>
+    <t>कुआं/बोरवेल</t>
+  </si>
+  <si>
+    <t>బావి/బోర్‌వెల్</t>
+  </si>
+  <si>
+    <t>temple</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>मंदिर</t>
+  </si>
+  <si>
+    <t>ఆలయం</t>
+  </si>
+  <si>
+    <t>maintenance_staff</t>
+  </si>
+  <si>
+    <t>water_storage</t>
+  </si>
+  <si>
+    <t>rainwater_harvesting</t>
+  </si>
+  <si>
+    <t>vastu_compliant</t>
+  </si>
+  <si>
+    <t>Feng Shui/Vastu Compliant</t>
+  </si>
+  <si>
+    <t>फेंग शुई/वास्तु अनुपालन</t>
+  </si>
+  <si>
+    <t>ఫెంగ్ షుయ్/వాస్తు అనుగుణ</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>पूल</t>
+  </si>
+  <si>
+    <t>పూల్</t>
+  </si>
+  <si>
+    <t>park</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>पार्क</t>
+  </si>
+  <si>
+    <t>పార్క్</t>
+  </si>
+  <si>
+    <t>club</t>
+  </si>
+  <si>
+    <t>Club</t>
+  </si>
+  <si>
+    <t>क्लब</t>
+  </si>
+  <si>
+    <t>క్లబ్</t>
+  </si>
+  <si>
+    <t>main_road</t>
+  </si>
+  <si>
+    <t>Main Road</t>
+  </si>
+  <si>
+    <t>मुख्य सड़क</t>
+  </si>
+  <si>
+    <t>ప్రధాన రోడ్డు</t>
+  </si>
+  <si>
+    <t>in_gated_society</t>
+  </si>
+  <si>
+    <t>In a Gated Society</t>
+  </si>
+  <si>
+    <t>गेटेड सोसाइटी में</t>
+  </si>
+  <si>
+    <t>గేటెడ్ సొసైటీలో</t>
+  </si>
+  <si>
+    <t>corner_property</t>
+  </si>
+  <si>
+    <t>Corner Property</t>
+  </si>
+  <si>
+    <t>कोने की संपत्ति</t>
+  </si>
+  <si>
+    <t>మూల ఆస్తి</t>
+  </si>
+  <si>
+    <t>road_width</t>
+  </si>
+  <si>
+    <t>Width of facing road</t>
+  </si>
+  <si>
+    <t>सामने वाली सड़क की चौड़ाई</t>
+  </si>
+  <si>
+    <t>ఎదురుగా ఉన్న రహదారి వెడల్పు</t>
+  </si>
+  <si>
+    <t>enter_width</t>
+  </si>
+  <si>
+    <t>Enter the width</t>
+  </si>
+  <si>
+    <t>चौड़ाई दर्ज करें</t>
+  </si>
+  <si>
+    <t>వెడల్పు నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t>విజయవంతం</t>
   </si>
 </sst>
 </file>
@@ -4667,10 +7491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4B5E5-1AD3-459E-940E-0D51EC173CF5}">
-  <dimension ref="A1:D459"/>
+  <dimension ref="A1:D811"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C447" zoomScale="88" workbookViewId="0">
-      <selection activeCell="J465" sqref="J465"/>
+    <sheetView tabSelected="1" topLeftCell="A791" zoomScale="73" workbookViewId="0">
+      <selection activeCell="C815" sqref="C815"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10483,6 +13307,4637 @@
         <v>1415</v>
       </c>
     </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" s="1"/>
+      <c r="B470" s="1"/>
+      <c r="C470" s="1"/>
+      <c r="D470" s="1"/>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" s="1"/>
+      <c r="B476" s="1"/>
+      <c r="C476" s="1"/>
+      <c r="D476" s="1"/>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A478" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D482" s="2" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D497" s="2" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D500" s="2" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A501" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A502" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A503" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A504" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A505" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A512" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A513" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A514" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A520" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D523" s="2" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A527" s="1"/>
+      <c r="B527" s="1"/>
+      <c r="C527" s="1"/>
+      <c r="D527" s="1"/>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D529" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C530" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D530" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D532" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D533" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D534" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C535" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D535" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D536" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B538" t="s">
+        <v>777</v>
+      </c>
+      <c r="C538" t="s">
+        <v>778</v>
+      </c>
+      <c r="D538" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C539" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D539" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D540" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C541" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D541" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C543" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D543" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C545" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D545" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C546" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D546" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C548" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C549" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D549" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C551" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D551" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C552" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D552" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C554" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D554" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D555" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C556" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D556" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C557" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D557" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C558" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D558" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C559" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D559" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C560" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D560" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D561" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C562" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D562" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C563" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D563" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C564" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D564" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C565" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D565" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C566" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D566" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C567" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D567" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C568" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D568" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D569" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C570" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D570" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D571" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D572" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C575" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D577" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C578" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D578" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C580" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D580" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D581" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B582" t="s">
+        <v>21</v>
+      </c>
+      <c r="C582" t="s">
+        <v>22</v>
+      </c>
+      <c r="D582" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D583" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C585" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D585" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C587" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D587" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C588" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D588" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C589" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D589" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B591" t="s">
+        <v>239</v>
+      </c>
+      <c r="C591" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D591" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C592" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D592" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B595" t="s">
+        <v>596</v>
+      </c>
+      <c r="C595" t="s">
+        <v>597</v>
+      </c>
+      <c r="D595" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C596" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D596" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D597" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D598" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C599" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D599" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C600" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D600" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C601" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D601" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C602" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D602" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C603" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D603" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C604" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D604" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C605" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D605" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C606" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D606" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C607" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D607" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B608" t="s">
+        <v>787</v>
+      </c>
+      <c r="C608" t="s">
+        <v>788</v>
+      </c>
+      <c r="D608" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B609" t="s">
+        <v>793</v>
+      </c>
+      <c r="C609" t="s">
+        <v>794</v>
+      </c>
+      <c r="D609" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D610" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D611" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B612" t="s">
+        <v>667</v>
+      </c>
+      <c r="C612" t="s">
+        <v>668</v>
+      </c>
+      <c r="D612" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C613" t="s">
+        <v>932</v>
+      </c>
+      <c r="D613" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B614" t="s">
+        <v>726</v>
+      </c>
+      <c r="C614" t="s">
+        <v>727</v>
+      </c>
+      <c r="D614" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C615" t="s">
+        <v>597</v>
+      </c>
+      <c r="D615" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C616" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D616" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C617" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D617" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C619" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D619" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C620" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D620" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C621" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D621" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C622" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D622" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B623" t="s">
+        <v>247</v>
+      </c>
+      <c r="C623" t="s">
+        <v>248</v>
+      </c>
+      <c r="D623" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C624" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D624" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C625" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D625" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D626" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D627" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C628" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D628" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C629" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D629" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C630" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D630" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C631" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D631" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C632" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D632" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D633" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C634" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D634" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C635" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D635" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C636" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D636" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C637" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D637" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C638" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D638" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C639" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D639" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C640" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D640" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C641" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D641" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C642" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D642" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C644" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D644" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C645" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D645" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C646" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D646" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C647" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D647" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C648" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D648" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C649" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D649" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C650" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D650" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B651" t="s">
+        <v>777</v>
+      </c>
+      <c r="C651" t="s">
+        <v>778</v>
+      </c>
+      <c r="D651" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C652" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D652" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B653" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C653" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D653" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C654" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D654" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C655" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D655" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C656" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D656" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C657" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D657" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C658" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D658" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C659" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D659" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C660" t="s">
+        <v>1949</v>
+      </c>
+      <c r="D660" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C661" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D661" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C662" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D662" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B663" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C663" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D663" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B664" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C664" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D664" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C665" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D665" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B666" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C666" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D666" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B667" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C667" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D667" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B668" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C668" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D668" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B669" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C669" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D669" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B670" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C670" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D670" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B671" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C671" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D671" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C672" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D672" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B673" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C673" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D673" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B674" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C674" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D674" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B675" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C675" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D675" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B676" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C676" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D676" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B677" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C677" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D677" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B678" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C678" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D678" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B679" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C679" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D679" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C680" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D680" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C681" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D681" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B682" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C682" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D682" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B683" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C683" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D683" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B684" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C684" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D684" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B685" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C685" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D685" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C686" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D686" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B687" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C687" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D687" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B688" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C688" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D688" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B689" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C689" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D689" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B690" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C690" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D690" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B691" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C691" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D691" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B692" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C692" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D692" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A693" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B693" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C693" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D693" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A694" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B694" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C694" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D694" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A695" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B695" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C695" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D695" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A696" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B696" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C696" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D696" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A697" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B697" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C697" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D697" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A698" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B698" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C698" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D698" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A699" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B699" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C699" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D699" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A700" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B700" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C700" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D700" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A701" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B701" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C701" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D701" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A702" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B702" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C702" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D702" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A704" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B704" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C704" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D704" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A705" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B705" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C705" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D705" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A706" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B706" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C706" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D706" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B707" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C707" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D707" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A708" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B708" t="s">
+        <v>247</v>
+      </c>
+      <c r="C708" t="s">
+        <v>248</v>
+      </c>
+      <c r="D708" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A709" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B709" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C709" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D709" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A710" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B710" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C710" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D710" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A711" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B711" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C711" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D711" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A712" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B712" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C712" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D712" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A713" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B713" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C713" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D713" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A714" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B714" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C714" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D714" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A715" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B715" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C715" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D715" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A716" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B716" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C716" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D716" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A717" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B717" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C717" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D717" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A718" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B718" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C718" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D718" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A719" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B719" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C719" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D719" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A720" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C720" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D720" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A721" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B721" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C721" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D721" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A722" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C722" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D722" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A723" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B723" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C723" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D723" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A724" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B724" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C724" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D724" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A725" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B725" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C725" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D725" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A726" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B726" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C726" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D726" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A727" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B727" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C727" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D727" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A729" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B729" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C729" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D729" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A730" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B730" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C730" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D730" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A731" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B731" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C731" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D731" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A732" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B732" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C732" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D732" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A733" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B733" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C733" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D733" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A734" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B734" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C734" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D734" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A735" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B735" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C735" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D735" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A736" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B736" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C736" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D736" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A737" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B737" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C737" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D737" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A738" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B738" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C738" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D738" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A739" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B739" t="s">
+        <v>391</v>
+      </c>
+      <c r="C739" t="s">
+        <v>392</v>
+      </c>
+      <c r="D739" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A740" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B740" t="s">
+        <v>395</v>
+      </c>
+      <c r="C740" t="s">
+        <v>396</v>
+      </c>
+      <c r="D740" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A741" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B741" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C741" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D741" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A742" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B742" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C742" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D742" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A743" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B743" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C743" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D743" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A744" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B744" t="e" cm="1">
+        <f t="array" ref="B744">+ Shed</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C744" t="e" cm="1">
+        <f t="array" ref="C744">+ शेड</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D744" t="e" cm="1">
+        <f t="array" ref="D744">+ షెడ్</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A745" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B745" t="e" cm="1">
+        <f t="array" ref="B745">+ Washroom</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C745" t="e" cm="1">
+        <f t="array" ref="C745">+ वाशरूम</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D745" t="e" cm="1">
+        <f t="array" ref="D745">+ వాష్‌రూమ్</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A746" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B746" t="e" cm="1">
+        <f t="array" ref="B746">+ Other</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C746" t="e" cm="1">
+        <f t="array" ref="C746">+ अन्य</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D746" t="e" cm="1">
+        <f t="array" ref="D746">+ ఇతరులు</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A747" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B747" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C747" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D747" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A748" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B748" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C748" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D748" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A749" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B749" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C749" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D749" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A750" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B750" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C750" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D750" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A751" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B751" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C751" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D751" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A752" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B752" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C752" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D752" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A753" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B753" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C753" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D753" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A754" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B754" t="e" cm="1">
+        <f t="array" ref="B754">+ Add more pricing details</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C754" t="e" cm="1">
+        <f t="array" ref="C754">+ अधिक मूल्य विवरण जोड़ें</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D754" t="e" cm="1">
+        <f t="array" ref="D754">+ మరిన్ని ధర వివరాలు జోడించండి</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A755" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B755" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C755" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D755" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A756" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B756" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C756" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D756" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A757" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B757" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C757" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D757" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A758" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B758" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C758" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D758" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A759" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B759" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C759" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D759" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A760" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B760" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C760" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D760" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A761" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B761" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C761" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D761" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B762" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C762" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D762" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A763" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B763" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C763" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D763" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A764" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B764" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C764" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D764" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A765" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B765" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C765" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D765" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A766" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B766" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C766" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D766" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A767" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B767" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C767" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D767" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A768" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B768" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C768" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D768" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A769" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B769" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C769" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D769" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A770" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B770" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C770" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D770" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A771" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B771" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C771" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D771" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A772" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B772" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C772" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D772" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A773" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B773" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C773" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D773" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A774" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B774" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C774" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D774" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A775" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B775" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C775" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D775" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A776" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B776" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C776" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D776" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A777" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B777" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C777" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D777" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A778" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B778" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C778" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D778" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A779" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B779" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C779" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D779" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A780" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B780" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C780" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D780" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A781" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B781" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C781" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D781" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A782" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B782" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C782" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D782" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A783" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B783" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C783" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D783" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A784" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B784" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C784" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D784" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A785" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B785" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C785" t="s">
+        <v>820</v>
+      </c>
+      <c r="D785" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A786" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B786" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C786" t="s">
+        <v>826</v>
+      </c>
+      <c r="D786" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A787" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B787" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C787" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D787" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A788" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B788" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C788" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D788" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A789" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B789" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C789" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D789" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A790" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B790" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C790" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D790" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A791" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B791" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C791" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D791" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A792" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B792" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C792" t="s">
+        <v>2295</v>
+      </c>
+      <c r="D792" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A793" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B793" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C793" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D793" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A794" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B794" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C794" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D794" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A795" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B795" t="s">
+        <v>2306</v>
+      </c>
+      <c r="C795" t="s">
+        <v>2307</v>
+      </c>
+      <c r="D795" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A796" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B796" t="e" cm="1">
+        <f t="array" ref="B796">+ Maintenance Staff</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C796" t="e" cm="1">
+        <f t="array" ref="C796">+ रखरखाव स्टाफ</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D796" t="e" cm="1">
+        <f t="array" ref="D796">+ నిర్వహణ సిబ్బంది</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A797" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B797" t="e" cm="1">
+        <f t="array" ref="B797">+ Water Storage</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C797" t="e" cm="1">
+        <f t="array" ref="C797">+ जल भंडारण</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D797" t="e" cm="1">
+        <f t="array" ref="D797">+ నీటి నిల్వ</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A798" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B798" t="e" cm="1">
+        <f t="array" ref="B798">+ Rainwater Harvesting</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C798" t="e" cm="1">
+        <f t="array" ref="C798">+ वर्षा जल संचयन</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D798" t="e" cm="1">
+        <f t="array" ref="D798">+ వర్షపు నీటి సేకరణ</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A799" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B799" t="s">
+        <v>2313</v>
+      </c>
+      <c r="C799" t="s">
+        <v>2314</v>
+      </c>
+      <c r="D799" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A800" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B800" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C800" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D800" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A801" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B801" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C801" t="s">
+        <v>2322</v>
+      </c>
+      <c r="D801" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B802" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C802" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D802" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A803" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B803" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C803" t="s">
+        <v>2330</v>
+      </c>
+      <c r="D803" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A804" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B804" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C804" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D804" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A805" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B805" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C805" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D805" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A806" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B806" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C806" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D806" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A807" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B807" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C807" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D807" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A808" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B808" t="s">
+        <v>329</v>
+      </c>
+      <c r="C808" t="s">
+        <v>330</v>
+      </c>
+      <c r="D808" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A809" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B809" t="s">
+        <v>239</v>
+      </c>
+      <c r="C809" t="s">
+        <v>240</v>
+      </c>
+      <c r="D809" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A810" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B810" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C810" t="s">
+        <v>1941</v>
+      </c>
+      <c r="D810" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A811" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B811" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C811" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D811" t="s">
+        <v>1880</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Frontend/translations.xlsx
+++ b/Frontend/translations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d8c1b1ae6504acc/Desktop/Technoji/LandsTime-301-12-2025/Landstime_Androidapp/Frontend/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigat\OneDrive\Desktop\Technoji\LandsTime-301-12-2025\Landstime_Androidapp\Frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{8C8552CC-8E0E-46FF-8C31-37F9B469AB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{772AA23C-4678-43C4-9516-6E7324AE8D15}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEEB34F-2820-4B47-888A-A8E0010FA8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2941" uniqueCount="2350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="2998">
   <si>
     <t>key</t>
   </si>
@@ -7106,6 +7106,1950 @@
   </si>
   <si>
     <t>విజయవంతం</t>
+  </si>
+  <si>
+    <t>upload_property_title</t>
+  </si>
+  <si>
+    <t>upload_property_subtitle</t>
+  </si>
+  <si>
+    <t>vaastu_details_title</t>
+  </si>
+  <si>
+    <t>building_property_facing</t>
+  </si>
+  <si>
+    <t>Building/Property Facing</t>
+  </si>
+  <si>
+    <t>भवन/संपत्ति का मुख</t>
+  </si>
+  <si>
+    <t>భవనం/ఆస్తి ముఖం</t>
+  </si>
+  <si>
+    <t>main_entrance_direction</t>
+  </si>
+  <si>
+    <t>Main Entrance Direction</t>
+  </si>
+  <si>
+    <t>मुख्य प्रवेश दिशा</t>
+  </si>
+  <si>
+    <t>ప్రధాన ప్రవేశ దిశ</t>
+  </si>
+  <si>
+    <t>reception_lobby_direction</t>
+  </si>
+  <si>
+    <t>Reception/Lobby Direction</t>
+  </si>
+  <si>
+    <t>रिसेप्शन/लॉबी दिशा</t>
+  </si>
+  <si>
+    <t>రిసెప్షన్/లాబీ దిశ</t>
+  </si>
+  <si>
+    <t>admin_office_direction</t>
+  </si>
+  <si>
+    <t>Owner/Manager/Admin Office Direction</t>
+  </si>
+  <si>
+    <t>मालिक/प्रबंधक/प्रशासन कार्यालय दिशा</t>
+  </si>
+  <si>
+    <t>యజమాని/మేనేజర్/అడ్మిన్ కార్యాలయ దిశ</t>
+  </si>
+  <si>
+    <t>guest_rooms_direction</t>
+  </si>
+  <si>
+    <t>Guest Rooms/Stay Area Direction</t>
+  </si>
+  <si>
+    <t>अतिथि कक्ष/रहने का क्षेत्र दिशा</t>
+  </si>
+  <si>
+    <t>అతిథి గదులు/నివాస ప్రాంతం దిశ</t>
+  </si>
+  <si>
+    <t>banquet_direction</t>
+  </si>
+  <si>
+    <t>Banquet/Function Hall Direction</t>
+  </si>
+  <si>
+    <t>बैंक्वेट/फंक्शन हॉल दिशा</t>
+  </si>
+  <si>
+    <t>బ్యాంకెట్/ఫంక్షన్ హాల్ దిశ</t>
+  </si>
+  <si>
+    <t>Kitchen/Cooking Area Direction</t>
+  </si>
+  <si>
+    <t>रसोई/पकाने का क्षेत्र दिशा</t>
+  </si>
+  <si>
+    <t>వంటగది/వంట ప్రాంతం దిశ</t>
+  </si>
+  <si>
+    <t>dining_direction</t>
+  </si>
+  <si>
+    <t>Dining Area Direction</t>
+  </si>
+  <si>
+    <t>भोजन क्षेत्र दिशा</t>
+  </si>
+  <si>
+    <t>డైనింగ్ ప్రాంతం దిశ</t>
+  </si>
+  <si>
+    <t>cash_counter_direction</t>
+  </si>
+  <si>
+    <t>Cash Counter/Billing Desk Direction</t>
+  </si>
+  <si>
+    <t>कैश काउंटर/बिलिंग डेस्क दिशा</t>
+  </si>
+  <si>
+    <t>క్యాష్ కౌంటర్/బిల్లింగ్ డెస్క్ దిశ</t>
+  </si>
+  <si>
+    <t>electrical_area_direction</t>
+  </si>
+  <si>
+    <t>Electrical/Generator/Equipment Area Direction</t>
+  </si>
+  <si>
+    <t>विद्युत/जनरेटर/उपकरण क्षेत्र दिशा</t>
+  </si>
+  <si>
+    <t>విద్యుత్/జనరేటర్/పరికరాల ప్రాంతం దిశ</t>
+  </si>
+  <si>
+    <t>water_structure_direction</t>
+  </si>
+  <si>
+    <t>Water Structure/Swimming Pool Direction (If any)</t>
+  </si>
+  <si>
+    <t>जल संरचना/स्विमिंग पूल दिशा (यदि हो)</t>
+  </si>
+  <si>
+    <t>నీటి నిర్మాణం/స్విమ్మింగ్ పూల్ దిశ (ఉంటే)</t>
+  </si>
+  <si>
+    <t>washroom_direction</t>
+  </si>
+  <si>
+    <t>Washrooms/Toilets Direction</t>
+  </si>
+  <si>
+    <t>शौचालय/टॉयलेट दिशा</t>
+  </si>
+  <si>
+    <t>వాష్‌రూమ్/టాయిలెట్ దిశ</t>
+  </si>
+  <si>
+    <t>storage_direction</t>
+  </si>
+  <si>
+    <t>Storage/Housekeeping Area Direction</t>
+  </si>
+  <si>
+    <t>भंडारण/हाउसकीपिंग क्षेत्र दिशा</t>
+  </si>
+  <si>
+    <t>స్టోరేజ్/హౌస్‌కీపింగ్ ప్రాంతం దిశ</t>
+  </si>
+  <si>
+    <t>vaastu_option_north</t>
+  </si>
+  <si>
+    <t>vaastu_option_south</t>
+  </si>
+  <si>
+    <t>vaastu_option_east</t>
+  </si>
+  <si>
+    <t>vaastu_option_west</t>
+  </si>
+  <si>
+    <t>vaastu_option_north_east</t>
+  </si>
+  <si>
+    <t>North-East</t>
+  </si>
+  <si>
+    <t>vaastu_option_south_west</t>
+  </si>
+  <si>
+    <t>South-West</t>
+  </si>
+  <si>
+    <t>vaastu_option_north_west</t>
+  </si>
+  <si>
+    <t>vaastu_option_south_east</t>
+  </si>
+  <si>
+    <t>vaastu_option_balanced_open_space</t>
+  </si>
+  <si>
+    <t>సమతుల్య ఓపెన్ స్పేస్</t>
+  </si>
+  <si>
+    <t>vaastu_option_square</t>
+  </si>
+  <si>
+    <t>चौकोर</t>
+  </si>
+  <si>
+    <t>vaastu_option_no_structures</t>
+  </si>
+  <si>
+    <t>vaastu_option_water_source_north</t>
+  </si>
+  <si>
+    <t>vaastu_option_equal_height</t>
+  </si>
+  <si>
+    <t>सभी ओर समान ऊंचाई</t>
+  </si>
+  <si>
+    <t>vaastu_option_towards_north</t>
+  </si>
+  <si>
+    <t>button_cancel</t>
+  </si>
+  <si>
+    <t>button_next</t>
+  </si>
+  <si>
+    <t>आगे बढ़ें</t>
+  </si>
+  <si>
+    <t>button_submit</t>
+  </si>
+  <si>
+    <t>जमा करें</t>
+  </si>
+  <si>
+    <t>missing_data_title</t>
+  </si>
+  <si>
+    <t>Missing Data</t>
+  </si>
+  <si>
+    <t>डेटा अनुपलब्ध</t>
+  </si>
+  <si>
+    <t>డేటా లేదు</t>
+  </si>
+  <si>
+    <t>missing_data_message</t>
+  </si>
+  <si>
+    <t>Property details are missing. Please go back and complete all previous steps.</t>
+  </si>
+  <si>
+    <t>संपत्ति विवरण अनुपलब्ध है। कृपया वापस जाकर सभी चरण पूरे करें।</t>
+  </si>
+  <si>
+    <t>ఆస్తి వివరాలు లేవు. దయచేసి వెనక్కి వెళ్లి అన్ని దశలను పూర్తి చేయండి.</t>
+  </si>
+  <si>
+    <t>add_furnishings_title</t>
+  </si>
+  <si>
+    <t>Add Furnishings</t>
+  </si>
+  <si>
+    <t>फर्निशिंग जोड़ें</t>
+  </si>
+  <si>
+    <t>ఫర్నిషింగ్స్ జోడించండి</t>
+  </si>
+  <si>
+    <t>clear_all</t>
+  </si>
+  <si>
+    <t>Clear All</t>
+  </si>
+  <si>
+    <t>सभी हटाएँ</t>
+  </si>
+  <si>
+    <t>అన్నీ తొలగించండి</t>
+  </si>
+  <si>
+    <t>furnishings_mandatory_note</t>
+  </si>
+  <si>
+    <t>hospitality_location</t>
+  </si>
+  <si>
+    <t>hospitality_location_required</t>
+  </si>
+  <si>
+    <t>Location Required</t>
+  </si>
+  <si>
+    <t>hospitality_enter_location</t>
+  </si>
+  <si>
+    <t>hospitality_area_neighborhood</t>
+  </si>
+  <si>
+    <t>Area/Neighborhood</t>
+  </si>
+  <si>
+    <t>क्षेत्र/मोहल्ला</t>
+  </si>
+  <si>
+    <t>ప్రాంతం/పొరుగు ప్రాంతం</t>
+  </si>
+  <si>
+    <t>hospitality_area_required</t>
+  </si>
+  <si>
+    <t>Area Required</t>
+  </si>
+  <si>
+    <t>hospitality_enter_area</t>
+  </si>
+  <si>
+    <t>Enter Area/Neighborhood (e.g., Banjara Hills)</t>
+  </si>
+  <si>
+    <t>क्षेत्र/मोहल्ला दर्ज करें (जैसे, बंजारा हिल्स)</t>
+  </si>
+  <si>
+    <t>ప్రాంతం/పొరుగు ప్రాంతం నమోదు చేయండి (ఉదా: బంజారా హిల్స్)</t>
+  </si>
+  <si>
+    <t>hospitality_add_room_details</t>
+  </si>
+  <si>
+    <t>Add Room Details</t>
+  </si>
+  <si>
+    <t>कमरों का विवरण जोड़ें</t>
+  </si>
+  <si>
+    <t>గది వివరాలను జోడించండి</t>
+  </si>
+  <si>
+    <t>hospitality_no_of_rooms</t>
+  </si>
+  <si>
+    <t>No of Rooms</t>
+  </si>
+  <si>
+    <t>कमरों की संख्या</t>
+  </si>
+  <si>
+    <t>గదుల సంఖ్య</t>
+  </si>
+  <si>
+    <t>hospitality_enter_total_rooms</t>
+  </si>
+  <si>
+    <t>Enter the total no of rooms</t>
+  </si>
+  <si>
+    <t>कुल कमरों की संख्या दर्ज करें</t>
+  </si>
+  <si>
+    <t>మొత్తం గదుల సంఖ్యను నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>hospitality_no_of_washrooms</t>
+  </si>
+  <si>
+    <t>No of Washrooms</t>
+  </si>
+  <si>
+    <t>शौचालयों की संख्या</t>
+  </si>
+  <si>
+    <t>వాష్‌రూమ్‌ల సంఖ్య</t>
+  </si>
+  <si>
+    <t>hospitality_washroom_none</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>कोई नहीं</t>
+  </si>
+  <si>
+    <t>ఏదీ లేదు</t>
+  </si>
+  <si>
+    <t>hospitality_washroom_shared</t>
+  </si>
+  <si>
+    <t>Shared</t>
+  </si>
+  <si>
+    <t>साझा</t>
+  </si>
+  <si>
+    <t>భాగస్వామ్యం</t>
+  </si>
+  <si>
+    <t>hospitality_washroom_1</t>
+  </si>
+  <si>
+    <t>hospitality_washroom_2</t>
+  </si>
+  <si>
+    <t>hospitality_washroom_3</t>
+  </si>
+  <si>
+    <t>hospitality_washroom_4plus</t>
+  </si>
+  <si>
+    <t>4+</t>
+  </si>
+  <si>
+    <t>hospitality_balconies</t>
+  </si>
+  <si>
+    <t>hospitality_balcony_0</t>
+  </si>
+  <si>
+    <t>hospitality_balcony_1</t>
+  </si>
+  <si>
+    <t>hospitality_balcony_2</t>
+  </si>
+  <si>
+    <t>hospitality_balcony_3</t>
+  </si>
+  <si>
+    <t>hospitality_balcony_more</t>
+  </si>
+  <si>
+    <t>More than 3</t>
+  </si>
+  <si>
+    <t>3 से अधिक</t>
+  </si>
+  <si>
+    <t>3 కంటే ఎక్కువ</t>
+  </si>
+  <si>
+    <t>hospitality_other_rooms</t>
+  </si>
+  <si>
+    <t>Other rooms (optional)</t>
+  </si>
+  <si>
+    <t>अन्य कमरे (वैकल्पिक)</t>
+  </si>
+  <si>
+    <t>ఇతర గదులు (ఐచ్ఛికం)</t>
+  </si>
+  <si>
+    <t>hospitality_pooja_room</t>
+  </si>
+  <si>
+    <t>పూజా గది</t>
+  </si>
+  <si>
+    <t>hospitality_study_room</t>
+  </si>
+  <si>
+    <t>hospitality_servant_room</t>
+  </si>
+  <si>
+    <t>सेवक कक्ष</t>
+  </si>
+  <si>
+    <t>hospitality_other</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>ఇతర</t>
+  </si>
+  <si>
+    <t>hospitality_furnishing</t>
+  </si>
+  <si>
+    <t>फर्निशिंग</t>
+  </si>
+  <si>
+    <t>hospitality_optional</t>
+  </si>
+  <si>
+    <t>(Optional)</t>
+  </si>
+  <si>
+    <t>(वैकल्पिक)</t>
+  </si>
+  <si>
+    <t>(ఐచ్ఛికం)</t>
+  </si>
+  <si>
+    <t>hospitality_unfurnished</t>
+  </si>
+  <si>
+    <t>बिना फर्निशिंग</t>
+  </si>
+  <si>
+    <t>ఫర్నిషింగ్ లేని</t>
+  </si>
+  <si>
+    <t>hospitality_semi_furnished</t>
+  </si>
+  <si>
+    <t>अर्ध-सुसज्जित</t>
+  </si>
+  <si>
+    <t>పాక్షిక ఫర్నిషింగ్</t>
+  </si>
+  <si>
+    <t>hospitality_furnished</t>
+  </si>
+  <si>
+    <t>सुसज्जित</t>
+  </si>
+  <si>
+    <t>ఫర్నిషింగ్ ఉన్న</t>
+  </si>
+  <si>
+    <t>hospitality_add_area_details</t>
+  </si>
+  <si>
+    <t>Add Area Details</t>
+  </si>
+  <si>
+    <t>क्षेत्रफल विवरण जोड़ें</t>
+  </si>
+  <si>
+    <t>ప్రాంత వివరాలను జోడించండి</t>
+  </si>
+  <si>
+    <t>hospitality_plot_area_placeholder</t>
+  </si>
+  <si>
+    <t>hospitality_unit_sqft</t>
+  </si>
+  <si>
+    <t>sqft</t>
+  </si>
+  <si>
+    <t>वर्ग फीट</t>
+  </si>
+  <si>
+    <t>చ.అ</t>
+  </si>
+  <si>
+    <t>hospitality_unit_sqm</t>
+  </si>
+  <si>
+    <t>sqm</t>
+  </si>
+  <si>
+    <t>वर्ग मीटर</t>
+  </si>
+  <si>
+    <t>చ.మీ</t>
+  </si>
+  <si>
+    <t>hospitality_unit_acre</t>
+  </si>
+  <si>
+    <t>acre</t>
+  </si>
+  <si>
+    <t>एकड़</t>
+  </si>
+  <si>
+    <t>ఎకరం</t>
+  </si>
+  <si>
+    <t>hospitality_availability_status</t>
+  </si>
+  <si>
+    <t>उपलब्धता की स्थिति</t>
+  </si>
+  <si>
+    <t>లభ్యత స్థితి</t>
+  </si>
+  <si>
+    <t>hospitality_ready_to_move</t>
+  </si>
+  <si>
+    <t>Ready to move</t>
+  </si>
+  <si>
+    <t>रहने के लिए तैयार</t>
+  </si>
+  <si>
+    <t>వెంటనే కదలడానికి సిద్ధం</t>
+  </si>
+  <si>
+    <t>hospitality_under_construction</t>
+  </si>
+  <si>
+    <t>hospitality_age_of_property</t>
+  </si>
+  <si>
+    <t>Age of property</t>
+  </si>
+  <si>
+    <t>hospitality_age_0_1</t>
+  </si>
+  <si>
+    <t>0-1 साल</t>
+  </si>
+  <si>
+    <t>hospitality_age_1_5</t>
+  </si>
+  <si>
+    <t>1-5 साल</t>
+  </si>
+  <si>
+    <t>hospitality_age_5_10</t>
+  </si>
+  <si>
+    <t>5-10 साल</t>
+  </si>
+  <si>
+    <t>hospitality_age_10plus</t>
+  </si>
+  <si>
+    <t>10+ साल</t>
+  </si>
+  <si>
+    <t>hospitality_expected_by</t>
+  </si>
+  <si>
+    <t>అంచనా ద్వారా</t>
+  </si>
+  <si>
+    <t>hospitality_possession_immediate</t>
+  </si>
+  <si>
+    <t>तत्काल</t>
+  </si>
+  <si>
+    <t>తక్షణం</t>
+  </si>
+  <si>
+    <t>hospitality_possession_3months</t>
+  </si>
+  <si>
+    <t>3 महीने के भीतर</t>
+  </si>
+  <si>
+    <t>hospitality_possession_6months</t>
+  </si>
+  <si>
+    <t>6 महीने के भीतर</t>
+  </si>
+  <si>
+    <t>hospitality_possession_2025</t>
+  </si>
+  <si>
+    <t>By 2025</t>
+  </si>
+  <si>
+    <t>2025 तक</t>
+  </si>
+  <si>
+    <t>2025 నాటికి</t>
+  </si>
+  <si>
+    <t>hospitality_possession_2026</t>
+  </si>
+  <si>
+    <t>By 2026</t>
+  </si>
+  <si>
+    <t>2026 तक</t>
+  </si>
+  <si>
+    <t>2026 నాటికి</t>
+  </si>
+  <si>
+    <t>hospitality_possession_2027</t>
+  </si>
+  <si>
+    <t>By 2027</t>
+  </si>
+  <si>
+    <t>2027 तक</t>
+  </si>
+  <si>
+    <t>2027 నాటికి</t>
+  </si>
+  <si>
+    <t>hospitality_possession_2028</t>
+  </si>
+  <si>
+    <t>By 2028</t>
+  </si>
+  <si>
+    <t>2028 तक</t>
+  </si>
+  <si>
+    <t>2028 నాటికి</t>
+  </si>
+  <si>
+    <t>hospitality_possession_2029</t>
+  </si>
+  <si>
+    <t>By 2029</t>
+  </si>
+  <si>
+    <t>2029 तक</t>
+  </si>
+  <si>
+    <t>2029 నాటికి</t>
+  </si>
+  <si>
+    <t>hospitality_possession_2030</t>
+  </si>
+  <si>
+    <t>By 2030</t>
+  </si>
+  <si>
+    <t>2030 तक</t>
+  </si>
+  <si>
+    <t>2030 నాటికి</t>
+  </si>
+  <si>
+    <t>hospitality_expected_month</t>
+  </si>
+  <si>
+    <t>Expected By Month</t>
+  </si>
+  <si>
+    <t>अपेक्षित माह</t>
+  </si>
+  <si>
+    <t>అంచనా నెల</t>
+  </si>
+  <si>
+    <t>hospitality_select_month</t>
+  </si>
+  <si>
+    <t>Select Month</t>
+  </si>
+  <si>
+    <t>माह चुनें</t>
+  </si>
+  <si>
+    <t>నెలను ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>hospitality_month_january</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>जनवरी</t>
+  </si>
+  <si>
+    <t>జనవరి</t>
+  </si>
+  <si>
+    <t>hospitality_month_february</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>फरवरी</t>
+  </si>
+  <si>
+    <t>ఫిబ్రవరి</t>
+  </si>
+  <si>
+    <t>hospitality_month_march</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>मार्च</t>
+  </si>
+  <si>
+    <t>మార్చి</t>
+  </si>
+  <si>
+    <t>hospitality_month_april</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>अप्रैल</t>
+  </si>
+  <si>
+    <t>ఏప్రిల్</t>
+  </si>
+  <si>
+    <t>hospitality_month_may</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>मई</t>
+  </si>
+  <si>
+    <t>మే</t>
+  </si>
+  <si>
+    <t>hospitality_month_june</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>जून</t>
+  </si>
+  <si>
+    <t>జూన్</t>
+  </si>
+  <si>
+    <t>hospitality_month_july</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>जुलाई</t>
+  </si>
+  <si>
+    <t>జూలై</t>
+  </si>
+  <si>
+    <t>hospitality_month_august</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>अगस्त</t>
+  </si>
+  <si>
+    <t>ఆగస్టు</t>
+  </si>
+  <si>
+    <t>hospitality_month_september</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>सितंबर</t>
+  </si>
+  <si>
+    <t>సెప్టెంబర్</t>
+  </si>
+  <si>
+    <t>hospitality_month_october</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>अक्टूबर</t>
+  </si>
+  <si>
+    <t>అక్టోబర్</t>
+  </si>
+  <si>
+    <t>hospitality_month_november</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>नवंबर</t>
+  </si>
+  <si>
+    <t>నవంబర్</t>
+  </si>
+  <si>
+    <t>hospitality_month_december</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>दिसंबर</t>
+  </si>
+  <si>
+    <t>డిసెంబర్</t>
+  </si>
+  <si>
+    <t>hospitality_ownership</t>
+  </si>
+  <si>
+    <t>hospitality_ownership_freehold</t>
+  </si>
+  <si>
+    <t>hospitality_ownership_leasehold</t>
+  </si>
+  <si>
+    <t>hospitality_ownership_company</t>
+  </si>
+  <si>
+    <t>Company Owned</t>
+  </si>
+  <si>
+    <t>कंपनी के स्वामित्व में</t>
+  </si>
+  <si>
+    <t>కంపెనీ యాజమాన్యం</t>
+  </si>
+  <si>
+    <t>hospitality_ownership_other</t>
+  </si>
+  <si>
+    <t>hospitality_approved_by</t>
+  </si>
+  <si>
+    <t>Which authority the property is approved by?</t>
+  </si>
+  <si>
+    <t>संपत्ति किस प्राधिकरण द्वारा अनुमोदित है?</t>
+  </si>
+  <si>
+    <t>ఆస్తి ఏ అథారిటీ ద్వారా ఆమోదించబడింది?</t>
+  </si>
+  <si>
+    <t>hospitality_local_authority</t>
+  </si>
+  <si>
+    <t>Local Authority</t>
+  </si>
+  <si>
+    <t>स्थानीय प्राधिकरण</t>
+  </si>
+  <si>
+    <t>స్థానిక అథారిటీ</t>
+  </si>
+  <si>
+    <t>hospitality_industry_type</t>
+  </si>
+  <si>
+    <t>Approved for industry type</t>
+  </si>
+  <si>
+    <t>उद्योग प्रकार के लिए अनुमोदित</t>
+  </si>
+  <si>
+    <t>పరిశ్రమ రకం కోసం ఆమోదించబడింది</t>
+  </si>
+  <si>
+    <t>hospitality_select_industry</t>
+  </si>
+  <si>
+    <t>select Industry Type</t>
+  </si>
+  <si>
+    <t>उद्योग प्रकार चुनें</t>
+  </si>
+  <si>
+    <t>పరిశ్రమ రకాన్ని ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>hospitality_expected_price</t>
+  </si>
+  <si>
+    <t>Expected Price Details</t>
+  </si>
+  <si>
+    <t>अपेक्षित मूल्य विवरण</t>
+  </si>
+  <si>
+    <t>అంచనా ధర వివరాలు</t>
+  </si>
+  <si>
+    <t>hospitality_price_required</t>
+  </si>
+  <si>
+    <t>Price Required</t>
+  </si>
+  <si>
+    <t>मूल्य आवश्यक है</t>
+  </si>
+  <si>
+    <t>ధర అవసరం</t>
+  </si>
+  <si>
+    <t>hospitality_enter_price</t>
+  </si>
+  <si>
+    <t>₹ అంచనా ధర</t>
+  </si>
+  <si>
+    <t>hospitality_dg_ups_included</t>
+  </si>
+  <si>
+    <t>DG &amp; UPS Price included</t>
+  </si>
+  <si>
+    <t>DG और UPS मूल्य शामिल</t>
+  </si>
+  <si>
+    <t>DG &amp; UPS ధర చేర్చబడింది</t>
+  </si>
+  <si>
+    <t>hospitality_price_negotiable</t>
+  </si>
+  <si>
+    <t>मूल्य परक्राम्य</t>
+  </si>
+  <si>
+    <t>ధర చర్చనీయం</t>
+  </si>
+  <si>
+    <t>hospitality_tax_excluded</t>
+  </si>
+  <si>
+    <t>कर और सरकारी शुल्क अलग</t>
+  </si>
+  <si>
+    <t>పన్ను మరియు ప్రభుత్వ ఛార్జీలు మినహాయించబడ్డాయి</t>
+  </si>
+  <si>
+    <t>hospitality_more_pricing</t>
+  </si>
+  <si>
+    <t>hospitality_pre_leased</t>
+  </si>
+  <si>
+    <t>Is it Pre-leased/Pre-Rented?</t>
+  </si>
+  <si>
+    <t>क्या यह पूर्व-पट्टे/पूर्व-किराए पर है?</t>
+  </si>
+  <si>
+    <t>ఇది ముందుగా లీజుకు/అద్దెకు ఉందా?</t>
+  </si>
+  <si>
+    <t>hospitality_yes</t>
+  </si>
+  <si>
+    <t>hospitality_no</t>
+  </si>
+  <si>
+    <t>hospitality_current_rent</t>
+  </si>
+  <si>
+    <t>Current rent per month</t>
+  </si>
+  <si>
+    <t>वर्तमान मासिक किराया</t>
+  </si>
+  <si>
+    <t>ప్రస్తుత నెలవారీ అద్దె</t>
+  </si>
+  <si>
+    <t>hospitality_lease_tenure</t>
+  </si>
+  <si>
+    <t>Lease Tenure in years</t>
+  </si>
+  <si>
+    <t>पट्टे की अवधि वर्षों में</t>
+  </si>
+  <si>
+    <t>లీజు వ్యవధి సంవత్సరాల్లో</t>
+  </si>
+  <si>
+    <t>hospitality_description</t>
+  </si>
+  <si>
+    <t>hospitality_description_required</t>
+  </si>
+  <si>
+    <t>Description Required</t>
+  </si>
+  <si>
+    <t>hospitality_describe_placeholder</t>
+  </si>
+  <si>
+    <t>write here what makes your property unique.</t>
+  </si>
+  <si>
+    <t>यहाँ लिखें कि आपकी संपत्ति को क्या अनूठा बनाता है।</t>
+  </si>
+  <si>
+    <t>మీ ఆస్తిని ప్రత్యేకంగా చేసే విషయాన్ని ఇక్కడ వ్రాయండి.</t>
+  </si>
+  <si>
+    <t>hospitality_amenities</t>
+  </si>
+  <si>
+    <t>Amenities</t>
+  </si>
+  <si>
+    <t>सुविधाएं</t>
+  </si>
+  <si>
+    <t>సౌకర్యాలు</t>
+  </si>
+  <si>
+    <t>hospitality_amenity_water</t>
+  </si>
+  <si>
+    <t>hospitality_amenity_ac</t>
+  </si>
+  <si>
+    <t>hospitality_amenity_vaastu</t>
+  </si>
+  <si>
+    <t>hospitality_amenity_security</t>
+  </si>
+  <si>
+    <t>hospitality_amenity_parking</t>
+  </si>
+  <si>
+    <t>hospitality_other_features</t>
+  </si>
+  <si>
+    <t>Other Features</t>
+  </si>
+  <si>
+    <t>अन्य सुविधाएं</t>
+  </si>
+  <si>
+    <t>ఇతర లక్షణాలు</t>
+  </si>
+  <si>
+    <t>hospitality_wheelchair_friendly</t>
+  </si>
+  <si>
+    <t>Wheelchair Friendly</t>
+  </si>
+  <si>
+    <t>व्हीलचेयर के अनुकूल</t>
+  </si>
+  <si>
+    <t>వీల్‌చైర్ స్నేహపూర్వక</t>
+  </si>
+  <si>
+    <t>hospitality_flooring_type</t>
+  </si>
+  <si>
+    <t>Type of flooring</t>
+  </si>
+  <si>
+    <t>फर्श का प्रकार</t>
+  </si>
+  <si>
+    <t>నేల రకం</t>
+  </si>
+  <si>
+    <t>hospitality_select_flooring</t>
+  </si>
+  <si>
+    <t>Select Flooring</t>
+  </si>
+  <si>
+    <t>फर्श चुनें</t>
+  </si>
+  <si>
+    <t>నేలను ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>hospitality_flooring_marble</t>
+  </si>
+  <si>
+    <t>Marble</t>
+  </si>
+  <si>
+    <t>संगमरमर</t>
+  </si>
+  <si>
+    <t>పాలరాయి</t>
+  </si>
+  <si>
+    <t>hospitality_flooring_concrete</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>कंक्रीट</t>
+  </si>
+  <si>
+    <t>కాంక్రీటు</t>
+  </si>
+  <si>
+    <t>hospitality_flooring_ceramic</t>
+  </si>
+  <si>
+    <t>Ceramic</t>
+  </si>
+  <si>
+    <t>सिरेमिक</t>
+  </si>
+  <si>
+    <t>సిరామిక్</t>
+  </si>
+  <si>
+    <t>hospitality_flooring_mosaic</t>
+  </si>
+  <si>
+    <t>Mosaic</t>
+  </si>
+  <si>
+    <t>मोज़ेक</t>
+  </si>
+  <si>
+    <t>మొజాయిక్</t>
+  </si>
+  <si>
+    <t>hospitality_flooring_cement</t>
+  </si>
+  <si>
+    <t>Cement</t>
+  </si>
+  <si>
+    <t>सीमेंट</t>
+  </si>
+  <si>
+    <t>సిమెంట్</t>
+  </si>
+  <si>
+    <t>hospitality_flooring_stone</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>पत्थर</t>
+  </si>
+  <si>
+    <t>రాయి</t>
+  </si>
+  <si>
+    <t>hospitality_flooring_vinyl</t>
+  </si>
+  <si>
+    <t>Vinyl</t>
+  </si>
+  <si>
+    <t>विनाइल</t>
+  </si>
+  <si>
+    <t>వినైల్</t>
+  </si>
+  <si>
+    <t>hospitality_flooring_spartex</t>
+  </si>
+  <si>
+    <t>Spartex</t>
+  </si>
+  <si>
+    <t>स्पार्टेक्स</t>
+  </si>
+  <si>
+    <t>స్పార్టెక్స్</t>
+  </si>
+  <si>
+    <t>hospitality_flooring_ips</t>
+  </si>
+  <si>
+    <t>IPS Finish</t>
+  </si>
+  <si>
+    <t>IPS फिनिश</t>
+  </si>
+  <si>
+    <t>IPS ఫినిష్</t>
+  </si>
+  <si>
+    <t>hospitality_flooring_vitrified</t>
+  </si>
+  <si>
+    <t>Vitrified</t>
+  </si>
+  <si>
+    <t>विट्रिफाइड</t>
+  </si>
+  <si>
+    <t>విట్రిఫైడ్</t>
+  </si>
+  <si>
+    <t>hospitality_flooring_wooden</t>
+  </si>
+  <si>
+    <t>Wooden</t>
+  </si>
+  <si>
+    <t>लकड़ी</t>
+  </si>
+  <si>
+    <t>చెక్క</t>
+  </si>
+  <si>
+    <t>hospitality_flooring_granite</t>
+  </si>
+  <si>
+    <t>Granite</t>
+  </si>
+  <si>
+    <t>ग्रेनाइट</t>
+  </si>
+  <si>
+    <t>గ్రానైట్</t>
+  </si>
+  <si>
+    <t>hospitality_flooring_others</t>
+  </si>
+  <si>
+    <t>ఇతరాలు</t>
+  </si>
+  <si>
+    <t>hospitality_location_advantages</t>
+  </si>
+  <si>
+    <t>స్థాన ప్రయోజనాలు</t>
+  </si>
+  <si>
+    <t>hospitality_loc_metro</t>
+  </si>
+  <si>
+    <t>hospitality_loc_school</t>
+  </si>
+  <si>
+    <t>hospitality_loc_hospital</t>
+  </si>
+  <si>
+    <t>hospitality_loc_market</t>
+  </si>
+  <si>
+    <t>hospitality_loc_railway</t>
+  </si>
+  <si>
+    <t>hospitality_loc_airport</t>
+  </si>
+  <si>
+    <t>hospitality_loc_mall</t>
+  </si>
+  <si>
+    <t>hospitality_loc_highway</t>
+  </si>
+  <si>
+    <t>hospitality_plot_area_required</t>
+  </si>
+  <si>
+    <t>Plot Area Required</t>
+  </si>
+  <si>
+    <t>प्लॉट क्षेत्र आवश्यक है</t>
+  </si>
+  <si>
+    <t>ప్లాట్ ప్రాంతం అవసరం</t>
+  </si>
+  <si>
+    <t>hospitality_details_saved</t>
+  </si>
+  <si>
+    <t>Details Saved</t>
+  </si>
+  <si>
+    <t>विवरण सहेजा गया</t>
+  </si>
+  <si>
+    <t>వివరాలు సేవ్ చేయబడ్డాయి</t>
+  </si>
+  <si>
+    <t>hospitality_moving_next</t>
+  </si>
+  <si>
+    <t>Moving to next step...</t>
+  </si>
+  <si>
+    <t>अगले चरण की ओर बढ़ रहे हैं...</t>
+  </si>
+  <si>
+    <t>తదుపరి దశకు వెళ్తోంది...</t>
+  </si>
+  <si>
+    <t>basic_details_title</t>
+  </si>
+  <si>
+    <t>property_title_label</t>
+  </si>
+  <si>
+    <t>Surya Teja Sites</t>
+  </si>
+  <si>
+    <t>सूर्या तेजा साइट्स</t>
+  </si>
+  <si>
+    <t>సూర్య తేజా సైట్‌లు</t>
+  </si>
+  <si>
+    <t>property_type_label</t>
+  </si>
+  <si>
+    <t>commercial_label</t>
+  </si>
+  <si>
+    <t>select_property_type</t>
+  </si>
+  <si>
+    <t>Select Property Type</t>
+  </si>
+  <si>
+    <t>संपत्ति का प्रकार चुनें</t>
+  </si>
+  <si>
+    <t>ఆస్తి రకాన్ని ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>office_type</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>कार्यालय</t>
+  </si>
+  <si>
+    <t>కార్యాలయం</t>
+  </si>
+  <si>
+    <t>retail_type</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>खुदरा</t>
+  </si>
+  <si>
+    <t>రిటైల్</t>
+  </si>
+  <si>
+    <t>plot_land_type</t>
+  </si>
+  <si>
+    <t>Plot/Land</t>
+  </si>
+  <si>
+    <t>भूखंड/जमीन</t>
+  </si>
+  <si>
+    <t>ప్లాట్/భూమి</t>
+  </si>
+  <si>
+    <t>storage_type</t>
+  </si>
+  <si>
+    <t>industry_type</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>उद्योग</t>
+  </si>
+  <si>
+    <t>పరిశ్రమ</t>
+  </si>
+  <si>
+    <t>hospitality_type</t>
+  </si>
+  <si>
+    <t>Hospitality</t>
+  </si>
+  <si>
+    <t>आतिथ्य</t>
+  </si>
+  <si>
+    <t>ఆతిథ్యం</t>
+  </si>
+  <si>
+    <t>other_type</t>
+  </si>
+  <si>
+    <t>office_kind_question</t>
+  </si>
+  <si>
+    <t>What kind of office is it ?</t>
+  </si>
+  <si>
+    <t>यह किस प्रकार का कार्यालय है?</t>
+  </si>
+  <si>
+    <t>ఇది ఎలాంటి కార్యాలయం?</t>
+  </si>
+  <si>
+    <t>office_ready_to_move</t>
+  </si>
+  <si>
+    <t>Ready to move office space</t>
+  </si>
+  <si>
+    <t>तुरंत उपलब्ध कार्यालय स्थान</t>
+  </si>
+  <si>
+    <t>వెంటనే తరలించగల కార్యాలయ స్థలం</t>
+  </si>
+  <si>
+    <t>office_bare_shell</t>
+  </si>
+  <si>
+    <t>Bare shell office space</t>
+  </si>
+  <si>
+    <t>खाली कार्यालय स्थान</t>
+  </si>
+  <si>
+    <t>ఖాళీ షెల్ కార్యాలయ స్థలం</t>
+  </si>
+  <si>
+    <t>office_coworking</t>
+  </si>
+  <si>
+    <t>Co-working office space</t>
+  </si>
+  <si>
+    <t>सह-कार्य कार्यालय स्थान</t>
+  </si>
+  <si>
+    <t>కో-వర్కింగ్ కార్యాలయ స్థలం</t>
+  </si>
+  <si>
+    <t>retail_kind_question</t>
+  </si>
+  <si>
+    <t>What kind of office  is it?</t>
+  </si>
+  <si>
+    <t>यह किस प्रकार का है?</t>
+  </si>
+  <si>
+    <t>ఇది ఎలాంటిది?</t>
+  </si>
+  <si>
+    <t>retail_commercial_shop</t>
+  </si>
+  <si>
+    <t>Commercial Shop</t>
+  </si>
+  <si>
+    <t>व्यावसायिक दुकान</t>
+  </si>
+  <si>
+    <t>వాణిజ్య దుకాణం</t>
+  </si>
+  <si>
+    <t>retail_commercial_showroom</t>
+  </si>
+  <si>
+    <t>Commercial Showroom</t>
+  </si>
+  <si>
+    <t>व्यावसायिक शोरूम</t>
+  </si>
+  <si>
+    <t>వాణిజ్య షోరూమ్</t>
+  </si>
+  <si>
+    <t>retail_located_inside</t>
+  </si>
+  <si>
+    <t>Located Inside</t>
+  </si>
+  <si>
+    <t>अंदर स्थित</t>
+  </si>
+  <si>
+    <t>లోపల ఉంది</t>
+  </si>
+  <si>
+    <t>retail_select_located_inside</t>
+  </si>
+  <si>
+    <t>Select Located Inside</t>
+  </si>
+  <si>
+    <t>अंदर का स्थान चुनें</t>
+  </si>
+  <si>
+    <t>లోపల స్థానాన్ని ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>retail_mall</t>
+  </si>
+  <si>
+    <t>Mall</t>
+  </si>
+  <si>
+    <t>मॉल</t>
+  </si>
+  <si>
+    <t>మాల్</t>
+  </si>
+  <si>
+    <t>retail_commercial_project</t>
+  </si>
+  <si>
+    <t>Commercial Project</t>
+  </si>
+  <si>
+    <t>व्यावसायिक परियोजना</t>
+  </si>
+  <si>
+    <t>వాణిజ్య ప్రాజెక్ట్</t>
+  </si>
+  <si>
+    <t>retail_residential_project</t>
+  </si>
+  <si>
+    <t>Residential Project</t>
+  </si>
+  <si>
+    <t>आवासीय परियोजना</t>
+  </si>
+  <si>
+    <t>నివాస ప్రాజెక్ట్</t>
+  </si>
+  <si>
+    <t>retail_complex_building</t>
+  </si>
+  <si>
+    <t>Retail Complex / Building</t>
+  </si>
+  <si>
+    <t>खुदरा परिसर / भवन</t>
+  </si>
+  <si>
+    <t>రిటైల్ కాంప్లెక్స్ / భవనం</t>
+  </si>
+  <si>
+    <t>retail_market_high_street</t>
+  </si>
+  <si>
+    <t>Market / High Street</t>
+  </si>
+  <si>
+    <t>बाज़ार / मुख्य सड़क</t>
+  </si>
+  <si>
+    <t>మార్కెట్ / హై స్ట్రీట్</t>
+  </si>
+  <si>
+    <t>plot_kind_question</t>
+  </si>
+  <si>
+    <t>What kind of plot/land is it ?</t>
+  </si>
+  <si>
+    <t>यह किस प्रकार का भूखंड/जमीन है?</t>
+  </si>
+  <si>
+    <t>ఇది ఎలాంటి ప్లాట్/భూమి?</t>
+  </si>
+  <si>
+    <t>plot_commercial_land</t>
+  </si>
+  <si>
+    <t>commercial Land/Inst.Land</t>
+  </si>
+  <si>
+    <t>व्यावसायिक जमीन/संस्थागत जमीन</t>
+  </si>
+  <si>
+    <t>వాణిజ్య భూమి/సంస్థాగత భూమి</t>
+  </si>
+  <si>
+    <t>plot_agricultural_land</t>
+  </si>
+  <si>
+    <t>Agricultural/Farm Land</t>
+  </si>
+  <si>
+    <t>कृषि/खेती की जमीन</t>
+  </si>
+  <si>
+    <t>వ్యవసాయ/వ్యవసాయ భూమి</t>
+  </si>
+  <si>
+    <t>plot_industrial_land</t>
+  </si>
+  <si>
+    <t>Industrial Lands/Plots</t>
+  </si>
+  <si>
+    <t>औद्योगिक भूमि/भूखंड</t>
+  </si>
+  <si>
+    <t>పారిశ్రామిక భూములు/ప్లాట్లు</t>
+  </si>
+  <si>
+    <t>storage_kind_question</t>
+  </si>
+  <si>
+    <t>What kind of storage is it ?</t>
+  </si>
+  <si>
+    <t>यह किस प्रकार का भंडारण है?</t>
+  </si>
+  <si>
+    <t>ఇది ఎలాంటి నిల్వ?</t>
+  </si>
+  <si>
+    <t>storage_warehouse</t>
+  </si>
+  <si>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>गोदाम</t>
+  </si>
+  <si>
+    <t>గిడ్డంగి</t>
+  </si>
+  <si>
+    <t>storage_cold_storage</t>
+  </si>
+  <si>
+    <t>Cold Storage</t>
+  </si>
+  <si>
+    <t>शीत भंडारण</t>
+  </si>
+  <si>
+    <t>కోల్డ్ స్టోరేజ్</t>
+  </si>
+  <si>
+    <t>industry_kind_question</t>
+  </si>
+  <si>
+    <t>What kind of industry is it ?</t>
+  </si>
+  <si>
+    <t>यह किस प्रकार का उद्योग है?</t>
+  </si>
+  <si>
+    <t>ఇది ఎలాంటి పరిశ్రమ?</t>
+  </si>
+  <si>
+    <t>industry_factory</t>
+  </si>
+  <si>
+    <t>Factory</t>
+  </si>
+  <si>
+    <t>कारखाना</t>
+  </si>
+  <si>
+    <t>ఫ్యాక్టరీ</t>
+  </si>
+  <si>
+    <t>industry_manufacturing</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>विनिर्माण</t>
+  </si>
+  <si>
+    <t>తయారీ</t>
+  </si>
+  <si>
+    <t>hospitality_kind_question</t>
+  </si>
+  <si>
+    <t>What kind of Hospitality is it ?</t>
+  </si>
+  <si>
+    <t>यह किस प्रकार का आतिथ्य है?</t>
+  </si>
+  <si>
+    <t>ఇది ఎలాంటి ఆతిథ్యం?</t>
+  </si>
+  <si>
+    <t>hospitality_hotel_resorts</t>
+  </si>
+  <si>
+    <t>Hotel/Resorts</t>
+  </si>
+  <si>
+    <t>होटल/रिसॉर्ट्स</t>
+  </si>
+  <si>
+    <t>హోటల్/రిసార్ట్స్</t>
+  </si>
+  <si>
+    <t>hospitality_guest_house</t>
+  </si>
+  <si>
+    <t>Guest-House/Banquet-Halls</t>
+  </si>
+  <si>
+    <t>गेस्ट-हाउस/बैंक्वेट-हॉल</t>
+  </si>
+  <si>
+    <t>గెస్ట్-హౌస్/బాంక్వెట్-హాల్స్</t>
+  </si>
+  <si>
+    <t>अगला</t>
+  </si>
+  <si>
+    <t>alert_select_property_type</t>
+  </si>
+  <si>
+    <t>alert_select_property_type_message</t>
+  </si>
+  <si>
+    <t>Please select a property type</t>
+  </si>
+  <si>
+    <t>कृपया संपत्ति का प्रकार चुनें</t>
+  </si>
+  <si>
+    <t>దయచేసి ఆస్తి రకాన్ని ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>alert_office_type_required</t>
+  </si>
+  <si>
+    <t>Office Type Required</t>
+  </si>
+  <si>
+    <t>कार्यालय प्रकार आवश्यक है</t>
+  </si>
+  <si>
+    <t>కార్యాలయ రకం అవసరం</t>
+  </si>
+  <si>
+    <t>alert_select_office_kind</t>
+  </si>
+  <si>
+    <t>Please select what kind of office it is</t>
+  </si>
+  <si>
+    <t>कृपया चुनें कि यह किस प्रकार का कार्यालय है</t>
+  </si>
+  <si>
+    <t>దయచేసి ఇది ఎలాంటి కార్యాలయమో ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>alert_storage_type_required</t>
+  </si>
+  <si>
+    <t>Storage Type Required</t>
+  </si>
+  <si>
+    <t>भंडारण प्रकार आवश्यक है</t>
+  </si>
+  <si>
+    <t>నిల్వ రకం అవసరం</t>
+  </si>
+  <si>
+    <t>alert_select_storage_type</t>
+  </si>
+  <si>
+    <t>Please select storage type</t>
+  </si>
+  <si>
+    <t>कृपया भंडारण प्रकार चुनें</t>
+  </si>
+  <si>
+    <t>దయచేసి నిల్వ రకాన్ని ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>alert_industry_type_required</t>
+  </si>
+  <si>
+    <t>Industry Type Required</t>
+  </si>
+  <si>
+    <t>उद्योग प्रकार आवश्यक है</t>
+  </si>
+  <si>
+    <t>పరిశ్రమ రకం అవసరం</t>
+  </si>
+  <si>
+    <t>alert_select_industry_type</t>
+  </si>
+  <si>
+    <t>Please select industry type</t>
+  </si>
+  <si>
+    <t>कृपया उद्योग प्रकार चुनें</t>
+  </si>
+  <si>
+    <t>దయచేసి పరిశ్రమ రకాన్ని ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>alert_hospitality_type_required</t>
+  </si>
+  <si>
+    <t>Hospitality Type Required</t>
+  </si>
+  <si>
+    <t>आतिथ्य प्रकार आवश्यक है</t>
+  </si>
+  <si>
+    <t>ఆతిథ్యం రకం అవసరం</t>
+  </si>
+  <si>
+    <t>alert_select_hospitality_type</t>
+  </si>
+  <si>
+    <t>Please select hospitality type</t>
+  </si>
+  <si>
+    <t>कृपया आतिथ्य प्रकार चुनें</t>
+  </si>
+  <si>
+    <t>దయచేసి ఆతిథ్యం రకాన్ని ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>camera_permission_message</t>
+  </si>
+  <si>
+    <t>You need to grant camera permissions to use this feature.</t>
+  </si>
+  <si>
+    <t>इस सुविधा का उपयोग करने के लिए आपको कैमरा अनुमति देनी होगी।</t>
+  </si>
+  <si>
+    <t>ఈ ఫీచర్‌ను ఉపయోగించడానికి మీరు కెమెరా అనుమతులను మంజూరు చేయాలి.</t>
+  </si>
+  <si>
+    <t>gallery_permission_message</t>
+  </si>
+  <si>
+    <t>You need to grant access to your photo library.</t>
+  </si>
+  <si>
+    <t>आपको अपनी फोटो लाइब्रेरी तक पहुंच प्रदान करनी होगी।</t>
+  </si>
+  <si>
+    <t>మీరు మీ ఫోటో లైబ్రరీకి యాక్సెస్ మంజూరు చేయాలి.</t>
   </si>
 </sst>
 </file>
@@ -7491,10 +9435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4B5E5-1AD3-459E-940E-0D51EC173CF5}">
-  <dimension ref="A1:D811"/>
+  <dimension ref="A1:D1043"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A791" zoomScale="73" workbookViewId="0">
-      <selection activeCell="C815" sqref="C815"/>
+    <sheetView tabSelected="1" topLeftCell="A1039" zoomScale="73" workbookViewId="0">
+      <selection activeCell="D1059" sqref="D1059"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17938,6 +19882,3170 @@
         <v>1880</v>
       </c>
     </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A813" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B813" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C813" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D813" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C814" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D814" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C816" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D816" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B818" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C818" t="s">
+        <v>2355</v>
+      </c>
+      <c r="D818" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B819" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C819" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D819" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B820" t="s">
+        <v>2362</v>
+      </c>
+      <c r="C820" t="s">
+        <v>2363</v>
+      </c>
+      <c r="D820" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B821" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C821" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D821" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B822" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C822" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D822" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B823" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C823" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D823" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B824" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C824" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D824" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B825" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C825" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D825" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B826" t="s">
+        <v>2385</v>
+      </c>
+      <c r="C826" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D826" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B827" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C827" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D827" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B828" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C828" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D828" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B829" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C829" t="s">
+        <v>2398</v>
+      </c>
+      <c r="D829" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B830" t="s">
+        <v>2401</v>
+      </c>
+      <c r="C830" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D830" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B832" t="s">
+        <v>784</v>
+      </c>
+      <c r="C832" t="s">
+        <v>785</v>
+      </c>
+      <c r="D832" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B833" t="s">
+        <v>790</v>
+      </c>
+      <c r="C833" t="s">
+        <v>791</v>
+      </c>
+      <c r="D833" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B834" t="s">
+        <v>787</v>
+      </c>
+      <c r="C834" t="s">
+        <v>788</v>
+      </c>
+      <c r="D834" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B835" t="s">
+        <v>793</v>
+      </c>
+      <c r="C835" t="s">
+        <v>794</v>
+      </c>
+      <c r="D835" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B836" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C836" t="s">
+        <v>817</v>
+      </c>
+      <c r="D836" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B837" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C837" t="s">
+        <v>823</v>
+      </c>
+      <c r="D837" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B838" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C838" t="s">
+        <v>826</v>
+      </c>
+      <c r="D838" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B839" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C839" t="s">
+        <v>820</v>
+      </c>
+      <c r="D839" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B840" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C840" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D840" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B841" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C841" t="s">
+        <v>2417</v>
+      </c>
+      <c r="D841" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B842" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C842" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D842" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B843" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C843" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D843" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B844" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C844" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D844" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B845" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C845" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D845" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C847" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D847" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C848" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D848" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B849" t="s">
+        <v>227</v>
+      </c>
+      <c r="C849" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D849" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B851" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C851" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D851" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B852" t="s">
+        <v>2433</v>
+      </c>
+      <c r="C852" t="s">
+        <v>2434</v>
+      </c>
+      <c r="D852" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B854" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C854" t="s">
+        <v>2438</v>
+      </c>
+      <c r="D854" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B855" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C855" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D855" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C856" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D856" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C858" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D858" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B859" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C859" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D859" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C860" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D860" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B861" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C861" t="s">
+        <v>2451</v>
+      </c>
+      <c r="D861" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B862" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C862" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D862" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B863" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C863" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D863" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B864" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C864" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D864" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B865" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C865" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D865" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B866" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C866" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D866" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B867" t="s">
+        <v>2472</v>
+      </c>
+      <c r="C867" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D867" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
+        <v>2475</v>
+      </c>
+      <c r="B868" t="s">
+        <v>2476</v>
+      </c>
+      <c r="C868" t="s">
+        <v>2477</v>
+      </c>
+      <c r="D868" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B869" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C869" t="s">
+        <v>2481</v>
+      </c>
+      <c r="D869" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
+        <v>2483</v>
+      </c>
+      <c r="B870">
+        <v>1</v>
+      </c>
+      <c r="C870">
+        <v>1</v>
+      </c>
+      <c r="D870">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B871">
+        <v>2</v>
+      </c>
+      <c r="C871">
+        <v>2</v>
+      </c>
+      <c r="D871">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A872" t="s">
+        <v>2485</v>
+      </c>
+      <c r="B872">
+        <v>3</v>
+      </c>
+      <c r="C872">
+        <v>3</v>
+      </c>
+      <c r="D872">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A873" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B873" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C873" t="s">
+        <v>2487</v>
+      </c>
+      <c r="D873" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A874" t="s">
+        <v>2488</v>
+      </c>
+      <c r="B874" t="s">
+        <v>596</v>
+      </c>
+      <c r="C874" t="s">
+        <v>597</v>
+      </c>
+      <c r="D874" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A875" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B875">
+        <v>0</v>
+      </c>
+      <c r="C875">
+        <v>0</v>
+      </c>
+      <c r="D875">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A876" t="s">
+        <v>2490</v>
+      </c>
+      <c r="B876">
+        <v>1</v>
+      </c>
+      <c r="C876">
+        <v>1</v>
+      </c>
+      <c r="D876">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A877" t="s">
+        <v>2491</v>
+      </c>
+      <c r="B877">
+        <v>2</v>
+      </c>
+      <c r="C877">
+        <v>2</v>
+      </c>
+      <c r="D877">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A878" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B878">
+        <v>3</v>
+      </c>
+      <c r="C878">
+        <v>3</v>
+      </c>
+      <c r="D878">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A879" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B879" t="s">
+        <v>2494</v>
+      </c>
+      <c r="C879" t="s">
+        <v>2495</v>
+      </c>
+      <c r="D879" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A880" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B880" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C880" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D880" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A881" t="s">
+        <v>2501</v>
+      </c>
+      <c r="B881" t="s">
+        <v>726</v>
+      </c>
+      <c r="C881" t="s">
+        <v>727</v>
+      </c>
+      <c r="D881" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A882" t="s">
+        <v>2503</v>
+      </c>
+      <c r="B882" t="s">
+        <v>750</v>
+      </c>
+      <c r="C882" t="s">
+        <v>751</v>
+      </c>
+      <c r="D882" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A883" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C883" t="s">
+        <v>2505</v>
+      </c>
+      <c r="D883" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A884" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B884" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C884" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D884" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A885" t="s">
+        <v>2509</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C885" t="s">
+        <v>2510</v>
+      </c>
+      <c r="D885" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A886" t="s">
+        <v>2511</v>
+      </c>
+      <c r="B886" t="s">
+        <v>2512</v>
+      </c>
+      <c r="C886" t="s">
+        <v>2513</v>
+      </c>
+      <c r="D886" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A887" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C887" t="s">
+        <v>2516</v>
+      </c>
+      <c r="D887" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A888" t="s">
+        <v>2518</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C888" t="s">
+        <v>2519</v>
+      </c>
+      <c r="D888" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A889" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C889" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D889" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A890" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B890" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C890" t="s">
+        <v>2526</v>
+      </c>
+      <c r="D890" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A891" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B891">
+        <v>0</v>
+      </c>
+      <c r="C891">
+        <v>0</v>
+      </c>
+      <c r="D891">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A892" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B892" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C892" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D892" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A893" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B893" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C893" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D893" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A894" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B894" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C894" t="s">
+        <v>2539</v>
+      </c>
+      <c r="D894" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A895" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C895" t="s">
+        <v>2542</v>
+      </c>
+      <c r="D895" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A896" t="s">
+        <v>2544</v>
+      </c>
+      <c r="B896" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C896" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D896" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A897" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C897" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D897" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A898" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B898" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C898" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D898" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A899" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C899" t="s">
+        <v>2552</v>
+      </c>
+      <c r="D899" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A900" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C900" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D900" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A901" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C901" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D901" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A902" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C902" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D902" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A903" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C903" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D903" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A904" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C904" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D904" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A905" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C905" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D905" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A906" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C906" t="s">
+        <v>2567</v>
+      </c>
+      <c r="D906" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A907" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B907" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C907" t="s">
+        <v>2570</v>
+      </c>
+      <c r="D907" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A908" t="s">
+        <v>2572</v>
+      </c>
+      <c r="B908" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C908" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D908" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A909" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B909" t="s">
+        <v>2577</v>
+      </c>
+      <c r="C909" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D909" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A910" t="s">
+        <v>2580</v>
+      </c>
+      <c r="B910" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C910" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D910" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A911" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B911" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C911" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D911" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A912" t="s">
+        <v>2588</v>
+      </c>
+      <c r="B912" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C912" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D912" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A913" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B913" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C913" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D913" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A914" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B914" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C914" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D914" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A915" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B915" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C915" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D915" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A916" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B916" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C916" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D916" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A917" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B917" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C917" t="s">
+        <v>2610</v>
+      </c>
+      <c r="D917" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A918" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B918" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C918" t="s">
+        <v>2614</v>
+      </c>
+      <c r="D918" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A919" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B919" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C919" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D919" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A920" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B920" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C920" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D920" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A921" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B921" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C921" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D921" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A922" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B922" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C922" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D922" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A923" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B923" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C923" t="s">
+        <v>2634</v>
+      </c>
+      <c r="D923" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A924" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B924" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C924" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D924" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A925" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B925" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C925" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D925" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A926" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B926" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C926" t="s">
+        <v>2646</v>
+      </c>
+      <c r="D926" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A927" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C927" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D927" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A928" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C928" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D928" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A929" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C929" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D929" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A930" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B930" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C930" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D930" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A931" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B931" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C931" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D931" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A932" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B932" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C932" t="s">
+        <v>2658</v>
+      </c>
+      <c r="D932" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A933" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B933" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C933" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D933" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A934" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B934" t="s">
+        <v>2665</v>
+      </c>
+      <c r="C934" t="s">
+        <v>2666</v>
+      </c>
+      <c r="D934" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A935" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B935" t="s">
+        <v>2669</v>
+      </c>
+      <c r="C935" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D935" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A936" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B936" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C936" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D936" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A937" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B937" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C937" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D937" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A938" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C938" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D938" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A939" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B939" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C939" t="s">
+        <v>2684</v>
+      </c>
+      <c r="D939" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A940" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C940" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D940" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A941" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C941" t="s">
+        <v>2690</v>
+      </c>
+      <c r="D941" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A942" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B942" t="e" cm="1">
+        <f t="array" ref="B942">+ Add more pricing details</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C942" t="e" cm="1">
+        <f t="array" ref="C942">+ अधिक मूल्य विवरण जोड़ें</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D942" t="e" cm="1">
+        <f t="array" ref="D942">+ మరిన్ని ధర వివరాలను జోడించండి</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A943" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B943" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C943" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D943" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A944" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B944" t="s">
+        <v>391</v>
+      </c>
+      <c r="C944" t="s">
+        <v>392</v>
+      </c>
+      <c r="D944" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A945" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B945" t="s">
+        <v>395</v>
+      </c>
+      <c r="C945" t="s">
+        <v>396</v>
+      </c>
+      <c r="D945" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A946" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B946" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C946" t="s">
+        <v>2701</v>
+      </c>
+      <c r="D946" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A947" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B947" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C947" t="s">
+        <v>2705</v>
+      </c>
+      <c r="D947" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A948" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C948" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D948" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A949" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B949" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C949" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D949" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A950" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B950" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C950" t="s">
+        <v>2712</v>
+      </c>
+      <c r="D950" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A951" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B951" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C951" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D951" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A952" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B952" t="e" cm="1">
+        <f t="array" ref="B952">+Water Storage</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C952" t="e" cm="1">
+        <f t="array" ref="C952">+जल भंडारण</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D952" t="e" cm="1">
+        <f t="array" ref="D952">+నీటి నిల్వ</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A953" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B953" t="e" cm="1">
+        <f t="array" ref="B953">+currently Air Conditioned</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C953" t="e" cm="1">
+        <f t="array" ref="C953">+वर्तमान में वातानुकूलित</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D953" t="e" cm="1">
+        <f t="array" ref="D953">+ప్రస్తుతం ఎయిర్ కండిషన్డ్</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A954" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B954" t="e" cm="1">
+        <f t="array" ref="B954">+Vaastu Complex</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C954" t="e" cm="1">
+        <f t="array" ref="C954">+वास्तु परिसर</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D954" t="e" cm="1">
+        <f t="array" ref="D954">+వాస్తు కాంప్లెక్స్</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A955" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B955" t="e" cm="1">
+        <f t="array" ref="B955">+Security fire Alarm</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C955" t="e" cm="1">
+        <f t="array" ref="C955">+सुरक्षा अग्नि अलार्म</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D955" t="e" cm="1">
+        <f t="array" ref="D955">+సెక్యూరిటీ ఫైర్ అలారం</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A956" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B956" t="e" cm="1">
+        <f t="array" ref="B956">+Visitor Parking</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C956" t="e" cm="1">
+        <f t="array" ref="C956">+आगंतुक पार्किंग</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D956" t="e" cm="1">
+        <f t="array" ref="D956">+సందర్శకుల పార్కింగ్</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A957" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B957" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C957" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D957" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A958" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B958" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C958" t="s">
+        <v>2729</v>
+      </c>
+      <c r="D958" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A959" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B959" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C959" t="s">
+        <v>2733</v>
+      </c>
+      <c r="D959" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A960" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B960" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C960" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D960" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A961" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B961" t="s">
+        <v>2740</v>
+      </c>
+      <c r="C961" t="s">
+        <v>2741</v>
+      </c>
+      <c r="D961" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A962" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B962" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C962" t="s">
+        <v>2745</v>
+      </c>
+      <c r="D962" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A963" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B963" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C963" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D963" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A964" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B964" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C964" t="s">
+        <v>2753</v>
+      </c>
+      <c r="D964" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A965" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B965" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C965" t="s">
+        <v>2757</v>
+      </c>
+      <c r="D965" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A966" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B966" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C966" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D966" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A967" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B967" t="s">
+        <v>2764</v>
+      </c>
+      <c r="C967" t="s">
+        <v>2765</v>
+      </c>
+      <c r="D967" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A968" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B968" t="s">
+        <v>2768</v>
+      </c>
+      <c r="C968" t="s">
+        <v>2769</v>
+      </c>
+      <c r="D968" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A969" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B969" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C969" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D969" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A970" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B970" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C970" t="s">
+        <v>2777</v>
+      </c>
+      <c r="D970" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A971" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B971" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C971" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D971" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A972" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B972" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C972" t="s">
+        <v>2785</v>
+      </c>
+      <c r="D972" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A973" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C973" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D973" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A974" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C974" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D974" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A975" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B975" t="e" cm="1">
+        <f t="array" ref="B975">+Close to Metro Station</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C975" t="e" cm="1">
+        <f t="array" ref="C975">+मेट्रो स्टेशन के पास</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D975" t="e" cm="1">
+        <f t="array" ref="D975">+మెట్రో స్టేషన్ దగ్గర</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A976" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B976" t="e" cm="1">
+        <f t="array" ref="B976">+Close to School</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C976" t="e" cm="1">
+        <f t="array" ref="C976">+स्कूल के पास</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D976" t="e" cm="1">
+        <f t="array" ref="D976">+పాఠశాల దగ్గర</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A977" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B977" t="e" cm="1">
+        <f t="array" ref="B977">+Close to Hospital</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C977" t="e" cm="1">
+        <f t="array" ref="C977">+अस्पताल के पास</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D977" t="e" cm="1">
+        <f t="array" ref="D977">+ఆసుపత్రి దగ్గర</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A978" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B978" t="e" cm="1">
+        <f t="array" ref="B978">+Close to Market</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C978" t="e" cm="1">
+        <f t="array" ref="C978">+बाजार के पास</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D978" t="e" cm="1">
+        <f t="array" ref="D978">+మార్కెట్ దగ్గర</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A979" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B979" t="e" cm="1">
+        <f t="array" ref="B979">+Close to Railway Station</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C979" t="e" cm="1">
+        <f t="array" ref="C979">+रेलवे स्टेशन के पास</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D979" t="e" cm="1">
+        <f t="array" ref="D979">+రైల్వే స్టేషన్ దగ్గర</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A980" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B980" t="e" cm="1">
+        <f t="array" ref="B980">+Close to Airport</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C980" t="e" cm="1">
+        <f t="array" ref="C980">+हवाई अड्डे के पास</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D980" t="e" cm="1">
+        <f t="array" ref="D980">+విమానాశ్రయం దగ్గర</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A981" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B981" t="e" cm="1">
+        <f t="array" ref="B981">+Close to Mall</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C981" t="e" cm="1">
+        <f t="array" ref="C981">+मॉल के पास</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D981" t="e" cm="1">
+        <f t="array" ref="D981">+మాల్ దగ్గర</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A982" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B982" t="e" cm="1">
+        <f t="array" ref="B982">+Close to Highway</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C982" t="e" cm="1">
+        <f t="array" ref="C982">+राजमार्ग के पास</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D982" t="e" cm="1">
+        <f t="array" ref="D982">+హైవే దగ్గర</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A983" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B983" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C983" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D983" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A984" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B984" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C984" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D984" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A985" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B985" t="s">
+        <v>2808</v>
+      </c>
+      <c r="C985" t="s">
+        <v>2809</v>
+      </c>
+      <c r="D985" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A987" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B987" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C987" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D987" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A988" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C988" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D988" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A989" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C989" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D989" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A990" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C990" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D990" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A991" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B991" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C991" t="s">
+        <v>2814</v>
+      </c>
+      <c r="D991" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A992" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C992" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D992" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A993" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B993" t="s">
+        <v>329</v>
+      </c>
+      <c r="C993" t="s">
+        <v>330</v>
+      </c>
+      <c r="D993" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A994" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B994" t="s">
+        <v>2819</v>
+      </c>
+      <c r="C994" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D994" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A995" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B995" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C995" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D995" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A996" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B996" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C996" t="s">
+        <v>2828</v>
+      </c>
+      <c r="D996" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A997" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B997" t="s">
+        <v>2831</v>
+      </c>
+      <c r="C997" t="s">
+        <v>2832</v>
+      </c>
+      <c r="D997" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A998" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C998" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D998" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A999" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B999" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C999" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D999" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1000" t="s">
+        <v>2839</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1001" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1002" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>2845</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>2846</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1003" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>2849</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>2850</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1004" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>2853</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>2854</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1005" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1006" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>2861</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1007" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1008" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1009" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>2874</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1010" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>2878</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1011" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>2882</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1012" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>2886</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1013" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>2890</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1014" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>2894</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1015" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1016" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>2901</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1017" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>2906</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1018" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>2910</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1019" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1020" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>2918</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1021" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1022" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>2926</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1023" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>2929</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>2930</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1024" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>2934</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1025" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>2938</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1026" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>2942</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1027" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>2946</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1028" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>2950</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1029" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1030" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>2952</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1031" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>2819</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1032" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>2956</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1033" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>2960</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1034" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>2963</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>2964</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1035" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>2968</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1036" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>2972</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1037" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>2976</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1038" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1039" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>2984</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1040" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>2987</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>2988</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1041" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1042" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>2992</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1043" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>2997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Frontend/translations.xlsx
+++ b/Frontend/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigat\OneDrive\Desktop\Technoji\LandsTime-301-12-2025\Landstime_Androidapp\Frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEEB34F-2820-4B47-888A-A8E0010FA8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA4BD3B-589D-40C2-9AD4-1591FEC39E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="2998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4079" uniqueCount="3143">
   <si>
     <t>key</t>
   </si>
@@ -9050,6 +9050,441 @@
   </si>
   <si>
     <t>మీరు మీ ఫోటో లైబ్రరీకి యాక్సెస్ మంజూరు చేయాలి.</t>
+  </si>
+  <si>
+    <t>industry_location</t>
+  </si>
+  <si>
+    <t>industry_area_required</t>
+  </si>
+  <si>
+    <t>industry_neighborhood</t>
+  </si>
+  <si>
+    <t>industry_enter_location</t>
+  </si>
+  <si>
+    <t>industry_enter_area</t>
+  </si>
+  <si>
+    <t>industry_add_room_details</t>
+  </si>
+  <si>
+    <t>industry_no_of_washrooms</t>
+  </si>
+  <si>
+    <t>industry_washroom_none</t>
+  </si>
+  <si>
+    <t>industry_washroom_shared</t>
+  </si>
+  <si>
+    <t>industry_add_area_details</t>
+  </si>
+  <si>
+    <t>industry_availability_status</t>
+  </si>
+  <si>
+    <t>industry_ready_to_move</t>
+  </si>
+  <si>
+    <t>industry_under_construction</t>
+  </si>
+  <si>
+    <t>industry_age_of_property</t>
+  </si>
+  <si>
+    <t>industry_age_0_1</t>
+  </si>
+  <si>
+    <t>industry_age_1_5</t>
+  </si>
+  <si>
+    <t>industry_age_5_10</t>
+  </si>
+  <si>
+    <t>industry_age_10plus</t>
+  </si>
+  <si>
+    <t>industry_possession_by</t>
+  </si>
+  <si>
+    <t>industry_expected_by</t>
+  </si>
+  <si>
+    <t>industry_possession_immediate</t>
+  </si>
+  <si>
+    <t>industry_possession_3months</t>
+  </si>
+  <si>
+    <t>industry_possession_6months</t>
+  </si>
+  <si>
+    <t>industry_possession_2026</t>
+  </si>
+  <si>
+    <t>industry_possession_2027</t>
+  </si>
+  <si>
+    <t>industry_possession_2028</t>
+  </si>
+  <si>
+    <t>industry_possession_2029</t>
+  </si>
+  <si>
+    <t>industry_possession_2030</t>
+  </si>
+  <si>
+    <t>industry_ownership</t>
+  </si>
+  <si>
+    <t>industry_ownership_freehold</t>
+  </si>
+  <si>
+    <t>industry_ownership_leasehold</t>
+  </si>
+  <si>
+    <t>industry_ownership_company</t>
+  </si>
+  <si>
+    <t>industry_ownership_other</t>
+  </si>
+  <si>
+    <t>industry_approved_by</t>
+  </si>
+  <si>
+    <t>industry_approved_authority</t>
+  </si>
+  <si>
+    <t>industry_approved_industry_type</t>
+  </si>
+  <si>
+    <t>industry_select_industry</t>
+  </si>
+  <si>
+    <t>industry_expected_price</t>
+  </si>
+  <si>
+    <t>industry_enter_price</t>
+  </si>
+  <si>
+    <t>industry_dg_ups_included</t>
+  </si>
+  <si>
+    <t>industry_price_negotiable</t>
+  </si>
+  <si>
+    <t>industry_tax_excluded</t>
+  </si>
+  <si>
+    <t>industry_pre_leased</t>
+  </si>
+  <si>
+    <t>industry_yes</t>
+  </si>
+  <si>
+    <t>industry_no</t>
+  </si>
+  <si>
+    <t>industry_current_rent</t>
+  </si>
+  <si>
+    <t>industry_lease_tenure</t>
+  </si>
+  <si>
+    <t>industry_description</t>
+  </si>
+  <si>
+    <t>industry_describe_placeholder</t>
+  </si>
+  <si>
+    <t>industry_amenities</t>
+  </si>
+  <si>
+    <t>industry_other_features</t>
+  </si>
+  <si>
+    <t>industry_wheelchair_friendly</t>
+  </si>
+  <si>
+    <t>industry_location_advantages</t>
+  </si>
+  <si>
+    <t>industry_price_required</t>
+  </si>
+  <si>
+    <t>industry_description_required</t>
+  </si>
+  <si>
+    <t>industry_details_saved</t>
+  </si>
+  <si>
+    <t>industry_moving_next</t>
+  </si>
+  <si>
+    <t>పొరుగు ప్రాంతం</t>
+  </si>
+  <si>
+    <t>స్థానాన్ని నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>ప్రాంతాన్ని నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>తరలించడానికి సిద్ధంగా ఉంది</t>
+  </si>
+  <si>
+    <t>స్వాధీనం ద్వారా</t>
+  </si>
+  <si>
+    <t>ఆశించిన ద్వారా</t>
+  </si>
+  <si>
+    <t>తక్షణ</t>
+  </si>
+  <si>
+    <t>ద్వారా ఆమోదించబడింది</t>
+  </si>
+  <si>
+    <t>ఆశించిన ధర</t>
+  </si>
+  <si>
+    <t>ధరను నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>ధర చర్చించదగినది</t>
+  </si>
+  <si>
+    <t>ముందుగా లీజుకు ఇవ్వబడింది</t>
+  </si>
+  <si>
+    <t>లీజు వ్యవధి సంవత్సరాలలో</t>
+  </si>
+  <si>
+    <t>మీ ఆస్తిని ప్రత్యేకంగా చేసేది ఏమిటో వ్రాయండి</t>
+  </si>
+  <si>
+    <t>వీల్‌చైర్ స్నేహపూర్వకం</t>
+  </si>
+  <si>
+    <t>తదుపరికి వెళ్తోంది</t>
+  </si>
+  <si>
+    <t>क्षेत्र आवश्यक</t>
+  </si>
+  <si>
+    <t>पड़ोस/इलाका</t>
+  </si>
+  <si>
+    <t>स्थान दर्ज करें</t>
+  </si>
+  <si>
+    <t>क्षेत्र दर्ज करें</t>
+  </si>
+  <si>
+    <t>कमरे का विवरण जोड़ें</t>
+  </si>
+  <si>
+    <t>क्षेत्र विवरण जोड़ें</t>
+  </si>
+  <si>
+    <t>स्थानांतरण के लिए तैयार</t>
+  </si>
+  <si>
+    <t>कब्ज़ा द्वारा</t>
+  </si>
+  <si>
+    <t>अपेक्षित द्वारा</t>
+  </si>
+  <si>
+    <t>कंपनी स्वामित्व</t>
+  </si>
+  <si>
+    <t>द्वारा स्वीकृत</t>
+  </si>
+  <si>
+    <t>उद्योग प्रकार के लिए स्वीकृत</t>
+  </si>
+  <si>
+    <t>अपेक्षित मूल्य</t>
+  </si>
+  <si>
+    <t>मूल्य दर्ज करें</t>
+  </si>
+  <si>
+    <t>कर और सरकारी शुल्क बाहर</t>
+  </si>
+  <si>
+    <t>पूर्व-पट्टे पर दिया गया</t>
+  </si>
+  <si>
+    <t>पट्टा अवधि वर्षों में</t>
+  </si>
+  <si>
+    <t>लिखें कि आपकी संपत्ति को क्या अद्वितीय बनाता है</t>
+  </si>
+  <si>
+    <t>स्थान लाभ</t>
+  </si>
+  <si>
+    <t>मूल्य आवश्यक</t>
+  </si>
+  <si>
+    <t>विवरण आवश्यक</t>
+  </si>
+  <si>
+    <t>आगे बढ़ रहे हैं</t>
+  </si>
+  <si>
+    <t>No of Wash Rooms</t>
+  </si>
+  <si>
+    <t>Moving to Next</t>
+  </si>
+  <si>
+    <t>industry_unit_sqft</t>
+  </si>
+  <si>
+    <t>industry_unit_sqm</t>
+  </si>
+  <si>
+    <t>industry_unit_acre</t>
+  </si>
+  <si>
+    <t>industry_plot_building_facing</t>
+  </si>
+  <si>
+    <t>Industrial Plot/Building Facing</t>
+  </si>
+  <si>
+    <t>औद्योगिक भूखंड/भवन का सामना</t>
+  </si>
+  <si>
+    <t>పారిశ్రామిక ప్లాట్/భవనం ముఖం</t>
+  </si>
+  <si>
+    <t>industry_entrance_direction</t>
+  </si>
+  <si>
+    <t>Main Entrance/Gate Direction</t>
+  </si>
+  <si>
+    <t>industry_machinery_direction</t>
+  </si>
+  <si>
+    <t>Heavy Machinery Placement Direction</t>
+  </si>
+  <si>
+    <t>भारी मशीनरी स्थापना दिशा</t>
+  </si>
+  <si>
+    <t>భారీ యంత్రాల స్థాన దిశ</t>
+  </si>
+  <si>
+    <t>industry_production_direction</t>
+  </si>
+  <si>
+    <t>Production/Manufacturing Area Direction</t>
+  </si>
+  <si>
+    <t>उत्पादन/विनिर्माण क्षेत्र दिशा</t>
+  </si>
+  <si>
+    <t>ఉత్పత్తి/తయారీ ప్రాంత దిశ</t>
+  </si>
+  <si>
+    <t>industry_raw_material_direction</t>
+  </si>
+  <si>
+    <t>Raw Material Storage Direction</t>
+  </si>
+  <si>
+    <t>कच्चे माल भंडारण दिशा</t>
+  </si>
+  <si>
+    <t>ముడి పదార్థాల నిల్వ దిశ</t>
+  </si>
+  <si>
+    <t>industry_finished_goods_direction</t>
+  </si>
+  <si>
+    <t>Finished Goods Storage Direction</t>
+  </si>
+  <si>
+    <t>तैयार माल भंडारण दिशा</t>
+  </si>
+  <si>
+    <t>పూర్తి వస్తువుల నిల్వ దిశ</t>
+  </si>
+  <si>
+    <t>industry_office_direction</t>
+  </si>
+  <si>
+    <t>Office/Administration Area Direction</t>
+  </si>
+  <si>
+    <t>कार्यालय/प्रशासन क्षेत्र दिशा</t>
+  </si>
+  <si>
+    <t>కార్యాలయ/పరిపాలన ప్రాంత దిశ</t>
+  </si>
+  <si>
+    <t>industry_electrical_direction</t>
+  </si>
+  <si>
+    <t>Electrical/Generator/Boiler Area Direction</t>
+  </si>
+  <si>
+    <t>विद्युत/जनरेटर/बॉयलर क्षेत्र दिशा</t>
+  </si>
+  <si>
+    <t>విద్యుత్/జనరేటర్/బాయిలర్ ప్రాంత దిశ</t>
+  </si>
+  <si>
+    <t>industry_water_direction</t>
+  </si>
+  <si>
+    <t>Water Source/Tank Direction</t>
+  </si>
+  <si>
+    <t>जल स्रोत/टैंक दिशा</t>
+  </si>
+  <si>
+    <t>నీటి మూలం/ట్యాంక్ దిశ</t>
+  </si>
+  <si>
+    <t>industry_waste_direction</t>
+  </si>
+  <si>
+    <t>Waste/Scrap Area Direction</t>
+  </si>
+  <si>
+    <t>अपशिष्ट/स्क्रैप क्षेत्र दिशा</t>
+  </si>
+  <si>
+    <t>వ్యర్థ/స్క్రాప్ ప్రాంత దిశ</t>
+  </si>
+  <si>
+    <t>industry_washroom_direction</t>
+  </si>
+  <si>
+    <t>शौचालय दिशा</t>
+  </si>
+  <si>
+    <t>వాష్‌రూమ్‌ల దిశ</t>
+  </si>
+  <si>
+    <t>vaastu_option_towards_south</t>
+  </si>
+  <si>
+    <t>vaastu_option_towards_west</t>
+  </si>
+  <si>
+    <t>ఉత్తరం నీటి వనరు</t>
+  </si>
+  <si>
+    <t>सभी दिशाओं में समान ऊंचाई</t>
   </si>
 </sst>
 </file>
@@ -9435,10 +9870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4B5E5-1AD3-459E-940E-0D51EC173CF5}">
-  <dimension ref="A1:D1043"/>
+  <dimension ref="A1:D1123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1039" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D1059" sqref="D1059"/>
+    <sheetView tabSelected="1" topLeftCell="A1096" zoomScale="69" workbookViewId="0">
+      <selection activeCell="B1133" sqref="B1133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23046,6 +23481,1098 @@
         <v>2997</v>
       </c>
     </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1045" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1046" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>3071</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1047" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>3072</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1048" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1049" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>3074</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1050" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>3075</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1051" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1052" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>2476</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>2477</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1053" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>2481</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1054" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>3076</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1055" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1056" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>3077</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1057" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1058" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1059" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1060" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1061" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1062" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1063" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>3078</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1064" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>3079</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1065" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1066" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1067" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>2567</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1068" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1069" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>2577</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1070" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1071" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1072" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1073" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1074" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1075" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1076" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>3080</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1077" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1078" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>3081</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1079" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1080" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>2665</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1081" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>2669</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1082" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>3083</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1083" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1084" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>2684</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1085" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1086" t="s">
+        <v>3039</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>3085</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1087" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>2694</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>3086</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1088" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1089" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1090" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>2700</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>2701</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1091" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>3087</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1092" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1093" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>3088</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1094" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1095" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1096" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>2729</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1097" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>3089</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1098" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>3090</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1099" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>3091</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1100" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1101" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>3094</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>3092</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1103" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1104" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1105" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>2539</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1106" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>3100</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1107" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>3103</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1108" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>3106</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1109" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>3109</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>3110</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1110" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>3114</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1111" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>3117</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>3118</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1112" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>3121</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>3122</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1113" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>3125</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>3126</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1114" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>3129</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>3130</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1115" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>3133</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>3134</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1116" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>2397</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1117" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1118" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1119" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1120" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1121" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1122" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>3142</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1123" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>2292</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Frontend/translations.xlsx
+++ b/Frontend/translations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigat\OneDrive\Desktop\Technoji\LandsTime-301-12-2025\Landstime_Androidapp\Frontend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d8c1b1ae6504acc/Desktop/Technoji/LandsTime-301-12-2025/Landstime_Androidapp/Frontend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA4BD3B-589D-40C2-9AD4-1591FEC39E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{2BA4BD3B-589D-40C2-9AD4-1591FEC39E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE252E0B-77FA-4681-8A13-44354F6706B6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4079" uniqueCount="3143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5007" uniqueCount="3773">
   <si>
     <t>key</t>
   </si>
@@ -9485,6 +9485,1896 @@
   </si>
   <si>
     <t>सभी दिशाओं में समान ऊंचाई</t>
+  </si>
+  <si>
+    <t>office_kind_ready</t>
+  </si>
+  <si>
+    <t>Ready to Move-in Office</t>
+  </si>
+  <si>
+    <t>रेडी टू मूव-इन ऑफिस</t>
+  </si>
+  <si>
+    <t>తయారుగా ఉన్న కార్యాలయం</t>
+  </si>
+  <si>
+    <t>office_kind_bare</t>
+  </si>
+  <si>
+    <t>Bare Shell Office</t>
+  </si>
+  <si>
+    <t>बेयर शेल ऑफिस</t>
+  </si>
+  <si>
+    <t>బేర్ షెల్ కార్యాలయం</t>
+  </si>
+  <si>
+    <t>office_kind_coworking</t>
+  </si>
+  <si>
+    <t>Co-working Space</t>
+  </si>
+  <si>
+    <t>सह-कार्य स्थान</t>
+  </si>
+  <si>
+    <t>సహ-పని స్థలం</t>
+  </si>
+  <si>
+    <t>office_located_it</t>
+  </si>
+  <si>
+    <t>IT Park</t>
+  </si>
+  <si>
+    <t>आईटी पार्क</t>
+  </si>
+  <si>
+    <t>ఐటి పార్క్</t>
+  </si>
+  <si>
+    <t>office_located_business</t>
+  </si>
+  <si>
+    <t>Business Park</t>
+  </si>
+  <si>
+    <t>बिजनेस पार्क</t>
+  </si>
+  <si>
+    <t>వ్యాపార పార్క్</t>
+  </si>
+  <si>
+    <t>office_located_other</t>
+  </si>
+  <si>
+    <t>office_zone_commercial</t>
+  </si>
+  <si>
+    <t>office_zone_residential</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>आवासीय</t>
+  </si>
+  <si>
+    <t>నివాస</t>
+  </si>
+  <si>
+    <t>office_zone_transport</t>
+  </si>
+  <si>
+    <t>Transport and Communication</t>
+  </si>
+  <si>
+    <t>परिवहन और संचार</t>
+  </si>
+  <si>
+    <t>రవాణా మరియు కమ్యూనికేషన్</t>
+  </si>
+  <si>
+    <t>office_zone_public</t>
+  </si>
+  <si>
+    <t>Public and Semi Public use</t>
+  </si>
+  <si>
+    <t>सार्वजनिक और अर्ध सार्वजनिक उपयोग</t>
+  </si>
+  <si>
+    <t>ప్రజా మరియు సెమీ ప్రజా వినియోగం</t>
+  </si>
+  <si>
+    <t>office_zone_open</t>
+  </si>
+  <si>
+    <t>खुली जगहें</t>
+  </si>
+  <si>
+    <t>బహిరంగ ప్రదేశాలు</t>
+  </si>
+  <si>
+    <t>office_zone_agricultural</t>
+  </si>
+  <si>
+    <t>Agricultural Zone</t>
+  </si>
+  <si>
+    <t>कृषि क्षेत्र</t>
+  </si>
+  <si>
+    <t>వ్యవసాయ ప్రాంతం</t>
+  </si>
+  <si>
+    <t>office_zone_sez</t>
+  </si>
+  <si>
+    <t>Special Economic Zone</t>
+  </si>
+  <si>
+    <t>विशेष आर्थिक क्षेत्र</t>
+  </si>
+  <si>
+    <t>ప్రత్యేక ఆర్థిక మండలం</t>
+  </si>
+  <si>
+    <t>office_zone_conservation</t>
+  </si>
+  <si>
+    <t>Natural Conservation Zone</t>
+  </si>
+  <si>
+    <t>प्राकृतिक संरक्षण क्षेत्र</t>
+  </si>
+  <si>
+    <t>సహజ సంరక్షణ ప్రాంతం</t>
+  </si>
+  <si>
+    <t>office_zone_government</t>
+  </si>
+  <si>
+    <t>Government Use</t>
+  </si>
+  <si>
+    <t>सरकारी उपयोग</t>
+  </si>
+  <si>
+    <t>ప్రభుత్వ వినియోగం</t>
+  </si>
+  <si>
+    <t>office_fire_extinguisher</t>
+  </si>
+  <si>
+    <t>Fire Extinguisher</t>
+  </si>
+  <si>
+    <t>अग्निशामक यंत्र</t>
+  </si>
+  <si>
+    <t>అగ్నిమాపక పరికరం</t>
+  </si>
+  <si>
+    <t>office_fire_sensors</t>
+  </si>
+  <si>
+    <t>Fire Sensors</t>
+  </si>
+  <si>
+    <t>अग्नि संवेदक</t>
+  </si>
+  <si>
+    <t>అగ్ని సెన్సార్లు</t>
+  </si>
+  <si>
+    <t>office_fire_sprinklers</t>
+  </si>
+  <si>
+    <t>Sprinklers</t>
+  </si>
+  <si>
+    <t>स्प्रिंकलर</t>
+  </si>
+  <si>
+    <t>స్ప్రింక్లర్లు</t>
+  </si>
+  <si>
+    <t>office_fire_hose</t>
+  </si>
+  <si>
+    <t>Fire Hose</t>
+  </si>
+  <si>
+    <t>अग्नि नली</t>
+  </si>
+  <si>
+    <t>అగ్ని గొట్టం</t>
+  </si>
+  <si>
+    <t>office_lift_available</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>उपलब्ध</t>
+  </si>
+  <si>
+    <t>అందుబాటులో</t>
+  </si>
+  <si>
+    <t>office_lift_not_available</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>उपलब्ध नहीं</t>
+  </si>
+  <si>
+    <t>అందుబాటులో లేదు</t>
+  </si>
+  <si>
+    <t>office_parking_available</t>
+  </si>
+  <si>
+    <t>office_parking_not_available</t>
+  </si>
+  <si>
+    <t>office_parking_basement</t>
+  </si>
+  <si>
+    <t>Private Parking in Basement</t>
+  </si>
+  <si>
+    <t>बेसमेंट में निजी पार्किंग</t>
+  </si>
+  <si>
+    <t>నేలమాళిగలో ప్రైవేట్ పార్కింగ్</t>
+  </si>
+  <si>
+    <t>office_parking_outside</t>
+  </si>
+  <si>
+    <t>Private Parking Outside</t>
+  </si>
+  <si>
+    <t>बाहर निजी पार्किंग</t>
+  </si>
+  <si>
+    <t>బయట ప్రైవేట్ పార్కింగ్</t>
+  </si>
+  <si>
+    <t>office_parking_private</t>
+  </si>
+  <si>
+    <t>Private Parking</t>
+  </si>
+  <si>
+    <t>निजी पार्किंग</t>
+  </si>
+  <si>
+    <t>ప్రైవేట్ పార్కింగ్</t>
+  </si>
+  <si>
+    <t>office_availability_ready</t>
+  </si>
+  <si>
+    <t>तुरंत उपलब्ध</t>
+  </si>
+  <si>
+    <t>వెంటనే అందుబాటులో</t>
+  </si>
+  <si>
+    <t>office_availability_construction</t>
+  </si>
+  <si>
+    <t>నిర్మాణంలో</t>
+  </si>
+  <si>
+    <t>office_age_0_1</t>
+  </si>
+  <si>
+    <t>office_age_1_5</t>
+  </si>
+  <si>
+    <t>office_age_5_10</t>
+  </si>
+  <si>
+    <t>office_age_10plus</t>
+  </si>
+  <si>
+    <t>office_possession_immediate</t>
+  </si>
+  <si>
+    <t>office_possession_3months</t>
+  </si>
+  <si>
+    <t>3 నెలల్లోపు</t>
+  </si>
+  <si>
+    <t>office_possession_6months</t>
+  </si>
+  <si>
+    <t>6 నెలల్లోపు</t>
+  </si>
+  <si>
+    <t>office_possession_2026</t>
+  </si>
+  <si>
+    <t>office_possession_2027</t>
+  </si>
+  <si>
+    <t>office_possession_2028</t>
+  </si>
+  <si>
+    <t>office_possession_2029</t>
+  </si>
+  <si>
+    <t>office_possession_2030</t>
+  </si>
+  <si>
+    <t>office_vaastu_facing</t>
+  </si>
+  <si>
+    <t>Office Facing</t>
+  </si>
+  <si>
+    <t>कार्यालय का मुख</t>
+  </si>
+  <si>
+    <t>కార్యాలయం ముఖము</t>
+  </si>
+  <si>
+    <t>office_vaastu_entrance</t>
+  </si>
+  <si>
+    <t>मुख्य प्रवेश द्वार दिशा</t>
+  </si>
+  <si>
+    <t>ప్రధాన ద్వారం దిశ</t>
+  </si>
+  <si>
+    <t>office_vaastu_cabin</t>
+  </si>
+  <si>
+    <t>Owner / MD / Manager Cabin Direction</t>
+  </si>
+  <si>
+    <t>मालिक / एमडी / प्रबंधक केबिन दिशा</t>
+  </si>
+  <si>
+    <t>యజమాని / MD / మేనేజర్ క్యాబిన్ దిశ</t>
+  </si>
+  <si>
+    <t>office_vaastu_workstations</t>
+  </si>
+  <si>
+    <t>Workstations / Employee Seating Direction</t>
+  </si>
+  <si>
+    <t>वर्कस्टेशन / कर्मचारी बैठने की दिशा</t>
+  </si>
+  <si>
+    <t>వర్క్‌స్టేషన్లు / ఉద్యోగుల సీటింగ్ దిశ</t>
+  </si>
+  <si>
+    <t>office_vaastu_conference</t>
+  </si>
+  <si>
+    <t>Conference / Meeting Room Direction</t>
+  </si>
+  <si>
+    <t>सम्मेलन / बैठक कक्ष दिशा</t>
+  </si>
+  <si>
+    <t>సమావేశం / సభా గది దిశ</t>
+  </si>
+  <si>
+    <t>office_vaastu_reception</t>
+  </si>
+  <si>
+    <t>Reception Area Direction</t>
+  </si>
+  <si>
+    <t>office_vaastu_accounts</t>
+  </si>
+  <si>
+    <t>Accounts / Finance Department Direction</t>
+  </si>
+  <si>
+    <t>लेखा / वित्त विभाग दिशा</t>
+  </si>
+  <si>
+    <t>ఖాతాలు / ఫైనాన్స్ విభాగం దిశ</t>
+  </si>
+  <si>
+    <t>office_vaastu_pantry</t>
+  </si>
+  <si>
+    <t>Pantry / Cafeteria Direction</t>
+  </si>
+  <si>
+    <t>पैंट्री / कैफेटेरिया दिशा</t>
+  </si>
+  <si>
+    <t>పాంట్రీ / కేఫేటీరియా దిశ</t>
+  </si>
+  <si>
+    <t>office_vaastu_server</t>
+  </si>
+  <si>
+    <t>Server / IT / Electrical Room Direction</t>
+  </si>
+  <si>
+    <t>सर्वर / आईटी / इलेक्ट्रिकल रूम दिशा</t>
+  </si>
+  <si>
+    <t>సర్వర్ / IT / ఎలక్ట్రికల్ రూమ్ దిశ</t>
+  </si>
+  <si>
+    <t>office_vaastu_washrooms</t>
+  </si>
+  <si>
+    <t>Washrooms / Toilets Direction</t>
+  </si>
+  <si>
+    <t>మరుగుదొడ్లు దిశ</t>
+  </si>
+  <si>
+    <t>office_vaastu_staircase</t>
+  </si>
+  <si>
+    <t>Staircase / Lift Direction</t>
+  </si>
+  <si>
+    <t>सीढ़ी / लिफ्ट दिशा</t>
+  </si>
+  <si>
+    <t>మెట్లు / లిఫ్ట్ దిశ</t>
+  </si>
+  <si>
+    <t>office_vaastu_storage</t>
+  </si>
+  <si>
+    <t>Storage / Records Room Direction</t>
+  </si>
+  <si>
+    <t>भंडारण / अभिलेख कक्ष दिशा</t>
+  </si>
+  <si>
+    <t>నిల్వ / రికార్డుల గది దిశ</t>
+  </si>
+  <si>
+    <t>office_vaastu_cash_locker</t>
+  </si>
+  <si>
+    <t>Cash Locker / Safe Direction</t>
+  </si>
+  <si>
+    <t>कैश लॉकर / तिजोरी दिशा</t>
+  </si>
+  <si>
+    <t>క్యాష్ లాకర్ / సేఫ్ దిశ</t>
+  </si>
+  <si>
+    <t>office_location</t>
+  </si>
+  <si>
+    <t>office_enter_location</t>
+  </si>
+  <si>
+    <t>Enter Location</t>
+  </si>
+  <si>
+    <t>office_area_neighborhood</t>
+  </si>
+  <si>
+    <t>Area / Neighborhood</t>
+  </si>
+  <si>
+    <t>क्षेत्र / पड़ोस</t>
+  </si>
+  <si>
+    <t>ప్రాంతం / పొరుగు ప్రాంతం</t>
+  </si>
+  <si>
+    <t>office_enter_area</t>
+  </si>
+  <si>
+    <t>Enter Area</t>
+  </si>
+  <si>
+    <t>office_located_inside</t>
+  </si>
+  <si>
+    <t>office_zone_type</t>
+  </si>
+  <si>
+    <t>Zone Type</t>
+  </si>
+  <si>
+    <t>क्षेत्र प्रकार</t>
+  </si>
+  <si>
+    <t>జోన్ రకం</t>
+  </si>
+  <si>
+    <t>office_carpet_area</t>
+  </si>
+  <si>
+    <t>Carpet Area</t>
+  </si>
+  <si>
+    <t>कार्पेट क्षेत्र</t>
+  </si>
+  <si>
+    <t>కార్పెట్ ప్రాంతం</t>
+  </si>
+  <si>
+    <t>office_describe_setup</t>
+  </si>
+  <si>
+    <t>Describe your Office Setup</t>
+  </si>
+  <si>
+    <t>अपने कार्यालय का वर्णन करें</t>
+  </si>
+  <si>
+    <t>మీ కార్యాలయ అమరికను వివరించండి</t>
+  </si>
+  <si>
+    <t>office_cabins</t>
+  </si>
+  <si>
+    <t>No. of Cabins</t>
+  </si>
+  <si>
+    <t>केबिनों की संख्या</t>
+  </si>
+  <si>
+    <t>క్యాబిన్ల సంఖ్య</t>
+  </si>
+  <si>
+    <t>office_meeting_rooms</t>
+  </si>
+  <si>
+    <t>No. of Meeting Rooms</t>
+  </si>
+  <si>
+    <t>मीटिंग रूम की संख्या</t>
+  </si>
+  <si>
+    <t>సమావేశ గదుల సంఖ్య</t>
+  </si>
+  <si>
+    <t>office_seats_min</t>
+  </si>
+  <si>
+    <t>Minimum Seats</t>
+  </si>
+  <si>
+    <t>न्यूनतम सीटें</t>
+  </si>
+  <si>
+    <t>కనిష్ట సీట్లు</t>
+  </si>
+  <si>
+    <t>office_max_seats</t>
+  </si>
+  <si>
+    <t>Maximum Seats</t>
+  </si>
+  <si>
+    <t>अधिकतम सीटें</t>
+  </si>
+  <si>
+    <t>గరిష్ట సీట్లు</t>
+  </si>
+  <si>
+    <t>office_add_max_seats</t>
+  </si>
+  <si>
+    <t>office_mark_features</t>
+  </si>
+  <si>
+    <t>Mark the features/facilities available</t>
+  </si>
+  <si>
+    <t>उपलब्ध सुविधाओं को चिह्नित करें</t>
+  </si>
+  <si>
+    <t>అందుబాటులో ఉన్న సౌకర్యాలను గుర్తించండి</t>
+  </si>
+  <si>
+    <t>office_select_facilities</t>
+  </si>
+  <si>
+    <t>Select the facilities</t>
+  </si>
+  <si>
+    <t>सुविधाओं का चयन करें</t>
+  </si>
+  <si>
+    <t>సౌకర్యాలను ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>office_conference_room</t>
+  </si>
+  <si>
+    <t>Conference Room</t>
+  </si>
+  <si>
+    <t>सम्मेलन कक्ष</t>
+  </si>
+  <si>
+    <t>సమావేశ గది</t>
+  </si>
+  <si>
+    <t>office_wash_room</t>
+  </si>
+  <si>
+    <t>Wash Room</t>
+  </si>
+  <si>
+    <t>వాష్ రూమ్</t>
+  </si>
+  <si>
+    <t>office_public_washrooms</t>
+  </si>
+  <si>
+    <t>Public Washrooms</t>
+  </si>
+  <si>
+    <t>सार्वजनिक शौचालय</t>
+  </si>
+  <si>
+    <t>పబ్లిక్ వాష్‌రూమ్‌లు</t>
+  </si>
+  <si>
+    <t>office_private_washrooms</t>
+  </si>
+  <si>
+    <t>Private Washrooms</t>
+  </si>
+  <si>
+    <t>निजी शौचालय</t>
+  </si>
+  <si>
+    <t>ప్రైవేట్ వాష్‌రూమ్‌లు</t>
+  </si>
+  <si>
+    <t>office_reception_area</t>
+  </si>
+  <si>
+    <t>Reception Area</t>
+  </si>
+  <si>
+    <t>रिसेप्शन क्षेत्र</t>
+  </si>
+  <si>
+    <t>రిసెప్షన్ ప్రాంతం</t>
+  </si>
+  <si>
+    <t>office_pantry</t>
+  </si>
+  <si>
+    <t>Pantry</t>
+  </si>
+  <si>
+    <t>पेंट्री</t>
+  </si>
+  <si>
+    <t>పాంట్రీ</t>
+  </si>
+  <si>
+    <t>office_pantry_private</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>निजी</t>
+  </si>
+  <si>
+    <t>ప్రైవేట్</t>
+  </si>
+  <si>
+    <t>office_pantry_shared</t>
+  </si>
+  <si>
+    <t>షేర్డ్</t>
+  </si>
+  <si>
+    <t>office_pantry_size</t>
+  </si>
+  <si>
+    <t>Pantry Size (sqft)</t>
+  </si>
+  <si>
+    <t>पेंट्री का आकार</t>
+  </si>
+  <si>
+    <t>పాంట్రీ పరిమాణం</t>
+  </si>
+  <si>
+    <t>office_furnishing</t>
+  </si>
+  <si>
+    <t>office_central_ac</t>
+  </si>
+  <si>
+    <t>Central AC</t>
+  </si>
+  <si>
+    <t>सेंट्रल एसी</t>
+  </si>
+  <si>
+    <t>సెంట్రల్ ఏసి</t>
+  </si>
+  <si>
+    <t>office_oxygen_duct</t>
+  </si>
+  <si>
+    <t>Oxygen Duct</t>
+  </si>
+  <si>
+    <t>ऑक्सीजन डक्ट</t>
+  </si>
+  <si>
+    <t>ఆక్సిజన్ డక్ట్</t>
+  </si>
+  <si>
+    <t>office_ups</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>यूपीएस</t>
+  </si>
+  <si>
+    <t>యుపిఎస్</t>
+  </si>
+  <si>
+    <t>office_fire_safety</t>
+  </si>
+  <si>
+    <t>Fire Safety Measures</t>
+  </si>
+  <si>
+    <t>अग्नि सुरक्षा उपाय</t>
+  </si>
+  <si>
+    <t>అగ్ని భద్రతా చర్యలు</t>
+  </si>
+  <si>
+    <t>office_floor_details</t>
+  </si>
+  <si>
+    <t>Floor Details</t>
+  </si>
+  <si>
+    <t>मंजिल विवरण</t>
+  </si>
+  <si>
+    <t>అంతస్తు వివరాలు</t>
+  </si>
+  <si>
+    <t>office_total_floors</t>
+  </si>
+  <si>
+    <t>Total Floors in Building</t>
+  </si>
+  <si>
+    <t>भवन में कुल मंजिलें</t>
+  </si>
+  <si>
+    <t>భవనంలో మొత్తం అంతస్తులు</t>
+  </si>
+  <si>
+    <t>office_floor_no</t>
+  </si>
+  <si>
+    <t>Property on Floor</t>
+  </si>
+  <si>
+    <t>संपत्ति मंजिल पर</t>
+  </si>
+  <si>
+    <t>ఆస్తి అంతస్తు</t>
+  </si>
+  <si>
+    <t>office_staircases</t>
+  </si>
+  <si>
+    <t>No. of Staircases</t>
+  </si>
+  <si>
+    <t>सीढ़ियों की संख्या</t>
+  </si>
+  <si>
+    <t>మెట్ల సంఖ్య</t>
+  </si>
+  <si>
+    <t>office_lifts</t>
+  </si>
+  <si>
+    <t>Lifts</t>
+  </si>
+  <si>
+    <t>लिफ्ट</t>
+  </si>
+  <si>
+    <t>లిఫ్ట్‌లు</t>
+  </si>
+  <si>
+    <t>office_passenger_lifts</t>
+  </si>
+  <si>
+    <t>Passenger Lifts</t>
+  </si>
+  <si>
+    <t>यात्री लिफ्ट</t>
+  </si>
+  <si>
+    <t>ప్యాసింజర్ లిఫ్ట్‌లు</t>
+  </si>
+  <si>
+    <t>office_service_lifts</t>
+  </si>
+  <si>
+    <t>Service Lifts</t>
+  </si>
+  <si>
+    <t>सेवा लिफ्ट</t>
+  </si>
+  <si>
+    <t>సర్వీస్ లిఫ్ట్‌లు</t>
+  </si>
+  <si>
+    <t>office_parking</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>पार्किंग</t>
+  </si>
+  <si>
+    <t>పార్కింగ్</t>
+  </si>
+  <si>
+    <t>office_parking_count</t>
+  </si>
+  <si>
+    <t>No. of Parking Spaces</t>
+  </si>
+  <si>
+    <t>पार्किंग स्थानों की संख्या</t>
+  </si>
+  <si>
+    <t>పార్కింగ్ స్థలాల సంఖ్య</t>
+  </si>
+  <si>
+    <t>office_availability_status</t>
+  </si>
+  <si>
+    <t>office_age_property</t>
+  </si>
+  <si>
+    <t>office_possession_by</t>
+  </si>
+  <si>
+    <t>कब्जा द్वారా</t>
+  </si>
+  <si>
+    <t>స్వాధీనం</t>
+  </si>
+  <si>
+    <t>office_expected_by</t>
+  </si>
+  <si>
+    <t>अपेक्षित है</t>
+  </si>
+  <si>
+    <t>అంచనా</t>
+  </si>
+  <si>
+    <t>office_ownership</t>
+  </si>
+  <si>
+    <t>office_ownership_freehold</t>
+  </si>
+  <si>
+    <t>office_ownership_leasehold</t>
+  </si>
+  <si>
+    <t>office_ownership_company</t>
+  </si>
+  <si>
+    <t>office_ownership_other</t>
+  </si>
+  <si>
+    <t>office_type_missing</t>
+  </si>
+  <si>
+    <t>Office Type Missing</t>
+  </si>
+  <si>
+    <t>कार्यालय प्रकार गुम है</t>
+  </si>
+  <si>
+    <t>కార్యాలయ రకం లేదు</t>
+  </si>
+  <si>
+    <t>office_type_missing_message</t>
+  </si>
+  <si>
+    <t>Please select office type first</t>
+  </si>
+  <si>
+    <t>कृपया पहले कार्यालय प्रकार चुनें</t>
+  </si>
+  <si>
+    <t>దయచేసి ముందుగా కార్యాలయ రకాన్ని ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>office_location_required</t>
+  </si>
+  <si>
+    <t>स్థానం అవసరం</t>
+  </si>
+  <si>
+    <t>office_location_required_message</t>
+  </si>
+  <si>
+    <t>Please enter office location</t>
+  </si>
+  <si>
+    <t>कृपया कार्यालय का स్थानం दर्ज करें</t>
+  </si>
+  <si>
+    <t>దయచేసి కార్యాలయ స్థానాన్ని నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>office_area_required</t>
+  </si>
+  <si>
+    <t>क্ষେত্র आवश్यक</t>
+  </si>
+  <si>
+    <t>office_area_required_message</t>
+  </si>
+  <si>
+    <t>Please enter neighborhood area</t>
+  </si>
+  <si>
+    <t>कृपया पड़ोस क्षेत্র दर्ज करें</t>
+  </si>
+  <si>
+    <t>దయచేసి పొరుగు ప్రాంతాన్ని నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>office_carpet_area_required</t>
+  </si>
+  <si>
+    <t>Carpet Area Required</t>
+  </si>
+  <si>
+    <t>कार्पेट क्षেत्र आवश्यक</t>
+  </si>
+  <si>
+    <t>కార్పెట్ ప్రాంతం అవసరం</t>
+  </si>
+  <si>
+    <t>office_carpet_area_required_message</t>
+  </si>
+  <si>
+    <t>Please enter carpet area</t>
+  </si>
+  <si>
+    <t>कृपया कार్पेট क্ষেত্र দর্জ করें</t>
+  </si>
+  <si>
+    <t>దయచేసి కార్పెట్ ప్రాంతాన్ని నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>TELUGU</t>
+  </si>
+  <si>
+    <t>Fill property details</t>
+  </si>
+  <si>
+    <t>संपत्ति विवरण भरें</t>
+  </si>
+  <si>
+    <t>ఆస్తి వివరాలను నింపండి</t>
+  </si>
+  <si>
+    <t>office_price_details</t>
+  </si>
+  <si>
+    <t>office_expected_price_placeholder</t>
+  </si>
+  <si>
+    <t>Enter Expected Price</t>
+  </si>
+  <si>
+    <t>अपेक्षित मूल्य दर्ज करें</t>
+  </si>
+  <si>
+    <t>అంచనా ధరను నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>office_all_inclusive</t>
+  </si>
+  <si>
+    <t>All Inclusive Price (Electricity &amp; Water charges included)</t>
+  </si>
+  <si>
+    <t>सभी शामिल मूल्य (बिजली और पानी शुल्क शामिल)</t>
+  </si>
+  <si>
+    <t>అన్నీ కలిపిన ధర (విద్యుత్ &amp; నీటి ఛార్జీలు కలిగి)</t>
+  </si>
+  <si>
+    <t>office_price_negotiable</t>
+  </si>
+  <si>
+    <t>office_tax_excluded</t>
+  </si>
+  <si>
+    <t>Tax &amp; Govt. charges excluded</t>
+  </si>
+  <si>
+    <t>कर और सरकारी शुल्क बहिष्कृत</t>
+  </si>
+  <si>
+    <t>పన్ను &amp; ప్రభుత్వ ఛార్జీలు మినహాయించబడ్డాయి</t>
+  </si>
+  <si>
+    <t>office_add_more_pricing</t>
+  </si>
+  <si>
+    <t>अधिक मूल्य विवरण जोड़ें</t>
+  </si>
+  <si>
+    <t>మరిన్ని ధర వివరాలను జోడించండి</t>
+  </si>
+  <si>
+    <t>office_pre_leased</t>
+  </si>
+  <si>
+    <t>Pre-leased/Pre-rented</t>
+  </si>
+  <si>
+    <t>पूर्व-पट्टे/पूर्व-किराए पर</t>
+  </si>
+  <si>
+    <t>ముందస్తు లీజు/అద్దె</t>
+  </si>
+  <si>
+    <t>office_yes</t>
+  </si>
+  <si>
+    <t>office_no</t>
+  </si>
+  <si>
+    <t>office_lease_duration</t>
+  </si>
+  <si>
+    <t>Lease Duration</t>
+  </si>
+  <si>
+    <t>पट्टे की अवधि</t>
+  </si>
+  <si>
+    <t>లీజు వ్యవధి</t>
+  </si>
+  <si>
+    <t>office_lease_duration_placeholder</t>
+  </si>
+  <si>
+    <t>e.g., 3 years, 5 years</t>
+  </si>
+  <si>
+    <t>उदा. 3 वर्ष, 5 वर्ष</t>
+  </si>
+  <si>
+    <t>ఉదా. 3 సంవత్సరాలు, 5 సంవత్సరాలు</t>
+  </si>
+  <si>
+    <t>office_monthly_rent</t>
+  </si>
+  <si>
+    <t>Current Rent/Month</t>
+  </si>
+  <si>
+    <t>वर्तमान किराया/माह</t>
+  </si>
+  <si>
+    <t>ప్రస్తుత అద్దె/నెల</t>
+  </si>
+  <si>
+    <t>office_monthly_rent_placeholder</t>
+  </si>
+  <si>
+    <t>Enter monthly rent amount</t>
+  </si>
+  <si>
+    <t>मासिक किराया राशि दर्ज करें</t>
+  </si>
+  <si>
+    <t>నెలవారీ అద్దె మొత్తాన్ని నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>office_fire_noc</t>
+  </si>
+  <si>
+    <t>Fire NOC Certified</t>
+  </si>
+  <si>
+    <t>अग्नि NOC प्रमाणित</t>
+  </si>
+  <si>
+    <t>అగ్ని NOC ధృవీకరించబడింది</t>
+  </si>
+  <si>
+    <t>office_occupancy_certified</t>
+  </si>
+  <si>
+    <t>Occupancy Certificate Available</t>
+  </si>
+  <si>
+    <t>अधिभोग प्रमाणपत्र उपलब्ध</t>
+  </si>
+  <si>
+    <t>అధిగ్రహణ ధృవపత్రం అందుబాటులో</t>
+  </si>
+  <si>
+    <t>office_prev_used</t>
+  </si>
+  <si>
+    <t>Previously Used For</t>
+  </si>
+  <si>
+    <t>पहले उपयोग किया गया</t>
+  </si>
+  <si>
+    <t>గతంలో ఉపయోగించబడింది</t>
+  </si>
+  <si>
+    <t>office_prev_commercial</t>
+  </si>
+  <si>
+    <t>वाणिज्यिक</t>
+  </si>
+  <si>
+    <t>office_prev_residential</t>
+  </si>
+  <si>
+    <t>office_prev_warehouse</t>
+  </si>
+  <si>
+    <t>Warehouse/Storage</t>
+  </si>
+  <si>
+    <t>गोदाम/भंडारण</t>
+  </si>
+  <si>
+    <t>గిడ్డంగి/నిల్వ</t>
+  </si>
+  <si>
+    <t>office_describe_property</t>
+  </si>
+  <si>
+    <t>Describe Your Property</t>
+  </si>
+  <si>
+    <t>अपनी संपत्ति का वर्णन करें</t>
+  </si>
+  <si>
+    <t>మీ ఆస్తిని వివరించండి</t>
+  </si>
+  <si>
+    <t>office_describe_placeholder</t>
+  </si>
+  <si>
+    <t>Add description about location, connectivity, amenities, etc.</t>
+  </si>
+  <si>
+    <t>स्थान, कनेक्टिविटी, सुविधाओं आदि के बारे में विवरण जोड़ें</t>
+  </si>
+  <si>
+    <t>స్థానం, కనెక్టివిటీ, సౌకర్యాల గురించి వివరణ జోడించండి</t>
+  </si>
+  <si>
+    <t>office_amenities</t>
+  </si>
+  <si>
+    <t>office_location_advantages</t>
+  </si>
+  <si>
+    <t>button_go_back</t>
+  </si>
+  <si>
+    <t>Go Back</t>
+  </si>
+  <si>
+    <t>वापस जाएं</t>
+  </si>
+  <si>
+    <t>వెనక్కి వెళ్ళండి</t>
+  </si>
+  <si>
+    <t>डेटा गुम है</t>
+  </si>
+  <si>
+    <t>Some required information is missing. Please go back and fill all details.</t>
+  </si>
+  <si>
+    <t>कुछ आवश्यक जानकारी गुम है। कृपया वापस जाएं और सभी विवरण भरें।</t>
+  </si>
+  <si>
+    <t>కొన్ని అవసరమైన సమాచారం లేదు. దయచేసి వెనక్కి వెళ్లి అన్ని వివరాలు నింపండి.</t>
+  </si>
+  <si>
+    <t>plot_location</t>
+  </si>
+  <si>
+    <t>plot_location_placeholder</t>
+  </si>
+  <si>
+    <t>Enter your location (e.g., Gajuwaka, Visakhapatnam)</t>
+  </si>
+  <si>
+    <t>अपना स्थान दर्ज करें (जैसे: गाजुवाका, विशाखापत्तनम)</t>
+  </si>
+  <si>
+    <t>మీ ప్రాంతాన్ని నమోదు చేయండి (ఉదా: గాజువాక, విశాఖపట్నం)</t>
+  </si>
+  <si>
+    <t>plot_locality</t>
+  </si>
+  <si>
+    <t>Locality</t>
+  </si>
+  <si>
+    <t>इलाका</t>
+  </si>
+  <si>
+    <t>plot_locality_placeholder</t>
+  </si>
+  <si>
+    <t>Enter locality</t>
+  </si>
+  <si>
+    <t>इलाका दर्ज करें</t>
+  </si>
+  <si>
+    <t>plot_area_neighborhood</t>
+  </si>
+  <si>
+    <t>ప్రాంతం / పరిసరాలు</t>
+  </si>
+  <si>
+    <t>plot_area_neighborhood_placeholder</t>
+  </si>
+  <si>
+    <t>क्षेत्र / पड़ोस दर्ज करें (जैसे: అక్కయ్యపాలెం)</t>
+  </si>
+  <si>
+    <t>ప్రాంతం / పరిసరాలు నమోదు చేయండి (ఉదా: అక్కయ్యపాలెం)</t>
+  </si>
+  <si>
+    <t>plot_add_area_details</t>
+  </si>
+  <si>
+    <t>ప్రాంత వివరాలు జోడించండి</t>
+  </si>
+  <si>
+    <t>plot_area_placeholder</t>
+  </si>
+  <si>
+    <t>Plot Area</t>
+  </si>
+  <si>
+    <t>प्लॉट क्षेत्र</t>
+  </si>
+  <si>
+    <t>ప్లాట్ విస్తీర్ణం</t>
+  </si>
+  <si>
+    <t>plot_area_unit_sqft</t>
+  </si>
+  <si>
+    <t>वर्ग फुट</t>
+  </si>
+  <si>
+    <t>చదరపు అడుగులు</t>
+  </si>
+  <si>
+    <t>plot_area_unit_sqm</t>
+  </si>
+  <si>
+    <t>చదరపు మీటర్లు</t>
+  </si>
+  <si>
+    <t>plot_area_unit_acre</t>
+  </si>
+  <si>
+    <t>plot_dimensions</t>
+  </si>
+  <si>
+    <t>Property Dimensions (optional)</t>
+  </si>
+  <si>
+    <t>संपत्ति आयाम (वैकल्पिक)</t>
+  </si>
+  <si>
+    <t>ఆస్తి కొలతలు (ఐచ్ఛికం)</t>
+  </si>
+  <si>
+    <t>plot_length_placeholder</t>
+  </si>
+  <si>
+    <t>Length of plot (ft)</t>
+  </si>
+  <si>
+    <t>प्लॉट की लंबाई (फुट)</t>
+  </si>
+  <si>
+    <t>ప్లాట్ పొడవు (అడుగులు)</t>
+  </si>
+  <si>
+    <t>plot_breadth_placeholder</t>
+  </si>
+  <si>
+    <t>Breadth of plot (ft)</t>
+  </si>
+  <si>
+    <t>प्लॉट की चौड़ाई (फुट)</t>
+  </si>
+  <si>
+    <t>ప్లాట్ వెడల్పు (అడుగులు)</t>
+  </si>
+  <si>
+    <t>plot_road_width</t>
+  </si>
+  <si>
+    <t>ముఖ్య రహదారి వెడల్పు</t>
+  </si>
+  <si>
+    <t>ముందున్న రహదారి వెడల్పు</t>
+  </si>
+  <si>
+    <t>plot_road_width_placeholder</t>
+  </si>
+  <si>
+    <t>వెడల్పు నమోదు करें</t>
+  </si>
+  <si>
+    <t>వెడల్పును నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>plot_road_width_unit_feet</t>
+  </si>
+  <si>
+    <t>Feet</t>
+  </si>
+  <si>
+    <t>फुट</t>
+  </si>
+  <si>
+    <t>అడుగులు</t>
+  </si>
+  <si>
+    <t>plot_open_sides</t>
+  </si>
+  <si>
+    <t>खुले किनारों की संख्या</t>
+  </si>
+  <si>
+    <t>తెరిచి ఉన్న వైపుల సంఖ్య</t>
+  </si>
+  <si>
+    <t>plot_construction_done</t>
+  </si>
+  <si>
+    <t>क्या इस संपत्ति पर कोई निर्माण हुआ है?</t>
+  </si>
+  <si>
+    <t>plot_construction_yes</t>
+  </si>
+  <si>
+    <t>plot_construction_no</t>
+  </si>
+  <si>
+    <t>plot_possession_by</t>
+  </si>
+  <si>
+    <t>कब तक कब्जा</t>
+  </si>
+  <si>
+    <t>అధికారం పొందే తేదీ</t>
+  </si>
+  <si>
+    <t>plot_possession_year_placeholder</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>वर्ष</t>
+  </si>
+  <si>
+    <t>సంవత్సరం</t>
+  </si>
+  <si>
+    <t>plot_construction_type</t>
+  </si>
+  <si>
+    <t>ఏ రకమైన నిర్మాణం జరిగింది?</t>
+  </si>
+  <si>
+    <t>plot_construction_shed</t>
+  </si>
+  <si>
+    <t>plot_construction_room</t>
+  </si>
+  <si>
+    <t>plot_construction_washroom</t>
+  </si>
+  <si>
+    <t>plot_construction_other</t>
+  </si>
+  <si>
+    <t>plot_ownership</t>
+  </si>
+  <si>
+    <t>plot_ownership_freehold</t>
+  </si>
+  <si>
+    <t>plot_ownership_leasehold</t>
+  </si>
+  <si>
+    <t>plot_ownership_cooperative</t>
+  </si>
+  <si>
+    <t>plot_ownership_poa</t>
+  </si>
+  <si>
+    <t>plot_authority_approved</t>
+  </si>
+  <si>
+    <t>Which authority the property is approved by? (optional)</t>
+  </si>
+  <si>
+    <t>किस प्राधिकरण द्वारा स्वीकृत? (वैकल्पिक)</t>
+  </si>
+  <si>
+    <t>ఏ అధికార సంస్థ ఆమోదించింది? (ఐచ్ఛికం)</t>
+  </si>
+  <si>
+    <t>plot_authority_placeholder</t>
+  </si>
+  <si>
+    <t>స్థానిక అధికారం</t>
+  </si>
+  <si>
+    <t>plot_industry_type</t>
+  </si>
+  <si>
+    <t>Approved for Industry Type (optional)</t>
+  </si>
+  <si>
+    <t>उद्योग प्रकार के लिए स्वीकृत (वैकल्पिक)</t>
+  </si>
+  <si>
+    <t>పరిశ్రమ రకానికి ఆమోదం (ఐచ్ఛికం)</t>
+  </si>
+  <si>
+    <t>plot_industry_type_placeholder</t>
+  </si>
+  <si>
+    <t>Select Industry Type</t>
+  </si>
+  <si>
+    <t>plot_expected_price</t>
+  </si>
+  <si>
+    <t>plot_expected_price_placeholder</t>
+  </si>
+  <si>
+    <t>plot_price_all_inclusive</t>
+  </si>
+  <si>
+    <t>सभी शामिल मूल्य</t>
+  </si>
+  <si>
+    <t>అన్నీ కలిపిన ధర</t>
+  </si>
+  <si>
+    <t>plot_price_negotiable</t>
+  </si>
+  <si>
+    <t>Price negotiable</t>
+  </si>
+  <si>
+    <t>plot_price_tax_excluded</t>
+  </si>
+  <si>
+    <t>Tax and govt charges excluded</t>
+  </si>
+  <si>
+    <t>పన్నులు మరియు ప్రభుత్వ ఛార్జీలు కలుపబడలేదు</t>
+  </si>
+  <si>
+    <t>plot_more_pricing</t>
+  </si>
+  <si>
+    <t>plot_pre_leased</t>
+  </si>
+  <si>
+    <t>Is it Pre-leased / Pre-rented?</t>
+  </si>
+  <si>
+    <t>क्या यह पहले से लीज पर है?</t>
+  </si>
+  <si>
+    <t>ఇది ముందే లీజ్‌కి ఉందా?</t>
+  </si>
+  <si>
+    <t>plot_pre_leased_yes</t>
+  </si>
+  <si>
+    <t>plot_pre_leased_no</t>
+  </si>
+  <si>
+    <t>plot_lease_duration</t>
+  </si>
+  <si>
+    <t>Lease duration (eg: 5 years)</t>
+  </si>
+  <si>
+    <t>लीज अवधि (जैसे: 5 वर्ष)</t>
+  </si>
+  <si>
+    <t>లీజ్ కాలవ్యవధి (ఉదా: 5 సంవత్సరాలు)</t>
+  </si>
+  <si>
+    <t>plot_monthly_rent</t>
+  </si>
+  <si>
+    <t>₹ Monthly rent</t>
+  </si>
+  <si>
+    <t>₹ मासिक किराया</t>
+  </si>
+  <si>
+    <t>₹ నెలవారీ అద్దె</t>
+  </si>
+  <si>
+    <t>plot_description</t>
+  </si>
+  <si>
+    <t>plot_description_placeholder</t>
+  </si>
+  <si>
+    <t>Write here what makes your property unique</t>
+  </si>
+  <si>
+    <t>अपनी संपत्ति की विशेषताएँ लिखें</t>
+  </si>
+  <si>
+    <t>మీ ఆస్తి ప్రత్యేకతలను వ్రాయండి</t>
+  </si>
+  <si>
+    <t>plot_other_features</t>
+  </si>
+  <si>
+    <t>अन्य विशेषताएँ</t>
+  </si>
+  <si>
+    <t>plot_corner_property</t>
+  </si>
+  <si>
+    <t>कॉर्नर प्रॉपर्टी</t>
+  </si>
+  <si>
+    <t>కోణపు ఆస్తి</t>
+  </si>
+  <si>
+    <t>plot_amenities</t>
+  </si>
+  <si>
+    <t>सुविधाएँ</t>
+  </si>
+  <si>
+    <t>plot_amenity_water</t>
+  </si>
+  <si>
+    <t>plot_amenity_air_conditioned</t>
+  </si>
+  <si>
+    <t>plot_amenity_vaastu</t>
+  </si>
+  <si>
+    <t>plot_amenity_fire_alarm</t>
+  </si>
+  <si>
+    <t>plot_amenity_parking</t>
+  </si>
+  <si>
+    <t>plot_location_advantages</t>
+  </si>
+  <si>
+    <t>plot_location_metro</t>
+  </si>
+  <si>
+    <t>plot_location_school</t>
+  </si>
+  <si>
+    <t>plot_location_hospital</t>
+  </si>
+  <si>
+    <t>plot_location_market</t>
+  </si>
+  <si>
+    <t>plot_location_railway</t>
+  </si>
+  <si>
+    <t>plot_location_airport</t>
+  </si>
+  <si>
+    <t>plot_location_mall</t>
+  </si>
+  <si>
+    <t>plot_location_highway</t>
+  </si>
+  <si>
+    <t>plot_vaastu_title</t>
+  </si>
+  <si>
+    <t>Vastu Details</t>
+  </si>
+  <si>
+    <t>plot_vaastu_plot_facing</t>
+  </si>
+  <si>
+    <t>प्लॉट का मुख</t>
+  </si>
+  <si>
+    <t>ప్లాట్ ముఖం</t>
+  </si>
+  <si>
+    <t>plot_vaastu_main_entry</t>
+  </si>
+  <si>
+    <t>Main Entry / Gate Direction</t>
+  </si>
+  <si>
+    <t>plot_vaastu_slope</t>
+  </si>
+  <si>
+    <t>ढलान दिशा</t>
+  </si>
+  <si>
+    <t>ప్లాట్ వంపు దిశ</t>
+  </si>
+  <si>
+    <t>plot_vaastu_open_space</t>
+  </si>
+  <si>
+    <t>वास्तु अनुसार खुली जगह</t>
+  </si>
+  <si>
+    <t>వాస్తు ప్రకారం ఖాళీ స్థలం</t>
+  </si>
+  <si>
+    <t>plot_vaastu_shape</t>
+  </si>
+  <si>
+    <t>plot_vaastu_road_position</t>
+  </si>
+  <si>
+    <t>రోడ్ స్థానం</t>
+  </si>
+  <si>
+    <t>plot_vaastu_water_source</t>
+  </si>
+  <si>
+    <t>నీటి మూలం స్థానం</t>
+  </si>
+  <si>
+    <t>plot_vaastu_drainage</t>
+  </si>
+  <si>
+    <t>నీటి పారుదల దిశ</t>
+  </si>
+  <si>
+    <t>plot_vaastu_compound_wall</t>
+  </si>
+  <si>
+    <t>plot_vaastu_structures</t>
+  </si>
+  <si>
+    <t>मौजूदा संरचनाएँ</t>
+  </si>
+  <si>
+    <t>ఉన్న నిర్మాణాలు</t>
+  </si>
+  <si>
+    <t>vaastu_option_towards_east</t>
+  </si>
+  <si>
+    <t>సమతుల్య ఖాళీ స్థలం</t>
+  </si>
+  <si>
+    <t>vaastu_option_more_north_east</t>
+  </si>
+  <si>
+    <t>More in North &amp; East</t>
+  </si>
+  <si>
+    <t>उत्तर और पूर्व में अधिक</t>
+  </si>
+  <si>
+    <t>ఉత్తరం &amp; తూర్పులో ఎక్కువ</t>
+  </si>
+  <si>
+    <t>वर्गाकार</t>
+  </si>
+  <si>
+    <t>vaastu_option_rectangle</t>
+  </si>
+  <si>
+    <t>आयताकार</t>
+  </si>
+  <si>
+    <t>ఆయతం</t>
+  </si>
+  <si>
+    <t>Equal height</t>
+  </si>
+  <si>
+    <t>समान ऊँचाई</t>
+  </si>
+  <si>
+    <t>సమాన ఎత్తు</t>
+  </si>
+  <si>
+    <t>vaastu_option_higher_south_west</t>
+  </si>
+  <si>
+    <t>Higher in South &amp; West</t>
+  </si>
+  <si>
+    <t>दक्षिण और पश्चिम ऊँचा</t>
+  </si>
+  <si>
+    <t>దక్షిణ &amp; పడమర ఎత్తుగా</t>
+  </si>
+  <si>
+    <t>vaastu_option_temporary_structures</t>
+  </si>
+  <si>
+    <t>Temporary structures</t>
+  </si>
+  <si>
+    <t>अस्थायी संरचनाएँ</t>
+  </si>
+  <si>
+    <t>తాత్కాలిక నిర్మాణాలు</t>
+  </si>
+  <si>
+    <t>రద్దు</t>
+  </si>
+  <si>
+    <t>తరువాత</t>
+  </si>
+  <si>
+    <t>button_back</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>वापస్</t>
+  </si>
+  <si>
+    <t>వెనక్కి</t>
+  </si>
+  <si>
+    <t>plot_location_required</t>
+  </si>
+  <si>
+    <t>Location is required</t>
+  </si>
+  <si>
+    <t>plot_area_required</t>
+  </si>
+  <si>
+    <t>Area/Neighborhood is required</t>
+  </si>
+  <si>
+    <t>क्षेत्र అవసరం</t>
+  </si>
+  <si>
+    <t>plot_plot_area_required</t>
+  </si>
+  <si>
+    <t>Plot area is required</t>
+  </si>
+  <si>
+    <t>ప్లాట్ విస్తీర్ణం అవసరం</t>
+  </si>
+  <si>
+    <t>plot_all_fields_required</t>
+  </si>
+  <si>
+    <t>All required fields must be filled</t>
+  </si>
+  <si>
+    <t>सभी आवश्यक फ़ील्ड भरें</t>
+  </si>
+  <si>
+    <t>అన్ని అవసరమైన ఫీల్డ్స్ నింపాలి</t>
+  </si>
+  <si>
+    <t>plot_kind_missing</t>
+  </si>
+  <si>
+    <t>Plot kind is missing</t>
+  </si>
+  <si>
+    <t>प्लॉट प्रकार गायब है</t>
+  </si>
+  <si>
+    <t>ప్లాట్ రకం లేదు</t>
+  </si>
+  <si>
+    <t>plot_select_plot_type</t>
+  </si>
+  <si>
+    <t>Please go back and select plot type</t>
+  </si>
+  <si>
+    <t>कृपया वापस जाकर प्लॉट प्रकार चुनें</t>
+  </si>
+  <si>
+    <t>దయచేసి వెనక్కి వెళ్లి ప్లాట్ రకాన్ని ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>Commercial Land</t>
+  </si>
+  <si>
+    <t>व्यावसायिक भूमि</t>
+  </si>
+  <si>
+    <t>వాణిజ్య భూమి</t>
+  </si>
+  <si>
+    <t>Agricultural Land</t>
+  </si>
+  <si>
+    <t>कृषि भूमि</t>
+  </si>
+  <si>
+    <t>వ్యవసాయ భూమి</t>
+  </si>
+  <si>
+    <t>Industrial Land</t>
+  </si>
+  <si>
+    <t>औद्योगिक भूमि</t>
+  </si>
+  <si>
+    <t>పారిశ్రామిక భూమి</t>
   </si>
 </sst>
 </file>
@@ -9870,10 +11760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4B5E5-1AD3-459E-940E-0D51EC173CF5}">
-  <dimension ref="A1:D1123"/>
+  <dimension ref="A1:D1378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1096" zoomScale="69" workbookViewId="0">
-      <selection activeCell="B1133" sqref="B1133"/>
+    <sheetView tabSelected="1" topLeftCell="A1237" zoomScale="69" workbookViewId="0">
+      <selection activeCell="A1264" sqref="A1264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24573,6 +26463,3512 @@
         <v>2292</v>
       </c>
     </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1125" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>3145</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1126" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>3149</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1127" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>3153</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1128" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>3156</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>3157</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1129" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1130" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1131" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1132" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>3167</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1133" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>3171</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1134" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>3174</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>3175</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1135" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>3178</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1136" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>3181</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>3182</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1137" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>3185</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>3186</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1138" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1139" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>3194</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1140" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>3198</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1141" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1142" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>3206</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1143" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>3209</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>3210</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1144" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>3213</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>3214</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1145" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>3218</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1146" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>3213</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>3214</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1147" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>3218</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1148" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>3224</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1149" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>3228</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1150" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>3232</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1151" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1152" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1153" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1154" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1155" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1156" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1157" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1158" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1159" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>2567</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1160" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1161" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>2577</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1162" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1163" t="s">
+        <v>3251</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1164" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1165" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>3254</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>3255</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1166" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>3258</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1167" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1168" t="s">
+        <v>3264</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1169" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>3269</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>3270</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1170" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1171" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>3275</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1172" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>3279</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>3280</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1173" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>3283</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>3284</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1174" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>3137</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1175" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>3291</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1176" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>3295</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1177" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>3298</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>3299</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1178" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1179" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>3303</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1180" t="s">
+        <v>3304</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>3305</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>3306</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1181" t="s">
+        <v>3308</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>3309</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>3074</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1182" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>2874</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1183" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>3312</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1184" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>3316</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>3317</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1185" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>3320</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>3321</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1186" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>3324</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>3325</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1187" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>3328</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>3329</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1188" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>3332</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1189" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>3337</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1190" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B1190" t="e" cm="1">
+        <f t="array" ref="B1190">+ Add Maximum Seats</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C1190" t="e" cm="1">
+        <f t="array" ref="C1190">+ अधिकतम सीटें जोड़ें</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1190" t="e" cm="1">
+        <f t="array" ref="D1190">+ గరిష్ట సీట్లు జోడించండి</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1191" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>3341</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>3342</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1192" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>3346</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1193" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>3349</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>3350</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1194" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>3353</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>921</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1195" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>3357</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1196" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>3360</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>3361</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1197" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>3364</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>3365</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1198" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>3368</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>3369</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1199" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>3372</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>3373</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1200" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>2481</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1201" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>3378</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>3379</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1202" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>2510</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1203" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>3384</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1204" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>3388</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1205" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>3391</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>3392</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1206" t="s">
+        <v>3394</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1207" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>3399</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>3400</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1208" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>3403</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>3404</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1209" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>3408</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1210" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>3411</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>3412</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1211" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>3415</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>3416</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1212" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>3420</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1213" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>3423</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>3424</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1214" t="s">
+        <v>3426</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>3427</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>3428</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1215" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>3432</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1216" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1217" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1218" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>3437</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1219" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1220" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1221" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1222" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1223" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>3080</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1224" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1225" t="s">
+        <v>3447</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>3448</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>3449</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1226" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>3452</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>3453</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1227" t="s">
+        <v>3455</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>3456</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1228" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>3459</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1229" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>2454</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>3462</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1230" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>3464</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>3465</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1231" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>3469</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1232" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>3472</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>3473</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D1233" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1234" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1235" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>3476</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>3477</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1236" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1237" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>3482</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1238" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>3485</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>3486</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1239" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1240" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>3490</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>3491</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1241" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1242" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>3497</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>3498</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1243" t="s">
+        <v>3500</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1244" t="s">
+        <v>3501</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1245" t="s">
+        <v>3502</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>3503</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>3504</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1246" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>3507</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>3508</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1247" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1248" t="s">
+        <v>3514</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>3515</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>3516</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1249" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>3519</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1250" t="s">
+        <v>3522</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>3523</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>3524</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1251" t="s">
+        <v>3526</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>3527</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1252" t="s">
+        <v>3530</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>3531</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1253" t="s">
+        <v>3532</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>3167</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1254" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>3534</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>3535</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1255" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>3538</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>3539</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1256" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>3542</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>3543</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1257" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1258" t="s">
+        <v>3546</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>3089</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1259" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1260" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>2952</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1261" t="s">
+        <v>3547</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>3548</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>3549</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1262" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1263" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>3552</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>3553</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1265" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1266" t="s">
+        <v>3556</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>3557</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>3558</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1267" t="s">
+        <v>3560</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>3561</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>3562</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1268" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>3565</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1269" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>3306</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1270" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>3569</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1271" t="s">
+        <v>3571</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>3076</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1272" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>3574</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>3575</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1273" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>3578</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1274" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1275" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>2539</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1276" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>3584</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>3585</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1277" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>3588</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>3589</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1278" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>3592</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1279" t="s">
+        <v>3595</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>3596</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1280" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>3599</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1281" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>3602</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1282" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>3606</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1283" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>3609</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1284" t="s">
+        <v>3610</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1285" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1286" t="s">
+        <v>3612</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>3613</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>3614</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1287" t="s">
+        <v>3615</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>3616</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>3617</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1288" t="s">
+        <v>3619</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1289" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B1289" t="e" cm="1">
+        <f t="array" ref="B1289">+ Shed</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C1289" t="e" cm="1">
+        <f t="array" ref="C1289">+ शेड</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1289" t="e" cm="1">
+        <f t="array" ref="D1289">+ షెడ్</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1290" t="s">
+        <v>3622</v>
+      </c>
+      <c r="B1290" t="e" cm="1">
+        <f t="array" aca="1" ref="B1290" ca="1">+ Room(s)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C1290" t="e" cm="1">
+        <f t="array" ref="C1290">+ कमरा/कमरे</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1290" t="e" cm="1">
+        <f t="array" ref="D1290">+ గది/గదులు</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1291" t="s">
+        <v>3623</v>
+      </c>
+      <c r="B1291" t="e" cm="1">
+        <f t="array" ref="B1291">+ Washroom</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C1291" t="e" cm="1">
+        <f t="array" ref="C1291">+ शौचालय</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1291" t="e" cm="1">
+        <f t="array" ref="D1291">+ వాష్‌రూమ్</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1292" t="s">
+        <v>3624</v>
+      </c>
+      <c r="B1292" t="e" cm="1">
+        <f t="array" ref="B1292">+ Other</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C1292" t="e" cm="1">
+        <f t="array" ref="C1292">+ अन्य</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1292" t="e" cm="1">
+        <f t="array" ref="D1292">+ ఇతర</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1294" t="s">
+        <v>3625</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1295" t="s">
+        <v>3626</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1296" t="s">
+        <v>3627</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1297" t="s">
+        <v>3628</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1298" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1299" t="s">
+        <v>3630</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>3631</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>3632</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1300" t="s">
+        <v>3634</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1301" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>3637</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>3638</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1302" t="s">
+        <v>3640</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>3641</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1303" t="s">
+        <v>3642</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1304" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1305" t="s">
+        <v>3644</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>3645</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1306" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>3648</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1307" t="s">
+        <v>3649</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>3650</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1308" t="s">
+        <v>3652</v>
+      </c>
+      <c r="B1308" t="e" cm="1">
+        <f t="array" ref="B1308">+ Add more pricing details</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C1308" t="e" cm="1">
+        <f t="array" ref="C1308">+ अधिक मूल्य विवरण जोड़ें</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1308" t="e" cm="1">
+        <f t="array" ref="D1308">+ మరిన్ని ధర వివరాలు జోడించండి</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1309" t="s">
+        <v>3653</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>3654</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>3655</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1310" t="s">
+        <v>3657</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1311" t="s">
+        <v>3658</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1312" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>3660</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>3661</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1313" t="s">
+        <v>3663</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>3664</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>3665</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1314" t="s">
+        <v>3667</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1315" t="s">
+        <v>3668</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>3669</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>3670</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1316" t="s">
+        <v>3672</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>3673</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1317" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>3675</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1318" t="s">
+        <v>3677</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>3678</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1319" t="s">
+        <v>3679</v>
+      </c>
+      <c r="B1319" t="e" cm="1">
+        <f t="array" ref="B1319">+Water Storage</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C1319" t="e" cm="1">
+        <f t="array" ref="C1319">+जल भंडारण</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1319" t="e" cm="1">
+        <f t="array" ref="D1319">+నీటి నిల్వ</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1320" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B1320" t="e" cm="1">
+        <f t="array" ref="B1320">+currently Air Conditioned</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C1320" t="e" cm="1">
+        <f t="array" ref="C1320">+वर्तमान में वातानुकूलित</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1320" t="e" cm="1">
+        <f t="array" ref="D1320">+ప్రస్తుతం ఏసీ ఉంది</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1321" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B1321" t="e" cm="1">
+        <f t="array" ref="B1321">+Vaastu Complex</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C1321" t="e" cm="1">
+        <f t="array" ref="C1321">+वास्तु कॉम्प्लेक्स</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1321" t="e" cm="1">
+        <f t="array" ref="D1321">+వాస్తు సముదాయం</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1322" t="s">
+        <v>3682</v>
+      </c>
+      <c r="B1322" t="e" cm="1">
+        <f t="array" ref="B1322">+Security fire Alarm</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C1322" t="e" cm="1">
+        <f t="array" ref="C1322">+फायर अलार्म सुरक्षा</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1322" t="e" cm="1">
+        <f t="array" ref="D1322">+ఫైర్ అలారం భద్రత</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1323" t="s">
+        <v>3683</v>
+      </c>
+      <c r="B1323" t="e" cm="1">
+        <f t="array" ref="B1323">+Visitor Parking</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C1323" t="e" cm="1">
+        <f t="array" ref="C1323">+आगंतुक पार्किंग</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1323" t="e" cm="1">
+        <f t="array" ref="D1323">+సందర్శకుల పార్కింగ్</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1324" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1325" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B1325" t="e" cm="1">
+        <f t="array" ref="B1325">+Close to Metro Station</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C1325" t="e" cm="1">
+        <f t="array" ref="C1325">+मेट्रो स्टेशन के पास</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1325" t="e" cm="1">
+        <f t="array" ref="D1325">+మెట్రో స్టేషన్ దగ్గర</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1326" t="s">
+        <v>3686</v>
+      </c>
+      <c r="B1326" t="e" cm="1">
+        <f t="array" ref="B1326">+Close to School</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C1326" t="e" cm="1">
+        <f t="array" ref="C1326">+स्कूल के पास</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1326" t="e" cm="1">
+        <f t="array" ref="D1326">+పాఠశాల దగ్గర</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1327" t="s">
+        <v>3687</v>
+      </c>
+      <c r="B1327" t="e" cm="1">
+        <f t="array" ref="B1327">+Close to Hospital</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C1327" t="e" cm="1">
+        <f t="array" ref="C1327">+अस्पताल के पास</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1327" t="e" cm="1">
+        <f t="array" ref="D1327">+ఆసుపత్రి దగ్గర</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1328" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B1328" t="e" cm="1">
+        <f t="array" ref="B1328">+Close to Market</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C1328" t="e" cm="1">
+        <f t="array" ref="C1328">+बाजार के पास</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1328" t="e" cm="1">
+        <f t="array" ref="D1328">+మార్కెట్ దగ్గర</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1329" t="s">
+        <v>3689</v>
+      </c>
+      <c r="B1329" t="e" cm="1">
+        <f t="array" ref="B1329">+Close to Railway Station</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C1329" t="e" cm="1">
+        <f t="array" ref="C1329">+रेलवे स्टेशन के पास</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1329" t="e" cm="1">
+        <f t="array" ref="D1329">+రైల్వే స్టేషన్ దగ్గర</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1330" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B1330" t="e" cm="1">
+        <f t="array" ref="B1330">+Close to Airport</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C1330" t="e" cm="1">
+        <f t="array" ref="C1330">+हवाई अड्डे के पास</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1330" t="e" cm="1">
+        <f t="array" ref="D1330">+విమానాశ్రయం దగ్గర</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1331" t="s">
+        <v>3691</v>
+      </c>
+      <c r="B1331" t="e" cm="1">
+        <f t="array" ref="B1331">+Close to Mall</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C1331" t="e" cm="1">
+        <f t="array" ref="C1331">+मॉल के पास</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1331" t="e" cm="1">
+        <f t="array" ref="D1331">+మాల్ దగ్గర</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1332" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B1332" t="e" cm="1">
+        <f t="array" ref="B1332">+Close to Highway</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C1332" t="e" cm="1">
+        <f t="array" ref="C1332">+राजमार्ग के पास</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D1332" t="e" cm="1">
+        <f t="array" ref="D1332">+హైవే దగ్గర</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1334" t="s">
+        <v>3693</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>3694</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1335" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>3696</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1336" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1337" t="s">
+        <v>3700</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>3701</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1338" t="s">
+        <v>3703</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>3704</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1339" t="s">
+        <v>3706</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1340" t="s">
+        <v>3707</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>2175</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1341" t="s">
+        <v>3709</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1342" t="s">
+        <v>3711</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1343" t="s">
+        <v>3713</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1344" t="s">
+        <v>3714</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>3715</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1346" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>784</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>785</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1347" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>788</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1348" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>817</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1349" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>794</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1350" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>790</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>791</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1351" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>823</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1352" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>826</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1353" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>820</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1354" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1355" t="s">
+        <v>3717</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1356" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>2215</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1357" t="s">
+        <v>3719</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>3720</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>3721</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1358" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>3723</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1359" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>3725</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1360" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>3727</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>3728</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1361" t="s">
+        <v>3730</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>3732</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1362" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1363" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1365" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1366" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1367" t="s">
+        <v>3740</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>3742</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1369" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>3745</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1370" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>3747</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>3748</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1371" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1372" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>3753</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>3754</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1373" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>3757</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1374" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>3761</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D1374" t="s">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1376" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>3764</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>3765</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1377" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>3767</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>3768</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1378" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>3771</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>3772</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Frontend/translations.xlsx
+++ b/Frontend/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d8c1b1ae6504acc/Desktop/Technoji/LandsTime-301-12-2025/Landstime_Androidapp/Frontend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{2BA4BD3B-589D-40C2-9AD4-1591FEC39E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE252E0B-77FA-4681-8A13-44354F6706B6}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{767929E8-DE60-4946-918E-ACB6D13E7776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EF2D477-F9C2-437F-8D56-F22C71816D7E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5007" uniqueCount="3773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5153" uniqueCount="3856">
   <si>
     <t>key</t>
   </si>
@@ -11110,9 +11110,6 @@
     <t>plot_amenity_parking</t>
   </si>
   <si>
-    <t>plot_location_advantages</t>
-  </si>
-  <si>
     <t>plot_location_metro</t>
   </si>
   <si>
@@ -11375,6 +11372,258 @@
   </si>
   <si>
     <t>పారిశ్రామిక భూమి</t>
+  </si>
+  <si>
+    <t>hospitality_amenity_water_storage</t>
+  </si>
+  <si>
+    <t>hospitality_amenity_air_conditioned</t>
+  </si>
+  <si>
+    <t>hospitality_amenity_vaastu_complex</t>
+  </si>
+  <si>
+    <t>hospitality_amenity_fire_alarm</t>
+  </si>
+  <si>
+    <t>hospitality_amenity_visitor_parking</t>
+  </si>
+  <si>
+    <t>hospitality_loc_metro_station</t>
+  </si>
+  <si>
+    <t>hospitality_loc_railway_station</t>
+  </si>
+  <si>
+    <t>plot_amenity_water_storage</t>
+  </si>
+  <si>
+    <t>plot_amenity_vaastu_complex</t>
+  </si>
+  <si>
+    <t>plot_amenity_visitor_parking</t>
+  </si>
+  <si>
+    <t>plot_loc_metro_station</t>
+  </si>
+  <si>
+    <t>plot_loc_school</t>
+  </si>
+  <si>
+    <t>plot_loc_hospital</t>
+  </si>
+  <si>
+    <t>plot_loc_market</t>
+  </si>
+  <si>
+    <t>plot_loc_railway_station</t>
+  </si>
+  <si>
+    <t>plot_loc_airport</t>
+  </si>
+  <si>
+    <t>plot_loc_mall</t>
+  </si>
+  <si>
+    <t>plot_loc_highway</t>
+  </si>
+  <si>
+    <t>'+Water Storage</t>
+  </si>
+  <si>
+    <t>'+पानी की भंडारण सुविधा</t>
+  </si>
+  <si>
+    <t>'+నీటి నిల్వ</t>
+  </si>
+  <si>
+    <t>'+currently Air Conditioned</t>
+  </si>
+  <si>
+    <t>'+वर्तमान में वातानुकूलित</t>
+  </si>
+  <si>
+    <t>'+ప్రస్తుతం వాతానుకూలత</t>
+  </si>
+  <si>
+    <t>'+Vaastu Complex</t>
+  </si>
+  <si>
+    <t>'+वास्तु कॉम्प्लेक्स</t>
+  </si>
+  <si>
+    <t>'+వాస్తు కాంప్లెక్స్</t>
+  </si>
+  <si>
+    <t>'+Security fire Alarm</t>
+  </si>
+  <si>
+    <t>'+सुरक्षा अग्नि अलार्म</t>
+  </si>
+  <si>
+    <t>'+భద్రత అగ్ని అలారం</t>
+  </si>
+  <si>
+    <t>'+Visitor Parking</t>
+  </si>
+  <si>
+    <t>'+आगंतुकों के लिए पार्किंग</t>
+  </si>
+  <si>
+    <t>'+సందర్శకుల పార్కింగ్</t>
+  </si>
+  <si>
+    <t>'+Close to Metro Station</t>
+  </si>
+  <si>
+    <t>'+मेट्रो स्टेशन के पास</t>
+  </si>
+  <si>
+    <t>'+మెట్రో స్టేషన్ దగ్గర</t>
+  </si>
+  <si>
+    <t>'+Close to School</t>
+  </si>
+  <si>
+    <t>'+स्कूल के पास</t>
+  </si>
+  <si>
+    <t>'+పాఠశాల దగ్గర</t>
+  </si>
+  <si>
+    <t>'+Close to Hospital</t>
+  </si>
+  <si>
+    <t>'+अस्पताल के पास</t>
+  </si>
+  <si>
+    <t>'+ఆసుపత్రి దగ్గర</t>
+  </si>
+  <si>
+    <t>'+Close to Market</t>
+  </si>
+  <si>
+    <t>'+मार्केट के पास</t>
+  </si>
+  <si>
+    <t>'+మార్కెట్ దగ్గర</t>
+  </si>
+  <si>
+    <t>'+Close to Railway Station</t>
+  </si>
+  <si>
+    <t>'+रेलवे स्टेशन के पास</t>
+  </si>
+  <si>
+    <t>'+రైల्वే స్టేషన్ దగ్గర</t>
+  </si>
+  <si>
+    <t>'+Close to Airport</t>
+  </si>
+  <si>
+    <t>'+हवाई अड्डे के पास</t>
+  </si>
+  <si>
+    <t>'+విమానాశ్రయం దగ్గర</t>
+  </si>
+  <si>
+    <t>'+Close to Mall</t>
+  </si>
+  <si>
+    <t>'+मॉल के पास</t>
+  </si>
+  <si>
+    <t>'+మాల్ దగ్గర</t>
+  </si>
+  <si>
+    <t>'+Close to Highway</t>
+  </si>
+  <si>
+    <t>'+हाईवे के पास</t>
+  </si>
+  <si>
+    <t>'+హైవే దగ్గర</t>
+  </si>
+  <si>
+    <t>'+రైల్వే స్టేషన్ దగ్గర</t>
+  </si>
+  <si>
+    <t>'+ Shed</t>
+  </si>
+  <si>
+    <t>'+शेड</t>
+  </si>
+  <si>
+    <t>'+షెడ్</t>
+  </si>
+  <si>
+    <t>'+ Room(s)</t>
+  </si>
+  <si>
+    <t>'+कमरा(ए)</t>
+  </si>
+  <si>
+    <t>'+గది(లు)</t>
+  </si>
+  <si>
+    <t>'+ Washroom</t>
+  </si>
+  <si>
+    <t>'+शौचालय</t>
+  </si>
+  <si>
+    <t>'+వాష్‌రూమ్</t>
+  </si>
+  <si>
+    <t>'+ Other</t>
+  </si>
+  <si>
+    <t>'+अन्य</t>
+  </si>
+  <si>
+    <t>'+ఇతర</t>
+  </si>
+  <si>
+    <t>'+ Water Storage</t>
+  </si>
+  <si>
+    <t>'+ Vaastu Complex</t>
+  </si>
+  <si>
+    <t>'+ Visitor Parking</t>
+  </si>
+  <si>
+    <t>'+ Close to Metro Station</t>
+  </si>
+  <si>
+    <t>'+ Close to School</t>
+  </si>
+  <si>
+    <t>'+ Close to Hospital</t>
+  </si>
+  <si>
+    <t>'+ Close to Market</t>
+  </si>
+  <si>
+    <t>'+ Close to Railway Station</t>
+  </si>
+  <si>
+    <t>'+ Close to Airport</t>
+  </si>
+  <si>
+    <t>'+ Close to Mall</t>
+  </si>
+  <si>
+    <t>'+ Close to Highway</t>
+  </si>
+  <si>
+    <t>'+ More Pricing Details</t>
+  </si>
+  <si>
+    <t>'+अधिक मूल्य विवरण</t>
+  </si>
+  <si>
+    <t>'+మరిన్ని ధర వివరాలు</t>
   </si>
 </sst>
 </file>
@@ -11760,10 +12009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4B5E5-1AD3-459E-940E-0D51EC173CF5}">
-  <dimension ref="A1:D1378"/>
+  <dimension ref="A1:D1408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1237" zoomScale="69" workbookViewId="0">
-      <selection activeCell="A1264" sqref="A1264"/>
+    <sheetView tabSelected="1" topLeftCell="A1294" zoomScale="69" workbookViewId="0">
+      <selection activeCell="D1322" sqref="D1322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28743,68 +28992,56 @@
       <c r="A1289" t="s">
         <v>3621</v>
       </c>
-      <c r="B1289" t="e" cm="1">
-        <f t="array" ref="B1289">+ Shed</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C1289" t="e" cm="1">
-        <f t="array" ref="C1289">+ शेड</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1289" t="e" cm="1">
-        <f t="array" ref="D1289">+ షెడ్</f>
-        <v>#NAME?</v>
+      <c r="B1289" t="s">
+        <v>3830</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>3831</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>3832</v>
       </c>
     </row>
     <row r="1290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1290" t="s">
         <v>3622</v>
       </c>
-      <c r="B1290" t="e" cm="1">
-        <f t="array" aca="1" ref="B1290" ca="1">+ Room(s)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C1290" t="e" cm="1">
-        <f t="array" ref="C1290">+ कमरा/कमरे</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1290" t="e" cm="1">
-        <f t="array" ref="D1290">+ గది/గదులు</f>
-        <v>#NAME?</v>
+      <c r="B1290" t="s">
+        <v>3833</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>3834</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>3835</v>
       </c>
     </row>
     <row r="1291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1291" t="s">
         <v>3623</v>
       </c>
-      <c r="B1291" t="e" cm="1">
-        <f t="array" ref="B1291">+ Washroom</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C1291" t="e" cm="1">
-        <f t="array" ref="C1291">+ शौचालय</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1291" t="e" cm="1">
-        <f t="array" ref="D1291">+ వాష్‌రూమ్</f>
-        <v>#NAME?</v>
+      <c r="B1291" t="s">
+        <v>3836</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>3837</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>3838</v>
       </c>
     </row>
     <row r="1292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1292" t="s">
         <v>3624</v>
       </c>
-      <c r="B1292" t="e" cm="1">
-        <f t="array" ref="B1292">+ Other</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C1292" t="e" cm="1">
-        <f t="array" ref="C1292">+ अन्य</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1292" t="e" cm="1">
-        <f t="array" ref="D1292">+ ఇతర</f>
-        <v>#NAME?</v>
+      <c r="B1292" t="s">
+        <v>3839</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>3840</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>3841</v>
       </c>
     </row>
     <row r="1294" spans="1:4" x14ac:dyDescent="0.3">
@@ -29007,17 +29244,14 @@
       <c r="A1308" t="s">
         <v>3652</v>
       </c>
-      <c r="B1308" t="e" cm="1">
-        <f t="array" ref="B1308">+ Add more pricing details</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C1308" t="e" cm="1">
-        <f t="array" ref="C1308">+ अधिक मूल्य विवरण जोड़ें</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1308" t="e" cm="1">
-        <f t="array" ref="D1308">+ మరిన్ని ధర వివరాలు జోడించండి</f>
-        <v>#NAME?</v>
+      <c r="B1308" t="s">
+        <v>3853</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>3854</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>3855</v>
       </c>
     </row>
     <row r="1309" spans="1:4" x14ac:dyDescent="0.3">
@@ -29160,89 +29394,46 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="1319" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1319" t="s">
-        <v>3679</v>
-      </c>
-      <c r="B1319" t="e" cm="1">
-        <f t="array" ref="B1319">+Water Storage</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C1319" t="e" cm="1">
-        <f t="array" ref="C1319">+जल भंडारण</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1319" t="e" cm="1">
-        <f t="array" ref="D1319">+నీటి నిల్వ</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
     <row r="1320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1320" t="s">
-        <v>3680</v>
-      </c>
-      <c r="B1320" t="e" cm="1">
-        <f t="array" ref="B1320">+currently Air Conditioned</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C1320" t="e" cm="1">
-        <f t="array" ref="C1320">+वर्तमान में वातानुकूलित</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1320" t="e" cm="1">
-        <f t="array" ref="D1320">+ప్రస్తుతం ఏసీ ఉంది</f>
-        <v>#NAME?</v>
+        <v>3679</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>3842</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>3791</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>3792</v>
       </c>
     </row>
     <row r="1321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1321" t="s">
         <v>3681</v>
       </c>
-      <c r="B1321" t="e" cm="1">
-        <f t="array" ref="B1321">+Vaastu Complex</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C1321" t="e" cm="1">
-        <f t="array" ref="C1321">+वास्तु कॉम्प्लेक्स</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1321" t="e" cm="1">
-        <f t="array" ref="D1321">+వాస్తు సముదాయం</f>
-        <v>#NAME?</v>
+      <c r="B1321" t="s">
+        <v>3843</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>3798</v>
       </c>
     </row>
     <row r="1322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1322" t="s">
-        <v>3682</v>
-      </c>
-      <c r="B1322" t="e" cm="1">
-        <f t="array" ref="B1322">+Security fire Alarm</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C1322" t="e" cm="1">
-        <f t="array" ref="C1322">+फायर अलार्म सुरक्षा</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1322" t="e" cm="1">
-        <f t="array" ref="D1322">+ఫైర్ అలారం భద్రత</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="1323" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1323" t="s">
         <v>3683</v>
       </c>
-      <c r="B1323" t="e" cm="1">
-        <f t="array" ref="B1323">+Visitor Parking</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C1323" t="e" cm="1">
-        <f t="array" ref="C1323">+आगंतुक पार्किंग</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1323" t="e" cm="1">
-        <f t="array" ref="D1323">+సందర్శకుల పార్కింగ్</f>
-        <v>#NAME?</v>
+      <c r="B1322" t="s">
+        <v>3844</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>3803</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>3804</v>
       </c>
     </row>
     <row r="1324" spans="1:4" x14ac:dyDescent="0.3">
@@ -29250,157 +29441,119 @@
         <v>3684</v>
       </c>
       <c r="B1324" t="s">
-        <v>1734</v>
+        <v>3845</v>
       </c>
       <c r="C1324" t="s">
-        <v>1735</v>
+        <v>3806</v>
       </c>
       <c r="D1324" t="s">
-        <v>1736</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="1325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1325" t="s">
         <v>3685</v>
       </c>
-      <c r="B1325" t="e" cm="1">
-        <f t="array" ref="B1325">+Close to Metro Station</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C1325" t="e" cm="1">
-        <f t="array" ref="C1325">+मेट्रो स्टेशन के पास</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1325" t="e" cm="1">
-        <f t="array" ref="D1325">+మెట్రో స్టేషన్ దగ్గర</f>
-        <v>#NAME?</v>
+      <c r="B1325" t="s">
+        <v>3846</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>3809</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>3810</v>
       </c>
     </row>
     <row r="1326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1326" t="s">
         <v>3686</v>
       </c>
-      <c r="B1326" t="e" cm="1">
-        <f t="array" ref="B1326">+Close to School</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C1326" t="e" cm="1">
-        <f t="array" ref="C1326">+स्कूल के पास</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1326" t="e" cm="1">
-        <f t="array" ref="D1326">+పాఠశాల దగ్గర</f>
-        <v>#NAME?</v>
+      <c r="B1326" t="s">
+        <v>3847</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>3812</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>3813</v>
       </c>
     </row>
     <row r="1327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1327" t="s">
         <v>3687</v>
       </c>
-      <c r="B1327" t="e" cm="1">
-        <f t="array" ref="B1327">+Close to Hospital</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C1327" t="e" cm="1">
-        <f t="array" ref="C1327">+अस्पताल के पास</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1327" t="e" cm="1">
-        <f t="array" ref="D1327">+ఆసుపత్రి దగ్గర</f>
-        <v>#NAME?</v>
+      <c r="B1327" t="s">
+        <v>3848</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>3815</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>3816</v>
       </c>
     </row>
     <row r="1328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1328" t="s">
         <v>3688</v>
       </c>
-      <c r="B1328" t="e" cm="1">
-        <f t="array" ref="B1328">+Close to Market</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C1328" t="e" cm="1">
-        <f t="array" ref="C1328">+बाजार के पास</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1328" t="e" cm="1">
-        <f t="array" ref="D1328">+మార్కెట్ దగ్గర</f>
-        <v>#NAME?</v>
+      <c r="B1328" t="s">
+        <v>3849</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>3818</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>3829</v>
       </c>
     </row>
     <row r="1329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1329" t="s">
         <v>3689</v>
       </c>
-      <c r="B1329" t="e" cm="1">
-        <f t="array" ref="B1329">+Close to Railway Station</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C1329" t="e" cm="1">
-        <f t="array" ref="C1329">+रेलवे स्टेशन के पास</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1329" t="e" cm="1">
-        <f t="array" ref="D1329">+రైల్వే స్టేషన్ దగ్గర</f>
-        <v>#NAME?</v>
+      <c r="B1329" t="s">
+        <v>3850</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>3821</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>3822</v>
       </c>
     </row>
     <row r="1330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1330" t="s">
         <v>3690</v>
       </c>
-      <c r="B1330" t="e" cm="1">
-        <f t="array" ref="B1330">+Close to Airport</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C1330" t="e" cm="1">
-        <f t="array" ref="C1330">+हवाई अड्डे के पास</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1330" t="e" cm="1">
-        <f t="array" ref="D1330">+విమానాశ్రయం దగ్గర</f>
-        <v>#NAME?</v>
+      <c r="B1330" t="s">
+        <v>3851</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>3824</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>3825</v>
       </c>
     </row>
     <row r="1331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1331" t="s">
         <v>3691</v>
       </c>
-      <c r="B1331" t="e" cm="1">
-        <f t="array" ref="B1331">+Close to Mall</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C1331" t="e" cm="1">
-        <f t="array" ref="C1331">+मॉल के पास</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1331" t="e" cm="1">
-        <f t="array" ref="D1331">+మాల్ దగ్గర</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="1332" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1332" t="s">
-        <v>3692</v>
-      </c>
-      <c r="B1332" t="e" cm="1">
-        <f t="array" ref="B1332">+Close to Highway</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C1332" t="e" cm="1">
-        <f t="array" ref="C1332">+राजमार्ग के पास</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D1332" t="e" cm="1">
-        <f t="array" ref="D1332">+హైవే దగ్గర</f>
-        <v>#NAME?</v>
+      <c r="B1331" t="s">
+        <v>3852</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>3827</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>3828</v>
       </c>
     </row>
     <row r="1334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1334" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B1334" t="s">
         <v>3693</v>
-      </c>
-      <c r="B1334" t="s">
-        <v>3694</v>
       </c>
       <c r="C1334" t="s">
         <v>1538</v>
@@ -29411,24 +29564,24 @@
     </row>
     <row r="1335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1335" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="B1335" t="s">
         <v>2154</v>
       </c>
       <c r="C1335" t="s">
+        <v>3695</v>
+      </c>
+      <c r="D1335" t="s">
         <v>3696</v>
-      </c>
-      <c r="D1335" t="s">
-        <v>3697</v>
       </c>
     </row>
     <row r="1336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1336" t="s">
+        <v>3697</v>
+      </c>
+      <c r="B1336" t="s">
         <v>3698</v>
-      </c>
-      <c r="B1336" t="s">
-        <v>3699</v>
       </c>
       <c r="C1336" t="s">
         <v>2359</v>
@@ -29439,35 +29592,35 @@
     </row>
     <row r="1337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1337" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="B1337" t="s">
         <v>2162</v>
       </c>
       <c r="C1337" t="s">
+        <v>3700</v>
+      </c>
+      <c r="D1337" t="s">
         <v>3701</v>
-      </c>
-      <c r="D1337" t="s">
-        <v>3702</v>
       </c>
     </row>
     <row r="1338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1338" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="B1338" t="s">
         <v>2166</v>
       </c>
       <c r="C1338" t="s">
+        <v>3703</v>
+      </c>
+      <c r="D1338" t="s">
         <v>3704</v>
-      </c>
-      <c r="D1338" t="s">
-        <v>3705</v>
       </c>
     </row>
     <row r="1339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1339" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="B1339" t="s">
         <v>2170</v>
@@ -29481,7 +29634,7 @@
     </row>
     <row r="1340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1340" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="B1340" t="s">
         <v>2174</v>
@@ -29490,12 +29643,12 @@
         <v>2175</v>
       </c>
       <c r="D1340" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="1341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1341" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="B1341" t="s">
         <v>2178</v>
@@ -29504,12 +29657,12 @@
         <v>2179</v>
       </c>
       <c r="D1341" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="1342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1342" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="B1342" t="s">
         <v>2182</v>
@@ -29518,12 +29671,12 @@
         <v>2183</v>
       </c>
       <c r="D1342" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="1343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1343" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
       <c r="B1343" t="s">
         <v>2186</v>
@@ -29537,16 +29690,16 @@
     </row>
     <row r="1344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1344" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="B1344" t="s">
         <v>2190</v>
       </c>
       <c r="C1344" t="s">
+        <v>3714</v>
+      </c>
+      <c r="D1344" t="s">
         <v>3715</v>
-      </c>
-      <c r="D1344" t="s">
-        <v>3716</v>
       </c>
     </row>
     <row r="1346" spans="1:4" x14ac:dyDescent="0.3">
@@ -29677,7 +29830,7 @@
     </row>
     <row r="1355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1355" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="B1355" t="s">
         <v>2202</v>
@@ -29700,21 +29853,21 @@
         <v>2215</v>
       </c>
       <c r="D1356" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="1357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1357" t="s">
+        <v>3718</v>
+      </c>
+      <c r="B1357" t="s">
         <v>3719</v>
       </c>
-      <c r="B1357" t="s">
+      <c r="C1357" t="s">
         <v>3720</v>
       </c>
-      <c r="C1357" t="s">
+      <c r="D1357" t="s">
         <v>3721</v>
-      </c>
-      <c r="D1357" t="s">
-        <v>3722</v>
       </c>
     </row>
     <row r="1358" spans="1:4" x14ac:dyDescent="0.3">
@@ -29725,7 +29878,7 @@
         <v>2234</v>
       </c>
       <c r="C1358" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="D1358" t="s">
         <v>2236</v>
@@ -29733,16 +29886,16 @@
     </row>
     <row r="1359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1359" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="B1359" t="s">
         <v>2238</v>
       </c>
       <c r="C1359" t="s">
+        <v>3724</v>
+      </c>
+      <c r="D1359" t="s">
         <v>3725</v>
-      </c>
-      <c r="D1359" t="s">
-        <v>3726</v>
       </c>
     </row>
     <row r="1360" spans="1:4" x14ac:dyDescent="0.3">
@@ -29750,27 +29903,27 @@
         <v>2420</v>
       </c>
       <c r="B1360" t="s">
+        <v>3726</v>
+      </c>
+      <c r="C1360" t="s">
         <v>3727</v>
       </c>
-      <c r="C1360" t="s">
+      <c r="D1360" t="s">
         <v>3728</v>
-      </c>
-      <c r="D1360" t="s">
-        <v>3729</v>
       </c>
     </row>
     <row r="1361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1361" t="s">
+        <v>3729</v>
+      </c>
+      <c r="B1361" t="s">
         <v>3730</v>
       </c>
-      <c r="B1361" t="s">
+      <c r="C1361" t="s">
         <v>3731</v>
       </c>
-      <c r="C1361" t="s">
+      <c r="D1361" t="s">
         <v>3732</v>
-      </c>
-      <c r="D1361" t="s">
-        <v>3733</v>
       </c>
     </row>
     <row r="1362" spans="1:4" x14ac:dyDescent="0.3">
@@ -29789,16 +29942,16 @@
     </row>
     <row r="1363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1363" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B1363" t="s">
         <v>3734</v>
       </c>
-      <c r="B1363" t="s">
+      <c r="C1363" t="s">
         <v>3735</v>
       </c>
-      <c r="C1363" t="s">
+      <c r="D1363" t="s">
         <v>3736</v>
-      </c>
-      <c r="D1363" t="s">
-        <v>3737</v>
       </c>
     </row>
     <row r="1365" spans="1:4" x14ac:dyDescent="0.3">
@@ -29812,7 +29965,7 @@
         <v>1452</v>
       </c>
       <c r="D1365" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="1366" spans="1:4" x14ac:dyDescent="0.3">
@@ -29826,29 +29979,29 @@
         <v>1212</v>
       </c>
       <c r="D1366" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="1367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1367" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B1367" t="s">
         <v>3740</v>
       </c>
-      <c r="B1367" t="s">
+      <c r="C1367" t="s">
         <v>3741</v>
       </c>
-      <c r="C1367" t="s">
+      <c r="D1367" t="s">
         <v>3742</v>
-      </c>
-      <c r="D1367" t="s">
-        <v>3743</v>
       </c>
     </row>
     <row r="1369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1369" t="s">
+        <v>3743</v>
+      </c>
+      <c r="B1369" t="s">
         <v>3744</v>
-      </c>
-      <c r="B1369" t="s">
-        <v>3745</v>
       </c>
       <c r="C1369" t="s">
         <v>1867</v>
@@ -29859,13 +30012,13 @@
     </row>
     <row r="1370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1370" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B1370" t="s">
         <v>3746</v>
       </c>
-      <c r="B1370" t="s">
+      <c r="C1370" t="s">
         <v>3747</v>
-      </c>
-      <c r="C1370" t="s">
-        <v>3748</v>
       </c>
       <c r="D1370" t="s">
         <v>1872</v>
@@ -29873,58 +30026,58 @@
     </row>
     <row r="1371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1371" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B1371" t="s">
         <v>3749</v>
-      </c>
-      <c r="B1371" t="s">
-        <v>3750</v>
       </c>
       <c r="C1371" t="s">
         <v>2801</v>
       </c>
       <c r="D1371" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="1372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1372" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B1372" t="s">
         <v>3752</v>
       </c>
-      <c r="B1372" t="s">
+      <c r="C1372" t="s">
         <v>3753</v>
       </c>
-      <c r="C1372" t="s">
+      <c r="D1372" t="s">
         <v>3754</v>
-      </c>
-      <c r="D1372" t="s">
-        <v>3755</v>
       </c>
     </row>
     <row r="1373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1373" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B1373" t="s">
         <v>3756</v>
       </c>
-      <c r="B1373" t="s">
+      <c r="C1373" t="s">
         <v>3757</v>
       </c>
-      <c r="C1373" t="s">
+      <c r="D1373" t="s">
         <v>3758</v>
-      </c>
-      <c r="D1373" t="s">
-        <v>3759</v>
       </c>
     </row>
     <row r="1374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1374" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B1374" t="s">
         <v>3760</v>
       </c>
-      <c r="B1374" t="s">
+      <c r="C1374" t="s">
         <v>3761</v>
       </c>
-      <c r="C1374" t="s">
+      <c r="D1374" t="s">
         <v>3762</v>
-      </c>
-      <c r="D1374" t="s">
-        <v>3763</v>
       </c>
     </row>
     <row r="1376" spans="1:4" x14ac:dyDescent="0.3">
@@ -29932,13 +30085,13 @@
         <v>2904</v>
       </c>
       <c r="B1376" t="s">
+        <v>3763</v>
+      </c>
+      <c r="C1376" t="s">
         <v>3764</v>
       </c>
-      <c r="C1376" t="s">
+      <c r="D1376" t="s">
         <v>3765</v>
-      </c>
-      <c r="D1376" t="s">
-        <v>3766</v>
       </c>
     </row>
     <row r="1377" spans="1:4" x14ac:dyDescent="0.3">
@@ -29946,13 +30099,13 @@
         <v>2908</v>
       </c>
       <c r="B1377" t="s">
+        <v>3766</v>
+      </c>
+      <c r="C1377" t="s">
         <v>3767</v>
       </c>
-      <c r="C1377" t="s">
+      <c r="D1377" t="s">
         <v>3768</v>
-      </c>
-      <c r="D1377" t="s">
-        <v>3769</v>
       </c>
     </row>
     <row r="1378" spans="1:4" x14ac:dyDescent="0.3">
@@ -29960,13 +30113,377 @@
         <v>2912</v>
       </c>
       <c r="B1378" t="s">
+        <v>3769</v>
+      </c>
+      <c r="C1378" t="s">
         <v>3770</v>
       </c>
-      <c r="C1378" t="s">
+      <c r="D1378" t="s">
         <v>3771</v>
       </c>
-      <c r="D1378" t="s">
+    </row>
+    <row r="1380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1380" t="s">
         <v>3772</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>3790</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>3791</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1381" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>3793</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>3794</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1382" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>3796</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1383" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>3799</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>3800</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1384" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>3802</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>3803</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1386" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>3805</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>3806</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1387" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>3808</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>3809</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1388" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>3811</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>3812</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1389" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>3814</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>3815</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1390" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>3817</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>3818</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1391" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>3820</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>3821</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1392" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>3823</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>3824</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1393" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>3826</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>3827</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1395" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>3790</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>3791</v>
+      </c>
+      <c r="D1395" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1396" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>3793</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>3794</v>
+      </c>
+      <c r="D1396" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1397" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>3796</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1398" t="s">
+        <v>3682</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>3799</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>3800</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1399" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>3802</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>3803</v>
+      </c>
+      <c r="D1399" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1401" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>3805</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>3806</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1402" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>3808</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>3809</v>
+      </c>
+      <c r="D1402" t="s">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1403" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>3811</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>3812</v>
+      </c>
+      <c r="D1403" t="s">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1404" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>3814</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>3815</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1405" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>3817</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>3818</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>3829</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1406" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>3820</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>3821</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1407" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>3823</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>3824</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1408" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>3826</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>3827</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>3828</v>
       </c>
     </row>
   </sheetData>

--- a/Frontend/translations.xlsx
+++ b/Frontend/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d8c1b1ae6504acc/Desktop/Technoji/LandsTime-301-12-2025/Landstime_Androidapp/Frontend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{767929E8-DE60-4946-918E-ACB6D13E7776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EF2D477-F9C2-437F-8D56-F22C71816D7E}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{767929E8-DE60-4946-918E-ACB6D13E7776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55A34F9A-A961-45EF-B519-2EADC2CC47CD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5153" uniqueCount="3856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5597" uniqueCount="4105">
   <si>
     <t>key</t>
   </si>
@@ -11624,6 +11624,753 @@
   </si>
   <si>
     <t>'+మరిన్ని ధర వివరాలు</t>
+  </si>
+  <si>
+    <t>storage_location</t>
+  </si>
+  <si>
+    <t>storage_location_required</t>
+  </si>
+  <si>
+    <t>storage_enter_location</t>
+  </si>
+  <si>
+    <t>Enter location</t>
+  </si>
+  <si>
+    <t>storage_area_neighborhood</t>
+  </si>
+  <si>
+    <t>storage_area_required</t>
+  </si>
+  <si>
+    <t>Area / Neighborhood is required</t>
+  </si>
+  <si>
+    <t>क्षेत्र / पड़ोस आवश्यक है</t>
+  </si>
+  <si>
+    <t>ప్రాంతం / పొరుగు ప్రాంతం అవసరం</t>
+  </si>
+  <si>
+    <t>storage_enter_area</t>
+  </si>
+  <si>
+    <t>Enter area / neighborhood</t>
+  </si>
+  <si>
+    <t>क्षेत्र / पड़ोस दर्ज करें</t>
+  </si>
+  <si>
+    <t>ప్రాంతం / పొరుగు ప్రాంతాన్ని నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>storage_storage_area</t>
+  </si>
+  <si>
+    <t>Storage Area</t>
+  </si>
+  <si>
+    <t>भंडारण क्षेत्र</t>
+  </si>
+  <si>
+    <t>నిల్వ ప్రాంతం</t>
+  </si>
+  <si>
+    <t>storage_area_required_error</t>
+  </si>
+  <si>
+    <t>Storage area is required</t>
+  </si>
+  <si>
+    <t>भंडारण क्षेत्र आवश्यक है</t>
+  </si>
+  <si>
+    <t>నిల్వ ప్రాంతం అవసరం</t>
+  </si>
+  <si>
+    <t>storage_dimensions_optional</t>
+  </si>
+  <si>
+    <t>Dimensions (Optional)</t>
+  </si>
+  <si>
+    <t>आयाम (वैकल्पिक)</t>
+  </si>
+  <si>
+    <t>కొలతలు (ఐచ్ఛికం)</t>
+  </si>
+  <si>
+    <t>storage_length_placeholder</t>
+  </si>
+  <si>
+    <t>Length (ft)</t>
+  </si>
+  <si>
+    <t>लंबाई (फीट)</t>
+  </si>
+  <si>
+    <t>పొడవు (అడుగులు)</t>
+  </si>
+  <si>
+    <t>storage_breadth_placeholder</t>
+  </si>
+  <si>
+    <t>Breadth (ft)</t>
+  </si>
+  <si>
+    <t>चौड़ाई (फीट)</t>
+  </si>
+  <si>
+    <t>వెడల్పు (అడుగులు)</t>
+  </si>
+  <si>
+    <t>storage_ceiling_height</t>
+  </si>
+  <si>
+    <t>Ceiling Height</t>
+  </si>
+  <si>
+    <t>छत की ऊंचाई</t>
+  </si>
+  <si>
+    <t>పైకప్పు ఎత్తు</t>
+  </si>
+  <si>
+    <t>storage_height_placeholder</t>
+  </si>
+  <si>
+    <t>Height (ft)</t>
+  </si>
+  <si>
+    <t>ऊंचाई (फीट)</t>
+  </si>
+  <si>
+    <t>ఎత్తు (అడుగులు)</t>
+  </si>
+  <si>
+    <t>storage_flooring_type</t>
+  </si>
+  <si>
+    <t>Flooring Type</t>
+  </si>
+  <si>
+    <t>storage_flooring_concrete</t>
+  </si>
+  <si>
+    <t>కాంక్రీట్</t>
+  </si>
+  <si>
+    <t>storage_flooring_tiles</t>
+  </si>
+  <si>
+    <t>Tiles</t>
+  </si>
+  <si>
+    <t>टाइल्स</t>
+  </si>
+  <si>
+    <t>టైల్స్</t>
+  </si>
+  <si>
+    <t>storage_flooring_epoxy</t>
+  </si>
+  <si>
+    <t>Epoxy</t>
+  </si>
+  <si>
+    <t>एपॉक्सी</t>
+  </si>
+  <si>
+    <t>ఎపాక్సీ</t>
+  </si>
+  <si>
+    <t>storage_flooring_other</t>
+  </si>
+  <si>
+    <t>storage_ventilation</t>
+  </si>
+  <si>
+    <t>वेंटिलेशन</t>
+  </si>
+  <si>
+    <t>storage_ventilation_natural</t>
+  </si>
+  <si>
+    <t>Natural</t>
+  </si>
+  <si>
+    <t>प्राकृतिक</t>
+  </si>
+  <si>
+    <t>సహజ</t>
+  </si>
+  <si>
+    <t>storage_ventilation_mechanical</t>
+  </si>
+  <si>
+    <t>Mechanical</t>
+  </si>
+  <si>
+    <t>यांत्रिक</t>
+  </si>
+  <si>
+    <t>యాంత్రిక</t>
+  </si>
+  <si>
+    <t>storage_ventilation_both</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>दोनों</t>
+  </si>
+  <si>
+    <t>రెండూ</t>
+  </si>
+  <si>
+    <t>storage_temperature_controlled</t>
+  </si>
+  <si>
+    <t>Temperature Controlled</t>
+  </si>
+  <si>
+    <t>तापमान नियंत्रित</t>
+  </si>
+  <si>
+    <t>ఉష్ణోగ్రత నియంత్రణ</t>
+  </si>
+  <si>
+    <t>storage_storage_type</t>
+  </si>
+  <si>
+    <t>Storage Type</t>
+  </si>
+  <si>
+    <t>भंडारण प्रकार</t>
+  </si>
+  <si>
+    <t>నిల్వ రకం</t>
+  </si>
+  <si>
+    <t>storage_covered</t>
+  </si>
+  <si>
+    <t>Covered</t>
+  </si>
+  <si>
+    <t>कवर किया गया</t>
+  </si>
+  <si>
+    <t>కప్పబడిన</t>
+  </si>
+  <si>
+    <t>storage_open</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>खुला</t>
+  </si>
+  <si>
+    <t>తెరిచిన</t>
+  </si>
+  <si>
+    <t>storage_security_features</t>
+  </si>
+  <si>
+    <t>Security Features</t>
+  </si>
+  <si>
+    <t>सुरक्षा सुविधाएं</t>
+  </si>
+  <si>
+    <t>భద్రతా సౌకర్యాలు</t>
+  </si>
+  <si>
+    <t>storage_security_cctv</t>
+  </si>
+  <si>
+    <t>CCTV</t>
+  </si>
+  <si>
+    <t>सीसीटीवी</t>
+  </si>
+  <si>
+    <t>సిసిటివి</t>
+  </si>
+  <si>
+    <t>storage_security_guard</t>
+  </si>
+  <si>
+    <t>Security Guard</t>
+  </si>
+  <si>
+    <t>सुरक्षा गार्ड</t>
+  </si>
+  <si>
+    <t>భద్రతా గార్డు</t>
+  </si>
+  <si>
+    <t>storage_security_alarm</t>
+  </si>
+  <si>
+    <t>Alarm System</t>
+  </si>
+  <si>
+    <t>अलार्म सिस्टम</t>
+  </si>
+  <si>
+    <t>అలారం వ్యవస్థ</t>
+  </si>
+  <si>
+    <t>storage_security_fire</t>
+  </si>
+  <si>
+    <t>Fire Safety</t>
+  </si>
+  <si>
+    <t>अग्नि सुरक्षा</t>
+  </si>
+  <si>
+    <t>అగ్ని భద్రత</t>
+  </si>
+  <si>
+    <t>storage_loading_access</t>
+  </si>
+  <si>
+    <t>Loading Access</t>
+  </si>
+  <si>
+    <t>लोडिंग पहुंच</t>
+  </si>
+  <si>
+    <t>లోడింగ్ యాక్సెస్</t>
+  </si>
+  <si>
+    <t>storage_access_dock</t>
+  </si>
+  <si>
+    <t>Dock Level</t>
+  </si>
+  <si>
+    <t>डॉक स्तर</t>
+  </si>
+  <si>
+    <t>డాక్ స్థాయి</t>
+  </si>
+  <si>
+    <t>storage_access_ground</t>
+  </si>
+  <si>
+    <t>Ground Level</t>
+  </si>
+  <si>
+    <t>भूतल स्तर</t>
+  </si>
+  <si>
+    <t>నేల స్థాయి</t>
+  </si>
+  <si>
+    <t>storage_access_ramp</t>
+  </si>
+  <si>
+    <t>Ramp Access</t>
+  </si>
+  <si>
+    <t>रैंप पहुंच</t>
+  </si>
+  <si>
+    <t>ర్యాంప్ యాక్సెస్</t>
+  </si>
+  <si>
+    <t>storage_washroom_facilities</t>
+  </si>
+  <si>
+    <t>Washroom Facilities</t>
+  </si>
+  <si>
+    <t>वॉशरूम सुविधाएं</t>
+  </si>
+  <si>
+    <t>వాష్రూమ్ సౌకర్యాలు</t>
+  </si>
+  <si>
+    <t>storage_washroom_none</t>
+  </si>
+  <si>
+    <t>storage_washroom_shared</t>
+  </si>
+  <si>
+    <t>storage_availability_status</t>
+  </si>
+  <si>
+    <t>storage_ready_to_move</t>
+  </si>
+  <si>
+    <t>जाने के लिए तैयार</t>
+  </si>
+  <si>
+    <t>తరలించడానికి సిద్ధంగా</t>
+  </si>
+  <si>
+    <t>storage_under_construction</t>
+  </si>
+  <si>
+    <t>storage_age_of_property</t>
+  </si>
+  <si>
+    <t>storage_age_0_1</t>
+  </si>
+  <si>
+    <t>storage_age_1_5</t>
+  </si>
+  <si>
+    <t>storage_age_5_10</t>
+  </si>
+  <si>
+    <t>storage_age_10plus</t>
+  </si>
+  <si>
+    <t>storage_possession_by</t>
+  </si>
+  <si>
+    <t>कब्जा</t>
+  </si>
+  <si>
+    <t>storage_expected_by</t>
+  </si>
+  <si>
+    <t>Expected by</t>
+  </si>
+  <si>
+    <t>storage_possession_immediate</t>
+  </si>
+  <si>
+    <t>storage_possession_3months</t>
+  </si>
+  <si>
+    <t>storage_possession_6months</t>
+  </si>
+  <si>
+    <t>storage_possession_2026</t>
+  </si>
+  <si>
+    <t>storage_possession_2027</t>
+  </si>
+  <si>
+    <t>storage_possession_2028</t>
+  </si>
+  <si>
+    <t>storage_possession_2029</t>
+  </si>
+  <si>
+    <t>storage_possession_2030</t>
+  </si>
+  <si>
+    <t>storage_ownership</t>
+  </si>
+  <si>
+    <t>storage_ownership_freehold</t>
+  </si>
+  <si>
+    <t>storage_ownership_leasehold</t>
+  </si>
+  <si>
+    <t>storage_ownership_company</t>
+  </si>
+  <si>
+    <t>storage_ownership_other</t>
+  </si>
+  <si>
+    <t>storage_approved_by</t>
+  </si>
+  <si>
+    <t>Approved By</t>
+  </si>
+  <si>
+    <t>द्वारा अनुमोदित</t>
+  </si>
+  <si>
+    <t>ఆమోదించినవారు</t>
+  </si>
+  <si>
+    <t>storage_local_authority</t>
+  </si>
+  <si>
+    <t>storage_industry_type</t>
+  </si>
+  <si>
+    <t>Approved Industry Type</t>
+  </si>
+  <si>
+    <t>अनुमोदित उद्योग प्रकार</t>
+  </si>
+  <si>
+    <t>ఆమోదించిన పరిశ్రమ రకం</t>
+  </si>
+  <si>
+    <t>storage_select_industry</t>
+  </si>
+  <si>
+    <t>Select industry type</t>
+  </si>
+  <si>
+    <t>storage_price_details</t>
+  </si>
+  <si>
+    <t>storage_price_required</t>
+  </si>
+  <si>
+    <t>Expected price is required</t>
+  </si>
+  <si>
+    <t>अपेक्षित मूल्य आवश्यक है</t>
+  </si>
+  <si>
+    <t>అంచనా ధర అవసరం</t>
+  </si>
+  <si>
+    <t>storage_expected_price</t>
+  </si>
+  <si>
+    <t>Expected Price (₹)</t>
+  </si>
+  <si>
+    <t>अपेक्षित मूल्य (₹)</t>
+  </si>
+  <si>
+    <t>అంచనా ధర (₹)</t>
+  </si>
+  <si>
+    <t>storage_all_inclusive</t>
+  </si>
+  <si>
+    <t>All Inclusive Price</t>
+  </si>
+  <si>
+    <t>सभी समावेशी मूल्य</t>
+  </si>
+  <si>
+    <t>అన్నీ కలిపి ధర</t>
+  </si>
+  <si>
+    <t>storage_price_negotiable</t>
+  </si>
+  <si>
+    <t>storage_tax_excluded</t>
+  </si>
+  <si>
+    <t>Tax &amp; Govt. Charges Excluded</t>
+  </si>
+  <si>
+    <t>storage_pre_leased</t>
+  </si>
+  <si>
+    <t>Pre Leased / Pre Rented</t>
+  </si>
+  <si>
+    <t>पूर्व पट्टे पर दिया गया / किराए पर दिया गया</t>
+  </si>
+  <si>
+    <t>ముందస్తు లీజు / అద్దెకు</t>
+  </si>
+  <si>
+    <t>storage_yes</t>
+  </si>
+  <si>
+    <t>storage_no</t>
+  </si>
+  <si>
+    <t>storage_current_rent</t>
+  </si>
+  <si>
+    <t>Current Rent / Lease Duration</t>
+  </si>
+  <si>
+    <t>वर्तमान किराया / पट्टा अवधि</t>
+  </si>
+  <si>
+    <t>ప్రస్తుత అద్దె / లీజు వ్యవధి</t>
+  </si>
+  <si>
+    <t>storage_lease_tenure</t>
+  </si>
+  <si>
+    <t>Monthly Rent (₹)</t>
+  </si>
+  <si>
+    <t>मासिक किराया (₹)</t>
+  </si>
+  <si>
+    <t>నెలవారీ అద్దె (₹)</t>
+  </si>
+  <si>
+    <t>storage_description</t>
+  </si>
+  <si>
+    <t>storage_description_required</t>
+  </si>
+  <si>
+    <t>Description is required</t>
+  </si>
+  <si>
+    <t>storage_describe_placeholder</t>
+  </si>
+  <si>
+    <t>Describe your property</t>
+  </si>
+  <si>
+    <t>storage_amenities</t>
+  </si>
+  <si>
+    <t>storage_location_advantages</t>
+  </si>
+  <si>
+    <t>storage_building_facing</t>
+  </si>
+  <si>
+    <t>Building Facing</t>
+  </si>
+  <si>
+    <t>भवन का सामना</t>
+  </si>
+  <si>
+    <t>భవనం ఎదురుగా</t>
+  </si>
+  <si>
+    <t>storage_entrance_direction</t>
+  </si>
+  <si>
+    <t>storage_area_direction</t>
+  </si>
+  <si>
+    <t>Storage Area Direction</t>
+  </si>
+  <si>
+    <t>भंडारण क्षेत्र दिशा</t>
+  </si>
+  <si>
+    <t>నిల్వ ప్రాంత దిశ</t>
+  </si>
+  <si>
+    <t>storage_light_goods_direction</t>
+  </si>
+  <si>
+    <t>Light Goods Direction</t>
+  </si>
+  <si>
+    <t>हल्के सामान की दिशा</t>
+  </si>
+  <si>
+    <t>తేలికపాటి వస్తువుల దిశ</t>
+  </si>
+  <si>
+    <t>storage_loading_direction</t>
+  </si>
+  <si>
+    <t>Loading Direction</t>
+  </si>
+  <si>
+    <t>लोडिंग दिशा</t>
+  </si>
+  <si>
+    <t>లోడింగ్ దిశ</t>
+  </si>
+  <si>
+    <t>storage_office_direction</t>
+  </si>
+  <si>
+    <t>Office Direction</t>
+  </si>
+  <si>
+    <t>कार्यालय दिशा</t>
+  </si>
+  <si>
+    <t>కార్యాలయ దిశ</t>
+  </si>
+  <si>
+    <t>storage_electrical_direction</t>
+  </si>
+  <si>
+    <t>Electrical Direction</t>
+  </si>
+  <si>
+    <t>विद्युत दिशा</t>
+  </si>
+  <si>
+    <t>విద్యుత్ దిశ</t>
+  </si>
+  <si>
+    <t>storage_water_direction</t>
+  </si>
+  <si>
+    <t>Water Direction</t>
+  </si>
+  <si>
+    <t>पानी की दिशा</t>
+  </si>
+  <si>
+    <t>నీటి దిశ</t>
+  </si>
+  <si>
+    <t>storage_washroom_direction</t>
+  </si>
+  <si>
+    <t>Washroom Direction</t>
+  </si>
+  <si>
+    <t>वॉशरूम दिशा</t>
+  </si>
+  <si>
+    <t>వాష్రూమ్ దిశ</t>
+  </si>
+  <si>
+    <t>storage_height_level</t>
+  </si>
+  <si>
+    <t>Height Level</t>
+  </si>
+  <si>
+    <t>ऊंचाई स्तर</t>
+  </si>
+  <si>
+    <t>ఎత్తు స్థాయి</t>
+  </si>
+  <si>
+    <t>Vaastu Details</t>
+  </si>
+  <si>
+    <t>పశ్చిమం</t>
+  </si>
+  <si>
+    <t>పశ్చిమం వైపు</t>
+  </si>
+  <si>
+    <t>संतुलित खुला स्थान</t>
+  </si>
+  <si>
+    <t>సమతుల్య బహిరంగ ప్రదేశం</t>
+  </si>
+  <si>
+    <t>दक्षिण और पश्चिम में ऊंचा</t>
+  </si>
+  <si>
+    <t>దక్షిణం &amp; పశ్చిమంలో ఎత్తు</t>
+  </si>
+  <si>
+    <t>डेटा गायब है</t>
+  </si>
+  <si>
+    <t>Storage details are missing. Please go back and complete the form.</t>
+  </si>
+  <si>
+    <t>भंडारण विवरण गायब हैं। कृपया वापस जाएं और फॉर्म पूरा करें।</t>
+  </si>
+  <si>
+    <t>నిల్వ వివరాలు లేవు. దయచేసి వెనక్కి వెళ్లి ఫారమ్‌ను పూర్తి చేయండి.</t>
   </si>
 </sst>
 </file>
@@ -11690,6 +12437,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12009,10 +12760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4B5E5-1AD3-459E-940E-0D51EC173CF5}">
-  <dimension ref="A1:D1408"/>
+  <dimension ref="A1:D1520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1294" zoomScale="69" workbookViewId="0">
-      <selection activeCell="D1322" sqref="D1322"/>
+    <sheetView tabSelected="1" topLeftCell="A1400" zoomScale="69" workbookViewId="0">
+      <selection activeCell="D1433" sqref="D1433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30486,6 +31237,1560 @@
         <v>3828</v>
       </c>
     </row>
+    <row r="1410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1410" t="s">
+        <v>3856</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1411" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>3744</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1412" t="s">
+        <v>3858</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>3859</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1413" t="s">
+        <v>3860</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>3305</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>3306</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1414" t="s">
+        <v>3861</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>3862</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>3863</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1415" t="s">
+        <v>3865</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>3866</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>3867</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>3868</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1416" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>3870</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>3871</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1417" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>3874</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>3875</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1418" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>3879</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1419" t="s">
+        <v>3881</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>3882</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>3883</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1420" t="s">
+        <v>3885</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>3886</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>3887</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1421" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>3891</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1422" t="s">
+        <v>3893</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>3894</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1423" t="s">
+        <v>3897</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>2733</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1424" t="s">
+        <v>3899</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>2745</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1425" t="s">
+        <v>3901</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>3902</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1426" t="s">
+        <v>3905</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>3906</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>3907</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1427" t="s">
+        <v>3909</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1428" t="s">
+        <v>3910</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>604</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>3911</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1429" t="s">
+        <v>3912</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>3913</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>3914</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1430" t="s">
+        <v>3916</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>3917</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>3918</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1431" t="s">
+        <v>3920</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>3921</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>3922</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1432" t="s">
+        <v>3924</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>3925</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>3926</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1433" t="s">
+        <v>3928</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>3929</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>3930</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1434" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>3933</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>3934</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1435" t="s">
+        <v>3936</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>3937</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>3938</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1436" t="s">
+        <v>3940</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>3941</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>3942</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1437" t="s">
+        <v>3944</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>3945</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>3946</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1438" t="s">
+        <v>3948</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>3949</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>3951</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1439" t="s">
+        <v>3952</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>3953</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>3954</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1440" t="s">
+        <v>3956</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>3957</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>3958</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1441" t="s">
+        <v>3960</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>3961</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>3962</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1442" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>3965</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>3966</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1443" t="s">
+        <v>3968</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>3969</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>3970</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1444" t="s">
+        <v>3972</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>3973</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>3974</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1445" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>3977</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>3978</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1446" t="s">
+        <v>3980</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>2476</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>2477</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1447" t="s">
+        <v>3981</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>2481</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1448" t="s">
+        <v>3982</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1449" t="s">
+        <v>3983</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>3984</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1450" t="s">
+        <v>3986</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1451" t="s">
+        <v>3987</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1452" t="s">
+        <v>3988</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1453" t="s">
+        <v>3989</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1454" t="s">
+        <v>3990</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1455" t="s">
+        <v>3991</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1456" t="s">
+        <v>3992</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>3993</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1457" t="s">
+        <v>3994</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>3995</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1458" t="s">
+        <v>3996</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1459" t="s">
+        <v>3997</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1460" t="s">
+        <v>3998</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>2567</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1461" t="s">
+        <v>3999</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1462" t="s">
+        <v>4000</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>2577</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1463" t="s">
+        <v>4001</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1464" t="s">
+        <v>4002</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1465" t="s">
+        <v>4003</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1466" t="s">
+        <v>4004</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1467" t="s">
+        <v>4005</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1468" t="s">
+        <v>4006</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1469" t="s">
+        <v>4007</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1470" t="s">
+        <v>4008</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1471" t="s">
+        <v>4009</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>4010</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>4011</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1472" t="s">
+        <v>4013</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1473" t="s">
+        <v>4014</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>4015</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>4016</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1474" t="s">
+        <v>4018</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>4019</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1475" t="s">
+        <v>4020</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1476" t="s">
+        <v>4021</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>4022</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1477" t="s">
+        <v>4025</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>4026</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>4027</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1478" t="s">
+        <v>4029</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>4030</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>4031</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1479" t="s">
+        <v>4033</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1480" t="s">
+        <v>4034</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>4035</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>3491</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>3492</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1481" t="s">
+        <v>4036</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>4037</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>4038</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1482" t="s">
+        <v>4040</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1483" t="s">
+        <v>4041</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1484" t="s">
+        <v>4042</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>4044</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1485" t="s">
+        <v>4046</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>4047</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>4048</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1486" t="s">
+        <v>4050</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1487" t="s">
+        <v>4051</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>4052</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1488" t="s">
+        <v>4053</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>4054</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>3539</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1489" t="s">
+        <v>4055</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1490" t="s">
+        <v>4056</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>3089</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1491" t="s">
+        <v>4057</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>4058</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>4059</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1492" t="s">
+        <v>4061</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1493" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>4064</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1494" t="s">
+        <v>4066</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>4067</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>4068</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1495" t="s">
+        <v>4070</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>4071</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>4072</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1496" t="s">
+        <v>4074</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>4075</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>4076</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1497" t="s">
+        <v>4078</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>4079</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>4080</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1498" t="s">
+        <v>4082</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>4083</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>4084</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1499" t="s">
+        <v>4086</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>4087</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>4088</v>
+      </c>
+      <c r="D1499" t="s">
+        <v>4089</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1500" t="s">
+        <v>4090</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>4091</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>4092</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1501" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>4094</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1502" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>784</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>785</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1503" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>788</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1504" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>817</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1505" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>794</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1506" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>790</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>791</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1507" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>2411</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>823</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1508" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1509" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1510" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1511" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>4097</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1512" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>3722</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1513" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1514" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>820</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1515" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>826</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1516" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1517" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1518" t="s">
+        <v>3729</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>3730</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>4099</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1519" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>4101</v>
+      </c>
+      <c r="D1519" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1520" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>4102</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>4103</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>4104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Frontend/translations.xlsx
+++ b/Frontend/translations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d8c1b1ae6504acc/Desktop/Technoji/LandsTime-301-12-2025/Landstime_Androidapp/Frontend/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigat\OneDrive\Desktop\Technoji\LandsTime-301-12-2025\Landstime_Androidapp\Frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{767929E8-DE60-4946-918E-ACB6D13E7776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55A34F9A-A961-45EF-B519-2EADC2CC47CD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AE8146-AD86-4F82-8659-A2467E60537D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5597" uniqueCount="4105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6245" uniqueCount="4520">
   <si>
     <t>key</t>
   </si>
@@ -12371,6 +12371,1251 @@
   </si>
   <si>
     <t>నిల్వ వివరాలు లేవు. దయచేసి వెనక్కి వెళ్లి ఫారమ్‌ను పూర్తి చేయండి.</t>
+  </si>
+  <si>
+    <t>retail_location</t>
+  </si>
+  <si>
+    <t>retail_location_required</t>
+  </si>
+  <si>
+    <t>retail_enter_location</t>
+  </si>
+  <si>
+    <t>స్థానం నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>retail_locality</t>
+  </si>
+  <si>
+    <t>retail_enter_locality</t>
+  </si>
+  <si>
+    <t>ప్రాంతం నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>retail_area_neighborhood</t>
+  </si>
+  <si>
+    <t>ప్రాంతం / పొరుగు</t>
+  </si>
+  <si>
+    <t>retail_area_required</t>
+  </si>
+  <si>
+    <t>ప్రాంతం / పొరుగు అవసరం</t>
+  </si>
+  <si>
+    <t>retail_enter_area</t>
+  </si>
+  <si>
+    <t>Enter area / neighborhood (e.g., Akkayapalem)</t>
+  </si>
+  <si>
+    <t>क्षेत्र / पड़ोस दर्ज करें (उदा: अक्कयापालेम)</t>
+  </si>
+  <si>
+    <t>ప్రాంతం / పొరుగు నమోదు చేయండి (ఉదా: అక్కయ్యపాలెం)</t>
+  </si>
+  <si>
+    <t>retail_carpet_area</t>
+  </si>
+  <si>
+    <t>Carpet Area (sqft)</t>
+  </si>
+  <si>
+    <t>कार्पेट क्षेत्र (वर्ग फुट)</t>
+  </si>
+  <si>
+    <t>కార్పెట్ ఏరియా (స్క్వేర్ ఫీట్)</t>
+  </si>
+  <si>
+    <t>retail_carpet_area_required</t>
+  </si>
+  <si>
+    <t>Carpet Area is required</t>
+  </si>
+  <si>
+    <t>कार्पेट क्षेत्र आवश्यक है</t>
+  </si>
+  <si>
+    <t>కార్పెట్ ఏరియా అవసరం</t>
+  </si>
+  <si>
+    <t>retail_enter_carpet_area</t>
+  </si>
+  <si>
+    <t>Enter Carpet Area</t>
+  </si>
+  <si>
+    <t>कार्पेट क्षेत्र दर्ज करें</t>
+  </si>
+  <si>
+    <t>కార్పెట్ ఏరియా నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>retail_unit_sqft</t>
+  </si>
+  <si>
+    <t>స్క్వేర్ ఫీట్</t>
+  </si>
+  <si>
+    <t>retail_unit_sqm</t>
+  </si>
+  <si>
+    <t>స్క్వేర్ మీటర్</t>
+  </si>
+  <si>
+    <t>retail_shop_facade</t>
+  </si>
+  <si>
+    <t>Shop facade size (optional)</t>
+  </si>
+  <si>
+    <t>दुकान का मुखड़ा आकार (वैकल्पिक)</t>
+  </si>
+  <si>
+    <t>దుకాణం ముఖ పరిమాణం (ఐచ్ఛికం)</t>
+  </si>
+  <si>
+    <t>retail_entrance_width</t>
+  </si>
+  <si>
+    <t>Entrance width</t>
+  </si>
+  <si>
+    <t>प्रवेश द्वार की चौड़ाई</t>
+  </si>
+  <si>
+    <t>ప్రవేశ వెడల్పు</t>
+  </si>
+  <si>
+    <t>retail_ceiling_height</t>
+  </si>
+  <si>
+    <t>retail_washroom_details</t>
+  </si>
+  <si>
+    <t>Washroom details</t>
+  </si>
+  <si>
+    <t>वॉशरूम विवरण</t>
+  </si>
+  <si>
+    <t>వాష్రూమ్ వివరాలు</t>
+  </si>
+  <si>
+    <t>retail_washroom_private</t>
+  </si>
+  <si>
+    <t>retail_washroom_public</t>
+  </si>
+  <si>
+    <t>retail_washroom_not_available</t>
+  </si>
+  <si>
+    <t>retail_floor_details</t>
+  </si>
+  <si>
+    <t>Floor Details (Optional)</t>
+  </si>
+  <si>
+    <t>मंजिल विवरण (वैकल्पिक)</t>
+  </si>
+  <si>
+    <t>ఫ్లోర్ వివరాలు (ఐచ్ఛికం)</t>
+  </si>
+  <si>
+    <t>retail_total_floors</t>
+  </si>
+  <si>
+    <t>Total Floors</t>
+  </si>
+  <si>
+    <t>कुल मंजिलें</t>
+  </si>
+  <si>
+    <t>మొత్తం అంతస్తులు</t>
+  </si>
+  <si>
+    <t>retail_located_near</t>
+  </si>
+  <si>
+    <t>Located Near (optional)</t>
+  </si>
+  <si>
+    <t>के पास स्थित (वैकल्पिक)</t>
+  </si>
+  <si>
+    <t>సమీపంలో ఉంది (ఐచ్ఛికం)</t>
+  </si>
+  <si>
+    <t>retail_near_entrance</t>
+  </si>
+  <si>
+    <t>retail_near_elevator</t>
+  </si>
+  <si>
+    <t>retail_near_stairs</t>
+  </si>
+  <si>
+    <t>retail_parking_type</t>
+  </si>
+  <si>
+    <t>Parking Type</t>
+  </si>
+  <si>
+    <t>पार्किंग प्रकार</t>
+  </si>
+  <si>
+    <t>పార్కింగ్ రకం</t>
+  </si>
+  <si>
+    <t>retail_parking_private</t>
+  </si>
+  <si>
+    <t>retail_parking_public</t>
+  </si>
+  <si>
+    <t>retail_parking_multilevel</t>
+  </si>
+  <si>
+    <t>retail_parking_not_available</t>
+  </si>
+  <si>
+    <t>retail_availability_status</t>
+  </si>
+  <si>
+    <t>retail_ready_to_move</t>
+  </si>
+  <si>
+    <t>retail_under_construction</t>
+  </si>
+  <si>
+    <t>retail_age_of_property</t>
+  </si>
+  <si>
+    <t>retail_age_0_1</t>
+  </si>
+  <si>
+    <t>retail_age_1_5</t>
+  </si>
+  <si>
+    <t>retail_age_5_10</t>
+  </si>
+  <si>
+    <t>retail_age_10plus</t>
+  </si>
+  <si>
+    <t>retail_possession_by</t>
+  </si>
+  <si>
+    <t>retail_possession_year</t>
+  </si>
+  <si>
+    <t>retail_possession_month</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>महीना</t>
+  </si>
+  <si>
+    <t>నెల</t>
+  </si>
+  <si>
+    <t>retail_month_january</t>
+  </si>
+  <si>
+    <t>retail_month_february</t>
+  </si>
+  <si>
+    <t>retail_month_march</t>
+  </si>
+  <si>
+    <t>retail_month_april</t>
+  </si>
+  <si>
+    <t>retail_month_may</t>
+  </si>
+  <si>
+    <t>retail_month_june</t>
+  </si>
+  <si>
+    <t>retail_month_july</t>
+  </si>
+  <si>
+    <t>retail_month_august</t>
+  </si>
+  <si>
+    <t>retail_month_september</t>
+  </si>
+  <si>
+    <t>retail_month_october</t>
+  </si>
+  <si>
+    <t>retail_month_november</t>
+  </si>
+  <si>
+    <t>retail_month_december</t>
+  </si>
+  <si>
+    <t>retail_business_types</t>
+  </si>
+  <si>
+    <t>Suitable for business types</t>
+  </si>
+  <si>
+    <t>व्यवसाय प्रकार के लिए उपयुक्त</t>
+  </si>
+  <si>
+    <t>వ్యాపార రకాలకు అనుకూలం</t>
+  </si>
+  <si>
+    <t>retail_business_atm</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>एटीएम</t>
+  </si>
+  <si>
+    <t>ఎటిఎం</t>
+  </si>
+  <si>
+    <t>retail_business_bakery</t>
+  </si>
+  <si>
+    <t>Bakery</t>
+  </si>
+  <si>
+    <t>बेकरी</t>
+  </si>
+  <si>
+    <t>బేకరీ</t>
+  </si>
+  <si>
+    <t>retail_business_boutique</t>
+  </si>
+  <si>
+    <t>Boutique</t>
+  </si>
+  <si>
+    <t>बुटीक</t>
+  </si>
+  <si>
+    <t>బోటిక్</t>
+  </si>
+  <si>
+    <t>retail_business_clinic</t>
+  </si>
+  <si>
+    <t>Clinic</t>
+  </si>
+  <si>
+    <t>क्लिनिक</t>
+  </si>
+  <si>
+    <t>క్లినిక్</t>
+  </si>
+  <si>
+    <t>retail_business_clothes</t>
+  </si>
+  <si>
+    <t>Clothes</t>
+  </si>
+  <si>
+    <t>कपड़े</t>
+  </si>
+  <si>
+    <t>బట్టలు</t>
+  </si>
+  <si>
+    <t>retail_business_cloud_kitchen</t>
+  </si>
+  <si>
+    <t>Cloud Kitchen</t>
+  </si>
+  <si>
+    <t>क्लाउड किचन</t>
+  </si>
+  <si>
+    <t>క్లౌడ్ కిచెన్</t>
+  </si>
+  <si>
+    <t>retail_business_coffee</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>कॉफी</t>
+  </si>
+  <si>
+    <t>కాఫీ</t>
+  </si>
+  <si>
+    <t>retail_business_fast_food</t>
+  </si>
+  <si>
+    <t>Fast Food</t>
+  </si>
+  <si>
+    <t>फास्ट फूड</t>
+  </si>
+  <si>
+    <t>ఫాస్ట్ ఫుడ్</t>
+  </si>
+  <si>
+    <t>retail_business_footwear</t>
+  </si>
+  <si>
+    <t>Footwear</t>
+  </si>
+  <si>
+    <t>जूते</t>
+  </si>
+  <si>
+    <t>పాదరక్షలు</t>
+  </si>
+  <si>
+    <t>retail_business_grocery</t>
+  </si>
+  <si>
+    <t>Grocery</t>
+  </si>
+  <si>
+    <t>किराना</t>
+  </si>
+  <si>
+    <t>కిరాణా</t>
+  </si>
+  <si>
+    <t>retail_business_gym</t>
+  </si>
+  <si>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>जिम</t>
+  </si>
+  <si>
+    <t>జిమ్</t>
+  </si>
+  <si>
+    <t>retail_business_jewellery</t>
+  </si>
+  <si>
+    <t>Jewellery</t>
+  </si>
+  <si>
+    <t>आभूषण</t>
+  </si>
+  <si>
+    <t>నగలు</t>
+  </si>
+  <si>
+    <t>retail_business_medical</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>चिकित्सा</t>
+  </si>
+  <si>
+    <t>వైద్యం</t>
+  </si>
+  <si>
+    <t>retail_business_mobile</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>मोबाइल</t>
+  </si>
+  <si>
+    <t>మొబైల్</t>
+  </si>
+  <si>
+    <t>retail_business_restaurant</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>रेस्तरां</t>
+  </si>
+  <si>
+    <t>రెస్టారెంట్</t>
+  </si>
+  <si>
+    <t>retail_business_salon_spa</t>
+  </si>
+  <si>
+    <t>Salon/Spa</t>
+  </si>
+  <si>
+    <t>सैलून/स्पा</t>
+  </si>
+  <si>
+    <t>సెలూన్/స్పా</t>
+  </si>
+  <si>
+    <t>retail_business_sweet_shop</t>
+  </si>
+  <si>
+    <t>Sweet Shop</t>
+  </si>
+  <si>
+    <t>मिठाई की दुकान</t>
+  </si>
+  <si>
+    <t>స్వీట్ షాప్</t>
+  </si>
+  <si>
+    <t>retail_business_other</t>
+  </si>
+  <si>
+    <t>retail_select_business_type</t>
+  </si>
+  <si>
+    <t>Select business type</t>
+  </si>
+  <si>
+    <t>व्यवसाय प्रकार चुनें</t>
+  </si>
+  <si>
+    <t>వ్యాపార రకాన్ని ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>retail_business_selected</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>चयनित</t>
+  </si>
+  <si>
+    <t>ఎంచుకోబడింది</t>
+  </si>
+  <si>
+    <t>के अंदर स्थित</t>
+  </si>
+  <si>
+    <t>अंदर स्थान चुनें</t>
+  </si>
+  <si>
+    <t>वाणिज्यिक परियोजना</t>
+  </si>
+  <si>
+    <t>रिटेल कॉम्प्लेक्स / इमारत</t>
+  </si>
+  <si>
+    <t>बाजार / मुख्य सड़क</t>
+  </si>
+  <si>
+    <t>retail_zone_type</t>
+  </si>
+  <si>
+    <t>retail_select_zone_type</t>
+  </si>
+  <si>
+    <t>Select Zone Type</t>
+  </si>
+  <si>
+    <t>क्षेत्र प्रकार चुनें</t>
+  </si>
+  <si>
+    <t>జోన్ రకాన్ని ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>retail_zone_commercial</t>
+  </si>
+  <si>
+    <t>retail_zone_residential</t>
+  </si>
+  <si>
+    <t>retail_zone_transport</t>
+  </si>
+  <si>
+    <t>retail_zone_public</t>
+  </si>
+  <si>
+    <t>ప్రజా మరియు పాక్షిక ప్రజా ఉపయోగం</t>
+  </si>
+  <si>
+    <t>retail_zone_open_spaces</t>
+  </si>
+  <si>
+    <t>open spaces</t>
+  </si>
+  <si>
+    <t>retail_zone_agricultural</t>
+  </si>
+  <si>
+    <t>Agricultural zone</t>
+  </si>
+  <si>
+    <t>వ్యవసాయ జోన్</t>
+  </si>
+  <si>
+    <t>retail_zone_special_economic</t>
+  </si>
+  <si>
+    <t>Special Economic zone</t>
+  </si>
+  <si>
+    <t>ప్రత్యేక ఆర్థిక జోన్</t>
+  </si>
+  <si>
+    <t>retail_zone_natural</t>
+  </si>
+  <si>
+    <t>Natural Conservation zone</t>
+  </si>
+  <si>
+    <t>సహజ సంరక్షణ జోన్</t>
+  </si>
+  <si>
+    <t>retail_zone_government</t>
+  </si>
+  <si>
+    <t>Government use</t>
+  </si>
+  <si>
+    <t>ప్రభుత్వ ఉపయోగం</t>
+  </si>
+  <si>
+    <t>retail_zone_other</t>
+  </si>
+  <si>
+    <t>retail_ownership</t>
+  </si>
+  <si>
+    <t>retail_ownership_freehold</t>
+  </si>
+  <si>
+    <t>retail_ownership_leasehold</t>
+  </si>
+  <si>
+    <t>retail_ownership_cooperative</t>
+  </si>
+  <si>
+    <t>retail_ownership_poa</t>
+  </si>
+  <si>
+    <t>retail_expected_price</t>
+  </si>
+  <si>
+    <t>ఊహించిన ధర వివరాలు</t>
+  </si>
+  <si>
+    <t>retail_price_required</t>
+  </si>
+  <si>
+    <t>ఊహించిన ధర అవసరం</t>
+  </si>
+  <si>
+    <t>retail_enter_price</t>
+  </si>
+  <si>
+    <t>₹ ఊహించిన ధర</t>
+  </si>
+  <si>
+    <t>retail_all_inclusive</t>
+  </si>
+  <si>
+    <t>सभी शामिल कीमत</t>
+  </si>
+  <si>
+    <t>అన్ని ఇన్క్లూసివ్ ధర</t>
+  </si>
+  <si>
+    <t>retail_price_negotiable</t>
+  </si>
+  <si>
+    <t>ధర చర్చలకు సిద్ధం</t>
+  </si>
+  <si>
+    <t>retail_tax_excluded</t>
+  </si>
+  <si>
+    <t>Tax &amp; govt. charges excluded</t>
+  </si>
+  <si>
+    <t>retail_pre_leased</t>
+  </si>
+  <si>
+    <t>क्या यह पूर्व-पट्टे पर दिया गया / पूर्व-किराए पर दिया गया है?</t>
+  </si>
+  <si>
+    <t>ఇది ముందుగా లీజుకు / అద్దెకు ఇవ్వబడిందా?</t>
+  </si>
+  <si>
+    <t>retail_yes</t>
+  </si>
+  <si>
+    <t>retail_no</t>
+  </si>
+  <si>
+    <t>retail_lease_duration</t>
+  </si>
+  <si>
+    <t>लीज अवधि (उदा: 5 वर्ष)</t>
+  </si>
+  <si>
+    <t>లీజు వ్యవధి (ఉదా: 5 సంవత్సరాలు)</t>
+  </si>
+  <si>
+    <t>retail_monthly_rent</t>
+  </si>
+  <si>
+    <t>retail_previously_used</t>
+  </si>
+  <si>
+    <t>Property previously used for (optional)</t>
+  </si>
+  <si>
+    <t>संपत्ति पहले उपयोग की गई थी (वैकल्पिक)</t>
+  </si>
+  <si>
+    <t>ఆస్తి గతంలో ఉపయోగించబడింది (ఐచ్ఛికం)</t>
+  </si>
+  <si>
+    <t>retail_used_commercial</t>
+  </si>
+  <si>
+    <t>retail_used_retail</t>
+  </si>
+  <si>
+    <t>retail_used_warehouse</t>
+  </si>
+  <si>
+    <t>వేర్‌హౌస్</t>
+  </si>
+  <si>
+    <t>retail_description</t>
+  </si>
+  <si>
+    <t>retail_description_required</t>
+  </si>
+  <si>
+    <t>retail_describe_placeholder</t>
+  </si>
+  <si>
+    <t>यहां लिखें कि आपकी संपत्ति को क्या अनोखा बनाता है</t>
+  </si>
+  <si>
+    <t>మీ ఆస్తిని ప్రత్యేకంగా చేసేది ఇక్కడ వ్రాయండి</t>
+  </si>
+  <si>
+    <t>retail_amenities</t>
+  </si>
+  <si>
+    <t>retail_amenity_lift</t>
+  </si>
+  <si>
+    <t>retail_amenity_maintenance</t>
+  </si>
+  <si>
+    <t>retail_amenity_water_storage</t>
+  </si>
+  <si>
+    <t>retail_amenity_atm</t>
+  </si>
+  <si>
+    <t>retail_amenity_water_disposal</t>
+  </si>
+  <si>
+    <t>retail_amenity_rainwater</t>
+  </si>
+  <si>
+    <t>retail_amenity_fire_alarm</t>
+  </si>
+  <si>
+    <t>retail_amenity_near_bank</t>
+  </si>
+  <si>
+    <t>retail_amenity_visitor_parking</t>
+  </si>
+  <si>
+    <t>retail_amenity_security_guard</t>
+  </si>
+  <si>
+    <t>retail_amenity_lifts</t>
+  </si>
+  <si>
+    <t>retail_location_advantages</t>
+  </si>
+  <si>
+    <t>retail_loc_metro</t>
+  </si>
+  <si>
+    <t>retail_loc_school</t>
+  </si>
+  <si>
+    <t>retail_loc_hospital</t>
+  </si>
+  <si>
+    <t>retail_loc_market</t>
+  </si>
+  <si>
+    <t>retail_loc_railway</t>
+  </si>
+  <si>
+    <t>retail_loc_airport</t>
+  </si>
+  <si>
+    <t>retail_loc_mall</t>
+  </si>
+  <si>
+    <t>retail_loc_highway</t>
+  </si>
+  <si>
+    <t>retail_vaastu_details</t>
+  </si>
+  <si>
+    <t>retail_shop_facing</t>
+  </si>
+  <si>
+    <t>Shop Facing</t>
+  </si>
+  <si>
+    <t>दुकान का सामना</t>
+  </si>
+  <si>
+    <t>దుకాణం ముఖం</t>
+  </si>
+  <si>
+    <t>retail_entrance_direction</t>
+  </si>
+  <si>
+    <t>retail_cash_counter</t>
+  </si>
+  <si>
+    <t>Cash Counter/Billing Area Direction</t>
+  </si>
+  <si>
+    <t>कैश काउंटर/बिलिंग क्षेत्र दिशा</t>
+  </si>
+  <si>
+    <t>క్యాష్ కౌంటర్/బిల్లింగ్ ప్రాంత దిశ</t>
+  </si>
+  <si>
+    <t>retail_cash_locker</t>
+  </si>
+  <si>
+    <t>Cash Locker/Safe Opening Direction</t>
+  </si>
+  <si>
+    <t>कैश लॉकर/सुरक्षित खोलने की दिशा</t>
+  </si>
+  <si>
+    <t>క్యాష్ లాకర్/సేఫ్ తెరిచే దిశ</t>
+  </si>
+  <si>
+    <t>retail_owner_seating</t>
+  </si>
+  <si>
+    <t>Owner /Manager Seating Direction</t>
+  </si>
+  <si>
+    <t>मालिक/प्रबंधक बैठने की दिशा</t>
+  </si>
+  <si>
+    <t>యజమాని/మేనేజర్ కూర్చునే దిశ</t>
+  </si>
+  <si>
+    <t>retail_staff_seating</t>
+  </si>
+  <si>
+    <t>Staff Seating Direction</t>
+  </si>
+  <si>
+    <t>कर्मचारी बैठने की दिशा</t>
+  </si>
+  <si>
+    <t>సిబ్బంది కూర్చునే దిశ</t>
+  </si>
+  <si>
+    <t>retail_storage_room</t>
+  </si>
+  <si>
+    <t>Storage/Stock Room Direction</t>
+  </si>
+  <si>
+    <t>भंडारण/स्टॉक रूम दिशा</t>
+  </si>
+  <si>
+    <t>నిల్వ/స్టాక్ గది దిశ</t>
+  </si>
+  <si>
+    <t>retail_display_area</t>
+  </si>
+  <si>
+    <t>Display/Showcase Direction</t>
+  </si>
+  <si>
+    <t>प्रदर्शन/शोकेस दिशा</t>
+  </si>
+  <si>
+    <t>ప్రదర్శన/షోకేస్ దిశ</t>
+  </si>
+  <si>
+    <t>retail_direction_north</t>
+  </si>
+  <si>
+    <t>'North</t>
+  </si>
+  <si>
+    <t>'उत्तर</t>
+  </si>
+  <si>
+    <t>'ఉత్తరం</t>
+  </si>
+  <si>
+    <t>retail_direction_east</t>
+  </si>
+  <si>
+    <t>'East</t>
+  </si>
+  <si>
+    <t>'पूर्व</t>
+  </si>
+  <si>
+    <t>'తూర్పు</t>
+  </si>
+  <si>
+    <t>retail_direction_north_east</t>
+  </si>
+  <si>
+    <t>'North-East</t>
+  </si>
+  <si>
+    <t>'उत्तर-पूर्व</t>
+  </si>
+  <si>
+    <t>'ఈశాన్యం</t>
+  </si>
+  <si>
+    <t>retail_direction_west</t>
+  </si>
+  <si>
+    <t>'West</t>
+  </si>
+  <si>
+    <t>'पश्चिम</t>
+  </si>
+  <si>
+    <t>'పడమర</t>
+  </si>
+  <si>
+    <t>retail_direction_south</t>
+  </si>
+  <si>
+    <t>'South</t>
+  </si>
+  <si>
+    <t>'दक्षिण</t>
+  </si>
+  <si>
+    <t>'దక్షిణం</t>
+  </si>
+  <si>
+    <t>retail_direction_south_west</t>
+  </si>
+  <si>
+    <t>'South-West</t>
+  </si>
+  <si>
+    <t>'दक्षिण-पश्चिम</t>
+  </si>
+  <si>
+    <t>'నైరుతి</t>
+  </si>
+  <si>
+    <t>retail_direction_north_west</t>
+  </si>
+  <si>
+    <t>'North-West</t>
+  </si>
+  <si>
+    <t>'उत्तर-पश्चिम</t>
+  </si>
+  <si>
+    <t>'వాయువ్యం</t>
+  </si>
+  <si>
+    <t>retail_direction_south_east</t>
+  </si>
+  <si>
+    <t>'South-East</t>
+  </si>
+  <si>
+    <t>'दक्षिण-पूर्व</t>
+  </si>
+  <si>
+    <t>'ఆగ్నేయం</t>
+  </si>
+  <si>
+    <t>'+ Service/Goods Lift</t>
+  </si>
+  <si>
+    <t>'+ सेवा/माल लिफ्ट</t>
+  </si>
+  <si>
+    <t>'+ సేవా/వస్తువుల లిఫ్ట్</t>
+  </si>
+  <si>
+    <t>'+ Maintenance Staff</t>
+  </si>
+  <si>
+    <t>'+ रखरखाव कर्मचारी</t>
+  </si>
+  <si>
+    <t>'+ నిర్వహణ సిబ్బంది</t>
+  </si>
+  <si>
+    <t>'+ जल भंडारण</t>
+  </si>
+  <si>
+    <t>'+ నీటి నిల్వ</t>
+  </si>
+  <si>
+    <t>'+ ATM</t>
+  </si>
+  <si>
+    <t>'+ एटीएम</t>
+  </si>
+  <si>
+    <t>'+ ఎటిఎం</t>
+  </si>
+  <si>
+    <t>'+ Water Disposal</t>
+  </si>
+  <si>
+    <t>'+ जल निपटान</t>
+  </si>
+  <si>
+    <t>'+ నీటి పారవేయడం</t>
+  </si>
+  <si>
+    <t>'+ Rainwater Harvesting</t>
+  </si>
+  <si>
+    <t>'+ वर्षा जल संचयन</t>
+  </si>
+  <si>
+    <t>'+ వర్షపు నీటి సేకరణ</t>
+  </si>
+  <si>
+    <t>'+ Security Fire Alarm</t>
+  </si>
+  <si>
+    <t>'+ सुरक्षा अग्नि अलार्म</t>
+  </si>
+  <si>
+    <t>'+ భద్రతా అగ్ని అలారం</t>
+  </si>
+  <si>
+    <t>'+ Near Bank</t>
+  </si>
+  <si>
+    <t>'+ बैंक के पास</t>
+  </si>
+  <si>
+    <t>'+ బ్యాంక్ సమీపంలో</t>
+  </si>
+  <si>
+    <t>'+ आगंतुक पार्किंग</t>
+  </si>
+  <si>
+    <t>'+ సందర్శకుల పార్కింగ్</t>
+  </si>
+  <si>
+    <t>'+ Security Guard</t>
+  </si>
+  <si>
+    <t>'+ सुरक्षा गार्ड</t>
+  </si>
+  <si>
+    <t>'+ భద్రతా గార్డు</t>
+  </si>
+  <si>
+    <t>'+ Lift(s)</t>
+  </si>
+  <si>
+    <t>'+ लिफ्ट</t>
+  </si>
+  <si>
+    <t>'+ లిఫ్ట్(లు)</t>
+  </si>
+  <si>
+    <t>'Location Advantages</t>
+  </si>
+  <si>
+    <t>'स्थान लाभ</t>
+  </si>
+  <si>
+    <t>'స్థాన ప్రయోజనాలు</t>
+  </si>
+  <si>
+    <t>'+ मेट्रो स्टेशन के पास</t>
+  </si>
+  <si>
+    <t>'+ మెట్రో స్టేషన్ సమీపంలో</t>
+  </si>
+  <si>
+    <t>'+ स्कूल के पास</t>
+  </si>
+  <si>
+    <t>'+ పాఠశాల సమీపంలో</t>
+  </si>
+  <si>
+    <t>'+ अस्पताल के पास</t>
+  </si>
+  <si>
+    <t>'+ ఆసుపత్రి సమీపంలో</t>
+  </si>
+  <si>
+    <t>'+ बाजार के पास</t>
+  </si>
+  <si>
+    <t>'+ మార్కెట్ సమీపంలో</t>
+  </si>
+  <si>
+    <t>'+ रेलवे स्टेशन के पास</t>
+  </si>
+  <si>
+    <t>'+ రైల్వే స్టేషన్ సమీపంలో</t>
+  </si>
+  <si>
+    <t>'+ हवाई अड्डे के पास</t>
+  </si>
+  <si>
+    <t>'+ విమానాశ్రయం సమీపంలో</t>
+  </si>
+  <si>
+    <t>'+ मॉल के पास</t>
+  </si>
+  <si>
+    <t>'+ మాల్ సమీపంలో</t>
+  </si>
+  <si>
+    <t>'+ राजमार्ग के पास</t>
+  </si>
+  <si>
+    <t>'+ హైవే సమీపంలో</t>
+  </si>
+  <si>
+    <t>'+ Private Washroom</t>
+  </si>
+  <si>
+    <t>'+ निजी शौचालय</t>
+  </si>
+  <si>
+    <t>'+ ప్రైవేట్ వాష్‌రూమ్</t>
+  </si>
+  <si>
+    <t>'+ Public Washroom</t>
+  </si>
+  <si>
+    <t>'+ सार्वजनिक शौचालय</t>
+  </si>
+  <si>
+    <t>'+ పబ్లిక్ వాష్‌రూమ్</t>
+  </si>
+  <si>
+    <t>'+ Near Entrance</t>
+  </si>
+  <si>
+    <t>'+ प्रवेश द्वार के पास</t>
+  </si>
+  <si>
+    <t>'+ ప్రవేశ ద్వారం సమీపంలో</t>
+  </si>
+  <si>
+    <t>'+ Near Elevator/Lift</t>
+  </si>
+  <si>
+    <t>'+ लिफ्ट के पास</t>
+  </si>
+  <si>
+    <t>'+ లిఫ్ట్ సమీపంలో</t>
+  </si>
+  <si>
+    <t>'+ Near Stairs</t>
+  </si>
+  <si>
+    <t>'+ सीढ़ियों के पास</t>
+  </si>
+  <si>
+    <t>'+ మెట్లు సమీపంలో</t>
+  </si>
+  <si>
+    <t>'+ Private Parking</t>
+  </si>
+  <si>
+    <t>'+ निजी पार्किंग</t>
+  </si>
+  <si>
+    <t>'+ ప్రైవేట్ పార్కింగ్</t>
+  </si>
+  <si>
+    <t>'+ Public Parking</t>
+  </si>
+  <si>
+    <t>'+ सार्वजनिक पार्किंग</t>
+  </si>
+  <si>
+    <t>'+ పబ్లిక్ పార్కింగ్</t>
+  </si>
+  <si>
+    <t>'+ Multilevel Parking</t>
+  </si>
+  <si>
+    <t>'+ बहु-स्तरीय पार्किंग</t>
+  </si>
+  <si>
+    <t>'+ బహుళ-స్థాయి పార్కింగ్</t>
+  </si>
+  <si>
+    <t>के भीतर स्थित</t>
+  </si>
+  <si>
+    <t>లోపల ఉన్నది</t>
+  </si>
+  <si>
+    <t>retail_located_inside_mall</t>
+  </si>
+  <si>
+    <t>retail_located_inside_commercial</t>
+  </si>
+  <si>
+    <t>retail_located_inside_residential</t>
+  </si>
+  <si>
+    <t>retail_located_inside_retail</t>
+  </si>
+  <si>
+    <t>रिटेल कॉम्प्लेक्स / भवन</t>
+  </si>
+  <si>
+    <t>retail_located_inside_market</t>
+  </si>
+  <si>
+    <t>मार्केट / हाई स्ट्रीट</t>
+  </si>
+  <si>
+    <t>स्थित स्थान चुनें</t>
+  </si>
+  <si>
+    <t>లోపల ఉన్నదాన్ని ఎంచుకోండి</t>
   </si>
 </sst>
 </file>
@@ -12414,7 +13659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -12422,6 +13667,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12437,10 +13683,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12760,10 +14002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4B5E5-1AD3-459E-940E-0D51EC173CF5}">
-  <dimension ref="A1:D1520"/>
+  <dimension ref="A1:D1684"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1400" zoomScale="69" workbookViewId="0">
-      <selection activeCell="D1433" sqref="D1433"/>
+    <sheetView tabSelected="1" topLeftCell="A1662" zoomScale="69" workbookViewId="0">
+      <selection activeCell="D1676" sqref="D1676"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32791,6 +34033,2274 @@
         <v>4104</v>
       </c>
     </row>
+    <row r="1522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1522" t="s">
+        <v>4105</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1523" t="s">
+        <v>4106</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>3744</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1524" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>3859</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1525" t="s">
+        <v>4109</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>3561</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>3562</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1526" t="s">
+        <v>4110</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>3565</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>4111</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1527" t="s">
+        <v>4112</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>3305</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>3306</v>
+      </c>
+      <c r="D1527" t="s">
+        <v>4113</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1528" t="s">
+        <v>4114</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>3862</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>3863</v>
+      </c>
+      <c r="D1528" t="s">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1529" t="s">
+        <v>4116</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>4117</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>4118</v>
+      </c>
+      <c r="D1529" t="s">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1530" t="s">
+        <v>4120</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>4122</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1531" t="s">
+        <v>4124</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>4125</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>4126</v>
+      </c>
+      <c r="D1531" t="s">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1532" t="s">
+        <v>4128</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>4129</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>4130</v>
+      </c>
+      <c r="D1532" t="s">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1533" t="s">
+        <v>4132</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>3578</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1534" t="s">
+        <v>4134</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D1534" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1535" t="s">
+        <v>4136</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>4137</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>4138</v>
+      </c>
+      <c r="D1535" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1536" t="s">
+        <v>4140</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>4141</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>4142</v>
+      </c>
+      <c r="D1536" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1537" t="s">
+        <v>4144</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>3891</v>
+      </c>
+      <c r="D1537" t="s">
+        <v>3892</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1538" t="s">
+        <v>4145</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>4146</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>4147</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1539" t="s">
+        <v>4149</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>4485</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>4486</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>4487</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1540" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>4488</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>4489</v>
+      </c>
+      <c r="D1540" t="s">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1541" t="s">
+        <v>4151</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>3218</v>
+      </c>
+      <c r="D1541" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1542" t="s">
+        <v>4152</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>4153</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>4154</v>
+      </c>
+      <c r="D1542" t="s">
+        <v>4155</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1543" t="s">
+        <v>4156</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>4157</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>4158</v>
+      </c>
+      <c r="D1543" t="s">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1544" t="s">
+        <v>4160</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>4161</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>4162</v>
+      </c>
+      <c r="D1544" t="s">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1545" t="s">
+        <v>4164</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>4491</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>4492</v>
+      </c>
+      <c r="D1545" t="s">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1546" t="s">
+        <v>4165</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>4494</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>4495</v>
+      </c>
+      <c r="D1546" t="s">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1547" t="s">
+        <v>4166</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>4497</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>4498</v>
+      </c>
+      <c r="D1547" t="s">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1548" t="s">
+        <v>4167</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>4168</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>4169</v>
+      </c>
+      <c r="D1548" t="s">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1549" t="s">
+        <v>4171</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>4500</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>4501</v>
+      </c>
+      <c r="D1549" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1550" t="s">
+        <v>4172</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>4503</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>4504</v>
+      </c>
+      <c r="D1550" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1551" t="s">
+        <v>4173</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>4506</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>4507</v>
+      </c>
+      <c r="D1551" t="s">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1552" t="s">
+        <v>4174</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>3218</v>
+      </c>
+      <c r="D1552" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1553" t="s">
+        <v>4175</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D1553" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1554" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D1554" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1555" t="s">
+        <v>4177</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D1555" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1556" t="s">
+        <v>4178</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D1556" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1557" t="s">
+        <v>4179</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>2552</v>
+      </c>
+      <c r="D1557" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1558" t="s">
+        <v>4180</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D1558" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1559" t="s">
+        <v>4181</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D1559" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1560" t="s">
+        <v>4182</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D1560" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1561" t="s">
+        <v>4183</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>3993</v>
+      </c>
+      <c r="D1561" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1562" t="s">
+        <v>4184</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>3616</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>3617</v>
+      </c>
+      <c r="D1562" t="s">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1563" t="s">
+        <v>4185</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>4186</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>4187</v>
+      </c>
+      <c r="D1563" t="s">
+        <v>4188</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1564" t="s">
+        <v>4189</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D1564" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1565" t="s">
+        <v>4190</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D1565" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1566" t="s">
+        <v>4191</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>2610</v>
+      </c>
+      <c r="D1566" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1567" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>2614</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1568" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D1568" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1569" t="s">
+        <v>4194</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>2621</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D1569" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1570" t="s">
+        <v>4195</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>2626</v>
+      </c>
+      <c r="D1570" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1571" t="s">
+        <v>4196</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D1571" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1572" t="s">
+        <v>4197</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>2634</v>
+      </c>
+      <c r="D1572" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1573" t="s">
+        <v>4198</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>2638</v>
+      </c>
+      <c r="D1573" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1574" t="s">
+        <v>4199</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D1574" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1575" t="s">
+        <v>4200</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>2646</v>
+      </c>
+      <c r="D1575" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1576" t="s">
+        <v>4201</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>4202</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>4203</v>
+      </c>
+      <c r="D1576" t="s">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1577" t="s">
+        <v>4205</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>4206</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>4207</v>
+      </c>
+      <c r="D1577" t="s">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1578" t="s">
+        <v>4209</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>4210</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>4211</v>
+      </c>
+      <c r="D1578" t="s">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1579" t="s">
+        <v>4213</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>4214</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>4215</v>
+      </c>
+      <c r="D1579" t="s">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1580" t="s">
+        <v>4217</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>4219</v>
+      </c>
+      <c r="D1580" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1581" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>4222</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>4223</v>
+      </c>
+      <c r="D1581" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1582" t="s">
+        <v>4225</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>4226</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>4227</v>
+      </c>
+      <c r="D1582" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1583" t="s">
+        <v>4229</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>4230</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>4231</v>
+      </c>
+      <c r="D1583" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1584" t="s">
+        <v>4233</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>4234</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>4235</v>
+      </c>
+      <c r="D1584" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1585" t="s">
+        <v>4237</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>4238</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>4239</v>
+      </c>
+      <c r="D1585" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1586" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>4242</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>4243</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1587" t="s">
+        <v>4245</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>4246</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>4247</v>
+      </c>
+      <c r="D1587" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1588" t="s">
+        <v>4249</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>4250</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>4251</v>
+      </c>
+      <c r="D1588" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1589" t="s">
+        <v>4253</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>4254</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>4255</v>
+      </c>
+      <c r="D1589" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1590" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>4258</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>4259</v>
+      </c>
+      <c r="D1590" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1591" t="s">
+        <v>4261</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>4262</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>4263</v>
+      </c>
+      <c r="D1591" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1592" t="s">
+        <v>4265</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>4266</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>4267</v>
+      </c>
+      <c r="D1592" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1593" t="s">
+        <v>4269</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>4270</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>4271</v>
+      </c>
+      <c r="D1593" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1594" t="s">
+        <v>4273</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D1594" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1595" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>4275</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>4276</v>
+      </c>
+      <c r="D1595" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1596" t="s">
+        <v>4278</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>4279</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>4280</v>
+      </c>
+      <c r="D1596" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1597" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D1597" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1598" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>4283</v>
+      </c>
+      <c r="D1598" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1599" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>2882</v>
+      </c>
+      <c r="D1599" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1600" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>4284</v>
+      </c>
+      <c r="D1600" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1601" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>2890</v>
+      </c>
+      <c r="D1601" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1602" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>4285</v>
+      </c>
+      <c r="D1602" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1603" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>4286</v>
+      </c>
+      <c r="D1603" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1604" t="s">
+        <v>4287</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>3312</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D1604" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1605" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>4289</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>4290</v>
+      </c>
+      <c r="D1605" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1606" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>3531</v>
+      </c>
+      <c r="D1606" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1607" t="s">
+        <v>4293</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>3167</v>
+      </c>
+      <c r="D1607" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1608" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>3171</v>
+      </c>
+      <c r="D1608" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1609" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>3174</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>3175</v>
+      </c>
+      <c r="D1609" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1610" t="s">
+        <v>4297</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>4298</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>601</v>
+      </c>
+      <c r="D1610" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1611" t="s">
+        <v>4299</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>4300</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>3182</v>
+      </c>
+      <c r="D1611" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1612" t="s">
+        <v>4302</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>3186</v>
+      </c>
+      <c r="D1612" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1613" t="s">
+        <v>4305</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D1613" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1614" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>4309</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>3194</v>
+      </c>
+      <c r="D1614" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1615" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>2507</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D1615" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1616" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D1616" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1617" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D1617" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1618" t="s">
+        <v>4314</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D1618" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1619" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D1619" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1620" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D1620" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1621" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D1621" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1622" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>4022</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D1622" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1623" t="s">
+        <v>4321</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D1623" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1624" t="s">
+        <v>4323</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>4324</v>
+      </c>
+      <c r="D1624" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1625" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>3648</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D1625" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1626" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>4329</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>3085</v>
+      </c>
+      <c r="D1626" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1627" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>3654</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>4331</v>
+      </c>
+      <c r="D1627" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1628" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1628" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1629" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>395</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1629" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1630" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>3660</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>4336</v>
+      </c>
+      <c r="D1630" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1631" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>3664</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>3665</v>
+      </c>
+      <c r="D1631" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1632" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>4340</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>4341</v>
+      </c>
+      <c r="D1632" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1633" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>3531</v>
+      </c>
+      <c r="D1633" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1634" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>2828</v>
+      </c>
+      <c r="D1634" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1635" t="s">
+        <v>4345</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D1635" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1636" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D1636" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1637" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>4052</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1637" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1638" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>3669</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>4350</v>
+      </c>
+      <c r="D1638" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1639" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D1639" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1640" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B1640" s="3" t="s">
+        <v>4435</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>4436</v>
+      </c>
+      <c r="D1640" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1641" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>4438</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>4439</v>
+      </c>
+      <c r="D1641" t="s">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1642" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>3842</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>4441</v>
+      </c>
+      <c r="D1642" t="s">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1643" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>4443</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>4444</v>
+      </c>
+      <c r="D1643" t="s">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1644" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>4446</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>4447</v>
+      </c>
+      <c r="D1644" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1645" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>4449</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>4450</v>
+      </c>
+      <c r="D1645" t="s">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1646" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>4452</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>4453</v>
+      </c>
+      <c r="D1646" t="s">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1647" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>4455</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>4456</v>
+      </c>
+      <c r="D1647" t="s">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1648" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>3844</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>4458</v>
+      </c>
+      <c r="D1648" t="s">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1649" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>4460</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>4461</v>
+      </c>
+      <c r="D1649" t="s">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1650" t="s">
+        <v>4363</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>4463</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>4464</v>
+      </c>
+      <c r="D1650" t="s">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1651" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>4466</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>4467</v>
+      </c>
+      <c r="D1651" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1652" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>3845</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>4469</v>
+      </c>
+      <c r="D1652" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1653" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>3846</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>4471</v>
+      </c>
+      <c r="D1653" t="s">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1654" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>3847</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>4473</v>
+      </c>
+      <c r="D1654" t="s">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1655" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>3848</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>4475</v>
+      </c>
+      <c r="D1655" t="s">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1656" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>3849</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>4477</v>
+      </c>
+      <c r="D1656" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1657" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>3850</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>4479</v>
+      </c>
+      <c r="D1657" t="s">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1658" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>3851</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>4481</v>
+      </c>
+      <c r="D1658" t="s">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1659" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>3852</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>4483</v>
+      </c>
+      <c r="D1659" t="s">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1660" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D1660" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1661" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>4375</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>4376</v>
+      </c>
+      <c r="D1661" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1662" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>2358</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D1662" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1663" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>4380</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>4381</v>
+      </c>
+      <c r="D1663" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1664" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>4385</v>
+      </c>
+      <c r="D1664" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1665" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>4388</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>4389</v>
+      </c>
+      <c r="D1665" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1666" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>4392</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>4393</v>
+      </c>
+      <c r="D1666" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1667" t="s">
+        <v>4395</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>4396</v>
+      </c>
+      <c r="C1667" t="s">
+        <v>4397</v>
+      </c>
+      <c r="D1667" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1668" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>4400</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>4401</v>
+      </c>
+      <c r="D1668" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1670" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>4404</v>
+      </c>
+      <c r="C1670" t="s">
+        <v>4405</v>
+      </c>
+      <c r="D1670" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1671" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C1671" t="s">
+        <v>4409</v>
+      </c>
+      <c r="D1671" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1672" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>4412</v>
+      </c>
+      <c r="C1672" t="s">
+        <v>4413</v>
+      </c>
+      <c r="D1672" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1673" t="s">
+        <v>4415</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>4416</v>
+      </c>
+      <c r="C1673" t="s">
+        <v>4417</v>
+      </c>
+      <c r="D1673" t="s">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1674" t="s">
+        <v>4419</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>4420</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>4421</v>
+      </c>
+      <c r="D1674" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1675" t="s">
+        <v>4423</v>
+      </c>
+      <c r="B1675" t="s">
+        <v>4424</v>
+      </c>
+      <c r="C1675" t="s">
+        <v>4425</v>
+      </c>
+      <c r="D1675" t="s">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1676" t="s">
+        <v>4427</v>
+      </c>
+      <c r="B1676" t="s">
+        <v>4428</v>
+      </c>
+      <c r="C1676" t="s">
+        <v>4429</v>
+      </c>
+      <c r="D1676" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1677" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B1677" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C1677" t="s">
+        <v>4433</v>
+      </c>
+      <c r="D1677" t="s">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1678" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B1678" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>4509</v>
+      </c>
+      <c r="D1678" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1679" t="s">
+        <v>4511</v>
+      </c>
+      <c r="B1679" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C1679" t="s">
+        <v>2882</v>
+      </c>
+      <c r="D1679" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1680" t="s">
+        <v>4512</v>
+      </c>
+      <c r="B1680" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C1680" t="s">
+        <v>2886</v>
+      </c>
+      <c r="D1680" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1681" t="s">
+        <v>4513</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C1681" t="s">
+        <v>2890</v>
+      </c>
+      <c r="D1681" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1682" t="s">
+        <v>4514</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C1682" t="s">
+        <v>4515</v>
+      </c>
+      <c r="D1682" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1683" t="s">
+        <v>4516</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C1683" t="s">
+        <v>4517</v>
+      </c>
+      <c r="D1683" t="s">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1684" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C1684" t="s">
+        <v>4518</v>
+      </c>
+      <c r="D1684" t="s">
+        <v>4519</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Frontend/translations.xlsx
+++ b/Frontend/translations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigat\OneDrive\Desktop\Technoji\LandsTime-301-12-2025\Landstime_Androidapp\Frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AE8146-AD86-4F82-8659-A2467E60537D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1943A019-486E-4CB6-A014-7660AD3075F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6245" uniqueCount="4520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6281" uniqueCount="4536">
   <si>
     <t>key</t>
   </si>
@@ -13616,6 +13616,54 @@
   </si>
   <si>
     <t>లోపల ఉన్నదాన్ని ఎంచుకోండి</t>
+  </si>
+  <si>
+    <t>ప్రాపర్టీ లొకేషన్ నమోదు చేయండి</t>
+  </si>
+  <si>
+    <t>locality_area</t>
+  </si>
+  <si>
+    <t>Locality/Area</t>
+  </si>
+  <si>
+    <t>इलाका/क्षेत्र</t>
+  </si>
+  <si>
+    <t>ప్రాంతం/ఏరియా</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>email_address</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>ईमेल पता</t>
+  </si>
+  <si>
+    <t>ఇమెయిల్ చిరునామా</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>south</t>
+  </si>
+  <si>
+    <t>North West</t>
+  </si>
+  <si>
+    <t>उत्तर पश्चिम</t>
+  </si>
+  <si>
+    <t>South East</t>
+  </si>
+  <si>
+    <t>दक्षిణ पूर्व</t>
   </si>
 </sst>
 </file>
@@ -14002,10 +14050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4B5E5-1AD3-459E-940E-0D51EC173CF5}">
-  <dimension ref="A1:D1684"/>
+  <dimension ref="A1:D1694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1662" zoomScale="69" workbookViewId="0">
-      <selection activeCell="D1676" sqref="D1676"/>
+    <sheetView tabSelected="1" topLeftCell="A1659" zoomScale="69" workbookViewId="0">
+      <selection activeCell="A1684" sqref="A1684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36301,6 +36349,132 @@
         <v>4519</v>
       </c>
     </row>
+    <row r="1686" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1686" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C1686" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D1686" t="s">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1687" t="s">
+        <v>4521</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>4522</v>
+      </c>
+      <c r="C1687" t="s">
+        <v>4523</v>
+      </c>
+      <c r="D1687" t="s">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1688" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C1688" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D1688" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1689" t="s">
+        <v>4525</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1689" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1689" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1690" t="s">
+        <v>4526</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>4527</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>4528</v>
+      </c>
+      <c r="D1690" t="s">
+        <v>4529</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1691" t="s">
+        <v>4530</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>784</v>
+      </c>
+      <c r="C1691" t="s">
+        <v>785</v>
+      </c>
+      <c r="D1691" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1692" t="s">
+        <v>4531</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>790</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>791</v>
+      </c>
+      <c r="D1692" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1693" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>4532</v>
+      </c>
+      <c r="C1693" t="s">
+        <v>4533</v>
+      </c>
+      <c r="D1693" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1694" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>4534</v>
+      </c>
+      <c r="C1694" t="s">
+        <v>4535</v>
+      </c>
+      <c r="D1694" t="s">
+        <v>799</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Frontend/translations.xlsx
+++ b/Frontend/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigat\OneDrive\Desktop\Technoji\LandsTime-301-12-2025\Landstime_Androidapp\Frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1943A019-486E-4CB6-A014-7660AD3075F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33061E41-6309-484A-88F2-1D42AEA9CD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6281" uniqueCount="4536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6321" uniqueCount="4567">
   <si>
     <t>key</t>
   </si>
@@ -13664,6 +13664,99 @@
   </si>
   <si>
     <t>दक्षిణ पूर्व</t>
+  </si>
+  <si>
+    <t>search_recent</t>
+  </si>
+  <si>
+    <t>Recent Searches</t>
+  </si>
+  <si>
+    <t>ఇటీవలి శోధనలు</t>
+  </si>
+  <si>
+    <t>हाल की खोजें</t>
+  </si>
+  <si>
+    <t>search_no_results</t>
+  </si>
+  <si>
+    <t>search_try_different</t>
+  </si>
+  <si>
+    <t>Try different keywords</t>
+  </si>
+  <si>
+    <t>వేరే కీవర్డ్‌లను ప్రయత్నించండి</t>
+  </si>
+  <si>
+    <t>अलग कीवर्ड आज़माएं</t>
+  </si>
+  <si>
+    <t>search_loading</t>
+  </si>
+  <si>
+    <t>Searching...</t>
+  </si>
+  <si>
+    <t>శోధిస్తోంది...</t>
+  </si>
+  <si>
+    <t>खोज रहे हैं...</t>
+  </si>
+  <si>
+    <t>search_see_all</t>
+  </si>
+  <si>
+    <t>See All</t>
+  </si>
+  <si>
+    <t>అన్నీ చూడండి</t>
+  </si>
+  <si>
+    <t>सभी देखें</t>
+  </si>
+  <si>
+    <t>search_clear_history</t>
+  </si>
+  <si>
+    <t>Clear History</t>
+  </si>
+  <si>
+    <t>చరిత్రను క్లియర్ చేయండి</t>
+  </si>
+  <si>
+    <t>इतिहास साफ़ करें</t>
+  </si>
+  <si>
+    <t>search_results_houses</t>
+  </si>
+  <si>
+    <t>Houses</t>
+  </si>
+  <si>
+    <t>ఇళ్ళు</t>
+  </si>
+  <si>
+    <t>search_results_sites</t>
+  </si>
+  <si>
+    <t>స్థలాలు</t>
+  </si>
+  <si>
+    <t>भूमि</t>
+  </si>
+  <si>
+    <t>search_results_commercial</t>
+  </si>
+  <si>
+    <t>వాణిజ్యం</t>
+  </si>
+  <si>
+    <t>search_results_resorts</t>
+  </si>
+  <si>
+    <t>రిసార్ట్‌లు</t>
   </si>
 </sst>
 </file>
@@ -14050,10 +14143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4B5E5-1AD3-459E-940E-0D51EC173CF5}">
-  <dimension ref="A1:D1694"/>
+  <dimension ref="A1:D1705"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1659" zoomScale="69" workbookViewId="0">
-      <selection activeCell="A1684" sqref="A1684"/>
+    <sheetView tabSelected="1" topLeftCell="A1677" zoomScale="69" workbookViewId="0">
+      <selection activeCell="A1708" sqref="A1708"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36475,6 +36568,146 @@
         <v>799</v>
       </c>
     </row>
+    <row r="1696" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1696" t="s">
+        <v>4536</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>4537</v>
+      </c>
+      <c r="C1696" t="s">
+        <v>4538</v>
+      </c>
+      <c r="D1696" t="s">
+        <v>4539</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1697" t="s">
+        <v>4540</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C1697" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D1697" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1698" t="s">
+        <v>4541</v>
+      </c>
+      <c r="B1698" t="s">
+        <v>4542</v>
+      </c>
+      <c r="C1698" t="s">
+        <v>4543</v>
+      </c>
+      <c r="D1698" t="s">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1699" t="s">
+        <v>4545</v>
+      </c>
+      <c r="B1699" t="s">
+        <v>4546</v>
+      </c>
+      <c r="C1699" t="s">
+        <v>4547</v>
+      </c>
+      <c r="D1699" t="s">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1700" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>4550</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>4551</v>
+      </c>
+      <c r="D1700" t="s">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1701" t="s">
+        <v>4553</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>4554</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>4555</v>
+      </c>
+      <c r="D1701" t="s">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1702" t="s">
+        <v>4557</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>4558</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>4559</v>
+      </c>
+      <c r="D1702" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1703" t="s">
+        <v>4560</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>4561</v>
+      </c>
+      <c r="D1703" t="s">
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1704" t="s">
+        <v>4563</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>4564</v>
+      </c>
+      <c r="D1704" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1705" t="s">
+        <v>4565</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>4566</v>
+      </c>
+      <c r="D1705" t="s">
+        <v>1907</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Frontend/translations.xlsx
+++ b/Frontend/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigat\OneDrive\Desktop\Technoji\LandsTime-301-12-2025\Landstime_Androidapp\Frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33061E41-6309-484A-88F2-1D42AEA9CD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2F1D95-4804-4F39-8DF8-F384F9367B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
+    <workbookView xWindow="888" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6321" uniqueCount="4567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6353" uniqueCount="4599">
   <si>
     <t>key</t>
   </si>
@@ -13757,6 +13757,102 @@
   </si>
   <si>
     <t>రిసార్ట్‌లు</t>
+  </si>
+  <si>
+    <t>edit_property</t>
+  </si>
+  <si>
+    <t>Edit Property</t>
+  </si>
+  <si>
+    <t>प्रॉपर्टी संपादित करें</t>
+  </si>
+  <si>
+    <t>ప్రాపర్టీ సవరించండి</t>
+  </si>
+  <si>
+    <t>update_property_details</t>
+  </si>
+  <si>
+    <t>Update property details</t>
+  </si>
+  <si>
+    <t>प्रॉपर्टी विवरण अपडेट करें</t>
+  </si>
+  <si>
+    <t>ప్రాపర్టీ వివరాలను నవీకరించండి</t>
+  </si>
+  <si>
+    <t>updating</t>
+  </si>
+  <si>
+    <t>Updating...</t>
+  </si>
+  <si>
+    <t>अपडेट हो रहा है...</t>
+  </si>
+  <si>
+    <t>నవీకరిస్తోంది...</t>
+  </si>
+  <si>
+    <t>update_property</t>
+  </si>
+  <si>
+    <t>Update Property</t>
+  </si>
+  <si>
+    <t>प्रॉपर्टी अपडेट करें</t>
+  </si>
+  <si>
+    <t>ప్రాపర్టీ నవీకరించండి</t>
+  </si>
+  <si>
+    <t>property_updated_successfully</t>
+  </si>
+  <si>
+    <t>Property updated successfully</t>
+  </si>
+  <si>
+    <t>प्रॉपर्टी सफलतापूर्वक अपडेट की गई</t>
+  </si>
+  <si>
+    <t>ప్రాపర్టీ విజయవంతంగా నవీకరించబడింది</t>
+  </si>
+  <si>
+    <t>failed_to_update_property</t>
+  </si>
+  <si>
+    <t>Failed to update property</t>
+  </si>
+  <si>
+    <t>प्रॉपर्टी अपडेट करने में विफल</t>
+  </si>
+  <si>
+    <t>ప్రాపర్టీ నవీకరణ విఫలమైంది</t>
+  </si>
+  <si>
+    <t>documents_locked</t>
+  </si>
+  <si>
+    <t>Documents cannot be changed during edit</t>
+  </si>
+  <si>
+    <t>संपादन के दौरान दस्तावेज़ बदले नहीं जा सकते</t>
+  </si>
+  <si>
+    <t>సవరింపు సమయంలో పత్రాలను మార్చలేరు</t>
+  </si>
+  <si>
+    <t>property_type_locked</t>
+  </si>
+  <si>
+    <t>Property type cannot be changed</t>
+  </si>
+  <si>
+    <t>प्रॉपर्टी का प्रकार बदला नहीं जा सकता</t>
+  </si>
+  <si>
+    <t>ప్రాపర్టీ రకాన్ని మార్చలేరు</t>
   </si>
 </sst>
 </file>
@@ -14143,10 +14239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4B5E5-1AD3-459E-940E-0D51EC173CF5}">
-  <dimension ref="A1:D1705"/>
+  <dimension ref="A1:D1713"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1677" zoomScale="69" workbookViewId="0">
-      <selection activeCell="A1708" sqref="A1708"/>
+      <selection activeCell="B1688" sqref="B1688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36708,6 +36804,118 @@
         <v>1907</v>
       </c>
     </row>
+    <row r="1706" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1706" t="s">
+        <v>4567</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>4568</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>4569</v>
+      </c>
+      <c r="D1706" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1707" t="s">
+        <v>4571</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>4572</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>4573</v>
+      </c>
+      <c r="D1707" t="s">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1708" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>4576</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>4577</v>
+      </c>
+      <c r="D1708" t="s">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1709" t="s">
+        <v>4579</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>4580</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>4581</v>
+      </c>
+      <c r="D1709" t="s">
+        <v>4582</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1710" t="s">
+        <v>4583</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>4584</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>4585</v>
+      </c>
+      <c r="D1710" t="s">
+        <v>4586</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1711" t="s">
+        <v>4587</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>4588</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>4589</v>
+      </c>
+      <c r="D1711" t="s">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1712" t="s">
+        <v>4591</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>4592</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>4593</v>
+      </c>
+      <c r="D1712" t="s">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1713" t="s">
+        <v>4595</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>4596</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>4597</v>
+      </c>
+      <c r="D1713" t="s">
+        <v>4598</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Frontend/translations.xlsx
+++ b/Frontend/translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigat\OneDrive\Desktop\Technoji\LandsTime-301-12-2025\Landstime_Androidapp\Frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2F1D95-4804-4F39-8DF8-F384F9367B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6C7000-707F-4191-96D8-784DE6840D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="888" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14241,8 +14241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4B5E5-1AD3-459E-940E-0D51EC173CF5}">
   <dimension ref="A1:D1713"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1677" zoomScale="69" workbookViewId="0">
-      <selection activeCell="B1688" sqref="B1688"/>
+    <sheetView tabSelected="1" topLeftCell="A1696" zoomScale="69" workbookViewId="0">
+      <selection activeCell="A1714" sqref="A1714"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Frontend/translations.xlsx
+++ b/Frontend/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigat\OneDrive\Desktop\Technoji\LandsTime-301-12-2025\Landstime_Androidapp\Frontend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6C7000-707F-4191-96D8-784DE6840D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C3A809-C700-4F0A-AFA7-566BB19F89F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2932867E-4C3F-4F07-BDCC-87B15298363A}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6353" uniqueCount="4599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6497" uniqueCount="4721">
   <si>
     <t>key</t>
   </si>
@@ -13853,6 +13853,372 @@
   </si>
   <si>
     <t>ప్రాపర్టీ రకాన్ని మార్చలేరు</t>
+  </si>
+  <si>
+    <t>my_properties_title</t>
+  </si>
+  <si>
+    <t>నా ప్రాపర్టీలు</t>
+  </si>
+  <si>
+    <t>मेरी संपत्तियां</t>
+  </si>
+  <si>
+    <t>my_properties_search_placeholder</t>
+  </si>
+  <si>
+    <t>ప్రాపర్టీలు వెతకండి...</t>
+  </si>
+  <si>
+    <t>संपत्तियां खोजें...</t>
+  </si>
+  <si>
+    <t>tab_all</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>అన్నీ</t>
+  </si>
+  <si>
+    <t>सभी</t>
+  </si>
+  <si>
+    <t>tab_active</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>యాక్టివ్</t>
+  </si>
+  <si>
+    <t>सक्रिय</t>
+  </si>
+  <si>
+    <t>tab_pending</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>పెండింగ్</t>
+  </si>
+  <si>
+    <t>लंबित</t>
+  </si>
+  <si>
+    <t>tab_sold</t>
+  </si>
+  <si>
+    <t>Sold</t>
+  </si>
+  <si>
+    <t>అమ్మబడింది</t>
+  </si>
+  <si>
+    <t>बेचा गया</t>
+  </si>
+  <si>
+    <t>status_active</t>
+  </si>
+  <si>
+    <t>status_pending_review</t>
+  </si>
+  <si>
+    <t>Pending Review</t>
+  </si>
+  <si>
+    <t>సమీక్ష పెండింగ్</t>
+  </si>
+  <si>
+    <t>समीक्षा लंबित</t>
+  </si>
+  <si>
+    <t>status_rejected</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>తిరస్కరించబడింది</t>
+  </si>
+  <si>
+    <t>अस्वीकृत</t>
+  </si>
+  <si>
+    <t>status_sold_out</t>
+  </si>
+  <si>
+    <t>Sold Out</t>
+  </si>
+  <si>
+    <t>बिक गया</t>
+  </si>
+  <si>
+    <t>edit_to_resubmit</t>
+  </si>
+  <si>
+    <t>Edit to resubmit</t>
+  </si>
+  <si>
+    <t>మళ్ళీ సమర్పించడానికి సవరించండి</t>
+  </si>
+  <si>
+    <t>पुनः सबमिट करने के लिए संपादित करें</t>
+  </si>
+  <si>
+    <t>no_reviews_yet</t>
+  </si>
+  <si>
+    <t>No reviews yet</t>
+  </si>
+  <si>
+    <t>ఇంకా సమీక్షలు లేవు</t>
+  </si>
+  <si>
+    <t>अभी कोई समीक्षा नहीं</t>
+  </si>
+  <si>
+    <t>loading_properties</t>
+  </si>
+  <si>
+    <t>Loading properties...</t>
+  </si>
+  <si>
+    <t>ప్రాపర్టీలు లోడ్ అవుతున్నాయి...</t>
+  </si>
+  <si>
+    <t>संपत्तियां लोड हो रही हैं...</t>
+  </si>
+  <si>
+    <t>no_properties_found</t>
+  </si>
+  <si>
+    <t>ప్రాపర్టీలు కనుగొనబడలేదు</t>
+  </si>
+  <si>
+    <t>no_properties_added</t>
+  </si>
+  <si>
+    <t>You haven't added any properties yet</t>
+  </si>
+  <si>
+    <t>మీరు ఇంకా ఏ ప్రాపర్టీలు జోడించలేదు</t>
+  </si>
+  <si>
+    <t>आपने अभी तक कोई संपत्ति नहीं जोड़ी</t>
+  </si>
+  <si>
+    <t>no_properties_in_tab</t>
+  </si>
+  <si>
+    <t>No {tab} properties</t>
+  </si>
+  <si>
+    <t>{tab} ప్రాపర్టీలు లేవు</t>
+  </si>
+  <si>
+    <t>कोई {tab} संपत्ति नहीं</t>
+  </si>
+  <si>
+    <t>search_no_match</t>
+  </si>
+  <si>
+    <t>No properties match "{query}"</t>
+  </si>
+  <si>
+    <t>{query} కు సరిపోలే ప్రాపర్టీలు లేవు</t>
+  </si>
+  <si>
+    <t>{query} से मेल खाती कोई संपत्ति नहीं</t>
+  </si>
+  <si>
+    <t>untitled_property</t>
+  </si>
+  <si>
+    <t>Untitled Property</t>
+  </si>
+  <si>
+    <t>శీర్షిక లేని ప్రాపర్టీ</t>
+  </si>
+  <si>
+    <t>बिना शीर्षक की संपत्ति</t>
+  </si>
+  <si>
+    <t>location_not_specified</t>
+  </si>
+  <si>
+    <t>Location not specified</t>
+  </si>
+  <si>
+    <t>స్థానం పేర్కొనబడలేదు</t>
+  </si>
+  <si>
+    <t>स्थान निर्दिष्ट नहीं</t>
+  </si>
+  <si>
+    <t>btn_view</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>చూడండి</t>
+  </si>
+  <si>
+    <t>देखें</t>
+  </si>
+  <si>
+    <t>options_title</t>
+  </si>
+  <si>
+    <t>Property Options</t>
+  </si>
+  <si>
+    <t>ప్రాపర్టీ ఎంపికలు</t>
+  </si>
+  <si>
+    <t>संपत्ति विकल्प</t>
+  </si>
+  <si>
+    <t>option_edit</t>
+  </si>
+  <si>
+    <t>संपत्ति संपादित करें</t>
+  </si>
+  <si>
+    <t>option_cannot_edit_sold</t>
+  </si>
+  <si>
+    <t>Cannot Edit (Sold)</t>
+  </si>
+  <si>
+    <t>సవరించలేరు (అమ్మబడింది)</t>
+  </si>
+  <si>
+    <t>संपादित नहीं कर सकते (बेचा गया)</t>
+  </si>
+  <si>
+    <t>option_resubmit_note</t>
+  </si>
+  <si>
+    <t>Property will be resubmitted for review</t>
+  </si>
+  <si>
+    <t>ప్రాపర్టీ సమీక్షకు మళ్ళీ సమర్పించబడుతుంది</t>
+  </si>
+  <si>
+    <t>संपत्ति समीक्षा के लिए पुनः सबमिट की जाएगी</t>
+  </si>
+  <si>
+    <t>option_mark_sold</t>
+  </si>
+  <si>
+    <t>Mark as Sold</t>
+  </si>
+  <si>
+    <t>అమ్మినట్లు గుర్తించండి</t>
+  </si>
+  <si>
+    <t>बेचा गया चिह्नित करें</t>
+  </si>
+  <si>
+    <t>option_already_sold</t>
+  </si>
+  <si>
+    <t>Already Sold</t>
+  </si>
+  <si>
+    <t>ఇప్పటికే అమ్మబడింది</t>
+  </si>
+  <si>
+    <t>पहले से बेचा गया</t>
+  </si>
+  <si>
+    <t>btn_cancel</t>
+  </si>
+  <si>
+    <t>రద్దు చేయి</t>
+  </si>
+  <si>
+    <t>mark_sold_title</t>
+  </si>
+  <si>
+    <t>mark_sold_message</t>
+  </si>
+  <si>
+    <t>Are you sure you want to mark this property as sold? This action cannot be undone by you.</t>
+  </si>
+  <si>
+    <t>మీరు ఈ ప్రాపర్టీని అమ్మినట్లు గుర్తించాలనుకుంటున్నారా? ఈ చర్యను మీరు రద్దు చేయలేరు.</t>
+  </si>
+  <si>
+    <t>क्या आप वाकई इस संपत्ति को बेचा गया चिह्नित करना चाहते हैं? यह क्रिया आप पूर्ववत नहीं कर सकते।</t>
+  </si>
+  <si>
+    <t>mark_sold_confirm</t>
+  </si>
+  <si>
+    <t>success_marked_sold</t>
+  </si>
+  <si>
+    <t>Property marked as sold</t>
+  </si>
+  <si>
+    <t>ప్రాపర్టీ అమ్మినట్లు గుర్తించబడింది</t>
+  </si>
+  <si>
+    <t>संपत्ति बेचा गया चिह्नित की गई</t>
+  </si>
+  <si>
+    <t>error_mark_sold</t>
+  </si>
+  <si>
+    <t>Failed to mark property as sold</t>
+  </si>
+  <si>
+    <t>ప్రాపర్టీని అమ్మినట్లు గుర్తించడం విఫలమైంది</t>
+  </si>
+  <si>
+    <t>संपत्ति को बेचा गया चिह्नित करना विफल रहा</t>
+  </si>
+  <si>
+    <t>voice_search_not_supported</t>
+  </si>
+  <si>
+    <t>Voice search is not supported in this browser</t>
+  </si>
+  <si>
+    <t>ఈ బ్రౌజర్‌లో వాయిస్ సెర్చ్ మద్దతు లేదు</t>
+  </si>
+  <si>
+    <t>इस ब्राउज़र में वॉइस सर्च समर्थित नहीं है</t>
+  </si>
+  <si>
+    <t>review_singular</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>సమీక్ష</t>
+  </si>
+  <si>
+    <t>समीक्षा</t>
+  </si>
+  <si>
+    <t>review_plural</t>
+  </si>
+  <si>
+    <t>reviews</t>
+  </si>
+  <si>
+    <t>సమీక్షలు</t>
+  </si>
+  <si>
+    <t>समीक्षाएं</t>
   </si>
 </sst>
 </file>
@@ -14239,10 +14605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4B5E5-1AD3-459E-940E-0D51EC173CF5}">
-  <dimension ref="A1:D1713"/>
+  <dimension ref="A1:D1750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1696" zoomScale="69" workbookViewId="0">
-      <selection activeCell="A1714" sqref="A1714"/>
+    <sheetView tabSelected="1" topLeftCell="A1691" zoomScale="69" workbookViewId="0">
+      <selection activeCell="A1715" sqref="A1715"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36916,6 +37282,510 @@
         <v>4598</v>
       </c>
     </row>
+    <row r="1715" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1715" t="s">
+        <v>4599</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>4601</v>
+      </c>
+      <c r="D1715" t="s">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1716" t="s">
+        <v>4602</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>4604</v>
+      </c>
+      <c r="D1716" t="s">
+        <v>4603</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1717" t="s">
+        <v>4605</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>4606</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>4608</v>
+      </c>
+      <c r="D1717" t="s">
+        <v>4607</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1718" t="s">
+        <v>4609</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>4610</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>4612</v>
+      </c>
+      <c r="D1718" t="s">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1719" t="s">
+        <v>4613</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>4614</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>4616</v>
+      </c>
+      <c r="D1719" t="s">
+        <v>4615</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1720" t="s">
+        <v>4617</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>4618</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>4620</v>
+      </c>
+      <c r="D1720" t="s">
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1721" t="s">
+        <v>4621</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>4610</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>4612</v>
+      </c>
+      <c r="D1721" t="s">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1722" t="s">
+        <v>4622</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>4623</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>4625</v>
+      </c>
+      <c r="D1722" t="s">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1723" t="s">
+        <v>4626</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>4627</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>4629</v>
+      </c>
+      <c r="D1723" t="s">
+        <v>4628</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1724" t="s">
+        <v>4630</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>4631</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>4632</v>
+      </c>
+      <c r="D1724" t="s">
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1725" t="s">
+        <v>4633</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>4634</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>4636</v>
+      </c>
+      <c r="D1725" t="s">
+        <v>4635</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1726" t="s">
+        <v>4637</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>4638</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>4640</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>4639</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1727" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1727" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1728" t="s">
+        <v>4641</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>4642</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>4644</v>
+      </c>
+      <c r="D1728" t="s">
+        <v>4643</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1729" t="s">
+        <v>4645</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D1729" t="s">
+        <v>4646</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1730" t="s">
+        <v>4647</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>4648</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>4650</v>
+      </c>
+      <c r="D1730" t="s">
+        <v>4649</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1731" t="s">
+        <v>4651</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>4652</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>4654</v>
+      </c>
+      <c r="D1731" t="s">
+        <v>4653</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1732" t="s">
+        <v>4655</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>4656</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>4658</v>
+      </c>
+      <c r="D1732" t="s">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1733" t="s">
+        <v>4659</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>4660</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>4662</v>
+      </c>
+      <c r="D1733" t="s">
+        <v>4661</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1734" t="s">
+        <v>4663</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>4664</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>4666</v>
+      </c>
+      <c r="D1734" t="s">
+        <v>4665</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1735" t="s">
+        <v>4667</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>4668</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>4670</v>
+      </c>
+      <c r="D1735" t="s">
+        <v>4669</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1736" t="s">
+        <v>4671</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>4672</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>4674</v>
+      </c>
+      <c r="D1736" t="s">
+        <v>4673</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1737" t="s">
+        <v>4675</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>4568</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>4676</v>
+      </c>
+      <c r="D1737" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1738" t="s">
+        <v>4677</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>4678</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>4680</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>4679</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1739" t="s">
+        <v>4681</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>4682</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>4684</v>
+      </c>
+      <c r="D1739" t="s">
+        <v>4683</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1740" t="s">
+        <v>4685</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>4686</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>4688</v>
+      </c>
+      <c r="D1740" t="s">
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1741" t="s">
+        <v>4689</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>4690</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>4692</v>
+      </c>
+      <c r="D1741" t="s">
+        <v>4691</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1742" t="s">
+        <v>4693</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D1742" t="s">
+        <v>4694</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1743" t="s">
+        <v>4695</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>4686</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>4688</v>
+      </c>
+      <c r="D1743" t="s">
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1744" t="s">
+        <v>4696</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>4697</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>4699</v>
+      </c>
+      <c r="D1744" t="s">
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1745" t="s">
+        <v>4700</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>4686</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>4688</v>
+      </c>
+      <c r="D1745" t="s">
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1746" t="s">
+        <v>4701</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>4702</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>4704</v>
+      </c>
+      <c r="D1746" t="s">
+        <v>4703</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1747" t="s">
+        <v>4705</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>4706</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>4708</v>
+      </c>
+      <c r="D1747" t="s">
+        <v>4707</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1748" t="s">
+        <v>4709</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>4710</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>4712</v>
+      </c>
+      <c r="D1748" t="s">
+        <v>4711</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1749" t="s">
+        <v>4713</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>4714</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>4716</v>
+      </c>
+      <c r="D1749" t="s">
+        <v>4715</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1750" t="s">
+        <v>4717</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>4718</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>4720</v>
+      </c>
+      <c r="D1750" t="s">
+        <v>4719</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
